--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -3229,7 +3229,7 @@
       <c r="G4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -9,19 +9,22 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="nAE72pQ5w9CcYkb8d8xhnzJKdg/ng5SZwF2fXUHkYm0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="GWRlP8XR1L7RR6sPWcNUreeK+gabvo/v/O1yj2k6/jg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>연구자/주차</t>
   </si>
   <si>
     <t>공유폴더</t>
+  </si>
+  <si>
+    <t>W5</t>
   </si>
   <si>
     <t>W4</t>
@@ -60,6 +63,8 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
+1)데이터 concat 완료
+2) 선행연구 사이클 완성 
 </t>
     </r>
     <r>
@@ -78,17 +83,36 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">[다음주 계획]
-</t>
+1) 선행연구 사이클 피드백 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) 변수의 해석이 이상한것들은 값의 변경 확인 필수
+2) 결측치 채우고 데이터 버리지 말고 일단 SHAP 분석 프로세스 완성
+3) 선행연구와의 차별점 고안</t>
     </r>
   </si>
   <si>
@@ -590,10 +614,10 @@
       <t xml:space="preserve">
 1) 시드 고정
 2) None/PCA/VIF 비교 완료
-3) 감성 라벨 2개, 3개 비교 완료
-4) 파라미터 정리
-5) 추가 데이터 수집(인베스팅닷컴 환율 토론댓글 등)
-</t>
+3) 감성 라벨 2개, 3개 비교 완료/ 극단치로 비교
+4) 파라미터 정리 파라미터 : LSTM/GPU Units , 
+CNN - filters, kernel_size, pool_size
+5) 추가 데이터 수집(인베스팅닷컴 환율 토론댓글 등)</t>
     </r>
     <r>
       <rPr>
@@ -614,6 +638,24 @@
       <t xml:space="preserve">
 1) 파라미터 범위
 2) 추가 데이터 활용 여부 
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://docs.google.com/presentation/d/1Czvcvw_aKOJJLkhtt_GTWj8Rh93aPdTetMlIWu715Dw/edit?slide=id.p#slide=id.p</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -625,6 +667,14 @@
       </rPr>
       <t xml:space="preserve">[다음주 계획]
 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) 추가 텍스트 감성분석 활용 결과 업데이트</t>
     </r>
   </si>
   <si>
@@ -1663,6 +1713,56 @@
   </si>
   <si>
     <t>DEBA-Research/[Project]/MovieCommentAnalysis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+1) CSR 빅카인즈 뉴스 기사 전처리
+2) 키워드 추출 위한 토큰화, 중요도 가중치 계산(tfidf)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) TF-IDF 사이즈 줄여서 우선 진행
+2) 데이터분석 프로세스 완성 우선순위 높임
+3) 샘플데이터 공유시 교수님이 결과 먼저 보여주면 비교하며 공부 예정</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1978,6 +2078,43 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
+원본 데이터(240000)개에서 훈련용(2만개), 
+평가용(2만개, Segment 항목을 제거후 진행 
+-&gt; 추후 f1-score 확인하는데 사용
+                           PCA 미적용   PCA 95%   PCA 99% 
+XGBoost                0.888        0.8367        0.8393
+Random Forest       0.8625      0.805         0.7919
+AdaBoost              0.8238        0.7947        0.7931
+Decision Tree         0.8237        0.7737        0.7714
+KNN                    0.8082        0.8088        0.8083
+SVM                    0.8488        0.8443        0.8467
+Logistic Regression  0.8794        0.8539        0.8645
+CatBoost              0.8893        0.8444        0.8478
+DNN                   0.8629        0.8525        0.8623
+MLP                    0.8645        0.8468        0.8592
+CNN                   0.8601        0.8314        0.8376
+Test F1 기준: Logistic Regression (0.8645)이 PCA 99%에서 가장 나음.
+PCA 미적용 기준: CatBoost (0.8893)가 여전히 최고.
+CatBoost같은 경우 Train과 비교 하였을때 약간의 과적합 여부가 있음
+단, Logistic Regression은 PCA 99%에서 성능이 PCA 미적용(0.8794)에 근접(0.8645)하며 과적합도 줄어듦.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://colab.research.google.com/drive/1NDQA4YbsmuOeimMInu0Hi9EAz8spaD2N</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1996,17 +2133,35 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">[다음주 계획]
-</t>
+서버 발급받아야함
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) SOTA 모델 활용해서 알고리즘 추가 구현
+2) 서버 활용해서 전체 데이터 진행 예정</t>
     </r>
   </si>
   <si>
@@ -2427,19 +2582,48 @@
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>[이슈 논의]</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://wirehaired-duke-349.notion.site/5-1c704552316d80e2a7f6eaa51aed5b5f?pvs=4</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 전처리 진행중 
+    - 결측치 제거 및 대체
+        - 결측치 비율
+        → 857칼럼중 31칼럼)
+        - 결측치 Type
+        → &lt;class 'NoneType'&gt;
+            &lt;class 'numpy.float64'&gt; 
+        → None 값을 np.nan으로 변경하고
+            KNN방식으로 결측치 대체
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">[이슈 논의]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. 구글코랩런타임 문제 → 로컬로 변경하여 해결 
+2. 데이터 프레임에 결측치가 타입이 달라서 결측치 전처리에 어려움이 있음
 </t>
     </r>
     <r>
@@ -2451,6 +2635,15 @@
       </rPr>
       <t xml:space="preserve">[다음주 계획]
 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) KNN 방식 고집할 필요 없고 기본 전처리와 프로세스 완성 필수
+2) 협업 방향 논의 결정</t>
     </r>
   </si>
   <si>
@@ -3052,6 +3245,7 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
+제공 데이터를 정의서 참고하여 코드 미리 작성
 </t>
     </r>
     <r>
@@ -3070,6 +3264,8 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
+현재 데이터 분석틀 방향성이 맞는지
+데이터 정의서에 대한 이해 부족(샘플을 어떻게 채워야할 지)
 </t>
     </r>
     <r>
@@ -3080,6 +3276,26 @@
         <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) 시각화를 통한 아이데이션은 향후 파생변수 아이디어로 활용 추천
+2) 원본 외 다른 형태의 데이터 출력 등을 통해 데이터 확보에 노력
+: 4월 4일 성남 방문하여 데이터 분석 진행 
+3) 데이터 미확보시 향후 진행에 대한 고민이 필요</t>
     </r>
     <r>
       <rPr>
@@ -4433,7 +4649,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -4459,6 +4675,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
@@ -4545,7 +4767,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4556,10 +4778,16 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -4568,15 +4796,24 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -4803,8 +5040,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="40.43"/>
     <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="6" width="55.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col customWidth="1" min="3" max="7" width="55.57"/>
+    <col customWidth="1" min="8" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -4817,158 +5054,171 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>28</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>33</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="14" t="s">
         <v>38</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="5" t="s">
-        <v>40</v>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -5964,23 +6214,26 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="D5"/>
-    <hyperlink r:id="rId6" ref="E5"/>
-    <hyperlink r:id="rId7" ref="D6"/>
-    <hyperlink r:id="rId8" ref="E6"/>
+    <hyperlink r:id="rId3" location="slide=id.p" ref="D3"/>
+    <hyperlink r:id="rId4" ref="B4"/>
+    <hyperlink r:id="rId5" ref="B5"/>
+    <hyperlink r:id="rId6" ref="D5"/>
+    <hyperlink r:id="rId7" ref="E5"/>
+    <hyperlink r:id="rId8" ref="F5"/>
+    <hyperlink r:id="rId9" ref="D6"/>
+    <hyperlink r:id="rId10" ref="E6"/>
+    <hyperlink r:id="rId11" ref="F6"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>연구자/주차</t>
   </si>
@@ -612,6 +612,73 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
+1) 추가 텍스트 감정분석(investing.com 환율 댓글)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://docs.google.com/spreadsheets/d/1NTzNC6v_3AUmbzbYHfTcmv1cSSDHq-qjTZhLSNYrtE8/edit?gid=0#gid=0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 파라미터 범위
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 1) 시드 고정
 2) None/PCA/VIF 비교 완료
 3) 감성 라벨 2개, 3개 비교 완료/ 극단치로 비교
@@ -638,24 +705,6 @@
       <t xml:space="preserve">
 1) 파라미터 범위
 2) 추가 데이터 활용 여부 
- </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>https://docs.google.com/presentation/d/1Czvcvw_aKOJJLkhtt_GTWj8Rh93aPdTetMlIWu715Dw/edit?slide=id.p#slide=id.p</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -4792,10 +4841,10 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5095,103 +5144,105 @@
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="F5" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
-        <v>32</v>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -5199,26 +5250,26 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -6221,7 +6272,7 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" location="slide=id.p" ref="D3"/>
+    <hyperlink r:id="rId3" location="gid=0" ref="C3"/>
     <hyperlink r:id="rId4" ref="B4"/>
     <hyperlink r:id="rId5" ref="B5"/>
     <hyperlink r:id="rId6" ref="D5"/>

--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>연구자/주차</t>
   </si>
@@ -63,6 +63,83 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
+1) 파생변수 확장해서 진행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 과적합 문제 해결 불가 -&gt; 중요 이슈 아님
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) 데이터 근거 기반 문제 재정의 필요
+(형식 -&gt; 비형식 + 무형식)
+2) SHAP 분석은 나중문제</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 1)데이터 concat 완료
 2) 선행연구 사이클 완성 
 </t>
@@ -659,7 +736,18 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>[다음주 계획]</t>
+      <t xml:space="preserve">[다음주 계획]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) 위 감정분석 결과를 요약하면,
+어떤 전처리가 좋다고 일반화하기는 어려운것 같고,
+None 전처리 기준 결과를 정리해서 논문을 쓰면 어떨까 싶은데?</t>
     </r>
   </si>
   <si>
@@ -1780,8 +1868,72 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
+1) CSR 뉴스, 사회 뉴스 토픽추출을 위한 LDA모델 학습
+-&gt; 기존 빅카인즈 카테고리 말고 직접 카테고리를 구성하여 분류하는 작업이 필요
+(*토픽 수 설정이 관건, 임의 10개로 설정하고 진행해볼 예정)
+-&gt; 10년 후 미래이슈분석 보고서 추가(결합)
+2) 키워드 추출은 완료(정교화 및 코드 정리)
+3) 경기도 연구 공모전 지원예정
+4) 네이버 뉴스 크롤러
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) LDA 토픽 모델링 평가 및 정성적으로 토픽 수 결정 -&gt; BERTopic 활용
+2) 연구 공모전에 지원한다면 관련 활동 진행
+3) 금요일에 텍스트분석 코드 설명(by 김경원 교수) + 네이버 크롤러 확인</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 1) CSR 빅카인즈 뉴스 기사 전처리
-2) 키워드 추출 위한 토큰화, 중요도 가중치 계산(tfidf)
+2) 키워드 추출
 </t>
     </r>
     <r>
@@ -1808,9 +1960,8 @@
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>1) TF-IDF 사이즈 줄여서 우선 진행
-2) 데이터분석 프로세스 완성 우선순위 높임
-3) 샘플데이터 공유시 교수님이 결과 먼저 보여주면 비교하며 공부 예정</t>
+      <t>1) 데이터분석 프로세스 완성 
+2) 샘플데이터 공유시 교수님이 결과 먼저 보여주면 비교하며 공부 예정</t>
     </r>
   </si>
   <si>
@@ -2109,6 +2260,106 @@
   </si>
   <si>
     <t>DEBA-Research/[Project]/AnomalyDetection</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+원본 데이터(240000)개에서 훈련용(2만개), 
+평가용(2만개, Segment 항목을 제거후 진행 
+-&gt; 추후 f1-score 확인하는데 사용)
+SOTA모델 적용1
+TabNet - Train F1: 0.8345, Test F1: 0.8285
+FT Transfomer 
+- collab환경에서 GPU사용해서 돌려도 메모리초과뜸
+-&gt;미니배치 진행(런타임 에러)
+-&gt;미니배치+모델 경량화 진행(여전히 시간오래걸리고 collab런타임 초과)
+FT Transformer는 잘 모르겠지만 Tabnet을 돌렸을때 기존
+CatBoost(0.8893)보다 성능 안나옴
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">https://colab.research.google.com/drive/1NDQA4YbsmuOeimMInu0Hi9EAz8spaD2N#scrollTo=QTxoEwZJKynW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">SOTA모델 적용2
+NODE 모델 적용중
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+FT Transformer가 너무 오래걸림
+(그냥 기존의 가장 잘나온 모델로 진행할지에 대한 고민)
+-&gt;앙상블도 진행해봐야할지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) 서버계정 발급(by 김경원교수)
+2) 기존 CatBoost사용하면서 전처리를 수정
+3) 스태킹 모델을 구축하여 진행</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3294,6 +3545,331 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
+&lt;도출 가능한 모든 파생 변수를 최대한 식별 및 생성&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>인구데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+고령화 지수, 각 지역별 고령화 지수, 지도 시각화, 
+남녀 고령화 지수, 행정동 별 고령 인구의 방문 정도, 방문 인구가 일정한 지역 추출, 월별 증감률 등  
+=&gt; 향후 모델링에 활용할 만한 변수 최대한 추출  
+더 필요한 변수가 있을 지 논의
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">소비데이터
+(공통)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">GSD_NM: "경기도"만
+SGG_NM: 수정구, 중원구, 분당구
+CLN_GDS_NM: "성남"이 포함된 행만
+CARD_POS, CLN_REG_YN: 무의미한 칼럼 → 제거 또는 병합 기준 처리(개인법인구분, 유입지 구분)
+1. 금액건수 데이터 전처리
+업종 중분류(RY_M_CD) 포함하여 그룹화
+파생변수:
+AGE_money: 연령대별 카드이용금액 비율
+AGE_card: 연령대별 카드이용건수 비율
+2. 카드사용자수 데이터 전처리
+금액건수와 병합하여 파생변수 생성:
+1인당_이용금액
+1인당_이용건수
+3. 인구 데이터 전처리
+행정동 코드(HCODE)를 SGG_NM으로 매핑
+5세 단위 → 10세 단위 연령 구간 병합
+- 요일별 소비 분석:
+평일 vs 주말, 요일별 소비패턴 비교
+- 업종별 선호도 분석:
+연령대별 카드 소비금액 상위 업종 추출
+- 성별 소비 차이:
+동일 연령대 남녀의 소비금액 비교
+- 시간대 클러스터링:
+시간대별 소비유형을 군집화하여세분화
+- 인구 대비 카드 통계:
+각 연령/성별 인구 대비 카드 사용자수 및 소비 규모
+- 행정구별 소비 집중도:
+인구수 대비 소비 강도가 높은 지역 파악
+정리 파일
+결과_금액건수_전처리.csv:          연령대별/업종별 카드 사용 비율 포함
+결과_카드사용자수_전처리.csv:     사용자수 + 1인당 소비
+결과_인구데이터_전처리.csv:        성연령별 인구 10세 단위 병합
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF9900FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>결과_인구대비카드사용비율.csv:   연령대별 인구 대비 카드 소비 통계</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF9900FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>결과_요일분석.csv:                    요일별 소비 패턴</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF9900FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>결과_업종별상위소비.csv:           연령대별 선호 업종 TOP</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+결과_성별소비차이.csv:             성별 소비 차이
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF9900FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>결과_시간대클러스터링.csv:         시간대 기반 클러스터링 결과</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF9900FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">결과_인구대비소비랭킹.csv:           지역별 소비 집중도 순위 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF9900FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">merged_ratio_df.to_csv("시군구별 전체 인구 대비 카드 사용자 비율 추이.csv", index=False)
+sgg_total.to_csv("시군구별 고령자 카드 사용자 수 총합 (소비 격차 비교)",index=False) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF9900FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">movement.to_csv("고령자 이동 경로.csv", index=False) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF9900FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">change_melted.to_csv("월별 고령화 지수 증감률 (전체 / 남성 / 여성).csv", index=False) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+monthly_aging.to_csv("년 월별 행정동 고령화 지수 (전체 / 남 / 여).csv", index=False) 
+melted.to_csv("월별 고령화 지수 (전체 / 남성 / 여성).csv", index=False) 
+subset.to_csv("행정동별_시간대별_고령자방문인구분포.csv", index=False) 
+df.to_csv("행정동별_시간대별_고령자방문인구분포(남녀구분).csv", index=False) 
+weekday_time.to_csv("요일 + 시간대.csv", index=False) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF9900FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">weekday_change.to_csv("요일별 평균 고령자 방문 인구 증감률 (%).csv", index=False) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF9900FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">weekdatop10.to_csv("행정동별_요일별_변동계수.csv", index=False) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF9900FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">고령화지수예측모델 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이슈논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) 실제 데이터를 파악하고 가설 인싸이트 도출 예정
+2) 해결하고픈 임의 가설을 2개정도 설정 후 필요한 데이터 구조 미리 계획 후 추출 요망</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 제공 데이터를 정의서 참고하여 코드 미리 작성
 </t>
     </r>
@@ -4482,6 +5058,54 @@
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">[다음주 계획]
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
@@ -4698,7 +5322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -4727,6 +5351,18 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -4816,7 +5452,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4847,22 +5483,25 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -5123,153 +5762,163 @@
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
-        <v>38</v>
+      <c r="C7" s="15" t="s">
+        <v>41</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>39</v>
+      <c r="D7" s="15" t="s">
+        <v>42</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>40</v>
+      <c r="E7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>48</v>
+      <c r="G9" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -6264,7 +6913,9 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
@@ -6275,16 +6926,17 @@
     <hyperlink r:id="rId3" location="gid=0" ref="C3"/>
     <hyperlink r:id="rId4" ref="B4"/>
     <hyperlink r:id="rId5" ref="B5"/>
-    <hyperlink r:id="rId6" ref="D5"/>
-    <hyperlink r:id="rId7" ref="E5"/>
-    <hyperlink r:id="rId8" ref="F5"/>
-    <hyperlink r:id="rId9" ref="D6"/>
-    <hyperlink r:id="rId10" ref="E6"/>
-    <hyperlink r:id="rId11" ref="F6"/>
+    <hyperlink r:id="rId6" location="scrollTo=QTxoEwZJKynW" ref="C5"/>
+    <hyperlink r:id="rId7" ref="D5"/>
+    <hyperlink r:id="rId8" ref="E5"/>
+    <hyperlink r:id="rId9" ref="F5"/>
+    <hyperlink r:id="rId10" ref="D6"/>
+    <hyperlink r:id="rId11" ref="E6"/>
+    <hyperlink r:id="rId12" ref="F6"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="GWRlP8XR1L7RR6sPWcNUreeK+gabvo/v/O1yj2k6/jg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="NL8TdZBElT1MtIdwqAE0QKPnQ0/KtHQslv2UCvk7zwY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>연구자/주차</t>
   </si>
@@ -2260,6 +2260,74 @@
   </si>
   <si>
     <t>DEBA-Research/[Project]/AnomalyDetection</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+원본 데이터(240000)개에서 훈련용(2만개), 
+평가용(2만개, Segment 항목을 제거후 진행 
+-&gt; 추후 f1-score 확인하는데 사용)
+1)스태킹
+조합1: CatBoost + Logistic Regression + MLP
+(Test F1-Score = 0.8936)
+조합2: XGBoost + Random Forest + DNN(ERROR 발생 해결중)
+조합3: CatBoost + SVM + LightGBM
+(Test F1-Score = 0.8887)
+조합4: Logistic Regression + Random Forest + Naive Bayes + CNN
+(Test F1-Score = 0.8870)
+기존에 성능 가장 좋았던 CatBoost(0.8893)보다 조합1의 성능(0.8936)이 더 좋아짐
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <r>
@@ -5452,7 +5520,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5477,14 +5545,17 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -5496,6 +5567,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -5728,8 +5802,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="40.43"/>
     <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="7" width="55.57"/>
-    <col customWidth="1" min="8" max="27" width="8.71"/>
+    <col customWidth="1" min="3" max="8" width="55.57"/>
+    <col customWidth="1" min="9" max="28" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -5739,19 +5813,20 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5762,19 +5837,20 @@
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5785,19 +5861,20 @@
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5808,19 +5885,20 @@
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5834,80 +5912,84 @@
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="13" t="s">
         <v>34</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="13" t="s">
         <v>39</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="17" t="s">
         <v>45</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="7" t="s">
-        <v>47</v>
+      <c r="B8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
         <v>50</v>
       </c>
@@ -5917,8 +5999,11 @@
       <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -6913,26 +6998,27 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" location="gid=0" ref="C3"/>
+    <hyperlink r:id="rId3" location="gid=0" ref="D3"/>
     <hyperlink r:id="rId4" ref="B4"/>
     <hyperlink r:id="rId5" ref="B5"/>
-    <hyperlink r:id="rId6" location="scrollTo=QTxoEwZJKynW" ref="C5"/>
-    <hyperlink r:id="rId7" ref="D5"/>
-    <hyperlink r:id="rId8" ref="E5"/>
-    <hyperlink r:id="rId9" ref="F5"/>
-    <hyperlink r:id="rId10" ref="D6"/>
-    <hyperlink r:id="rId11" ref="E6"/>
-    <hyperlink r:id="rId12" ref="F6"/>
+    <hyperlink r:id="rId6" location="scrollTo=QTxoEwZJKynW" ref="D5"/>
+    <hyperlink r:id="rId7" ref="E5"/>
+    <hyperlink r:id="rId8" ref="F5"/>
+    <hyperlink r:id="rId9" ref="G5"/>
+    <hyperlink r:id="rId10" ref="E6"/>
+    <hyperlink r:id="rId11" ref="F6"/>
+    <hyperlink r:id="rId12" ref="G6"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>연구자/주차</t>
   </si>
@@ -689,25 +689,91 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
+1) 전처리 X</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="9.0"/>
+        <u/>
+      </rPr>
+      <t>https://docs.google.com/spreadsheets/d/1F1jFChnKP4EbyMLvuSeoYMBFop3uS053snob9cWGSe8/edit?usp=sharing</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2) 논문 초안 작성 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 논문 개요 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 1) 추가 텍스트 감정분석(investing.com 환율 댓글)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>https://docs.google.com/spreadsheets/d/1NTzNC6v_3AUmbzbYHfTcmv1cSSDHq-qjTZhLSNYrtE8/edit?gid=0#gid=0</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -2282,6 +2348,7 @@
 평가용(2만개, Segment 항목을 제거후 진행 
 -&gt; 추후 f1-score 확인하는데 사용)
 1)스태킹
+(메타 모델:Logistic Regression)
 조합1: CatBoost + Logistic Regression + MLP
 (Test F1-Score = 0.8936)
 조합2: XGBoost + Random Forest + DNN(ERROR 발생 해결중)
@@ -2290,6 +2357,12 @@
 조합4: Logistic Regression + Random Forest + Naive Bayes + CNN
 (Test F1-Score = 0.8870)
 기존에 성능 가장 좋았던 CatBoost(0.8893)보다 조합1의 성능(0.8936)이 더 좋아짐
+-&gt;조합1에서 수정
+(메타모델: CatBoost)
+조합1-1: CatBoost + Logistic Regression + MLP
+(Test F1-Score =  0.8911)
+조합1-2: CatBoost + Logistic Regression + MLP + SVM + KNN 
+(Test F1-Score = 0.8910)
 </t>
     </r>
     <r>
@@ -2537,16 +2610,18 @@
       <rPr>
         <rFont val="Malgun Gothic"/>
         <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t xml:space="preserve">
 1)데이콘에서 제공해준 BaseLine 모델 구축
@@ -2565,8 +2640,9 @@
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t xml:space="preserve">
 2) W2에서 전처리 진행한 데이터를 가지고 XGB실행
@@ -2585,8 +2661,9 @@
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t xml:space="preserve">
 3)전처리 다시 할려고 데이터 살펴본 결과 결측치 비율 80%이상 넘는 결측치 변수가 다른 변수와의 연관성을 파악
@@ -2606,26 +2683,29 @@
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t xml:space="preserve">
 1) 노트북이 터짐
@@ -2635,16 +2715,18 @@
       <rPr>
         <rFont val="Malgun Gothic"/>
         <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2654,6 +2736,7 @@
         <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
+        <u/>
       </rPr>
       <t>1) 샘플 데이터만 사용해서 모델링 및 평가 프로세스 완성
 2) 서버계정 발급 후 전처리 및 모델링 튜닝</t>
@@ -3595,6 +3678,64 @@
   </si>
   <si>
     <t>방가연(미디어3학년/DEBA2기Pro)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">[이번주 진행]
+1) 모델링용 데이터
+2) 클러스터링용 데이터 
+성남시 방문
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>결론부터 말씀드리면 데이터 하나도 얻어오지 못함.
+이유: 데이터 정의서와 다르게 데이터가 월별로 다 쪼개져 있음. 
+합치는데에 시간이 너무 오래걸리고 심지어 파일명도 다르게 되어 있고 년도별로
+칼럼도 다르게 되어있어서 멘붕...   
+결과적으로 데이터 정의서랑 다른 부분이 많아서 시간이 많이 걸렸습니다.
+데이터를 일단 합치긴 했는데, 용량이 너무 많아서 그 과정에서 컴퓨터가 아예 꺼지거나
+필터링 과정자체가 시간이 오래 걸림
+일단 이후에 담당자님께 양해를 구해서 방문기회를 한번 더 주신다고 하심
+아마 이번주에 연락이 오실 거 같음</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+[다음주 계획]
+재방문을 위해 알아온 정보로 바로 돌릴 수 있는 코드 짜기</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4158,233 +4299,45 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>브랜딩</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>목표</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">공모전: 성남시 고령인구 지원전략
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>이번주</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>1) DEBA2</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>기</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">Pro </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>신입으로</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>참석</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>탐색</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
-[</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>다음주</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>계획</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">]
+      <t>[브랜딩 목표]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+- 공모전: 성남시 고령인구 지원전략
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">[이번주 진행]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) DEBA2기Pro 신입으로 참석 및 탐색</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+[다음주 계획]
 </t>
     </r>
     <r>
@@ -5439,18 +5392,18 @@
       <name val="Malgun Gothic"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-    </font>
-    <font>
       <b/>
       <sz val="14.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
     </font>
     <font/>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5520,7 +5473,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5545,10 +5498,10 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5560,15 +5513,12 @@
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -5861,149 +5811,153 @@
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="G5" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="15" t="s">
         <v>39</v>
       </c>
+      <c r="G6" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="H6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="17" t="s">
         <v>46</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>54</v>
+      <c r="H9" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -6998,9 +6952,10 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
@@ -7009,7 +6964,7 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" location="gid=0" ref="D3"/>
+    <hyperlink r:id="rId3" ref="C3"/>
     <hyperlink r:id="rId4" ref="B4"/>
     <hyperlink r:id="rId5" ref="B5"/>
     <hyperlink r:id="rId6" location="scrollTo=QTxoEwZJKynW" ref="D5"/>

--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>연구자/주차</t>
   </si>
@@ -63,6 +63,81 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
+1) 결측값 및 코드 재정리 진행
+22년도 전체 데이터를 사용하기로 결정 
+-&gt; 컬럼 하나씩 살펴보고 결측값 채우는 중
+2) 주제 정리
+대주제 - 평생학습 내 비형식 학습 참여 활성화 방안에 대한 연구
+1-1. 비형식학습 참여자들의 참여 요인 분석
+Y- 비형식학습 참여자 
+0: 비형식학습 미참여자
+1: 비형식학습 참여자 
+1-2. 비형식학습 미참여자들의 미참여 요인 분석
+Y-비형식학습 참여자 
+0: 비형식학습 참여자
+1: 비형식학습 미참여자
+2-1. 비형식학습 만족도 원인 분석(비형식 학습 참여자들만 대상으로) 
+Y- H2-1 칼럼의 평균값
+0- 평균값의 중간값의 이하값
+1- 평균값의 중간값의 초과값
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 결측값이 80%이상인 컬럼이 결과에 왜곡을 주지 않을지 우려.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 데이터 전처리 최최종 마무리
+2) 주제별 모델링 진행</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 1) 파생변수 확장해서 진행
 </t>
     </r>
@@ -2331,23 +2406,31 @@
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>[이번주 진행]</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]
 원본 데이터(240000)개에서 훈련용(2만개), 
 평가용(2만개, Segment 항목을 제거후 진행 
 -&gt; 추후 f1-score 확인하는데 사용)
-1)스태킹
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>스태킹</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 (메타 모델:Logistic Regression)
 조합1: CatBoost + Logistic Regression + MLP
 (Test F1-Score = 0.8936)
@@ -2363,42 +2446,77 @@
 (Test F1-Score =  0.8911)
 조합1-2: CatBoost + Logistic Regression + MLP + SVM + KNN 
 (Test F1-Score = 0.8910)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>[이슈 논의]</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>[다음주 계획]</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
+2) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>전처리</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+https://wirehaired-duke-349.notion.site/1ce04552316d80759fa4d0fd494a6f81?pvs=4
+1. 857개 컬럼 값 확인하며 전처리 필요항목 체크하였음 
+a. 결측치가 있는 컬럼 
+b. 0값(동일값) 컬럼 
+c. 날짜 컬럼
+d. 음수값이 있는 컬럼 
+e. 크게 비교가 가능한 범주형 데이터 컬럼 
+f. 범주형 데이터 컬럼 
+g. 기타 
+2. 데이터 병합후 전처리 진행
+데이터셋이 커서 연산이 오래걸려서 Dask Dataframe 사용 
+[이슈 논의]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">전처리 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. 고집부려서 데이터를 병합 후 전처리해봤는데 메모리를 너무 많이 사용함
+2. 데이터셋 안에 데이터 타입관련해서 자꾸 에러나는데 해결중 
+[다음주 계획]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">전처리 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. 분할되어있는 데이터를 전처리후 병합 고려중 
+2. 코랩pro 결재
 </t>
     </r>
   </si>
@@ -3683,10 +3801,19 @@
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">[이번주 진행]
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 1) 모델링용 데이터
 2) 클러스터링용 데이터 
 성남시 방문
@@ -3733,8 +3860,26 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
-[다음주 계획]
-재방문을 위해 알아온 정보로 바로 돌릴 수 있는 코드 짜기</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+재방문 후 데이터 사용 여부 결정
+아이디어 제출로 공모전 종료 후 다른 공모전 준비</t>
     </r>
   </si>
   <si>
@@ -5787,146 +5932,148 @@
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -5935,29 +6082,29 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>

--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -9,19 +9,25 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="NL8TdZBElT1MtIdwqAE0QKPnQ0/KtHQslv2UCvk7zwY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hxvP4YnmBULA+IzamuSLtV/WHgJVNoA8px/kPZ854Ms="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>연구자/주차</t>
   </si>
   <si>
     <t>공유폴더</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>W6</t>
   </si>
   <si>
     <t>W5</t>
@@ -5643,10 +5649,10 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5897,8 +5903,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="40.43"/>
     <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="8" width="55.57"/>
-    <col customWidth="1" min="9" max="28" width="8.71"/>
+    <col customWidth="1" min="3" max="9" width="55.57"/>
+    <col customWidth="1" min="10" max="29" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -5908,172 +5914,183 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>37</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>40</v>
+      <c r="E6" s="14"/>
+      <c r="F6" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>42</v>
+      <c r="H6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="17" t="s">
         <v>49</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -6081,30 +6098,32 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="7" t="s">
-        <v>51</v>
+      <c r="H8" s="14"/>
+      <c r="I8" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>57</v>
+      <c r="H9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -7099,28 +7118,30 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="C3"/>
+    <hyperlink r:id="rId3" ref="D3"/>
     <hyperlink r:id="rId4" ref="B4"/>
     <hyperlink r:id="rId5" ref="B5"/>
-    <hyperlink r:id="rId6" location="scrollTo=QTxoEwZJKynW" ref="D5"/>
-    <hyperlink r:id="rId7" ref="E5"/>
-    <hyperlink r:id="rId8" ref="F5"/>
-    <hyperlink r:id="rId9" ref="G5"/>
-    <hyperlink r:id="rId10" ref="E6"/>
-    <hyperlink r:id="rId11" ref="F6"/>
-    <hyperlink r:id="rId12" ref="G6"/>
+    <hyperlink r:id="rId6" location="scrollTo=QTxoEwZJKynW" ref="E5"/>
+    <hyperlink r:id="rId7" ref="F5"/>
+    <hyperlink r:id="rId8" ref="G5"/>
+    <hyperlink r:id="rId9" ref="H5"/>
+    <hyperlink r:id="rId10" ref="F6"/>
+    <hyperlink r:id="rId11" ref="G6"/>
+    <hyperlink r:id="rId12" ref="H6"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>연구자/주차</t>
   </si>
@@ -2407,6 +2407,11 @@
   </si>
   <si>
     <t>DEBA-Research/[Project]/AnomalyDetection</t>
+  </si>
+  <si>
+    <t>[이번주 진행]
+[이슈논의]
+[다음주계획]</t>
   </si>
   <si>
     <r>
@@ -5624,7 +5629,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5657,6 +5662,9 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -6022,108 +6030,110 @@
       <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="H5" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="I5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>43</v>
       </c>
+      <c r="H6" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="I6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="H7" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="I7" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>59</v>
+      <c r="I9" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -7119,15 +7129,15 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>

--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>연구자/주차</t>
   </si>
@@ -1999,6 +1999,9 @@
     <t>DEBA-Research/[Project]/MovieCommentAnalysis</t>
   </si>
   <si>
+    <t>중간고사 끝나고 다시 돌아오겠습니다:)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
@@ -2409,9 +2412,94 @@
     <t>DEBA-Research/[Project]/AnomalyDetection</t>
   </si>
   <si>
-    <t>[이번주 진행]
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">[이번주 진행]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>전처리 합의완료
+최종카드론_대출일자        82.847083
+최종카드론_신청경로코드      81.592750
+최종카드론_금융상환방식코드    81.588583
+RV신청일자            81.301500
+OS구분코드            68.065250
+직장시도명             10.207042 
+( 제거)
+--------------------------------------------------------------------------
+_2순위신용체크구분        39.921458  -&gt;1순위랑상호작용
+혜택수혜율_R3M         20.364417 -&gt;6M 12M
+가입통신회사코드          16.148750 -&gt; unkonwn으로 넣기
+_1순위신용체크구분         1.164583 -&gt;2순위랑상호작용
+최종유효년월_신용_이용가능     8.768625
+최종카드발급일자           1.748542
+RV전환가능여부           1.228042
+1.업종관련 없음으로 처리
+2. 동일값 컬럼 다 지우기</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 [이슈논의]
-[다음주계획]</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">전처리 완료후 원본데이터(240만개 서버로 돌릴려고 하였으나 서버 악성코드걸려 잠김)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+[다음주계획]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">서버 풀리는데로 그동안 진행했던 방법론 전부 돌린후 가장 좋은결과 나오는 것으로 대회 제출
+</t>
+    </r>
   </si>
   <si>
     <r>
@@ -6006,101 +6094,103 @@
         <v>26</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="I4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
@@ -6110,30 +6200,30 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>

--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>연구자/주차</t>
   </si>
@@ -3895,6 +3895,11 @@
   </si>
   <si>
     <t>방가연(미디어3학년/DEBA2기Pro)</t>
+  </si>
+  <si>
+    <t>성남시 방문 일정이 25일(금)으로 미뤄짐. 
+한 주동안 코드를 점검하고 정리하는 시간을 가짐. 
+25일 방문해서 데이터 가공 여부를 파악하고 아이디어 제출에서 그칠 지 모델 설정을 할지 결정 및 시행</t>
   </si>
   <si>
     <r>
@@ -6168,29 +6173,31 @@
         <v>47</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="18" t="s">
         <v>52</v>
       </c>
+      <c r="H7" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="I7" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
@@ -6200,30 +6207,30 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>

--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A27DB09-C8D6-4A8A-9A73-DCEE15EF036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet2" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hxvP4YnmBULA+IzamuSLtV/WHgJVNoA8px/kPZ854Ms="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="dnNmm/kFPvslfotNt55hTKdgYxyjre4kmFWQTNj09xE="/>
     </ext>
   </extLst>
 </workbook>
@@ -64,22 +55,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 결측값 및 코드 재정리 진행
@@ -103,22 +90,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 결측값이 80%이상인 컬럼이 결과에 왜곡을 주지 않을지 우려.
@@ -126,22 +109,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 데이터 전처리 최최종 마무리
@@ -151,22 +130,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 파생변수 확장해서 진행
@@ -174,22 +149,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 과적합 문제 해결 불가 -&gt; 중요 이슈 아님
@@ -197,33 +168,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 데이터 근거 기반 문제 재정의 필요
 (형식 -&gt; 비형식 + 무형식)
@@ -231,11 +196,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -244,22 +207,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1)데이터 concat 완료
@@ -268,22 +227,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 선행연구 사이클 피드백 
@@ -291,33 +246,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 변수의 해석이 이상한것들은 값의 변경 확인 필수
 2) 결측치 채우고 데이터 버리지 말고 일단 SHAP 분석 프로세스 완성
@@ -327,22 +276,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 공통변수 정리
@@ -352,22 +297,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 데이터병합 과정의 로드가 심함
@@ -375,33 +316,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>0) 교수님 지원을 위해 개별 데이터 업로드
 1) 공통변수 전처리 완료 및 년도별 row concat
@@ -413,33 +348,27 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 주제와 방향성 확정
@@ -452,22 +381,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 선행연구는 2022년 한해만 진행하였는데 우리의 경우 2014-2022년도 전체를 사용할 예정 이에 따른 이슈 발생
@@ -479,33 +404,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 공통변수 전처리 및 row concat
 2) 랜덤포레스트 SHAP 사용 후 성능 확인</t>
@@ -514,77 +433,71 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>브랜딩</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 - </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>공모전</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> (~4/30)
 : https://www.krivet.re.kr/kor/sub.do?menuSn=22&amp;pstNo=NH0000000263
@@ -592,235 +505,209 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>향후</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>공모전</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>대비</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>포트폴리오화</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> or </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">논문작성
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>이번주</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>진행</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주제</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>평생교육</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>방향성을</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>위한</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">데이터분석
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">2) 목표달성 계획
 : 3월) 기존 데이터와 분석 초안 완성
@@ -834,33 +721,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1) 필요데이터 조사 및 Description
 2) 선행연구 기반 분석 초안 완성 </t>
@@ -875,54 +756,44 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 전처리 X</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="9.0"/>
         <u/>
-        <sz val="9"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/1F1jFChnKP4EbyMLvuSeoYMBFop3uS053snob9cWGSe8/edit?usp=sharing</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 2) 논문 초안 작성 
@@ -930,22 +801,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 논문 개요 
@@ -953,22 +820,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -977,22 +840,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 추가 텍스트 감정분석(investing.com 환율 댓글)
@@ -1000,22 +859,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 파라미터 범위
@@ -1023,23 +878,19 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">[다음주 계획]
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 위 감정분석 결과를 요약하면,
 어떤 전처리가 좋다고 일반화하기는 어려운것 같고,
@@ -1049,22 +900,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 시드 고정
@@ -1076,23 +923,19 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 [이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 파라미터 범위
@@ -1101,23 +944,19 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">[다음주 계획]
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 추가 텍스트 감성분석 활용 결과 업데이트</t>
     </r>
@@ -1125,22 +964,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 텍스트 요약 완료
@@ -1152,22 +987,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) lstm, gru 실행할 때마다 달라지는 성능?
@@ -1176,33 +1007,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 성능 변경 고정을 위한 초기값 고정 연구
 2) 변수삭제 -&gt; none / PCA / VIF 비교 필요
@@ -1213,22 +1038,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 선행연구 데이터 병합 완료
@@ -1237,22 +1058,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 텍스트 요약 실패
@@ -1260,33 +1077,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 텍스트 요약 재진행
 2) 텍스트 크롤링 감성분석 별도 성능평가
@@ -1297,957 +1108,855 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>브랜딩</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 - </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>논문</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>금융시장</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>환율</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">예측
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>이번주</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>진행</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표달성</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">계획
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 2</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>선행연구</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>개선점</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">조사
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 4</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>기존</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>방식의</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>환율</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>예측</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">모델링
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 6</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>데이터</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>크롤링</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>및</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">감성분석
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 8</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>신규</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>방식의</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>환율</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>예측</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">모델링
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 10</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>성능</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">업데이트
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 12</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>논문</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>초안</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">작성
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 14</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>타겟</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>저널</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>양식</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">반영
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 15</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>논문</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>투고</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">완료
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">2) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표달성</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>기준설정</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>단계</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>(A+/A0/B+)</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 : A+) 논문 투고 완료
@@ -2257,33 +1966,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 선행연구들의 데이터수집
 2) 개선점 반영을 위한 추가 데이터 병합</t>
@@ -2301,22 +2004,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) CSR 뉴스, 사회 뉴스 토픽추출을 위한 LDA모델 학습
@@ -2330,33 +2029,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) LDA 토픽 모델링 평가 및 정성적으로 토픽 수 결정 -&gt; BERTopic 활용
 2) 연구 공모전에 지원한다면 관련 활동 진행
@@ -2364,11 +2057,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2377,22 +2068,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) CSR 빅카인즈 뉴스 기사 전처리
@@ -2401,33 +2088,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 데이터분석 프로세스 완성 
 2) 샘플데이터 공유시 교수님이 결과 먼저 보여주면 비교하며 공부 예정</t>
@@ -2436,22 +2117,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 퍼펫티어를 활용한 크롤링 구현 방법 발표
@@ -2461,23 +2138,19 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">[이슈 논의]
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1) 왓챠피디아 크롤링에서 각 리뷰 추출 부분에서 갑자기 성능이 느려진 이슈 발생 
 -&gt;문제점 디버깅하며 개선 중
@@ -2485,23 +2158,19 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">[다음주 계획]
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) CSR 뉴스 데이터 전처리(약 9.2만개)
 2) 사회부분 뉴스 데이터 전처리(약 120만개)
@@ -2514,22 +2183,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 스터디 전략 연구 및 공모전 조언
@@ -2538,22 +2203,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 없음
@@ -2561,22 +2222,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 크롤링 기법 발표
@@ -2587,69 +2244,63 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>브랜딩</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 - </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">논문1: 세대갈등 인식을 위한 노인영화 대중의 감성 트랜드 분석 
 - 논문2: 알리바바 등장 전후의 온라인 시장변화 텍스트 트랜드 분석 
@@ -2657,69 +2308,63 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>이번주</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>진행</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">목표달성 계획
 : 1주차) 논문2건 선행연구 조사 완료
@@ -2734,33 +2379,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="맑은 고딕"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) DEBA 방향 아이디어 논의
 2) 본인 논문공부/지식공부/프로젝트계획 등 협업 아이템 발표 및 협업 방향 논의</t>
@@ -2775,21 +2414,20 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">[이번주 진행]
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>전처리 합의완료
 최종카드론_대출일자        82.847083
@@ -2812,24 +2450,20 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 [이슈논의]
@@ -2837,23 +2471,20 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">전처리 완료후 원본데이터(240만개 서버로 돌릴려고 하였으나 서버 악성코드걸려 잠김)
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 [다음주계획]
@@ -2861,11 +2492,10 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">서버 풀리는데로 그동안 진행했던 방법론 전부 돌린후 가장 좋은결과 나오는 것으로 대회 제출
 </t>
@@ -2874,11 +2504,9 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]
 원본 데이터(240000)개에서 훈련용(2만개), 
@@ -2888,22 +2516,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>스태킹</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 (메타 모델:Logistic Regression)
@@ -2925,22 +2549,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>전처리</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 https://wirehaired-duke-349.notion.site/1ce04552316d80759fa4d0fd494a6f81?pvs=4
@@ -2959,23 +2579,19 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">전처리 
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1. 고집부려서 데이터를 병합 후 전처리해봤는데 메모리를 너무 많이 사용함
 2. 데이터셋 안에 데이터 타입관련해서 자꾸 에러나는데 해결중 
@@ -2984,23 +2600,19 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">전처리 
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1. 분할되어있는 데이터를 전처리후 병합 고려중 
 2. 코랩pro 결재
@@ -3010,22 +2622,20 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t xml:space="preserve">
 원본 데이터(240000)개에서 훈련용(2만개), 
@@ -3043,23 +2653,20 @@
     </r>
     <r>
       <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">https://colab.research.google.com/drive/1NDQA4YbsmuOeimMInu0Hi9EAz8spaD2N#scrollTo=QTxoEwZJKynW
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t xml:space="preserve">SOTA모델 적용2
 NODE 모델 적용중
@@ -3067,22 +2674,20 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t xml:space="preserve">
 FT Transformer가 너무 오래걸림
@@ -3092,33 +2697,30 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t>1) 서버계정 발급(by 김경원교수)
 2) 기존 CatBoost사용하면서 전처리를 수정
@@ -3128,22 +2730,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 원본 데이터(240000)개에서 훈련용(2만개), 
@@ -3169,44 +2767,36 @@
     </r>
     <r>
       <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>https://colab.research.google.com/drive/1NDQA4YbsmuOeimMInu0Hi9EAz8spaD2N</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 서버 발급받아야함
@@ -3214,33 +2804,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) SOTA 모델 활용해서 알고리즘 추가 구현
 2) 서버 활용해서 전체 데이터 진행 예정</t>
@@ -3249,24 +2833,20 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[이번주 진행]</t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 1)데이콘에서 제공해준 BaseLine 모델 구축
@@ -3275,23 +2855,19 @@
     </r>
     <r>
       <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>https://colab.research.google.com/drive/1y0KG-q2qPv1BvJci01g8n076sVrkVQTd?authuser=2</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 2) W2에서 전처리 진행한 데이터를 가지고 XGB실행
@@ -3300,23 +2876,19 @@
     </r>
     <r>
       <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>https://colab.research.google.com/drive/18bxMr3KprYJuZiM_dLzudHhIhx1dxQ-d?authuser=2</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 3)전처리 다시 할려고 데이터 살펴본 결과 결측치 비율 80%이상 넘는 결측치 변수가 다른 변수와의 연관성을 파악
@@ -3326,84 +2898,70 @@
     </r>
     <r>
       <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>https://colab.research.google.com/drive/1jgxg6AJowT-9NcCUdatHgf0GBo0KCfAH?authuser=2</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[이슈 논의]</t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 노트북이 터짐
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-1) 노트북이 터짐
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[다음주 계획]</t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>1) 샘플 데이터만 사용해서 모델링 및 평가 프로세스 완성
 2) 서버계정 발급 후 전처리 및 모델링 튜닝</t>
@@ -3412,24 +2970,20 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[이번주 진행]</t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 1) kaggle 데이터 기반 선행 연구 논문 분석 및 개선점 업데이트
@@ -3438,24 +2992,20 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[이슈 논의]</t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 1) 신용카드고객이탈탐지
@@ -3474,36 +3024,30 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[다음주 계획]</t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>1) 선행연구들의 Baseline 모델링 파악 및 전처리 진행</t>
     </r>
@@ -3511,155 +3055,141 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>브랜딩</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 - </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>공모전: 금융</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">CRM -&gt; </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>논문: 금융CRM</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>이번주</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> 진행</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표달성 계획
 : 1주차) 선행연구 개선점 조사
@@ -3669,44 +3199,36 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) Kaggle / Dacon 데이터 활용 금융CRM 접근한 선행연구 조사</t>
     </r>
@@ -3717,44 +3239,36 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>https://wirehaired-duke-349.notion.site/5-1c704552316d80e2a7f6eaa51aed5b5f?pvs=4</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1. 전처리 진행중 
@@ -3770,23 +3284,19 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">[이슈 논의]
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1. 구글코랩런타임 문제 → 로컬로 변경하여 해결 
 2. 데이터 프레임에 결측치가 타입이 달라서 결측치 전처리에 어려움이 있음
@@ -3794,23 +3304,19 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">[다음주 계획]
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) KNN 방식 고집할 필요 없고 기본 전처리와 프로세스 완성 필수
 2) 협업 방향 논의 결정</t>
@@ -3819,34 +3325,28 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">https://wirehaired-duke-349.notion.site/4-_1-1bf04552316d80358018d05f678422f2?pvs=4
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 고객 세그먼트 분석 관련 논문 2개 Review 하였음 
@@ -3857,22 +3357,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 데이콘 베이라인에서 데이터들을 불러들일때 시간이 오래걸리고 런타임이 계속 끊김 
@@ -3880,33 +3376,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 런타임 문제 해결하고 베이스라인 실행하기
 2) 논문에 사용할 모델 픽스하고 논문 초안 작성하기</t>
@@ -3915,47 +3405,39 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[이번주 진행]</t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://wirehaired-duke-349.notion.site/3-_1-1b804552316d80229841d6e9a17536c3?pvs=4</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>https://wirehaired-duke-349.notion.site/3-_1-1b804552316d80229841d6e9a17536c3?pvs=4</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 1)논문 주제 탐색: 고객CRM 관련 
@@ -3965,24 +3447,20 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[이슈 논의]</t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 1) 뻔한 분석의 레파토리 같음; 분석 방향성에 있어서 기존 논문이나 기술 대비 경쟁력과 차별성을 살려야 하는 부분 고민중 
@@ -3991,36 +3469,30 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[다음주 계획]</t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
         <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>1) 데이터 분석 방향성 픽스하기
 - 공모전 협업 or 실습 진행
@@ -4030,346 +3502,312 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>브랜딩</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 - </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>논문</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>인간</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>심리</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">관련 -&gt; 실습: 고객CRM
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>이번주</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>진행</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표달성</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">계획
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 2</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주제</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>선정을</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>위한</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>데이터</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">조사
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 4</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">)
 ...
@@ -4377,65 +3815,57 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표달성</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>기준설정</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>단계</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>(A+/A0/B+)</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 : A+) 논문 투고 완료
@@ -4445,22 +3875,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 주제 확정을 위한 데이터 조사
@@ -4468,11 +3894,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>-&gt; 만약 주제 미선정시 실습으로 전환! + 데이터 교수가 임의 부여</t>
     </r>
@@ -4488,22 +3912,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 모델링용 데이터
@@ -4513,33 +3933,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>결론부터 말씀드리면 데이터 하나도 얻어오지 못함.
 이유: 데이터 정의서와 다르게 데이터가 월별로 다 쪼개져 있음. 
@@ -4553,33 +3967,27 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 재방문 후 데이터 사용 여부 결정
@@ -4589,22 +3997,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 &lt;도출 가능한 모든 파생 변수를 최대한 식별 및 생성&gt;
@@ -4612,22 +4016,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>인구데이터</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 고령화 지수, 각 지역별 고령화 지수, 지도 시각화, 
@@ -4638,12 +4038,10 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">소비데이터
 (공통)
@@ -4651,11 +4049,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">GSD_NM: "경기도"만
 SGG_NM: 수정구, 중원구, 분당구
@@ -4693,63 +4089,51 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF9900FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>결과_인구대비카드사용비율.csv:   연령대별 인구 대비 카드 소비 통계</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF9900FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>결과_요일분석.csv:                    요일별 소비 패턴</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF9900FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>결과_업종별상위소비.csv:           연령대별 선호 업종 TOP</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 결과_성별소비차이.csv:             성별 소비 차이
@@ -4757,106 +4141,86 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF9900FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>결과_시간대클러스터링.csv:         시간대 기반 클러스터링 결과</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF9900FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">결과_인구대비소비랭킹.csv:           지역별 소비 집중도 순위 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF9900FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">merged_ratio_df.to_csv("시군구별 전체 인구 대비 카드 사용자 비율 추이.csv", index=False)
 sgg_total.to_csv("시군구별 고령자 카드 사용자 수 총합 (소비 격차 비교)",index=False) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF9900FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">movement.to_csv("고령자 이동 경로.csv", index=False) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF9900FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">change_melted.to_csv("월별 고령화 지수 증감률 (전체 / 남성 / 여성).csv", index=False) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 monthly_aging.to_csv("년 월별 행정동 고령화 지수 (전체 / 남 / 여).csv", index=False) 
@@ -4868,108 +4232,88 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF9900FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">weekday_change.to_csv("요일별 평균 고령자 방문 인구 증감률 (%).csv", index=False) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF9900FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">weekdatop10.to_csv("행정동별_요일별_변동계수.csv", index=False) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">  
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FF9900FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">고령화지수예측모델 
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 실제 데이터를 파악하고 가설 인싸이트 도출 예정
 2) 해결하고픈 임의 가설을 2개정도 설정 후 필요한 데이터 구조 미리 계획 후 추출 요망</t>
@@ -4978,22 +4322,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 제공 데이터를 정의서 참고하여 코드 미리 작성
@@ -5001,22 +4341,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 현재 데이터 분석틀 방향성이 맞는지
@@ -5025,33 +4361,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 시각화를 통한 아이데이션은 향후 파생변수 아이디어로 활용 추천
 2) 원본 외 다른 형태의 데이터 출력 등을 통해 데이터 확보에 노력
@@ -5060,11 +4390,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -5073,22 +4401,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 별도 데이터로,
@@ -5101,22 +4425,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 데이터 부족
@@ -5125,33 +4445,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 샘플 데이터로 예측/분류 모델링 완성 -&gt; 발표 후 교수님께 피드백!
 2) 성남시 제공 민간데이터 구조, 안내서 파악 후 코드 업데이트
@@ -5161,22 +4475,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 공모전 선정 및 주제 지정
@@ -5192,22 +4502,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 없음
@@ -5215,33 +4521,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 데이터 수집 및 전처리
 2) 유의미 데이터 선별하기 하기
@@ -5251,18 +4551,18 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[브랜딩 목표]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 - 공모전: 성남시 고령인구 지원전략
@@ -5270,28 +4570,28 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">[이번주 진행]
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) DEBA2기Pro 신입으로 참석 및 탐색</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 [다음주 계획]
@@ -5299,11 +4599,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 강경수 학생과 공모전 협업
 강경수(무역학과 4학년)과 성남시 공공데이터 활용분석 공모전 준비
@@ -5316,648 +4614,580 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>브랜딩</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 - </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">공모전: 성남시 고령인구 지원전략
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>이번주</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>진행</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표달성</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">계획
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 2</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>데이터</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>전처리</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">실습
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 4</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>기초</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>알고리즘</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>모델링</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>및</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>평가</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">완성
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 8</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>성능</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>업데이트</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>지식</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">스터디
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 10</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>주차</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>성능</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>업데이트</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>모델링</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>및</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>평가</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">완성
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">...
 2) </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표달성</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>기준설정</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>단계</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>(A+/A0/B+)</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 : A+) 공모전 수상
@@ -5967,22 +5197,18 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 방가연 학생과 공모전 협업
@@ -5995,56 +5221,46 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">[다음주 계획]
 </t>
@@ -6053,56 +5269,46 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">[다음주 계획]
 </t>
@@ -6111,56 +5317,46 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">[다음주 계획]
 </t>
@@ -6169,65 +5365,53 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 데이터를 변경한다고 했던것 같은데 자세하게 데이터와 주제 작성해주세요</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 1) 없음
@@ -6235,33 +5419,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 변경된 데이터를 상세하게 소개</t>
     </r>
@@ -6269,120 +5447,108 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>브랜딩</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>목표</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>]</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 - </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>논문: 게임서비스 관련</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>[</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">이번주 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">진행]
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1) 결석
 2) 이메일로 초안 확인했으나 진행 불가
@@ -6394,12 +5560,10 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 [다음주 계획]
@@ -6407,32 +5571,26 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1) 주제 확정을 위한 데이터 조사</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>-&gt; 만약 주제 미선정시 실습으로 전환! + 데이터 교수가 임의 부여</t>
     </r>
@@ -6441,210 +5599,80 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="12">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
+    <font/>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF1155CC"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9900FF"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6660,31 +5688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor rgb="FFFFC000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor rgb="FF7F7F7F"/>
         <bgColor rgb="FF7F7F7F"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="5">
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -6698,7 +5708,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -6710,8 +5719,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -6720,90 +5727,88 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -6993,31 +5998,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="9" width="55.5546875" customWidth="1"/>
-    <col min="10" max="29" width="8.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="40.43"/>
+    <col customWidth="1" min="2" max="2" width="8.71"/>
+    <col customWidth="1" min="3" max="9" width="55.57"/>
+    <col customWidth="1" min="10" max="29" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.4">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7046,7 +6051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.6">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -7073,7 +6078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="365.4">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7100,7 +6105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="365.4">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -7129,26 +6134,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="409.6">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -7158,70 +6163,70 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="400.2">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="183.6">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="14" t="s">
         <v>53</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="327">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="19" customFormat="1" ht="257.39999999999998">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -7240,10 +6245,1021 @@
       <c r="H9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
     </row>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="G7:G8"/>
@@ -7256,22 +7272,23 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
   </mergeCells>
-  <phoneticPr fontId="26" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E5" r:id="rId6" location="scrollTo=QTxoEwZJKynW" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="D3"/>
+    <hyperlink r:id="rId4" ref="B4"/>
+    <hyperlink r:id="rId5" ref="B5"/>
+    <hyperlink r:id="rId6" location="scrollTo=QTxoEwZJKynW" ref="E5"/>
+    <hyperlink r:id="rId7" ref="F5"/>
+    <hyperlink r:id="rId8" ref="G5"/>
+    <hyperlink r:id="rId9" ref="H5"/>
+    <hyperlink r:id="rId10" ref="F6"/>
+    <hyperlink r:id="rId11" ref="G6"/>
+    <hyperlink r:id="rId12" ref="H6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>연구자/주차</t>
   </si>
@@ -59,6 +59,18 @@
     <t>DEBA-Research/[Project]/EducationCompetition</t>
   </si>
   <si>
+    <t xml:space="preserve">[이번주 진행]
+1) 교육 공공데이터 공모전 분석보고서 제출 완료 
+[이슈 논의]
+* 향후 진행할 공모전 관련 논의
+1) 서울시 교육청 공모전 &amp; 통계청 논문 공모전 
+- 교육 공모전 분석 내용 활용 예정
+- 분석 및 논문 방향성 논의
+2) 통계데이터 활용대회: 분석 주제 및 데이터 탐색
+[다음주 계획]
+1) </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
@@ -2262,6 +2274,36 @@
   </si>
   <si>
     <t>DEBA-Research/[Project]/MovieCommentAnalysis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+CSR 키워드 분석 및 토픽 모델링
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[다음주 계획]</t>
+    </r>
   </si>
   <si>
     <t>중간고사 끝나고 다시 돌아오겠습니다:)</t>
@@ -6040,7 +6082,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -6178,6 +6219,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -6188,9 +6232,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -6512,30 +6553,32 @@
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -6560,35 +6603,35 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>30</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -6613,35 +6656,37 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>38</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -6666,35 +6711,35 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="F5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>48</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -6719,25 +6764,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="I6" s="8" t="s">
         <v>53</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -6762,33 +6807,33 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>62</v>
+      <c r="K7" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -6813,7 +6858,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="16"/>
@@ -6824,8 +6869,8 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="6" t="s">
-        <v>64</v>
+      <c r="K8" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -6850,7 +6895,7 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
@@ -6858,19 +6903,19 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>

--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>연구자/주차</t>
   </si>
@@ -59,16 +59,45 @@
     <t>DEBA-Research/[Project]/EducationCompetition</t>
   </si>
   <si>
-    <t xml:space="preserve">[이번주 진행]
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 1) 교육 공공데이터 공모전 분석보고서 제출 완료 
-[이슈 논의]
-* 향후 진행할 공모전 관련 논의
-1) 서울시 교육청 공모전 &amp; 통계청 논문 공모전 
-- 교육 공모전 분석 내용 활용 예정
-- 분석 및 논문 방향성 논의
-2) 통계데이터 활용대회: 분석 주제 및 데이터 탐색
-[다음주 계획]
-1) </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[향후 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 논문 초안 작성(~5/16) 및 피드백 업데이트(~5/23)
+2) 서울시 교육청 보고서 요약본 제출(~5/30)
+3) 논문그대로 or 추가주제 기반 통계청 활용대회(~6/30)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1047,6 +1076,64 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
+1) 논문초안 작성완료
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">[다음주 계획]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) 지도교수의 논문 피드백 및 제줄 방향 고민(시간이 걸릴듯)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[이번주 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 1) 전처리 X</t>
     </r>
     <r>
@@ -2283,7 +2370,8 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>[이번주 진행]</t>
+      <t xml:space="preserve">[향후 계획]
+</t>
     </r>
     <r>
       <rPr>
@@ -2291,18 +2379,9 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">
-CSR 키워드 분석 및 토픽 모델링
+      <t xml:space="preserve">1) Social 뉴스전체 텍스트분석 중간보고(~5/27?)
+2) 영화 텍스트분석 학회발표(~5/30)
 </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>[다음주 계획]</t>
     </r>
   </si>
   <si>
@@ -2717,6 +2796,72 @@
   </si>
   <si>
     <t>DEBA-Research/[Project]/AnomalyDetection</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">[이번주 계획]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.figma.com/board/kzns5FdgZi4uHWZlcLGIXa/%ED%9A%8C%EC%9D%98%EB%A1%9D?node-id=0-1&amp;t=4WePyyHLw6MCJ95w-1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>인천공공데이터경진대회
+1) 목표설정, 프로젝트 계획짜기
+2) 주제선정을 위한 브레인 스토밍</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+[향후 계획]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) 인천공공데이터경진대회 주제선정(~5/16)
+2) 아산재단학술연구지원사업(~5/23) by 김경원교수
+3) 인천공공데이터경진대회 사업계획서작성(~6/5)
+4) 통계청 공모전 개별진행(~6/30)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4273,6 +4418,53 @@
   </si>
   <si>
     <t>방가연(미디어3학년/DEBA2기Pro)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">[향후 계획]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1) 보고서 작성(~5/14) + 수시로 피드백 요청!
+2) 두괄식 기준으로 보고서 작성 피드백 제안
+3) 클러스터링은 정책결론의 근거와 유사한 것으로 반영
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">[기타]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>* 클러스터링용 데이터 파생변수 작업 완 
+'의료_총소비금액','의료_총소비건수','1인당의료소비금액', '고령화지수_평균','2024증감률','고령인구_1인가구수','1인가구_비율','경로당_개수','의료기관_개수', '전체대비_의료이용금액','전체대비_의료금액건수','1회소비_의료비율'
+* 성남시 고령층의 의료소비 특성을 기준으로 행정동별 K-Means 클러스터링을 수행해 4개의 유형으로 분류 
+*  이후 SHAP과 변수 중요도 분석을 통해 의료소비에 영향을 주는 핵심 요인을 도출=&gt; 의료기관 개수와 1인가구 비율이 주요 변수로 확인 
+* DBSCAN과의 비교를 통해 K-Means의 분석 적합성도 검토
+시각화 기반 EDA, 가설 기반 비교 분석 보고서 작성 
+보고서 초안 작성</t>
+    </r>
   </si>
   <si>
     <r>
@@ -6060,7 +6252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -6105,6 +6297,12 @@
       <sz val="11.0"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
     </font>
     <font>
       <u/>
@@ -6199,7 +6397,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6230,8 +6428,11 @@
     <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -6239,15 +6440,15 @@
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -6255,13 +6456,13 @@
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6608,30 +6809,32 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="J3" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="K3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -6656,37 +6859,37 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -6711,35 +6914,37 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="G5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="I5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="K5" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -6764,25 +6969,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -6807,33 +7012,35 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="G7" s="18" t="s">
         <v>63</v>
       </c>
+      <c r="H7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="K7" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -6858,19 +7065,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -6894,49 +7101,49 @@
       <c r="AE8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="H9" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="4"/>
@@ -39642,7 +39849,7 @@
       <c r="AE1000" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
@@ -39654,6 +39861,8 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -39661,17 +39870,18 @@
     <hyperlink r:id="rId3" ref="F3"/>
     <hyperlink r:id="rId4" ref="B4"/>
     <hyperlink r:id="rId5" ref="B5"/>
-    <hyperlink r:id="rId6" location="scrollTo=QTxoEwZJKynW" ref="G5"/>
-    <hyperlink r:id="rId7" ref="H5"/>
-    <hyperlink r:id="rId8" ref="I5"/>
-    <hyperlink r:id="rId9" ref="J5"/>
-    <hyperlink r:id="rId10" ref="H6"/>
-    <hyperlink r:id="rId11" ref="I6"/>
-    <hyperlink r:id="rId12" ref="J6"/>
+    <hyperlink r:id="rId6" ref="C5"/>
+    <hyperlink r:id="rId7" location="scrollTo=QTxoEwZJKynW" ref="G5"/>
+    <hyperlink r:id="rId8" ref="H5"/>
+    <hyperlink r:id="rId9" ref="I5"/>
+    <hyperlink r:id="rId10" ref="J5"/>
+    <hyperlink r:id="rId11" ref="H6"/>
+    <hyperlink r:id="rId12" ref="I6"/>
+    <hyperlink r:id="rId13" ref="J6"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="H5JMgqgZsE3GmsiAa8BaYDJiwec2xsM6wcw/8dJzUPI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="vNp/D68fvwuS1HVDj8UnvmGgeusHrdNbwwVmFlAIuH4="/>
     </ext>
   </extLst>
 </workbook>
@@ -6397,7 +6397,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6428,6 +6428,9 @@
     <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -6447,6 +6450,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -6688,8 +6694,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="40.43"/>
     <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="11" width="55.57"/>
-    <col customWidth="1" min="12" max="31" width="8.71"/>
+    <col customWidth="1" min="3" max="12" width="55.57"/>
+    <col customWidth="1" min="13" max="32" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6699,34 +6705,34 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -6746,6 +6752,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -6754,34 +6761,34 @@
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -6801,6 +6808,7 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -6809,34 +6817,34 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -6856,6 +6864,7 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -6864,11 +6873,9 @@
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>36</v>
@@ -6877,21 +6884,23 @@
         <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -6911,6 +6920,7 @@
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -6919,34 +6929,34 @@
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -6966,30 +6976,31 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="8" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -7009,40 +7020,41 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="H7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="I7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="J7" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -7062,24 +7074,25 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="7" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -7099,51 +7112,53 @@
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="I9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="J9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="K9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="L9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="4"/>
@@ -7177,6 +7192,7 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="4"/>
@@ -7210,6 +7226,7 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="4"/>
@@ -7243,6 +7260,7 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="4"/>
@@ -7276,6 +7294,7 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="4"/>
@@ -7309,6 +7328,7 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="4"/>
@@ -7342,6 +7362,7 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="4"/>
@@ -7375,6 +7396,7 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="4"/>
@@ -7408,6 +7430,7 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="4"/>
@@ -7441,6 +7464,7 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="4"/>
@@ -7474,6 +7498,7 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="4"/>
@@ -7507,6 +7532,7 @@
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="4"/>
@@ -7540,6 +7566,7 @@
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="4"/>
@@ -7573,6 +7600,7 @@
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="4"/>
@@ -7606,6 +7634,7 @@
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="4"/>
@@ -7639,6 +7668,7 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="4"/>
@@ -7672,6 +7702,7 @@
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="4"/>
@@ -7705,6 +7736,7 @@
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="4"/>
@@ -7738,6 +7770,7 @@
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="4"/>
@@ -7771,6 +7804,7 @@
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="4"/>
@@ -7804,6 +7838,7 @@
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="4"/>
@@ -7837,6 +7872,7 @@
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="4"/>
@@ -7870,6 +7906,7 @@
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="4"/>
@@ -7903,6 +7940,7 @@
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="4"/>
@@ -7936,6 +7974,7 @@
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="4"/>
@@ -7969,6 +8008,7 @@
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="4"/>
@@ -8002,6 +8042,7 @@
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="4"/>
@@ -8035,6 +8076,7 @@
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="4"/>
@@ -8068,6 +8110,7 @@
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="4"/>
@@ -8101,6 +8144,7 @@
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="4"/>
@@ -8134,6 +8178,7 @@
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="4"/>
@@ -8167,6 +8212,7 @@
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="4"/>
@@ -8200,6 +8246,7 @@
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="4"/>
@@ -8233,6 +8280,7 @@
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="4"/>
@@ -8266,6 +8314,7 @@
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="4"/>
@@ -8299,6 +8348,7 @@
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="4"/>
@@ -8332,6 +8382,7 @@
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="4"/>
@@ -8365,6 +8416,7 @@
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="4"/>
@@ -8398,6 +8450,7 @@
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="4"/>
@@ -8431,6 +8484,7 @@
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="4"/>
@@ -8464,6 +8518,7 @@
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="4"/>
@@ -8497,6 +8552,7 @@
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="4"/>
@@ -8530,6 +8586,7 @@
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="4"/>
@@ -8563,6 +8620,7 @@
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="4"/>
@@ -8596,6 +8654,7 @@
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="4"/>
@@ -8629,6 +8688,7 @@
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="4"/>
@@ -8662,6 +8722,7 @@
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="4"/>
@@ -8695,6 +8756,7 @@
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="4"/>
@@ -8728,6 +8790,7 @@
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="4"/>
@@ -8761,6 +8824,7 @@
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="4"/>
@@ -8794,6 +8858,7 @@
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="4"/>
@@ -8827,6 +8892,7 @@
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="4"/>
@@ -8860,6 +8926,7 @@
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
+      <c r="AF61" s="4"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="4"/>
@@ -8893,6 +8960,7 @@
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
+      <c r="AF62" s="4"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="4"/>
@@ -8926,6 +8994,7 @@
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
+      <c r="AF63" s="4"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="4"/>
@@ -8959,6 +9028,7 @@
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="4"/>
@@ -8992,6 +9062,7 @@
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
+      <c r="AF65" s="4"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="4"/>
@@ -9025,6 +9096,7 @@
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
+      <c r="AF66" s="4"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="4"/>
@@ -9058,6 +9130,7 @@
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
+      <c r="AF67" s="4"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="4"/>
@@ -9091,6 +9164,7 @@
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
+      <c r="AF68" s="4"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="4"/>
@@ -9124,6 +9198,7 @@
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="4"/>
@@ -9157,6 +9232,7 @@
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="4"/>
@@ -9190,6 +9266,7 @@
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
+      <c r="AF71" s="4"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="4"/>
@@ -9223,6 +9300,7 @@
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
+      <c r="AF72" s="4"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="4"/>
@@ -9256,6 +9334,7 @@
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="4"/>
@@ -9289,6 +9368,7 @@
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
+      <c r="AF74" s="4"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="4"/>
@@ -9322,6 +9402,7 @@
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
+      <c r="AF75" s="4"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="4"/>
@@ -9355,6 +9436,7 @@
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="4"/>
@@ -9388,6 +9470,7 @@
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
       <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="4"/>
@@ -9421,6 +9504,7 @@
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
       <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="4"/>
@@ -9454,6 +9538,7 @@
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
       <c r="AE79" s="4"/>
+      <c r="AF79" s="4"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="4"/>
@@ -9487,6 +9572,7 @@
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
+      <c r="AF80" s="4"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="4"/>
@@ -9520,6 +9606,7 @@
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
+      <c r="AF81" s="4"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="4"/>
@@ -9553,6 +9640,7 @@
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
+      <c r="AF82" s="4"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="4"/>
@@ -9586,6 +9674,7 @@
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
       <c r="AE83" s="4"/>
+      <c r="AF83" s="4"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="4"/>
@@ -9619,6 +9708,7 @@
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
       <c r="AE84" s="4"/>
+      <c r="AF84" s="4"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="4"/>
@@ -9652,6 +9742,7 @@
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
       <c r="AE85" s="4"/>
+      <c r="AF85" s="4"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="4"/>
@@ -9685,6 +9776,7 @@
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
+      <c r="AF86" s="4"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="4"/>
@@ -9718,6 +9810,7 @@
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
+      <c r="AF87" s="4"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="4"/>
@@ -9751,6 +9844,7 @@
       <c r="AC88" s="4"/>
       <c r="AD88" s="4"/>
       <c r="AE88" s="4"/>
+      <c r="AF88" s="4"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="4"/>
@@ -9784,6 +9878,7 @@
       <c r="AC89" s="4"/>
       <c r="AD89" s="4"/>
       <c r="AE89" s="4"/>
+      <c r="AF89" s="4"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="4"/>
@@ -9817,6 +9912,7 @@
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
+      <c r="AF90" s="4"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="4"/>
@@ -9850,6 +9946,7 @@
       <c r="AC91" s="4"/>
       <c r="AD91" s="4"/>
       <c r="AE91" s="4"/>
+      <c r="AF91" s="4"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="4"/>
@@ -9883,6 +9980,7 @@
       <c r="AC92" s="4"/>
       <c r="AD92" s="4"/>
       <c r="AE92" s="4"/>
+      <c r="AF92" s="4"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="4"/>
@@ -9916,6 +10014,7 @@
       <c r="AC93" s="4"/>
       <c r="AD93" s="4"/>
       <c r="AE93" s="4"/>
+      <c r="AF93" s="4"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="4"/>
@@ -9949,6 +10048,7 @@
       <c r="AC94" s="4"/>
       <c r="AD94" s="4"/>
       <c r="AE94" s="4"/>
+      <c r="AF94" s="4"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="4"/>
@@ -9982,6 +10082,7 @@
       <c r="AC95" s="4"/>
       <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>
+      <c r="AF95" s="4"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="4"/>
@@ -10015,6 +10116,7 @@
       <c r="AC96" s="4"/>
       <c r="AD96" s="4"/>
       <c r="AE96" s="4"/>
+      <c r="AF96" s="4"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="4"/>
@@ -10048,6 +10150,7 @@
       <c r="AC97" s="4"/>
       <c r="AD97" s="4"/>
       <c r="AE97" s="4"/>
+      <c r="AF97" s="4"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="4"/>
@@ -10081,6 +10184,7 @@
       <c r="AC98" s="4"/>
       <c r="AD98" s="4"/>
       <c r="AE98" s="4"/>
+      <c r="AF98" s="4"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="4"/>
@@ -10114,6 +10218,7 @@
       <c r="AC99" s="4"/>
       <c r="AD99" s="4"/>
       <c r="AE99" s="4"/>
+      <c r="AF99" s="4"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="4"/>
@@ -10147,6 +10252,7 @@
       <c r="AC100" s="4"/>
       <c r="AD100" s="4"/>
       <c r="AE100" s="4"/>
+      <c r="AF100" s="4"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="4"/>
@@ -10180,6 +10286,7 @@
       <c r="AC101" s="4"/>
       <c r="AD101" s="4"/>
       <c r="AE101" s="4"/>
+      <c r="AF101" s="4"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="4"/>
@@ -10213,6 +10320,7 @@
       <c r="AC102" s="4"/>
       <c r="AD102" s="4"/>
       <c r="AE102" s="4"/>
+      <c r="AF102" s="4"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="4"/>
@@ -10246,6 +10354,7 @@
       <c r="AC103" s="4"/>
       <c r="AD103" s="4"/>
       <c r="AE103" s="4"/>
+      <c r="AF103" s="4"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="4"/>
@@ -10279,6 +10388,7 @@
       <c r="AC104" s="4"/>
       <c r="AD104" s="4"/>
       <c r="AE104" s="4"/>
+      <c r="AF104" s="4"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="4"/>
@@ -10312,6 +10422,7 @@
       <c r="AC105" s="4"/>
       <c r="AD105" s="4"/>
       <c r="AE105" s="4"/>
+      <c r="AF105" s="4"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="4"/>
@@ -10345,6 +10456,7 @@
       <c r="AC106" s="4"/>
       <c r="AD106" s="4"/>
       <c r="AE106" s="4"/>
+      <c r="AF106" s="4"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="4"/>
@@ -10378,6 +10490,7 @@
       <c r="AC107" s="4"/>
       <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
+      <c r="AF107" s="4"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="4"/>
@@ -10411,6 +10524,7 @@
       <c r="AC108" s="4"/>
       <c r="AD108" s="4"/>
       <c r="AE108" s="4"/>
+      <c r="AF108" s="4"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="4"/>
@@ -10444,6 +10558,7 @@
       <c r="AC109" s="4"/>
       <c r="AD109" s="4"/>
       <c r="AE109" s="4"/>
+      <c r="AF109" s="4"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="4"/>
@@ -10477,6 +10592,7 @@
       <c r="AC110" s="4"/>
       <c r="AD110" s="4"/>
       <c r="AE110" s="4"/>
+      <c r="AF110" s="4"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="4"/>
@@ -10510,6 +10626,7 @@
       <c r="AC111" s="4"/>
       <c r="AD111" s="4"/>
       <c r="AE111" s="4"/>
+      <c r="AF111" s="4"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="4"/>
@@ -10543,6 +10660,7 @@
       <c r="AC112" s="4"/>
       <c r="AD112" s="4"/>
       <c r="AE112" s="4"/>
+      <c r="AF112" s="4"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="4"/>
@@ -10576,6 +10694,7 @@
       <c r="AC113" s="4"/>
       <c r="AD113" s="4"/>
       <c r="AE113" s="4"/>
+      <c r="AF113" s="4"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="4"/>
@@ -10609,6 +10728,7 @@
       <c r="AC114" s="4"/>
       <c r="AD114" s="4"/>
       <c r="AE114" s="4"/>
+      <c r="AF114" s="4"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="4"/>
@@ -10642,6 +10762,7 @@
       <c r="AC115" s="4"/>
       <c r="AD115" s="4"/>
       <c r="AE115" s="4"/>
+      <c r="AF115" s="4"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="4"/>
@@ -10675,6 +10796,7 @@
       <c r="AC116" s="4"/>
       <c r="AD116" s="4"/>
       <c r="AE116" s="4"/>
+      <c r="AF116" s="4"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="4"/>
@@ -10708,6 +10830,7 @@
       <c r="AC117" s="4"/>
       <c r="AD117" s="4"/>
       <c r="AE117" s="4"/>
+      <c r="AF117" s="4"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="4"/>
@@ -10741,6 +10864,7 @@
       <c r="AC118" s="4"/>
       <c r="AD118" s="4"/>
       <c r="AE118" s="4"/>
+      <c r="AF118" s="4"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="4"/>
@@ -10774,6 +10898,7 @@
       <c r="AC119" s="4"/>
       <c r="AD119" s="4"/>
       <c r="AE119" s="4"/>
+      <c r="AF119" s="4"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="4"/>
@@ -10807,6 +10932,7 @@
       <c r="AC120" s="4"/>
       <c r="AD120" s="4"/>
       <c r="AE120" s="4"/>
+      <c r="AF120" s="4"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="4"/>
@@ -10840,6 +10966,7 @@
       <c r="AC121" s="4"/>
       <c r="AD121" s="4"/>
       <c r="AE121" s="4"/>
+      <c r="AF121" s="4"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="4"/>
@@ -10873,6 +11000,7 @@
       <c r="AC122" s="4"/>
       <c r="AD122" s="4"/>
       <c r="AE122" s="4"/>
+      <c r="AF122" s="4"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="4"/>
@@ -10906,6 +11034,7 @@
       <c r="AC123" s="4"/>
       <c r="AD123" s="4"/>
       <c r="AE123" s="4"/>
+      <c r="AF123" s="4"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="4"/>
@@ -10939,6 +11068,7 @@
       <c r="AC124" s="4"/>
       <c r="AD124" s="4"/>
       <c r="AE124" s="4"/>
+      <c r="AF124" s="4"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="4"/>
@@ -10972,6 +11102,7 @@
       <c r="AC125" s="4"/>
       <c r="AD125" s="4"/>
       <c r="AE125" s="4"/>
+      <c r="AF125" s="4"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="4"/>
@@ -11005,6 +11136,7 @@
       <c r="AC126" s="4"/>
       <c r="AD126" s="4"/>
       <c r="AE126" s="4"/>
+      <c r="AF126" s="4"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="4"/>
@@ -11038,6 +11170,7 @@
       <c r="AC127" s="4"/>
       <c r="AD127" s="4"/>
       <c r="AE127" s="4"/>
+      <c r="AF127" s="4"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="4"/>
@@ -11071,6 +11204,7 @@
       <c r="AC128" s="4"/>
       <c r="AD128" s="4"/>
       <c r="AE128" s="4"/>
+      <c r="AF128" s="4"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="4"/>
@@ -11104,6 +11238,7 @@
       <c r="AC129" s="4"/>
       <c r="AD129" s="4"/>
       <c r="AE129" s="4"/>
+      <c r="AF129" s="4"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="4"/>
@@ -11137,6 +11272,7 @@
       <c r="AC130" s="4"/>
       <c r="AD130" s="4"/>
       <c r="AE130" s="4"/>
+      <c r="AF130" s="4"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="4"/>
@@ -11170,6 +11306,7 @@
       <c r="AC131" s="4"/>
       <c r="AD131" s="4"/>
       <c r="AE131" s="4"/>
+      <c r="AF131" s="4"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="4"/>
@@ -11203,6 +11340,7 @@
       <c r="AC132" s="4"/>
       <c r="AD132" s="4"/>
       <c r="AE132" s="4"/>
+      <c r="AF132" s="4"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="4"/>
@@ -11236,6 +11374,7 @@
       <c r="AC133" s="4"/>
       <c r="AD133" s="4"/>
       <c r="AE133" s="4"/>
+      <c r="AF133" s="4"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="4"/>
@@ -11269,6 +11408,7 @@
       <c r="AC134" s="4"/>
       <c r="AD134" s="4"/>
       <c r="AE134" s="4"/>
+      <c r="AF134" s="4"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" s="4"/>
@@ -11302,6 +11442,7 @@
       <c r="AC135" s="4"/>
       <c r="AD135" s="4"/>
       <c r="AE135" s="4"/>
+      <c r="AF135" s="4"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="4"/>
@@ -11335,6 +11476,7 @@
       <c r="AC136" s="4"/>
       <c r="AD136" s="4"/>
       <c r="AE136" s="4"/>
+      <c r="AF136" s="4"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="4"/>
@@ -11368,6 +11510,7 @@
       <c r="AC137" s="4"/>
       <c r="AD137" s="4"/>
       <c r="AE137" s="4"/>
+      <c r="AF137" s="4"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="4"/>
@@ -11401,6 +11544,7 @@
       <c r="AC138" s="4"/>
       <c r="AD138" s="4"/>
       <c r="AE138" s="4"/>
+      <c r="AF138" s="4"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="4"/>
@@ -11434,6 +11578,7 @@
       <c r="AC139" s="4"/>
       <c r="AD139" s="4"/>
       <c r="AE139" s="4"/>
+      <c r="AF139" s="4"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="4"/>
@@ -11467,6 +11612,7 @@
       <c r="AC140" s="4"/>
       <c r="AD140" s="4"/>
       <c r="AE140" s="4"/>
+      <c r="AF140" s="4"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="4"/>
@@ -11500,6 +11646,7 @@
       <c r="AC141" s="4"/>
       <c r="AD141" s="4"/>
       <c r="AE141" s="4"/>
+      <c r="AF141" s="4"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" s="4"/>
@@ -11533,6 +11680,7 @@
       <c r="AC142" s="4"/>
       <c r="AD142" s="4"/>
       <c r="AE142" s="4"/>
+      <c r="AF142" s="4"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="4"/>
@@ -11566,6 +11714,7 @@
       <c r="AC143" s="4"/>
       <c r="AD143" s="4"/>
       <c r="AE143" s="4"/>
+      <c r="AF143" s="4"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" s="4"/>
@@ -11599,6 +11748,7 @@
       <c r="AC144" s="4"/>
       <c r="AD144" s="4"/>
       <c r="AE144" s="4"/>
+      <c r="AF144" s="4"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" s="4"/>
@@ -11632,6 +11782,7 @@
       <c r="AC145" s="4"/>
       <c r="AD145" s="4"/>
       <c r="AE145" s="4"/>
+      <c r="AF145" s="4"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="4"/>
@@ -11665,6 +11816,7 @@
       <c r="AC146" s="4"/>
       <c r="AD146" s="4"/>
       <c r="AE146" s="4"/>
+      <c r="AF146" s="4"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="4"/>
@@ -11698,6 +11850,7 @@
       <c r="AC147" s="4"/>
       <c r="AD147" s="4"/>
       <c r="AE147" s="4"/>
+      <c r="AF147" s="4"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="4"/>
@@ -11731,6 +11884,7 @@
       <c r="AC148" s="4"/>
       <c r="AD148" s="4"/>
       <c r="AE148" s="4"/>
+      <c r="AF148" s="4"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="4"/>
@@ -11764,6 +11918,7 @@
       <c r="AC149" s="4"/>
       <c r="AD149" s="4"/>
       <c r="AE149" s="4"/>
+      <c r="AF149" s="4"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="A150" s="4"/>
@@ -11797,6 +11952,7 @@
       <c r="AC150" s="4"/>
       <c r="AD150" s="4"/>
       <c r="AE150" s="4"/>
+      <c r="AF150" s="4"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="4"/>
@@ -11830,6 +11986,7 @@
       <c r="AC151" s="4"/>
       <c r="AD151" s="4"/>
       <c r="AE151" s="4"/>
+      <c r="AF151" s="4"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" s="4"/>
@@ -11863,6 +12020,7 @@
       <c r="AC152" s="4"/>
       <c r="AD152" s="4"/>
       <c r="AE152" s="4"/>
+      <c r="AF152" s="4"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" s="4"/>
@@ -11896,6 +12054,7 @@
       <c r="AC153" s="4"/>
       <c r="AD153" s="4"/>
       <c r="AE153" s="4"/>
+      <c r="AF153" s="4"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="4"/>
@@ -11929,6 +12088,7 @@
       <c r="AC154" s="4"/>
       <c r="AD154" s="4"/>
       <c r="AE154" s="4"/>
+      <c r="AF154" s="4"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="4"/>
@@ -11962,6 +12122,7 @@
       <c r="AC155" s="4"/>
       <c r="AD155" s="4"/>
       <c r="AE155" s="4"/>
+      <c r="AF155" s="4"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" s="4"/>
@@ -11995,6 +12156,7 @@
       <c r="AC156" s="4"/>
       <c r="AD156" s="4"/>
       <c r="AE156" s="4"/>
+      <c r="AF156" s="4"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="4"/>
@@ -12028,6 +12190,7 @@
       <c r="AC157" s="4"/>
       <c r="AD157" s="4"/>
       <c r="AE157" s="4"/>
+      <c r="AF157" s="4"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="4"/>
@@ -12061,6 +12224,7 @@
       <c r="AC158" s="4"/>
       <c r="AD158" s="4"/>
       <c r="AE158" s="4"/>
+      <c r="AF158" s="4"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" s="4"/>
@@ -12094,6 +12258,7 @@
       <c r="AC159" s="4"/>
       <c r="AD159" s="4"/>
       <c r="AE159" s="4"/>
+      <c r="AF159" s="4"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" s="4"/>
@@ -12127,6 +12292,7 @@
       <c r="AC160" s="4"/>
       <c r="AD160" s="4"/>
       <c r="AE160" s="4"/>
+      <c r="AF160" s="4"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="4"/>
@@ -12160,6 +12326,7 @@
       <c r="AC161" s="4"/>
       <c r="AD161" s="4"/>
       <c r="AE161" s="4"/>
+      <c r="AF161" s="4"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="4"/>
@@ -12193,6 +12360,7 @@
       <c r="AC162" s="4"/>
       <c r="AD162" s="4"/>
       <c r="AE162" s="4"/>
+      <c r="AF162" s="4"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" s="4"/>
@@ -12226,6 +12394,7 @@
       <c r="AC163" s="4"/>
       <c r="AD163" s="4"/>
       <c r="AE163" s="4"/>
+      <c r="AF163" s="4"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="4"/>
@@ -12259,6 +12428,7 @@
       <c r="AC164" s="4"/>
       <c r="AD164" s="4"/>
       <c r="AE164" s="4"/>
+      <c r="AF164" s="4"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" s="4"/>
@@ -12292,6 +12462,7 @@
       <c r="AC165" s="4"/>
       <c r="AD165" s="4"/>
       <c r="AE165" s="4"/>
+      <c r="AF165" s="4"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="4"/>
@@ -12325,6 +12496,7 @@
       <c r="AC166" s="4"/>
       <c r="AD166" s="4"/>
       <c r="AE166" s="4"/>
+      <c r="AF166" s="4"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="A167" s="4"/>
@@ -12358,6 +12530,7 @@
       <c r="AC167" s="4"/>
       <c r="AD167" s="4"/>
       <c r="AE167" s="4"/>
+      <c r="AF167" s="4"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="4"/>
@@ -12391,6 +12564,7 @@
       <c r="AC168" s="4"/>
       <c r="AD168" s="4"/>
       <c r="AE168" s="4"/>
+      <c r="AF168" s="4"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="4"/>
@@ -12424,6 +12598,7 @@
       <c r="AC169" s="4"/>
       <c r="AD169" s="4"/>
       <c r="AE169" s="4"/>
+      <c r="AF169" s="4"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" s="4"/>
@@ -12457,6 +12632,7 @@
       <c r="AC170" s="4"/>
       <c r="AD170" s="4"/>
       <c r="AE170" s="4"/>
+      <c r="AF170" s="4"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="4"/>
@@ -12490,6 +12666,7 @@
       <c r="AC171" s="4"/>
       <c r="AD171" s="4"/>
       <c r="AE171" s="4"/>
+      <c r="AF171" s="4"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="A172" s="4"/>
@@ -12523,6 +12700,7 @@
       <c r="AC172" s="4"/>
       <c r="AD172" s="4"/>
       <c r="AE172" s="4"/>
+      <c r="AF172" s="4"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="4"/>
@@ -12556,6 +12734,7 @@
       <c r="AC173" s="4"/>
       <c r="AD173" s="4"/>
       <c r="AE173" s="4"/>
+      <c r="AF173" s="4"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="4"/>
@@ -12589,6 +12768,7 @@
       <c r="AC174" s="4"/>
       <c r="AD174" s="4"/>
       <c r="AE174" s="4"/>
+      <c r="AF174" s="4"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
       <c r="A175" s="4"/>
@@ -12622,6 +12802,7 @@
       <c r="AC175" s="4"/>
       <c r="AD175" s="4"/>
       <c r="AE175" s="4"/>
+      <c r="AF175" s="4"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
       <c r="A176" s="4"/>
@@ -12655,6 +12836,7 @@
       <c r="AC176" s="4"/>
       <c r="AD176" s="4"/>
       <c r="AE176" s="4"/>
+      <c r="AF176" s="4"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
       <c r="A177" s="4"/>
@@ -12688,6 +12870,7 @@
       <c r="AC177" s="4"/>
       <c r="AD177" s="4"/>
       <c r="AE177" s="4"/>
+      <c r="AF177" s="4"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
       <c r="A178" s="4"/>
@@ -12721,6 +12904,7 @@
       <c r="AC178" s="4"/>
       <c r="AD178" s="4"/>
       <c r="AE178" s="4"/>
+      <c r="AF178" s="4"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
       <c r="A179" s="4"/>
@@ -12754,6 +12938,7 @@
       <c r="AC179" s="4"/>
       <c r="AD179" s="4"/>
       <c r="AE179" s="4"/>
+      <c r="AF179" s="4"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
       <c r="A180" s="4"/>
@@ -12787,6 +12972,7 @@
       <c r="AC180" s="4"/>
       <c r="AD180" s="4"/>
       <c r="AE180" s="4"/>
+      <c r="AF180" s="4"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
       <c r="A181" s="4"/>
@@ -12820,6 +13006,7 @@
       <c r="AC181" s="4"/>
       <c r="AD181" s="4"/>
       <c r="AE181" s="4"/>
+      <c r="AF181" s="4"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
       <c r="A182" s="4"/>
@@ -12853,6 +13040,7 @@
       <c r="AC182" s="4"/>
       <c r="AD182" s="4"/>
       <c r="AE182" s="4"/>
+      <c r="AF182" s="4"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="4"/>
@@ -12886,6 +13074,7 @@
       <c r="AC183" s="4"/>
       <c r="AD183" s="4"/>
       <c r="AE183" s="4"/>
+      <c r="AF183" s="4"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="4"/>
@@ -12919,6 +13108,7 @@
       <c r="AC184" s="4"/>
       <c r="AD184" s="4"/>
       <c r="AE184" s="4"/>
+      <c r="AF184" s="4"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="A185" s="4"/>
@@ -12952,6 +13142,7 @@
       <c r="AC185" s="4"/>
       <c r="AD185" s="4"/>
       <c r="AE185" s="4"/>
+      <c r="AF185" s="4"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
       <c r="A186" s="4"/>
@@ -12985,6 +13176,7 @@
       <c r="AC186" s="4"/>
       <c r="AD186" s="4"/>
       <c r="AE186" s="4"/>
+      <c r="AF186" s="4"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
       <c r="A187" s="4"/>
@@ -13018,6 +13210,7 @@
       <c r="AC187" s="4"/>
       <c r="AD187" s="4"/>
       <c r="AE187" s="4"/>
+      <c r="AF187" s="4"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
       <c r="A188" s="4"/>
@@ -13051,6 +13244,7 @@
       <c r="AC188" s="4"/>
       <c r="AD188" s="4"/>
       <c r="AE188" s="4"/>
+      <c r="AF188" s="4"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
       <c r="A189" s="4"/>
@@ -13084,6 +13278,7 @@
       <c r="AC189" s="4"/>
       <c r="AD189" s="4"/>
       <c r="AE189" s="4"/>
+      <c r="AF189" s="4"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
       <c r="A190" s="4"/>
@@ -13117,6 +13312,7 @@
       <c r="AC190" s="4"/>
       <c r="AD190" s="4"/>
       <c r="AE190" s="4"/>
+      <c r="AF190" s="4"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
       <c r="A191" s="4"/>
@@ -13150,6 +13346,7 @@
       <c r="AC191" s="4"/>
       <c r="AD191" s="4"/>
       <c r="AE191" s="4"/>
+      <c r="AF191" s="4"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
       <c r="A192" s="4"/>
@@ -13183,6 +13380,7 @@
       <c r="AC192" s="4"/>
       <c r="AD192" s="4"/>
       <c r="AE192" s="4"/>
+      <c r="AF192" s="4"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
       <c r="A193" s="4"/>
@@ -13216,6 +13414,7 @@
       <c r="AC193" s="4"/>
       <c r="AD193" s="4"/>
       <c r="AE193" s="4"/>
+      <c r="AF193" s="4"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
       <c r="A194" s="4"/>
@@ -13249,6 +13448,7 @@
       <c r="AC194" s="4"/>
       <c r="AD194" s="4"/>
       <c r="AE194" s="4"/>
+      <c r="AF194" s="4"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
       <c r="A195" s="4"/>
@@ -13282,6 +13482,7 @@
       <c r="AC195" s="4"/>
       <c r="AD195" s="4"/>
       <c r="AE195" s="4"/>
+      <c r="AF195" s="4"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
       <c r="A196" s="4"/>
@@ -13315,6 +13516,7 @@
       <c r="AC196" s="4"/>
       <c r="AD196" s="4"/>
       <c r="AE196" s="4"/>
+      <c r="AF196" s="4"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
       <c r="A197" s="4"/>
@@ -13348,6 +13550,7 @@
       <c r="AC197" s="4"/>
       <c r="AD197" s="4"/>
       <c r="AE197" s="4"/>
+      <c r="AF197" s="4"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
       <c r="A198" s="4"/>
@@ -13381,6 +13584,7 @@
       <c r="AC198" s="4"/>
       <c r="AD198" s="4"/>
       <c r="AE198" s="4"/>
+      <c r="AF198" s="4"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
       <c r="A199" s="4"/>
@@ -13414,6 +13618,7 @@
       <c r="AC199" s="4"/>
       <c r="AD199" s="4"/>
       <c r="AE199" s="4"/>
+      <c r="AF199" s="4"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
       <c r="A200" s="4"/>
@@ -13447,6 +13652,7 @@
       <c r="AC200" s="4"/>
       <c r="AD200" s="4"/>
       <c r="AE200" s="4"/>
+      <c r="AF200" s="4"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
       <c r="A201" s="4"/>
@@ -13480,6 +13686,7 @@
       <c r="AC201" s="4"/>
       <c r="AD201" s="4"/>
       <c r="AE201" s="4"/>
+      <c r="AF201" s="4"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
       <c r="A202" s="4"/>
@@ -13513,6 +13720,7 @@
       <c r="AC202" s="4"/>
       <c r="AD202" s="4"/>
       <c r="AE202" s="4"/>
+      <c r="AF202" s="4"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
       <c r="A203" s="4"/>
@@ -13546,6 +13754,7 @@
       <c r="AC203" s="4"/>
       <c r="AD203" s="4"/>
       <c r="AE203" s="4"/>
+      <c r="AF203" s="4"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
       <c r="A204" s="4"/>
@@ -13579,6 +13788,7 @@
       <c r="AC204" s="4"/>
       <c r="AD204" s="4"/>
       <c r="AE204" s="4"/>
+      <c r="AF204" s="4"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
       <c r="A205" s="4"/>
@@ -13612,6 +13822,7 @@
       <c r="AC205" s="4"/>
       <c r="AD205" s="4"/>
       <c r="AE205" s="4"/>
+      <c r="AF205" s="4"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
       <c r="A206" s="4"/>
@@ -13645,6 +13856,7 @@
       <c r="AC206" s="4"/>
       <c r="AD206" s="4"/>
       <c r="AE206" s="4"/>
+      <c r="AF206" s="4"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
       <c r="A207" s="4"/>
@@ -13678,6 +13890,7 @@
       <c r="AC207" s="4"/>
       <c r="AD207" s="4"/>
       <c r="AE207" s="4"/>
+      <c r="AF207" s="4"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
       <c r="A208" s="4"/>
@@ -13711,6 +13924,7 @@
       <c r="AC208" s="4"/>
       <c r="AD208" s="4"/>
       <c r="AE208" s="4"/>
+      <c r="AF208" s="4"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
       <c r="A209" s="4"/>
@@ -13744,6 +13958,7 @@
       <c r="AC209" s="4"/>
       <c r="AD209" s="4"/>
       <c r="AE209" s="4"/>
+      <c r="AF209" s="4"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
       <c r="A210" s="4"/>
@@ -13777,6 +13992,7 @@
       <c r="AC210" s="4"/>
       <c r="AD210" s="4"/>
       <c r="AE210" s="4"/>
+      <c r="AF210" s="4"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
       <c r="A211" s="4"/>
@@ -13810,6 +14026,7 @@
       <c r="AC211" s="4"/>
       <c r="AD211" s="4"/>
       <c r="AE211" s="4"/>
+      <c r="AF211" s="4"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
       <c r="A212" s="4"/>
@@ -13843,6 +14060,7 @@
       <c r="AC212" s="4"/>
       <c r="AD212" s="4"/>
       <c r="AE212" s="4"/>
+      <c r="AF212" s="4"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
       <c r="A213" s="4"/>
@@ -13876,6 +14094,7 @@
       <c r="AC213" s="4"/>
       <c r="AD213" s="4"/>
       <c r="AE213" s="4"/>
+      <c r="AF213" s="4"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
       <c r="A214" s="4"/>
@@ -13909,6 +14128,7 @@
       <c r="AC214" s="4"/>
       <c r="AD214" s="4"/>
       <c r="AE214" s="4"/>
+      <c r="AF214" s="4"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
       <c r="A215" s="4"/>
@@ -13942,6 +14162,7 @@
       <c r="AC215" s="4"/>
       <c r="AD215" s="4"/>
       <c r="AE215" s="4"/>
+      <c r="AF215" s="4"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
       <c r="A216" s="4"/>
@@ -13975,6 +14196,7 @@
       <c r="AC216" s="4"/>
       <c r="AD216" s="4"/>
       <c r="AE216" s="4"/>
+      <c r="AF216" s="4"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
       <c r="A217" s="4"/>
@@ -14008,6 +14230,7 @@
       <c r="AC217" s="4"/>
       <c r="AD217" s="4"/>
       <c r="AE217" s="4"/>
+      <c r="AF217" s="4"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
       <c r="A218" s="4"/>
@@ -14041,6 +14264,7 @@
       <c r="AC218" s="4"/>
       <c r="AD218" s="4"/>
       <c r="AE218" s="4"/>
+      <c r="AF218" s="4"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
       <c r="A219" s="4"/>
@@ -14074,6 +14298,7 @@
       <c r="AC219" s="4"/>
       <c r="AD219" s="4"/>
       <c r="AE219" s="4"/>
+      <c r="AF219" s="4"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
       <c r="A220" s="4"/>
@@ -14107,6 +14332,7 @@
       <c r="AC220" s="4"/>
       <c r="AD220" s="4"/>
       <c r="AE220" s="4"/>
+      <c r="AF220" s="4"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
       <c r="A221" s="4"/>
@@ -14140,6 +14366,7 @@
       <c r="AC221" s="4"/>
       <c r="AD221" s="4"/>
       <c r="AE221" s="4"/>
+      <c r="AF221" s="4"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
       <c r="A222" s="4"/>
@@ -14173,6 +14400,7 @@
       <c r="AC222" s="4"/>
       <c r="AD222" s="4"/>
       <c r="AE222" s="4"/>
+      <c r="AF222" s="4"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
       <c r="A223" s="4"/>
@@ -14206,6 +14434,7 @@
       <c r="AC223" s="4"/>
       <c r="AD223" s="4"/>
       <c r="AE223" s="4"/>
+      <c r="AF223" s="4"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
       <c r="A224" s="4"/>
@@ -14239,6 +14468,7 @@
       <c r="AC224" s="4"/>
       <c r="AD224" s="4"/>
       <c r="AE224" s="4"/>
+      <c r="AF224" s="4"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
       <c r="A225" s="4"/>
@@ -14272,6 +14502,7 @@
       <c r="AC225" s="4"/>
       <c r="AD225" s="4"/>
       <c r="AE225" s="4"/>
+      <c r="AF225" s="4"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
       <c r="A226" s="4"/>
@@ -14305,6 +14536,7 @@
       <c r="AC226" s="4"/>
       <c r="AD226" s="4"/>
       <c r="AE226" s="4"/>
+      <c r="AF226" s="4"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
       <c r="A227" s="4"/>
@@ -14338,6 +14570,7 @@
       <c r="AC227" s="4"/>
       <c r="AD227" s="4"/>
       <c r="AE227" s="4"/>
+      <c r="AF227" s="4"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
       <c r="A228" s="4"/>
@@ -14371,6 +14604,7 @@
       <c r="AC228" s="4"/>
       <c r="AD228" s="4"/>
       <c r="AE228" s="4"/>
+      <c r="AF228" s="4"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
       <c r="A229" s="4"/>
@@ -14404,6 +14638,7 @@
       <c r="AC229" s="4"/>
       <c r="AD229" s="4"/>
       <c r="AE229" s="4"/>
+      <c r="AF229" s="4"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
       <c r="A230" s="4"/>
@@ -14437,6 +14672,7 @@
       <c r="AC230" s="4"/>
       <c r="AD230" s="4"/>
       <c r="AE230" s="4"/>
+      <c r="AF230" s="4"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
       <c r="A231" s="4"/>
@@ -14470,6 +14706,7 @@
       <c r="AC231" s="4"/>
       <c r="AD231" s="4"/>
       <c r="AE231" s="4"/>
+      <c r="AF231" s="4"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
       <c r="A232" s="4"/>
@@ -14503,6 +14740,7 @@
       <c r="AC232" s="4"/>
       <c r="AD232" s="4"/>
       <c r="AE232" s="4"/>
+      <c r="AF232" s="4"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
       <c r="A233" s="4"/>
@@ -14536,6 +14774,7 @@
       <c r="AC233" s="4"/>
       <c r="AD233" s="4"/>
       <c r="AE233" s="4"/>
+      <c r="AF233" s="4"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
       <c r="A234" s="4"/>
@@ -14569,6 +14808,7 @@
       <c r="AC234" s="4"/>
       <c r="AD234" s="4"/>
       <c r="AE234" s="4"/>
+      <c r="AF234" s="4"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
       <c r="A235" s="4"/>
@@ -14602,6 +14842,7 @@
       <c r="AC235" s="4"/>
       <c r="AD235" s="4"/>
       <c r="AE235" s="4"/>
+      <c r="AF235" s="4"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
       <c r="A236" s="4"/>
@@ -14635,6 +14876,7 @@
       <c r="AC236" s="4"/>
       <c r="AD236" s="4"/>
       <c r="AE236" s="4"/>
+      <c r="AF236" s="4"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
       <c r="A237" s="4"/>
@@ -14668,6 +14910,7 @@
       <c r="AC237" s="4"/>
       <c r="AD237" s="4"/>
       <c r="AE237" s="4"/>
+      <c r="AF237" s="4"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
       <c r="A238" s="4"/>
@@ -14701,6 +14944,7 @@
       <c r="AC238" s="4"/>
       <c r="AD238" s="4"/>
       <c r="AE238" s="4"/>
+      <c r="AF238" s="4"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
       <c r="A239" s="4"/>
@@ -14734,6 +14978,7 @@
       <c r="AC239" s="4"/>
       <c r="AD239" s="4"/>
       <c r="AE239" s="4"/>
+      <c r="AF239" s="4"/>
     </row>
     <row r="240" ht="14.25" customHeight="1">
       <c r="A240" s="4"/>
@@ -14767,6 +15012,7 @@
       <c r="AC240" s="4"/>
       <c r="AD240" s="4"/>
       <c r="AE240" s="4"/>
+      <c r="AF240" s="4"/>
     </row>
     <row r="241" ht="14.25" customHeight="1">
       <c r="A241" s="4"/>
@@ -14800,6 +15046,7 @@
       <c r="AC241" s="4"/>
       <c r="AD241" s="4"/>
       <c r="AE241" s="4"/>
+      <c r="AF241" s="4"/>
     </row>
     <row r="242" ht="14.25" customHeight="1">
       <c r="A242" s="4"/>
@@ -14833,6 +15080,7 @@
       <c r="AC242" s="4"/>
       <c r="AD242" s="4"/>
       <c r="AE242" s="4"/>
+      <c r="AF242" s="4"/>
     </row>
     <row r="243" ht="14.25" customHeight="1">
       <c r="A243" s="4"/>
@@ -14866,6 +15114,7 @@
       <c r="AC243" s="4"/>
       <c r="AD243" s="4"/>
       <c r="AE243" s="4"/>
+      <c r="AF243" s="4"/>
     </row>
     <row r="244" ht="14.25" customHeight="1">
       <c r="A244" s="4"/>
@@ -14899,6 +15148,7 @@
       <c r="AC244" s="4"/>
       <c r="AD244" s="4"/>
       <c r="AE244" s="4"/>
+      <c r="AF244" s="4"/>
     </row>
     <row r="245" ht="14.25" customHeight="1">
       <c r="A245" s="4"/>
@@ -14932,6 +15182,7 @@
       <c r="AC245" s="4"/>
       <c r="AD245" s="4"/>
       <c r="AE245" s="4"/>
+      <c r="AF245" s="4"/>
     </row>
     <row r="246" ht="14.25" customHeight="1">
       <c r="A246" s="4"/>
@@ -14965,6 +15216,7 @@
       <c r="AC246" s="4"/>
       <c r="AD246" s="4"/>
       <c r="AE246" s="4"/>
+      <c r="AF246" s="4"/>
     </row>
     <row r="247" ht="14.25" customHeight="1">
       <c r="A247" s="4"/>
@@ -14998,6 +15250,7 @@
       <c r="AC247" s="4"/>
       <c r="AD247" s="4"/>
       <c r="AE247" s="4"/>
+      <c r="AF247" s="4"/>
     </row>
     <row r="248" ht="14.25" customHeight="1">
       <c r="A248" s="4"/>
@@ -15031,6 +15284,7 @@
       <c r="AC248" s="4"/>
       <c r="AD248" s="4"/>
       <c r="AE248" s="4"/>
+      <c r="AF248" s="4"/>
     </row>
     <row r="249" ht="14.25" customHeight="1">
       <c r="A249" s="4"/>
@@ -15064,6 +15318,7 @@
       <c r="AC249" s="4"/>
       <c r="AD249" s="4"/>
       <c r="AE249" s="4"/>
+      <c r="AF249" s="4"/>
     </row>
     <row r="250" ht="14.25" customHeight="1">
       <c r="A250" s="4"/>
@@ -15097,6 +15352,7 @@
       <c r="AC250" s="4"/>
       <c r="AD250" s="4"/>
       <c r="AE250" s="4"/>
+      <c r="AF250" s="4"/>
     </row>
     <row r="251" ht="14.25" customHeight="1">
       <c r="A251" s="4"/>
@@ -15130,6 +15386,7 @@
       <c r="AC251" s="4"/>
       <c r="AD251" s="4"/>
       <c r="AE251" s="4"/>
+      <c r="AF251" s="4"/>
     </row>
     <row r="252" ht="14.25" customHeight="1">
       <c r="A252" s="4"/>
@@ -15163,6 +15420,7 @@
       <c r="AC252" s="4"/>
       <c r="AD252" s="4"/>
       <c r="AE252" s="4"/>
+      <c r="AF252" s="4"/>
     </row>
     <row r="253" ht="14.25" customHeight="1">
       <c r="A253" s="4"/>
@@ -15196,6 +15454,7 @@
       <c r="AC253" s="4"/>
       <c r="AD253" s="4"/>
       <c r="AE253" s="4"/>
+      <c r="AF253" s="4"/>
     </row>
     <row r="254" ht="14.25" customHeight="1">
       <c r="A254" s="4"/>
@@ -15229,6 +15488,7 @@
       <c r="AC254" s="4"/>
       <c r="AD254" s="4"/>
       <c r="AE254" s="4"/>
+      <c r="AF254" s="4"/>
     </row>
     <row r="255" ht="14.25" customHeight="1">
       <c r="A255" s="4"/>
@@ -15262,6 +15522,7 @@
       <c r="AC255" s="4"/>
       <c r="AD255" s="4"/>
       <c r="AE255" s="4"/>
+      <c r="AF255" s="4"/>
     </row>
     <row r="256" ht="14.25" customHeight="1">
       <c r="A256" s="4"/>
@@ -15295,6 +15556,7 @@
       <c r="AC256" s="4"/>
       <c r="AD256" s="4"/>
       <c r="AE256" s="4"/>
+      <c r="AF256" s="4"/>
     </row>
     <row r="257" ht="14.25" customHeight="1">
       <c r="A257" s="4"/>
@@ -15328,6 +15590,7 @@
       <c r="AC257" s="4"/>
       <c r="AD257" s="4"/>
       <c r="AE257" s="4"/>
+      <c r="AF257" s="4"/>
     </row>
     <row r="258" ht="14.25" customHeight="1">
       <c r="A258" s="4"/>
@@ -15361,6 +15624,7 @@
       <c r="AC258" s="4"/>
       <c r="AD258" s="4"/>
       <c r="AE258" s="4"/>
+      <c r="AF258" s="4"/>
     </row>
     <row r="259" ht="14.25" customHeight="1">
       <c r="A259" s="4"/>
@@ -15394,6 +15658,7 @@
       <c r="AC259" s="4"/>
       <c r="AD259" s="4"/>
       <c r="AE259" s="4"/>
+      <c r="AF259" s="4"/>
     </row>
     <row r="260" ht="14.25" customHeight="1">
       <c r="A260" s="4"/>
@@ -15427,6 +15692,7 @@
       <c r="AC260" s="4"/>
       <c r="AD260" s="4"/>
       <c r="AE260" s="4"/>
+      <c r="AF260" s="4"/>
     </row>
     <row r="261" ht="14.25" customHeight="1">
       <c r="A261" s="4"/>
@@ -15460,6 +15726,7 @@
       <c r="AC261" s="4"/>
       <c r="AD261" s="4"/>
       <c r="AE261" s="4"/>
+      <c r="AF261" s="4"/>
     </row>
     <row r="262" ht="14.25" customHeight="1">
       <c r="A262" s="4"/>
@@ -15493,6 +15760,7 @@
       <c r="AC262" s="4"/>
       <c r="AD262" s="4"/>
       <c r="AE262" s="4"/>
+      <c r="AF262" s="4"/>
     </row>
     <row r="263" ht="14.25" customHeight="1">
       <c r="A263" s="4"/>
@@ -15526,6 +15794,7 @@
       <c r="AC263" s="4"/>
       <c r="AD263" s="4"/>
       <c r="AE263" s="4"/>
+      <c r="AF263" s="4"/>
     </row>
     <row r="264" ht="14.25" customHeight="1">
       <c r="A264" s="4"/>
@@ -15559,6 +15828,7 @@
       <c r="AC264" s="4"/>
       <c r="AD264" s="4"/>
       <c r="AE264" s="4"/>
+      <c r="AF264" s="4"/>
     </row>
     <row r="265" ht="14.25" customHeight="1">
       <c r="A265" s="4"/>
@@ -15592,6 +15862,7 @@
       <c r="AC265" s="4"/>
       <c r="AD265" s="4"/>
       <c r="AE265" s="4"/>
+      <c r="AF265" s="4"/>
     </row>
     <row r="266" ht="14.25" customHeight="1">
       <c r="A266" s="4"/>
@@ -15625,6 +15896,7 @@
       <c r="AC266" s="4"/>
       <c r="AD266" s="4"/>
       <c r="AE266" s="4"/>
+      <c r="AF266" s="4"/>
     </row>
     <row r="267" ht="14.25" customHeight="1">
       <c r="A267" s="4"/>
@@ -15658,6 +15930,7 @@
       <c r="AC267" s="4"/>
       <c r="AD267" s="4"/>
       <c r="AE267" s="4"/>
+      <c r="AF267" s="4"/>
     </row>
     <row r="268" ht="14.25" customHeight="1">
       <c r="A268" s="4"/>
@@ -15691,6 +15964,7 @@
       <c r="AC268" s="4"/>
       <c r="AD268" s="4"/>
       <c r="AE268" s="4"/>
+      <c r="AF268" s="4"/>
     </row>
     <row r="269" ht="14.25" customHeight="1">
       <c r="A269" s="4"/>
@@ -15724,6 +15998,7 @@
       <c r="AC269" s="4"/>
       <c r="AD269" s="4"/>
       <c r="AE269" s="4"/>
+      <c r="AF269" s="4"/>
     </row>
     <row r="270" ht="14.25" customHeight="1">
       <c r="A270" s="4"/>
@@ -15757,6 +16032,7 @@
       <c r="AC270" s="4"/>
       <c r="AD270" s="4"/>
       <c r="AE270" s="4"/>
+      <c r="AF270" s="4"/>
     </row>
     <row r="271" ht="14.25" customHeight="1">
       <c r="A271" s="4"/>
@@ -15790,6 +16066,7 @@
       <c r="AC271" s="4"/>
       <c r="AD271" s="4"/>
       <c r="AE271" s="4"/>
+      <c r="AF271" s="4"/>
     </row>
     <row r="272" ht="14.25" customHeight="1">
       <c r="A272" s="4"/>
@@ -15823,6 +16100,7 @@
       <c r="AC272" s="4"/>
       <c r="AD272" s="4"/>
       <c r="AE272" s="4"/>
+      <c r="AF272" s="4"/>
     </row>
     <row r="273" ht="14.25" customHeight="1">
       <c r="A273" s="4"/>
@@ -15856,6 +16134,7 @@
       <c r="AC273" s="4"/>
       <c r="AD273" s="4"/>
       <c r="AE273" s="4"/>
+      <c r="AF273" s="4"/>
     </row>
     <row r="274" ht="14.25" customHeight="1">
       <c r="A274" s="4"/>
@@ -15889,6 +16168,7 @@
       <c r="AC274" s="4"/>
       <c r="AD274" s="4"/>
       <c r="AE274" s="4"/>
+      <c r="AF274" s="4"/>
     </row>
     <row r="275" ht="14.25" customHeight="1">
       <c r="A275" s="4"/>
@@ -15922,6 +16202,7 @@
       <c r="AC275" s="4"/>
       <c r="AD275" s="4"/>
       <c r="AE275" s="4"/>
+      <c r="AF275" s="4"/>
     </row>
     <row r="276" ht="14.25" customHeight="1">
       <c r="A276" s="4"/>
@@ -15955,6 +16236,7 @@
       <c r="AC276" s="4"/>
       <c r="AD276" s="4"/>
       <c r="AE276" s="4"/>
+      <c r="AF276" s="4"/>
     </row>
     <row r="277" ht="14.25" customHeight="1">
       <c r="A277" s="4"/>
@@ -15988,6 +16270,7 @@
       <c r="AC277" s="4"/>
       <c r="AD277" s="4"/>
       <c r="AE277" s="4"/>
+      <c r="AF277" s="4"/>
     </row>
     <row r="278" ht="14.25" customHeight="1">
       <c r="A278" s="4"/>
@@ -16021,6 +16304,7 @@
       <c r="AC278" s="4"/>
       <c r="AD278" s="4"/>
       <c r="AE278" s="4"/>
+      <c r="AF278" s="4"/>
     </row>
     <row r="279" ht="14.25" customHeight="1">
       <c r="A279" s="4"/>
@@ -16054,6 +16338,7 @@
       <c r="AC279" s="4"/>
       <c r="AD279" s="4"/>
       <c r="AE279" s="4"/>
+      <c r="AF279" s="4"/>
     </row>
     <row r="280" ht="14.25" customHeight="1">
       <c r="A280" s="4"/>
@@ -16087,6 +16372,7 @@
       <c r="AC280" s="4"/>
       <c r="AD280" s="4"/>
       <c r="AE280" s="4"/>
+      <c r="AF280" s="4"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
       <c r="A281" s="4"/>
@@ -16120,6 +16406,7 @@
       <c r="AC281" s="4"/>
       <c r="AD281" s="4"/>
       <c r="AE281" s="4"/>
+      <c r="AF281" s="4"/>
     </row>
     <row r="282" ht="14.25" customHeight="1">
       <c r="A282" s="4"/>
@@ -16153,6 +16440,7 @@
       <c r="AC282" s="4"/>
       <c r="AD282" s="4"/>
       <c r="AE282" s="4"/>
+      <c r="AF282" s="4"/>
     </row>
     <row r="283" ht="14.25" customHeight="1">
       <c r="A283" s="4"/>
@@ -16186,6 +16474,7 @@
       <c r="AC283" s="4"/>
       <c r="AD283" s="4"/>
       <c r="AE283" s="4"/>
+      <c r="AF283" s="4"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
       <c r="A284" s="4"/>
@@ -16219,6 +16508,7 @@
       <c r="AC284" s="4"/>
       <c r="AD284" s="4"/>
       <c r="AE284" s="4"/>
+      <c r="AF284" s="4"/>
     </row>
     <row r="285" ht="14.25" customHeight="1">
       <c r="A285" s="4"/>
@@ -16252,6 +16542,7 @@
       <c r="AC285" s="4"/>
       <c r="AD285" s="4"/>
       <c r="AE285" s="4"/>
+      <c r="AF285" s="4"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
       <c r="A286" s="4"/>
@@ -16285,6 +16576,7 @@
       <c r="AC286" s="4"/>
       <c r="AD286" s="4"/>
       <c r="AE286" s="4"/>
+      <c r="AF286" s="4"/>
     </row>
     <row r="287" ht="14.25" customHeight="1">
       <c r="A287" s="4"/>
@@ -16318,6 +16610,7 @@
       <c r="AC287" s="4"/>
       <c r="AD287" s="4"/>
       <c r="AE287" s="4"/>
+      <c r="AF287" s="4"/>
     </row>
     <row r="288" ht="14.25" customHeight="1">
       <c r="A288" s="4"/>
@@ -16351,6 +16644,7 @@
       <c r="AC288" s="4"/>
       <c r="AD288" s="4"/>
       <c r="AE288" s="4"/>
+      <c r="AF288" s="4"/>
     </row>
     <row r="289" ht="14.25" customHeight="1">
       <c r="A289" s="4"/>
@@ -16384,6 +16678,7 @@
       <c r="AC289" s="4"/>
       <c r="AD289" s="4"/>
       <c r="AE289" s="4"/>
+      <c r="AF289" s="4"/>
     </row>
     <row r="290" ht="14.25" customHeight="1">
       <c r="A290" s="4"/>
@@ -16417,6 +16712,7 @@
       <c r="AC290" s="4"/>
       <c r="AD290" s="4"/>
       <c r="AE290" s="4"/>
+      <c r="AF290" s="4"/>
     </row>
     <row r="291" ht="14.25" customHeight="1">
       <c r="A291" s="4"/>
@@ -16450,6 +16746,7 @@
       <c r="AC291" s="4"/>
       <c r="AD291" s="4"/>
       <c r="AE291" s="4"/>
+      <c r="AF291" s="4"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
       <c r="A292" s="4"/>
@@ -16483,6 +16780,7 @@
       <c r="AC292" s="4"/>
       <c r="AD292" s="4"/>
       <c r="AE292" s="4"/>
+      <c r="AF292" s="4"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
       <c r="A293" s="4"/>
@@ -16516,6 +16814,7 @@
       <c r="AC293" s="4"/>
       <c r="AD293" s="4"/>
       <c r="AE293" s="4"/>
+      <c r="AF293" s="4"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
       <c r="A294" s="4"/>
@@ -16549,6 +16848,7 @@
       <c r="AC294" s="4"/>
       <c r="AD294" s="4"/>
       <c r="AE294" s="4"/>
+      <c r="AF294" s="4"/>
     </row>
     <row r="295" ht="14.25" customHeight="1">
       <c r="A295" s="4"/>
@@ -16582,6 +16882,7 @@
       <c r="AC295" s="4"/>
       <c r="AD295" s="4"/>
       <c r="AE295" s="4"/>
+      <c r="AF295" s="4"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
       <c r="A296" s="4"/>
@@ -16615,6 +16916,7 @@
       <c r="AC296" s="4"/>
       <c r="AD296" s="4"/>
       <c r="AE296" s="4"/>
+      <c r="AF296" s="4"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
       <c r="A297" s="4"/>
@@ -16648,6 +16950,7 @@
       <c r="AC297" s="4"/>
       <c r="AD297" s="4"/>
       <c r="AE297" s="4"/>
+      <c r="AF297" s="4"/>
     </row>
     <row r="298" ht="14.25" customHeight="1">
       <c r="A298" s="4"/>
@@ -16681,6 +16984,7 @@
       <c r="AC298" s="4"/>
       <c r="AD298" s="4"/>
       <c r="AE298" s="4"/>
+      <c r="AF298" s="4"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
       <c r="A299" s="4"/>
@@ -16714,6 +17018,7 @@
       <c r="AC299" s="4"/>
       <c r="AD299" s="4"/>
       <c r="AE299" s="4"/>
+      <c r="AF299" s="4"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
       <c r="A300" s="4"/>
@@ -16747,6 +17052,7 @@
       <c r="AC300" s="4"/>
       <c r="AD300" s="4"/>
       <c r="AE300" s="4"/>
+      <c r="AF300" s="4"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
       <c r="A301" s="4"/>
@@ -16780,6 +17086,7 @@
       <c r="AC301" s="4"/>
       <c r="AD301" s="4"/>
       <c r="AE301" s="4"/>
+      <c r="AF301" s="4"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
       <c r="A302" s="4"/>
@@ -16813,6 +17120,7 @@
       <c r="AC302" s="4"/>
       <c r="AD302" s="4"/>
       <c r="AE302" s="4"/>
+      <c r="AF302" s="4"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
       <c r="A303" s="4"/>
@@ -16846,6 +17154,7 @@
       <c r="AC303" s="4"/>
       <c r="AD303" s="4"/>
       <c r="AE303" s="4"/>
+      <c r="AF303" s="4"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
       <c r="A304" s="4"/>
@@ -16879,6 +17188,7 @@
       <c r="AC304" s="4"/>
       <c r="AD304" s="4"/>
       <c r="AE304" s="4"/>
+      <c r="AF304" s="4"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
       <c r="A305" s="4"/>
@@ -16912,6 +17222,7 @@
       <c r="AC305" s="4"/>
       <c r="AD305" s="4"/>
       <c r="AE305" s="4"/>
+      <c r="AF305" s="4"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
       <c r="A306" s="4"/>
@@ -16945,6 +17256,7 @@
       <c r="AC306" s="4"/>
       <c r="AD306" s="4"/>
       <c r="AE306" s="4"/>
+      <c r="AF306" s="4"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
       <c r="A307" s="4"/>
@@ -16978,6 +17290,7 @@
       <c r="AC307" s="4"/>
       <c r="AD307" s="4"/>
       <c r="AE307" s="4"/>
+      <c r="AF307" s="4"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
       <c r="A308" s="4"/>
@@ -17011,6 +17324,7 @@
       <c r="AC308" s="4"/>
       <c r="AD308" s="4"/>
       <c r="AE308" s="4"/>
+      <c r="AF308" s="4"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
       <c r="A309" s="4"/>
@@ -17044,6 +17358,7 @@
       <c r="AC309" s="4"/>
       <c r="AD309" s="4"/>
       <c r="AE309" s="4"/>
+      <c r="AF309" s="4"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
       <c r="A310" s="4"/>
@@ -17077,6 +17392,7 @@
       <c r="AC310" s="4"/>
       <c r="AD310" s="4"/>
       <c r="AE310" s="4"/>
+      <c r="AF310" s="4"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
       <c r="A311" s="4"/>
@@ -17110,6 +17426,7 @@
       <c r="AC311" s="4"/>
       <c r="AD311" s="4"/>
       <c r="AE311" s="4"/>
+      <c r="AF311" s="4"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
       <c r="A312" s="4"/>
@@ -17143,6 +17460,7 @@
       <c r="AC312" s="4"/>
       <c r="AD312" s="4"/>
       <c r="AE312" s="4"/>
+      <c r="AF312" s="4"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
       <c r="A313" s="4"/>
@@ -17176,6 +17494,7 @@
       <c r="AC313" s="4"/>
       <c r="AD313" s="4"/>
       <c r="AE313" s="4"/>
+      <c r="AF313" s="4"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
       <c r="A314" s="4"/>
@@ -17209,6 +17528,7 @@
       <c r="AC314" s="4"/>
       <c r="AD314" s="4"/>
       <c r="AE314" s="4"/>
+      <c r="AF314" s="4"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
       <c r="A315" s="4"/>
@@ -17242,6 +17562,7 @@
       <c r="AC315" s="4"/>
       <c r="AD315" s="4"/>
       <c r="AE315" s="4"/>
+      <c r="AF315" s="4"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
       <c r="A316" s="4"/>
@@ -17275,6 +17596,7 @@
       <c r="AC316" s="4"/>
       <c r="AD316" s="4"/>
       <c r="AE316" s="4"/>
+      <c r="AF316" s="4"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
       <c r="A317" s="4"/>
@@ -17308,6 +17630,7 @@
       <c r="AC317" s="4"/>
       <c r="AD317" s="4"/>
       <c r="AE317" s="4"/>
+      <c r="AF317" s="4"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
       <c r="A318" s="4"/>
@@ -17341,6 +17664,7 @@
       <c r="AC318" s="4"/>
       <c r="AD318" s="4"/>
       <c r="AE318" s="4"/>
+      <c r="AF318" s="4"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
       <c r="A319" s="4"/>
@@ -17374,6 +17698,7 @@
       <c r="AC319" s="4"/>
       <c r="AD319" s="4"/>
       <c r="AE319" s="4"/>
+      <c r="AF319" s="4"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
       <c r="A320" s="4"/>
@@ -17407,6 +17732,7 @@
       <c r="AC320" s="4"/>
       <c r="AD320" s="4"/>
       <c r="AE320" s="4"/>
+      <c r="AF320" s="4"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
       <c r="A321" s="4"/>
@@ -17440,6 +17766,7 @@
       <c r="AC321" s="4"/>
       <c r="AD321" s="4"/>
       <c r="AE321" s="4"/>
+      <c r="AF321" s="4"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
       <c r="A322" s="4"/>
@@ -17473,6 +17800,7 @@
       <c r="AC322" s="4"/>
       <c r="AD322" s="4"/>
       <c r="AE322" s="4"/>
+      <c r="AF322" s="4"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
       <c r="A323" s="4"/>
@@ -17506,6 +17834,7 @@
       <c r="AC323" s="4"/>
       <c r="AD323" s="4"/>
       <c r="AE323" s="4"/>
+      <c r="AF323" s="4"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
       <c r="A324" s="4"/>
@@ -17539,6 +17868,7 @@
       <c r="AC324" s="4"/>
       <c r="AD324" s="4"/>
       <c r="AE324" s="4"/>
+      <c r="AF324" s="4"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
       <c r="A325" s="4"/>
@@ -17572,6 +17902,7 @@
       <c r="AC325" s="4"/>
       <c r="AD325" s="4"/>
       <c r="AE325" s="4"/>
+      <c r="AF325" s="4"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
       <c r="A326" s="4"/>
@@ -17605,6 +17936,7 @@
       <c r="AC326" s="4"/>
       <c r="AD326" s="4"/>
       <c r="AE326" s="4"/>
+      <c r="AF326" s="4"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
       <c r="A327" s="4"/>
@@ -17638,6 +17970,7 @@
       <c r="AC327" s="4"/>
       <c r="AD327" s="4"/>
       <c r="AE327" s="4"/>
+      <c r="AF327" s="4"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
       <c r="A328" s="4"/>
@@ -17671,6 +18004,7 @@
       <c r="AC328" s="4"/>
       <c r="AD328" s="4"/>
       <c r="AE328" s="4"/>
+      <c r="AF328" s="4"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
       <c r="A329" s="4"/>
@@ -17704,6 +18038,7 @@
       <c r="AC329" s="4"/>
       <c r="AD329" s="4"/>
       <c r="AE329" s="4"/>
+      <c r="AF329" s="4"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
       <c r="A330" s="4"/>
@@ -17737,6 +18072,7 @@
       <c r="AC330" s="4"/>
       <c r="AD330" s="4"/>
       <c r="AE330" s="4"/>
+      <c r="AF330" s="4"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
       <c r="A331" s="4"/>
@@ -17770,6 +18106,7 @@
       <c r="AC331" s="4"/>
       <c r="AD331" s="4"/>
       <c r="AE331" s="4"/>
+      <c r="AF331" s="4"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
       <c r="A332" s="4"/>
@@ -17803,6 +18140,7 @@
       <c r="AC332" s="4"/>
       <c r="AD332" s="4"/>
       <c r="AE332" s="4"/>
+      <c r="AF332" s="4"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
       <c r="A333" s="4"/>
@@ -17836,6 +18174,7 @@
       <c r="AC333" s="4"/>
       <c r="AD333" s="4"/>
       <c r="AE333" s="4"/>
+      <c r="AF333" s="4"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
       <c r="A334" s="4"/>
@@ -17869,6 +18208,7 @@
       <c r="AC334" s="4"/>
       <c r="AD334" s="4"/>
       <c r="AE334" s="4"/>
+      <c r="AF334" s="4"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
       <c r="A335" s="4"/>
@@ -17902,6 +18242,7 @@
       <c r="AC335" s="4"/>
       <c r="AD335" s="4"/>
       <c r="AE335" s="4"/>
+      <c r="AF335" s="4"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
       <c r="A336" s="4"/>
@@ -17935,6 +18276,7 @@
       <c r="AC336" s="4"/>
       <c r="AD336" s="4"/>
       <c r="AE336" s="4"/>
+      <c r="AF336" s="4"/>
     </row>
     <row r="337" ht="14.25" customHeight="1">
       <c r="A337" s="4"/>
@@ -17968,6 +18310,7 @@
       <c r="AC337" s="4"/>
       <c r="AD337" s="4"/>
       <c r="AE337" s="4"/>
+      <c r="AF337" s="4"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
       <c r="A338" s="4"/>
@@ -18001,6 +18344,7 @@
       <c r="AC338" s="4"/>
       <c r="AD338" s="4"/>
       <c r="AE338" s="4"/>
+      <c r="AF338" s="4"/>
     </row>
     <row r="339" ht="14.25" customHeight="1">
       <c r="A339" s="4"/>
@@ -18034,6 +18378,7 @@
       <c r="AC339" s="4"/>
       <c r="AD339" s="4"/>
       <c r="AE339" s="4"/>
+      <c r="AF339" s="4"/>
     </row>
     <row r="340" ht="14.25" customHeight="1">
       <c r="A340" s="4"/>
@@ -18067,6 +18412,7 @@
       <c r="AC340" s="4"/>
       <c r="AD340" s="4"/>
       <c r="AE340" s="4"/>
+      <c r="AF340" s="4"/>
     </row>
     <row r="341" ht="14.25" customHeight="1">
       <c r="A341" s="4"/>
@@ -18100,6 +18446,7 @@
       <c r="AC341" s="4"/>
       <c r="AD341" s="4"/>
       <c r="AE341" s="4"/>
+      <c r="AF341" s="4"/>
     </row>
     <row r="342" ht="14.25" customHeight="1">
       <c r="A342" s="4"/>
@@ -18133,6 +18480,7 @@
       <c r="AC342" s="4"/>
       <c r="AD342" s="4"/>
       <c r="AE342" s="4"/>
+      <c r="AF342" s="4"/>
     </row>
     <row r="343" ht="14.25" customHeight="1">
       <c r="A343" s="4"/>
@@ -18166,6 +18514,7 @@
       <c r="AC343" s="4"/>
       <c r="AD343" s="4"/>
       <c r="AE343" s="4"/>
+      <c r="AF343" s="4"/>
     </row>
     <row r="344" ht="14.25" customHeight="1">
       <c r="A344" s="4"/>
@@ -18199,6 +18548,7 @@
       <c r="AC344" s="4"/>
       <c r="AD344" s="4"/>
       <c r="AE344" s="4"/>
+      <c r="AF344" s="4"/>
     </row>
     <row r="345" ht="14.25" customHeight="1">
       <c r="A345" s="4"/>
@@ -18232,6 +18582,7 @@
       <c r="AC345" s="4"/>
       <c r="AD345" s="4"/>
       <c r="AE345" s="4"/>
+      <c r="AF345" s="4"/>
     </row>
     <row r="346" ht="14.25" customHeight="1">
       <c r="A346" s="4"/>
@@ -18265,6 +18616,7 @@
       <c r="AC346" s="4"/>
       <c r="AD346" s="4"/>
       <c r="AE346" s="4"/>
+      <c r="AF346" s="4"/>
     </row>
     <row r="347" ht="14.25" customHeight="1">
       <c r="A347" s="4"/>
@@ -18298,6 +18650,7 @@
       <c r="AC347" s="4"/>
       <c r="AD347" s="4"/>
       <c r="AE347" s="4"/>
+      <c r="AF347" s="4"/>
     </row>
     <row r="348" ht="14.25" customHeight="1">
       <c r="A348" s="4"/>
@@ -18331,6 +18684,7 @@
       <c r="AC348" s="4"/>
       <c r="AD348" s="4"/>
       <c r="AE348" s="4"/>
+      <c r="AF348" s="4"/>
     </row>
     <row r="349" ht="14.25" customHeight="1">
       <c r="A349" s="4"/>
@@ -18364,6 +18718,7 @@
       <c r="AC349" s="4"/>
       <c r="AD349" s="4"/>
       <c r="AE349" s="4"/>
+      <c r="AF349" s="4"/>
     </row>
     <row r="350" ht="14.25" customHeight="1">
       <c r="A350" s="4"/>
@@ -18397,6 +18752,7 @@
       <c r="AC350" s="4"/>
       <c r="AD350" s="4"/>
       <c r="AE350" s="4"/>
+      <c r="AF350" s="4"/>
     </row>
     <row r="351" ht="14.25" customHeight="1">
       <c r="A351" s="4"/>
@@ -18430,6 +18786,7 @@
       <c r="AC351" s="4"/>
       <c r="AD351" s="4"/>
       <c r="AE351" s="4"/>
+      <c r="AF351" s="4"/>
     </row>
     <row r="352" ht="14.25" customHeight="1">
       <c r="A352" s="4"/>
@@ -18463,6 +18820,7 @@
       <c r="AC352" s="4"/>
       <c r="AD352" s="4"/>
       <c r="AE352" s="4"/>
+      <c r="AF352" s="4"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
       <c r="A353" s="4"/>
@@ -18496,6 +18854,7 @@
       <c r="AC353" s="4"/>
       <c r="AD353" s="4"/>
       <c r="AE353" s="4"/>
+      <c r="AF353" s="4"/>
     </row>
     <row r="354" ht="14.25" customHeight="1">
       <c r="A354" s="4"/>
@@ -18529,6 +18888,7 @@
       <c r="AC354" s="4"/>
       <c r="AD354" s="4"/>
       <c r="AE354" s="4"/>
+      <c r="AF354" s="4"/>
     </row>
     <row r="355" ht="14.25" customHeight="1">
       <c r="A355" s="4"/>
@@ -18562,6 +18922,7 @@
       <c r="AC355" s="4"/>
       <c r="AD355" s="4"/>
       <c r="AE355" s="4"/>
+      <c r="AF355" s="4"/>
     </row>
     <row r="356" ht="14.25" customHeight="1">
       <c r="A356" s="4"/>
@@ -18595,6 +18956,7 @@
       <c r="AC356" s="4"/>
       <c r="AD356" s="4"/>
       <c r="AE356" s="4"/>
+      <c r="AF356" s="4"/>
     </row>
     <row r="357" ht="14.25" customHeight="1">
       <c r="A357" s="4"/>
@@ -18628,6 +18990,7 @@
       <c r="AC357" s="4"/>
       <c r="AD357" s="4"/>
       <c r="AE357" s="4"/>
+      <c r="AF357" s="4"/>
     </row>
     <row r="358" ht="14.25" customHeight="1">
       <c r="A358" s="4"/>
@@ -18661,6 +19024,7 @@
       <c r="AC358" s="4"/>
       <c r="AD358" s="4"/>
       <c r="AE358" s="4"/>
+      <c r="AF358" s="4"/>
     </row>
     <row r="359" ht="14.25" customHeight="1">
       <c r="A359" s="4"/>
@@ -18694,6 +19058,7 @@
       <c r="AC359" s="4"/>
       <c r="AD359" s="4"/>
       <c r="AE359" s="4"/>
+      <c r="AF359" s="4"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
       <c r="A360" s="4"/>
@@ -18727,6 +19092,7 @@
       <c r="AC360" s="4"/>
       <c r="AD360" s="4"/>
       <c r="AE360" s="4"/>
+      <c r="AF360" s="4"/>
     </row>
     <row r="361" ht="14.25" customHeight="1">
       <c r="A361" s="4"/>
@@ -18760,6 +19126,7 @@
       <c r="AC361" s="4"/>
       <c r="AD361" s="4"/>
       <c r="AE361" s="4"/>
+      <c r="AF361" s="4"/>
     </row>
     <row r="362" ht="14.25" customHeight="1">
       <c r="A362" s="4"/>
@@ -18793,6 +19160,7 @@
       <c r="AC362" s="4"/>
       <c r="AD362" s="4"/>
       <c r="AE362" s="4"/>
+      <c r="AF362" s="4"/>
     </row>
     <row r="363" ht="14.25" customHeight="1">
       <c r="A363" s="4"/>
@@ -18826,6 +19194,7 @@
       <c r="AC363" s="4"/>
       <c r="AD363" s="4"/>
       <c r="AE363" s="4"/>
+      <c r="AF363" s="4"/>
     </row>
     <row r="364" ht="14.25" customHeight="1">
       <c r="A364" s="4"/>
@@ -18859,6 +19228,7 @@
       <c r="AC364" s="4"/>
       <c r="AD364" s="4"/>
       <c r="AE364" s="4"/>
+      <c r="AF364" s="4"/>
     </row>
     <row r="365" ht="14.25" customHeight="1">
       <c r="A365" s="4"/>
@@ -18892,6 +19262,7 @@
       <c r="AC365" s="4"/>
       <c r="AD365" s="4"/>
       <c r="AE365" s="4"/>
+      <c r="AF365" s="4"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
       <c r="A366" s="4"/>
@@ -18925,6 +19296,7 @@
       <c r="AC366" s="4"/>
       <c r="AD366" s="4"/>
       <c r="AE366" s="4"/>
+      <c r="AF366" s="4"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
       <c r="A367" s="4"/>
@@ -18958,6 +19330,7 @@
       <c r="AC367" s="4"/>
       <c r="AD367" s="4"/>
       <c r="AE367" s="4"/>
+      <c r="AF367" s="4"/>
     </row>
     <row r="368" ht="14.25" customHeight="1">
       <c r="A368" s="4"/>
@@ -18991,6 +19364,7 @@
       <c r="AC368" s="4"/>
       <c r="AD368" s="4"/>
       <c r="AE368" s="4"/>
+      <c r="AF368" s="4"/>
     </row>
     <row r="369" ht="14.25" customHeight="1">
       <c r="A369" s="4"/>
@@ -19024,6 +19398,7 @@
       <c r="AC369" s="4"/>
       <c r="AD369" s="4"/>
       <c r="AE369" s="4"/>
+      <c r="AF369" s="4"/>
     </row>
     <row r="370" ht="14.25" customHeight="1">
       <c r="A370" s="4"/>
@@ -19057,6 +19432,7 @@
       <c r="AC370" s="4"/>
       <c r="AD370" s="4"/>
       <c r="AE370" s="4"/>
+      <c r="AF370" s="4"/>
     </row>
     <row r="371" ht="14.25" customHeight="1">
       <c r="A371" s="4"/>
@@ -19090,6 +19466,7 @@
       <c r="AC371" s="4"/>
       <c r="AD371" s="4"/>
       <c r="AE371" s="4"/>
+      <c r="AF371" s="4"/>
     </row>
     <row r="372" ht="14.25" customHeight="1">
       <c r="A372" s="4"/>
@@ -19123,6 +19500,7 @@
       <c r="AC372" s="4"/>
       <c r="AD372" s="4"/>
       <c r="AE372" s="4"/>
+      <c r="AF372" s="4"/>
     </row>
     <row r="373" ht="14.25" customHeight="1">
       <c r="A373" s="4"/>
@@ -19156,6 +19534,7 @@
       <c r="AC373" s="4"/>
       <c r="AD373" s="4"/>
       <c r="AE373" s="4"/>
+      <c r="AF373" s="4"/>
     </row>
     <row r="374" ht="14.25" customHeight="1">
       <c r="A374" s="4"/>
@@ -19189,6 +19568,7 @@
       <c r="AC374" s="4"/>
       <c r="AD374" s="4"/>
       <c r="AE374" s="4"/>
+      <c r="AF374" s="4"/>
     </row>
     <row r="375" ht="14.25" customHeight="1">
       <c r="A375" s="4"/>
@@ -19222,6 +19602,7 @@
       <c r="AC375" s="4"/>
       <c r="AD375" s="4"/>
       <c r="AE375" s="4"/>
+      <c r="AF375" s="4"/>
     </row>
     <row r="376" ht="14.25" customHeight="1">
       <c r="A376" s="4"/>
@@ -19255,6 +19636,7 @@
       <c r="AC376" s="4"/>
       <c r="AD376" s="4"/>
       <c r="AE376" s="4"/>
+      <c r="AF376" s="4"/>
     </row>
     <row r="377" ht="14.25" customHeight="1">
       <c r="A377" s="4"/>
@@ -19288,6 +19670,7 @@
       <c r="AC377" s="4"/>
       <c r="AD377" s="4"/>
       <c r="AE377" s="4"/>
+      <c r="AF377" s="4"/>
     </row>
     <row r="378" ht="14.25" customHeight="1">
       <c r="A378" s="4"/>
@@ -19321,6 +19704,7 @@
       <c r="AC378" s="4"/>
       <c r="AD378" s="4"/>
       <c r="AE378" s="4"/>
+      <c r="AF378" s="4"/>
     </row>
     <row r="379" ht="14.25" customHeight="1">
       <c r="A379" s="4"/>
@@ -19354,6 +19738,7 @@
       <c r="AC379" s="4"/>
       <c r="AD379" s="4"/>
       <c r="AE379" s="4"/>
+      <c r="AF379" s="4"/>
     </row>
     <row r="380" ht="14.25" customHeight="1">
       <c r="A380" s="4"/>
@@ -19387,6 +19772,7 @@
       <c r="AC380" s="4"/>
       <c r="AD380" s="4"/>
       <c r="AE380" s="4"/>
+      <c r="AF380" s="4"/>
     </row>
     <row r="381" ht="14.25" customHeight="1">
       <c r="A381" s="4"/>
@@ -19420,6 +19806,7 @@
       <c r="AC381" s="4"/>
       <c r="AD381" s="4"/>
       <c r="AE381" s="4"/>
+      <c r="AF381" s="4"/>
     </row>
     <row r="382" ht="14.25" customHeight="1">
       <c r="A382" s="4"/>
@@ -19453,6 +19840,7 @@
       <c r="AC382" s="4"/>
       <c r="AD382" s="4"/>
       <c r="AE382" s="4"/>
+      <c r="AF382" s="4"/>
     </row>
     <row r="383" ht="14.25" customHeight="1">
       <c r="A383" s="4"/>
@@ -19486,6 +19874,7 @@
       <c r="AC383" s="4"/>
       <c r="AD383" s="4"/>
       <c r="AE383" s="4"/>
+      <c r="AF383" s="4"/>
     </row>
     <row r="384" ht="14.25" customHeight="1">
       <c r="A384" s="4"/>
@@ -19519,6 +19908,7 @@
       <c r="AC384" s="4"/>
       <c r="AD384" s="4"/>
       <c r="AE384" s="4"/>
+      <c r="AF384" s="4"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
       <c r="A385" s="4"/>
@@ -19552,6 +19942,7 @@
       <c r="AC385" s="4"/>
       <c r="AD385" s="4"/>
       <c r="AE385" s="4"/>
+      <c r="AF385" s="4"/>
     </row>
     <row r="386" ht="14.25" customHeight="1">
       <c r="A386" s="4"/>
@@ -19585,6 +19976,7 @@
       <c r="AC386" s="4"/>
       <c r="AD386" s="4"/>
       <c r="AE386" s="4"/>
+      <c r="AF386" s="4"/>
     </row>
     <row r="387" ht="14.25" customHeight="1">
       <c r="A387" s="4"/>
@@ -19618,6 +20010,7 @@
       <c r="AC387" s="4"/>
       <c r="AD387" s="4"/>
       <c r="AE387" s="4"/>
+      <c r="AF387" s="4"/>
     </row>
     <row r="388" ht="14.25" customHeight="1">
       <c r="A388" s="4"/>
@@ -19651,6 +20044,7 @@
       <c r="AC388" s="4"/>
       <c r="AD388" s="4"/>
       <c r="AE388" s="4"/>
+      <c r="AF388" s="4"/>
     </row>
     <row r="389" ht="14.25" customHeight="1">
       <c r="A389" s="4"/>
@@ -19684,6 +20078,7 @@
       <c r="AC389" s="4"/>
       <c r="AD389" s="4"/>
       <c r="AE389" s="4"/>
+      <c r="AF389" s="4"/>
     </row>
     <row r="390" ht="14.25" customHeight="1">
       <c r="A390" s="4"/>
@@ -19717,6 +20112,7 @@
       <c r="AC390" s="4"/>
       <c r="AD390" s="4"/>
       <c r="AE390" s="4"/>
+      <c r="AF390" s="4"/>
     </row>
     <row r="391" ht="14.25" customHeight="1">
       <c r="A391" s="4"/>
@@ -19750,6 +20146,7 @@
       <c r="AC391" s="4"/>
       <c r="AD391" s="4"/>
       <c r="AE391" s="4"/>
+      <c r="AF391" s="4"/>
     </row>
     <row r="392" ht="14.25" customHeight="1">
       <c r="A392" s="4"/>
@@ -19783,6 +20180,7 @@
       <c r="AC392" s="4"/>
       <c r="AD392" s="4"/>
       <c r="AE392" s="4"/>
+      <c r="AF392" s="4"/>
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="4"/>
@@ -19816,6 +20214,7 @@
       <c r="AC393" s="4"/>
       <c r="AD393" s="4"/>
       <c r="AE393" s="4"/>
+      <c r="AF393" s="4"/>
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="4"/>
@@ -19849,6 +20248,7 @@
       <c r="AC394" s="4"/>
       <c r="AD394" s="4"/>
       <c r="AE394" s="4"/>
+      <c r="AF394" s="4"/>
     </row>
     <row r="395" ht="14.25" customHeight="1">
       <c r="A395" s="4"/>
@@ -19882,6 +20282,7 @@
       <c r="AC395" s="4"/>
       <c r="AD395" s="4"/>
       <c r="AE395" s="4"/>
+      <c r="AF395" s="4"/>
     </row>
     <row r="396" ht="14.25" customHeight="1">
       <c r="A396" s="4"/>
@@ -19915,6 +20316,7 @@
       <c r="AC396" s="4"/>
       <c r="AD396" s="4"/>
       <c r="AE396" s="4"/>
+      <c r="AF396" s="4"/>
     </row>
     <row r="397" ht="14.25" customHeight="1">
       <c r="A397" s="4"/>
@@ -19948,6 +20350,7 @@
       <c r="AC397" s="4"/>
       <c r="AD397" s="4"/>
       <c r="AE397" s="4"/>
+      <c r="AF397" s="4"/>
     </row>
     <row r="398" ht="14.25" customHeight="1">
       <c r="A398" s="4"/>
@@ -19981,6 +20384,7 @@
       <c r="AC398" s="4"/>
       <c r="AD398" s="4"/>
       <c r="AE398" s="4"/>
+      <c r="AF398" s="4"/>
     </row>
     <row r="399" ht="14.25" customHeight="1">
       <c r="A399" s="4"/>
@@ -20014,6 +20418,7 @@
       <c r="AC399" s="4"/>
       <c r="AD399" s="4"/>
       <c r="AE399" s="4"/>
+      <c r="AF399" s="4"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
       <c r="A400" s="4"/>
@@ -20047,6 +20452,7 @@
       <c r="AC400" s="4"/>
       <c r="AD400" s="4"/>
       <c r="AE400" s="4"/>
+      <c r="AF400" s="4"/>
     </row>
     <row r="401" ht="14.25" customHeight="1">
       <c r="A401" s="4"/>
@@ -20080,6 +20486,7 @@
       <c r="AC401" s="4"/>
       <c r="AD401" s="4"/>
       <c r="AE401" s="4"/>
+      <c r="AF401" s="4"/>
     </row>
     <row r="402" ht="14.25" customHeight="1">
       <c r="A402" s="4"/>
@@ -20113,6 +20520,7 @@
       <c r="AC402" s="4"/>
       <c r="AD402" s="4"/>
       <c r="AE402" s="4"/>
+      <c r="AF402" s="4"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
       <c r="A403" s="4"/>
@@ -20146,6 +20554,7 @@
       <c r="AC403" s="4"/>
       <c r="AD403" s="4"/>
       <c r="AE403" s="4"/>
+      <c r="AF403" s="4"/>
     </row>
     <row r="404" ht="14.25" customHeight="1">
       <c r="A404" s="4"/>
@@ -20179,6 +20588,7 @@
       <c r="AC404" s="4"/>
       <c r="AD404" s="4"/>
       <c r="AE404" s="4"/>
+      <c r="AF404" s="4"/>
     </row>
     <row r="405" ht="14.25" customHeight="1">
       <c r="A405" s="4"/>
@@ -20212,6 +20622,7 @@
       <c r="AC405" s="4"/>
       <c r="AD405" s="4"/>
       <c r="AE405" s="4"/>
+      <c r="AF405" s="4"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
       <c r="A406" s="4"/>
@@ -20245,6 +20656,7 @@
       <c r="AC406" s="4"/>
       <c r="AD406" s="4"/>
       <c r="AE406" s="4"/>
+      <c r="AF406" s="4"/>
     </row>
     <row r="407" ht="14.25" customHeight="1">
       <c r="A407" s="4"/>
@@ -20278,6 +20690,7 @@
       <c r="AC407" s="4"/>
       <c r="AD407" s="4"/>
       <c r="AE407" s="4"/>
+      <c r="AF407" s="4"/>
     </row>
     <row r="408" ht="14.25" customHeight="1">
       <c r="A408" s="4"/>
@@ -20311,6 +20724,7 @@
       <c r="AC408" s="4"/>
       <c r="AD408" s="4"/>
       <c r="AE408" s="4"/>
+      <c r="AF408" s="4"/>
     </row>
     <row r="409" ht="14.25" customHeight="1">
       <c r="A409" s="4"/>
@@ -20344,6 +20758,7 @@
       <c r="AC409" s="4"/>
       <c r="AD409" s="4"/>
       <c r="AE409" s="4"/>
+      <c r="AF409" s="4"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
       <c r="A410" s="4"/>
@@ -20377,6 +20792,7 @@
       <c r="AC410" s="4"/>
       <c r="AD410" s="4"/>
       <c r="AE410" s="4"/>
+      <c r="AF410" s="4"/>
     </row>
     <row r="411" ht="14.25" customHeight="1">
       <c r="A411" s="4"/>
@@ -20410,6 +20826,7 @@
       <c r="AC411" s="4"/>
       <c r="AD411" s="4"/>
       <c r="AE411" s="4"/>
+      <c r="AF411" s="4"/>
     </row>
     <row r="412" ht="14.25" customHeight="1">
       <c r="A412" s="4"/>
@@ -20443,6 +20860,7 @@
       <c r="AC412" s="4"/>
       <c r="AD412" s="4"/>
       <c r="AE412" s="4"/>
+      <c r="AF412" s="4"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
       <c r="A413" s="4"/>
@@ -20476,6 +20894,7 @@
       <c r="AC413" s="4"/>
       <c r="AD413" s="4"/>
       <c r="AE413" s="4"/>
+      <c r="AF413" s="4"/>
     </row>
     <row r="414" ht="14.25" customHeight="1">
       <c r="A414" s="4"/>
@@ -20509,6 +20928,7 @@
       <c r="AC414" s="4"/>
       <c r="AD414" s="4"/>
       <c r="AE414" s="4"/>
+      <c r="AF414" s="4"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
       <c r="A415" s="4"/>
@@ -20542,6 +20962,7 @@
       <c r="AC415" s="4"/>
       <c r="AD415" s="4"/>
       <c r="AE415" s="4"/>
+      <c r="AF415" s="4"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
       <c r="A416" s="4"/>
@@ -20575,6 +20996,7 @@
       <c r="AC416" s="4"/>
       <c r="AD416" s="4"/>
       <c r="AE416" s="4"/>
+      <c r="AF416" s="4"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
       <c r="A417" s="4"/>
@@ -20608,6 +21030,7 @@
       <c r="AC417" s="4"/>
       <c r="AD417" s="4"/>
       <c r="AE417" s="4"/>
+      <c r="AF417" s="4"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
       <c r="A418" s="4"/>
@@ -20641,6 +21064,7 @@
       <c r="AC418" s="4"/>
       <c r="AD418" s="4"/>
       <c r="AE418" s="4"/>
+      <c r="AF418" s="4"/>
     </row>
     <row r="419" ht="14.25" customHeight="1">
       <c r="A419" s="4"/>
@@ -20674,6 +21098,7 @@
       <c r="AC419" s="4"/>
       <c r="AD419" s="4"/>
       <c r="AE419" s="4"/>
+      <c r="AF419" s="4"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
       <c r="A420" s="4"/>
@@ -20707,6 +21132,7 @@
       <c r="AC420" s="4"/>
       <c r="AD420" s="4"/>
       <c r="AE420" s="4"/>
+      <c r="AF420" s="4"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
       <c r="A421" s="4"/>
@@ -20740,6 +21166,7 @@
       <c r="AC421" s="4"/>
       <c r="AD421" s="4"/>
       <c r="AE421" s="4"/>
+      <c r="AF421" s="4"/>
     </row>
     <row r="422" ht="14.25" customHeight="1">
       <c r="A422" s="4"/>
@@ -20773,6 +21200,7 @@
       <c r="AC422" s="4"/>
       <c r="AD422" s="4"/>
       <c r="AE422" s="4"/>
+      <c r="AF422" s="4"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
       <c r="A423" s="4"/>
@@ -20806,6 +21234,7 @@
       <c r="AC423" s="4"/>
       <c r="AD423" s="4"/>
       <c r="AE423" s="4"/>
+      <c r="AF423" s="4"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
       <c r="A424" s="4"/>
@@ -20839,6 +21268,7 @@
       <c r="AC424" s="4"/>
       <c r="AD424" s="4"/>
       <c r="AE424" s="4"/>
+      <c r="AF424" s="4"/>
     </row>
     <row r="425" ht="14.25" customHeight="1">
       <c r="A425" s="4"/>
@@ -20872,6 +21302,7 @@
       <c r="AC425" s="4"/>
       <c r="AD425" s="4"/>
       <c r="AE425" s="4"/>
+      <c r="AF425" s="4"/>
     </row>
     <row r="426" ht="14.25" customHeight="1">
       <c r="A426" s="4"/>
@@ -20905,6 +21336,7 @@
       <c r="AC426" s="4"/>
       <c r="AD426" s="4"/>
       <c r="AE426" s="4"/>
+      <c r="AF426" s="4"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
       <c r="A427" s="4"/>
@@ -20938,6 +21370,7 @@
       <c r="AC427" s="4"/>
       <c r="AD427" s="4"/>
       <c r="AE427" s="4"/>
+      <c r="AF427" s="4"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
       <c r="A428" s="4"/>
@@ -20971,6 +21404,7 @@
       <c r="AC428" s="4"/>
       <c r="AD428" s="4"/>
       <c r="AE428" s="4"/>
+      <c r="AF428" s="4"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
       <c r="A429" s="4"/>
@@ -21004,6 +21438,7 @@
       <c r="AC429" s="4"/>
       <c r="AD429" s="4"/>
       <c r="AE429" s="4"/>
+      <c r="AF429" s="4"/>
     </row>
     <row r="430" ht="14.25" customHeight="1">
       <c r="A430" s="4"/>
@@ -21037,6 +21472,7 @@
       <c r="AC430" s="4"/>
       <c r="AD430" s="4"/>
       <c r="AE430" s="4"/>
+      <c r="AF430" s="4"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
       <c r="A431" s="4"/>
@@ -21070,6 +21506,7 @@
       <c r="AC431" s="4"/>
       <c r="AD431" s="4"/>
       <c r="AE431" s="4"/>
+      <c r="AF431" s="4"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
       <c r="A432" s="4"/>
@@ -21103,6 +21540,7 @@
       <c r="AC432" s="4"/>
       <c r="AD432" s="4"/>
       <c r="AE432" s="4"/>
+      <c r="AF432" s="4"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
       <c r="A433" s="4"/>
@@ -21136,6 +21574,7 @@
       <c r="AC433" s="4"/>
       <c r="AD433" s="4"/>
       <c r="AE433" s="4"/>
+      <c r="AF433" s="4"/>
     </row>
     <row r="434" ht="14.25" customHeight="1">
       <c r="A434" s="4"/>
@@ -21169,6 +21608,7 @@
       <c r="AC434" s="4"/>
       <c r="AD434" s="4"/>
       <c r="AE434" s="4"/>
+      <c r="AF434" s="4"/>
     </row>
     <row r="435" ht="14.25" customHeight="1">
       <c r="A435" s="4"/>
@@ -21202,6 +21642,7 @@
       <c r="AC435" s="4"/>
       <c r="AD435" s="4"/>
       <c r="AE435" s="4"/>
+      <c r="AF435" s="4"/>
     </row>
     <row r="436" ht="14.25" customHeight="1">
       <c r="A436" s="4"/>
@@ -21235,6 +21676,7 @@
       <c r="AC436" s="4"/>
       <c r="AD436" s="4"/>
       <c r="AE436" s="4"/>
+      <c r="AF436" s="4"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
       <c r="A437" s="4"/>
@@ -21268,6 +21710,7 @@
       <c r="AC437" s="4"/>
       <c r="AD437" s="4"/>
       <c r="AE437" s="4"/>
+      <c r="AF437" s="4"/>
     </row>
     <row r="438" ht="14.25" customHeight="1">
       <c r="A438" s="4"/>
@@ -21301,6 +21744,7 @@
       <c r="AC438" s="4"/>
       <c r="AD438" s="4"/>
       <c r="AE438" s="4"/>
+      <c r="AF438" s="4"/>
     </row>
     <row r="439" ht="14.25" customHeight="1">
       <c r="A439" s="4"/>
@@ -21334,6 +21778,7 @@
       <c r="AC439" s="4"/>
       <c r="AD439" s="4"/>
       <c r="AE439" s="4"/>
+      <c r="AF439" s="4"/>
     </row>
     <row r="440" ht="14.25" customHeight="1">
       <c r="A440" s="4"/>
@@ -21367,6 +21812,7 @@
       <c r="AC440" s="4"/>
       <c r="AD440" s="4"/>
       <c r="AE440" s="4"/>
+      <c r="AF440" s="4"/>
     </row>
     <row r="441" ht="14.25" customHeight="1">
       <c r="A441" s="4"/>
@@ -21400,6 +21846,7 @@
       <c r="AC441" s="4"/>
       <c r="AD441" s="4"/>
       <c r="AE441" s="4"/>
+      <c r="AF441" s="4"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
       <c r="A442" s="4"/>
@@ -21433,6 +21880,7 @@
       <c r="AC442" s="4"/>
       <c r="AD442" s="4"/>
       <c r="AE442" s="4"/>
+      <c r="AF442" s="4"/>
     </row>
     <row r="443" ht="14.25" customHeight="1">
       <c r="A443" s="4"/>
@@ -21466,6 +21914,7 @@
       <c r="AC443" s="4"/>
       <c r="AD443" s="4"/>
       <c r="AE443" s="4"/>
+      <c r="AF443" s="4"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
       <c r="A444" s="4"/>
@@ -21499,6 +21948,7 @@
       <c r="AC444" s="4"/>
       <c r="AD444" s="4"/>
       <c r="AE444" s="4"/>
+      <c r="AF444" s="4"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
       <c r="A445" s="4"/>
@@ -21532,6 +21982,7 @@
       <c r="AC445" s="4"/>
       <c r="AD445" s="4"/>
       <c r="AE445" s="4"/>
+      <c r="AF445" s="4"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
       <c r="A446" s="4"/>
@@ -21565,6 +22016,7 @@
       <c r="AC446" s="4"/>
       <c r="AD446" s="4"/>
       <c r="AE446" s="4"/>
+      <c r="AF446" s="4"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
       <c r="A447" s="4"/>
@@ -21598,6 +22050,7 @@
       <c r="AC447" s="4"/>
       <c r="AD447" s="4"/>
       <c r="AE447" s="4"/>
+      <c r="AF447" s="4"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
       <c r="A448" s="4"/>
@@ -21631,6 +22084,7 @@
       <c r="AC448" s="4"/>
       <c r="AD448" s="4"/>
       <c r="AE448" s="4"/>
+      <c r="AF448" s="4"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
       <c r="A449" s="4"/>
@@ -21664,6 +22118,7 @@
       <c r="AC449" s="4"/>
       <c r="AD449" s="4"/>
       <c r="AE449" s="4"/>
+      <c r="AF449" s="4"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
       <c r="A450" s="4"/>
@@ -21697,6 +22152,7 @@
       <c r="AC450" s="4"/>
       <c r="AD450" s="4"/>
       <c r="AE450" s="4"/>
+      <c r="AF450" s="4"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
       <c r="A451" s="4"/>
@@ -21730,6 +22186,7 @@
       <c r="AC451" s="4"/>
       <c r="AD451" s="4"/>
       <c r="AE451" s="4"/>
+      <c r="AF451" s="4"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
       <c r="A452" s="4"/>
@@ -21763,6 +22220,7 @@
       <c r="AC452" s="4"/>
       <c r="AD452" s="4"/>
       <c r="AE452" s="4"/>
+      <c r="AF452" s="4"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
       <c r="A453" s="4"/>
@@ -21796,6 +22254,7 @@
       <c r="AC453" s="4"/>
       <c r="AD453" s="4"/>
       <c r="AE453" s="4"/>
+      <c r="AF453" s="4"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
       <c r="A454" s="4"/>
@@ -21829,6 +22288,7 @@
       <c r="AC454" s="4"/>
       <c r="AD454" s="4"/>
       <c r="AE454" s="4"/>
+      <c r="AF454" s="4"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
       <c r="A455" s="4"/>
@@ -21862,6 +22322,7 @@
       <c r="AC455" s="4"/>
       <c r="AD455" s="4"/>
       <c r="AE455" s="4"/>
+      <c r="AF455" s="4"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
       <c r="A456" s="4"/>
@@ -21895,6 +22356,7 @@
       <c r="AC456" s="4"/>
       <c r="AD456" s="4"/>
       <c r="AE456" s="4"/>
+      <c r="AF456" s="4"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
       <c r="A457" s="4"/>
@@ -21928,6 +22390,7 @@
       <c r="AC457" s="4"/>
       <c r="AD457" s="4"/>
       <c r="AE457" s="4"/>
+      <c r="AF457" s="4"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
       <c r="A458" s="4"/>
@@ -21961,6 +22424,7 @@
       <c r="AC458" s="4"/>
       <c r="AD458" s="4"/>
       <c r="AE458" s="4"/>
+      <c r="AF458" s="4"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
       <c r="A459" s="4"/>
@@ -21994,6 +22458,7 @@
       <c r="AC459" s="4"/>
       <c r="AD459" s="4"/>
       <c r="AE459" s="4"/>
+      <c r="AF459" s="4"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
       <c r="A460" s="4"/>
@@ -22027,6 +22492,7 @@
       <c r="AC460" s="4"/>
       <c r="AD460" s="4"/>
       <c r="AE460" s="4"/>
+      <c r="AF460" s="4"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="4"/>
@@ -22060,6 +22526,7 @@
       <c r="AC461" s="4"/>
       <c r="AD461" s="4"/>
       <c r="AE461" s="4"/>
+      <c r="AF461" s="4"/>
     </row>
     <row r="462" ht="14.25" customHeight="1">
       <c r="A462" s="4"/>
@@ -22093,6 +22560,7 @@
       <c r="AC462" s="4"/>
       <c r="AD462" s="4"/>
       <c r="AE462" s="4"/>
+      <c r="AF462" s="4"/>
     </row>
     <row r="463" ht="14.25" customHeight="1">
       <c r="A463" s="4"/>
@@ -22126,6 +22594,7 @@
       <c r="AC463" s="4"/>
       <c r="AD463" s="4"/>
       <c r="AE463" s="4"/>
+      <c r="AF463" s="4"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="4"/>
@@ -22159,6 +22628,7 @@
       <c r="AC464" s="4"/>
       <c r="AD464" s="4"/>
       <c r="AE464" s="4"/>
+      <c r="AF464" s="4"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="4"/>
@@ -22192,6 +22662,7 @@
       <c r="AC465" s="4"/>
       <c r="AD465" s="4"/>
       <c r="AE465" s="4"/>
+      <c r="AF465" s="4"/>
     </row>
     <row r="466" ht="14.25" customHeight="1">
       <c r="A466" s="4"/>
@@ -22225,6 +22696,7 @@
       <c r="AC466" s="4"/>
       <c r="AD466" s="4"/>
       <c r="AE466" s="4"/>
+      <c r="AF466" s="4"/>
     </row>
     <row r="467" ht="14.25" customHeight="1">
       <c r="A467" s="4"/>
@@ -22258,6 +22730,7 @@
       <c r="AC467" s="4"/>
       <c r="AD467" s="4"/>
       <c r="AE467" s="4"/>
+      <c r="AF467" s="4"/>
     </row>
     <row r="468" ht="14.25" customHeight="1">
       <c r="A468" s="4"/>
@@ -22291,6 +22764,7 @@
       <c r="AC468" s="4"/>
       <c r="AD468" s="4"/>
       <c r="AE468" s="4"/>
+      <c r="AF468" s="4"/>
     </row>
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="4"/>
@@ -22324,6 +22798,7 @@
       <c r="AC469" s="4"/>
       <c r="AD469" s="4"/>
       <c r="AE469" s="4"/>
+      <c r="AF469" s="4"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="4"/>
@@ -22357,6 +22832,7 @@
       <c r="AC470" s="4"/>
       <c r="AD470" s="4"/>
       <c r="AE470" s="4"/>
+      <c r="AF470" s="4"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="4"/>
@@ -22390,6 +22866,7 @@
       <c r="AC471" s="4"/>
       <c r="AD471" s="4"/>
       <c r="AE471" s="4"/>
+      <c r="AF471" s="4"/>
     </row>
     <row r="472" ht="14.25" customHeight="1">
       <c r="A472" s="4"/>
@@ -22423,6 +22900,7 @@
       <c r="AC472" s="4"/>
       <c r="AD472" s="4"/>
       <c r="AE472" s="4"/>
+      <c r="AF472" s="4"/>
     </row>
     <row r="473" ht="14.25" customHeight="1">
       <c r="A473" s="4"/>
@@ -22456,6 +22934,7 @@
       <c r="AC473" s="4"/>
       <c r="AD473" s="4"/>
       <c r="AE473" s="4"/>
+      <c r="AF473" s="4"/>
     </row>
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="4"/>
@@ -22489,6 +22968,7 @@
       <c r="AC474" s="4"/>
       <c r="AD474" s="4"/>
       <c r="AE474" s="4"/>
+      <c r="AF474" s="4"/>
     </row>
     <row r="475" ht="14.25" customHeight="1">
       <c r="A475" s="4"/>
@@ -22522,6 +23002,7 @@
       <c r="AC475" s="4"/>
       <c r="AD475" s="4"/>
       <c r="AE475" s="4"/>
+      <c r="AF475" s="4"/>
     </row>
     <row r="476" ht="14.25" customHeight="1">
       <c r="A476" s="4"/>
@@ -22555,6 +23036,7 @@
       <c r="AC476" s="4"/>
       <c r="AD476" s="4"/>
       <c r="AE476" s="4"/>
+      <c r="AF476" s="4"/>
     </row>
     <row r="477" ht="14.25" customHeight="1">
       <c r="A477" s="4"/>
@@ -22588,6 +23070,7 @@
       <c r="AC477" s="4"/>
       <c r="AD477" s="4"/>
       <c r="AE477" s="4"/>
+      <c r="AF477" s="4"/>
     </row>
     <row r="478" ht="14.25" customHeight="1">
       <c r="A478" s="4"/>
@@ -22621,6 +23104,7 @@
       <c r="AC478" s="4"/>
       <c r="AD478" s="4"/>
       <c r="AE478" s="4"/>
+      <c r="AF478" s="4"/>
     </row>
     <row r="479" ht="14.25" customHeight="1">
       <c r="A479" s="4"/>
@@ -22654,6 +23138,7 @@
       <c r="AC479" s="4"/>
       <c r="AD479" s="4"/>
       <c r="AE479" s="4"/>
+      <c r="AF479" s="4"/>
     </row>
     <row r="480" ht="14.25" customHeight="1">
       <c r="A480" s="4"/>
@@ -22687,6 +23172,7 @@
       <c r="AC480" s="4"/>
       <c r="AD480" s="4"/>
       <c r="AE480" s="4"/>
+      <c r="AF480" s="4"/>
     </row>
     <row r="481" ht="14.25" customHeight="1">
       <c r="A481" s="4"/>
@@ -22720,6 +23206,7 @@
       <c r="AC481" s="4"/>
       <c r="AD481" s="4"/>
       <c r="AE481" s="4"/>
+      <c r="AF481" s="4"/>
     </row>
     <row r="482" ht="14.25" customHeight="1">
       <c r="A482" s="4"/>
@@ -22753,6 +23240,7 @@
       <c r="AC482" s="4"/>
       <c r="AD482" s="4"/>
       <c r="AE482" s="4"/>
+      <c r="AF482" s="4"/>
     </row>
     <row r="483" ht="14.25" customHeight="1">
       <c r="A483" s="4"/>
@@ -22786,6 +23274,7 @@
       <c r="AC483" s="4"/>
       <c r="AD483" s="4"/>
       <c r="AE483" s="4"/>
+      <c r="AF483" s="4"/>
     </row>
     <row r="484" ht="14.25" customHeight="1">
       <c r="A484" s="4"/>
@@ -22819,6 +23308,7 @@
       <c r="AC484" s="4"/>
       <c r="AD484" s="4"/>
       <c r="AE484" s="4"/>
+      <c r="AF484" s="4"/>
     </row>
     <row r="485" ht="14.25" customHeight="1">
       <c r="A485" s="4"/>
@@ -22852,6 +23342,7 @@
       <c r="AC485" s="4"/>
       <c r="AD485" s="4"/>
       <c r="AE485" s="4"/>
+      <c r="AF485" s="4"/>
     </row>
     <row r="486" ht="14.25" customHeight="1">
       <c r="A486" s="4"/>
@@ -22885,6 +23376,7 @@
       <c r="AC486" s="4"/>
       <c r="AD486" s="4"/>
       <c r="AE486" s="4"/>
+      <c r="AF486" s="4"/>
     </row>
     <row r="487" ht="14.25" customHeight="1">
       <c r="A487" s="4"/>
@@ -22918,6 +23410,7 @@
       <c r="AC487" s="4"/>
       <c r="AD487" s="4"/>
       <c r="AE487" s="4"/>
+      <c r="AF487" s="4"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
       <c r="A488" s="4"/>
@@ -22951,6 +23444,7 @@
       <c r="AC488" s="4"/>
       <c r="AD488" s="4"/>
       <c r="AE488" s="4"/>
+      <c r="AF488" s="4"/>
     </row>
     <row r="489" ht="14.25" customHeight="1">
       <c r="A489" s="4"/>
@@ -22984,6 +23478,7 @@
       <c r="AC489" s="4"/>
       <c r="AD489" s="4"/>
       <c r="AE489" s="4"/>
+      <c r="AF489" s="4"/>
     </row>
     <row r="490" ht="14.25" customHeight="1">
       <c r="A490" s="4"/>
@@ -23017,6 +23512,7 @@
       <c r="AC490" s="4"/>
       <c r="AD490" s="4"/>
       <c r="AE490" s="4"/>
+      <c r="AF490" s="4"/>
     </row>
     <row r="491" ht="14.25" customHeight="1">
       <c r="A491" s="4"/>
@@ -23050,6 +23546,7 @@
       <c r="AC491" s="4"/>
       <c r="AD491" s="4"/>
       <c r="AE491" s="4"/>
+      <c r="AF491" s="4"/>
     </row>
     <row r="492" ht="14.25" customHeight="1">
       <c r="A492" s="4"/>
@@ -23083,6 +23580,7 @@
       <c r="AC492" s="4"/>
       <c r="AD492" s="4"/>
       <c r="AE492" s="4"/>
+      <c r="AF492" s="4"/>
     </row>
     <row r="493" ht="14.25" customHeight="1">
       <c r="A493" s="4"/>
@@ -23116,6 +23614,7 @@
       <c r="AC493" s="4"/>
       <c r="AD493" s="4"/>
       <c r="AE493" s="4"/>
+      <c r="AF493" s="4"/>
     </row>
     <row r="494" ht="14.25" customHeight="1">
       <c r="A494" s="4"/>
@@ -23149,6 +23648,7 @@
       <c r="AC494" s="4"/>
       <c r="AD494" s="4"/>
       <c r="AE494" s="4"/>
+      <c r="AF494" s="4"/>
     </row>
     <row r="495" ht="14.25" customHeight="1">
       <c r="A495" s="4"/>
@@ -23182,6 +23682,7 @@
       <c r="AC495" s="4"/>
       <c r="AD495" s="4"/>
       <c r="AE495" s="4"/>
+      <c r="AF495" s="4"/>
     </row>
     <row r="496" ht="14.25" customHeight="1">
       <c r="A496" s="4"/>
@@ -23215,6 +23716,7 @@
       <c r="AC496" s="4"/>
       <c r="AD496" s="4"/>
       <c r="AE496" s="4"/>
+      <c r="AF496" s="4"/>
     </row>
     <row r="497" ht="14.25" customHeight="1">
       <c r="A497" s="4"/>
@@ -23248,6 +23750,7 @@
       <c r="AC497" s="4"/>
       <c r="AD497" s="4"/>
       <c r="AE497" s="4"/>
+      <c r="AF497" s="4"/>
     </row>
     <row r="498" ht="14.25" customHeight="1">
       <c r="A498" s="4"/>
@@ -23281,6 +23784,7 @@
       <c r="AC498" s="4"/>
       <c r="AD498" s="4"/>
       <c r="AE498" s="4"/>
+      <c r="AF498" s="4"/>
     </row>
     <row r="499" ht="14.25" customHeight="1">
       <c r="A499" s="4"/>
@@ -23314,6 +23818,7 @@
       <c r="AC499" s="4"/>
       <c r="AD499" s="4"/>
       <c r="AE499" s="4"/>
+      <c r="AF499" s="4"/>
     </row>
     <row r="500" ht="14.25" customHeight="1">
       <c r="A500" s="4"/>
@@ -23347,6 +23852,7 @@
       <c r="AC500" s="4"/>
       <c r="AD500" s="4"/>
       <c r="AE500" s="4"/>
+      <c r="AF500" s="4"/>
     </row>
     <row r="501" ht="14.25" customHeight="1">
       <c r="A501" s="4"/>
@@ -23380,6 +23886,7 @@
       <c r="AC501" s="4"/>
       <c r="AD501" s="4"/>
       <c r="AE501" s="4"/>
+      <c r="AF501" s="4"/>
     </row>
     <row r="502" ht="14.25" customHeight="1">
       <c r="A502" s="4"/>
@@ -23413,6 +23920,7 @@
       <c r="AC502" s="4"/>
       <c r="AD502" s="4"/>
       <c r="AE502" s="4"/>
+      <c r="AF502" s="4"/>
     </row>
     <row r="503" ht="14.25" customHeight="1">
       <c r="A503" s="4"/>
@@ -23446,6 +23954,7 @@
       <c r="AC503" s="4"/>
       <c r="AD503" s="4"/>
       <c r="AE503" s="4"/>
+      <c r="AF503" s="4"/>
     </row>
     <row r="504" ht="14.25" customHeight="1">
       <c r="A504" s="4"/>
@@ -23479,6 +23988,7 @@
       <c r="AC504" s="4"/>
       <c r="AD504" s="4"/>
       <c r="AE504" s="4"/>
+      <c r="AF504" s="4"/>
     </row>
     <row r="505" ht="14.25" customHeight="1">
       <c r="A505" s="4"/>
@@ -23512,6 +24022,7 @@
       <c r="AC505" s="4"/>
       <c r="AD505" s="4"/>
       <c r="AE505" s="4"/>
+      <c r="AF505" s="4"/>
     </row>
     <row r="506" ht="14.25" customHeight="1">
       <c r="A506" s="4"/>
@@ -23545,6 +24056,7 @@
       <c r="AC506" s="4"/>
       <c r="AD506" s="4"/>
       <c r="AE506" s="4"/>
+      <c r="AF506" s="4"/>
     </row>
     <row r="507" ht="14.25" customHeight="1">
       <c r="A507" s="4"/>
@@ -23578,6 +24090,7 @@
       <c r="AC507" s="4"/>
       <c r="AD507" s="4"/>
       <c r="AE507" s="4"/>
+      <c r="AF507" s="4"/>
     </row>
     <row r="508" ht="14.25" customHeight="1">
       <c r="A508" s="4"/>
@@ -23611,6 +24124,7 @@
       <c r="AC508" s="4"/>
       <c r="AD508" s="4"/>
       <c r="AE508" s="4"/>
+      <c r="AF508" s="4"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
       <c r="A509" s="4"/>
@@ -23644,6 +24158,7 @@
       <c r="AC509" s="4"/>
       <c r="AD509" s="4"/>
       <c r="AE509" s="4"/>
+      <c r="AF509" s="4"/>
     </row>
     <row r="510" ht="14.25" customHeight="1">
       <c r="A510" s="4"/>
@@ -23677,6 +24192,7 @@
       <c r="AC510" s="4"/>
       <c r="AD510" s="4"/>
       <c r="AE510" s="4"/>
+      <c r="AF510" s="4"/>
     </row>
     <row r="511" ht="14.25" customHeight="1">
       <c r="A511" s="4"/>
@@ -23710,6 +24226,7 @@
       <c r="AC511" s="4"/>
       <c r="AD511" s="4"/>
       <c r="AE511" s="4"/>
+      <c r="AF511" s="4"/>
     </row>
     <row r="512" ht="14.25" customHeight="1">
       <c r="A512" s="4"/>
@@ -23743,6 +24260,7 @@
       <c r="AC512" s="4"/>
       <c r="AD512" s="4"/>
       <c r="AE512" s="4"/>
+      <c r="AF512" s="4"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
       <c r="A513" s="4"/>
@@ -23776,6 +24294,7 @@
       <c r="AC513" s="4"/>
       <c r="AD513" s="4"/>
       <c r="AE513" s="4"/>
+      <c r="AF513" s="4"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
       <c r="A514" s="4"/>
@@ -23809,6 +24328,7 @@
       <c r="AC514" s="4"/>
       <c r="AD514" s="4"/>
       <c r="AE514" s="4"/>
+      <c r="AF514" s="4"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
       <c r="A515" s="4"/>
@@ -23842,6 +24362,7 @@
       <c r="AC515" s="4"/>
       <c r="AD515" s="4"/>
       <c r="AE515" s="4"/>
+      <c r="AF515" s="4"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
       <c r="A516" s="4"/>
@@ -23875,6 +24396,7 @@
       <c r="AC516" s="4"/>
       <c r="AD516" s="4"/>
       <c r="AE516" s="4"/>
+      <c r="AF516" s="4"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
       <c r="A517" s="4"/>
@@ -23908,6 +24430,7 @@
       <c r="AC517" s="4"/>
       <c r="AD517" s="4"/>
       <c r="AE517" s="4"/>
+      <c r="AF517" s="4"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
       <c r="A518" s="4"/>
@@ -23941,6 +24464,7 @@
       <c r="AC518" s="4"/>
       <c r="AD518" s="4"/>
       <c r="AE518" s="4"/>
+      <c r="AF518" s="4"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
       <c r="A519" s="4"/>
@@ -23974,6 +24498,7 @@
       <c r="AC519" s="4"/>
       <c r="AD519" s="4"/>
       <c r="AE519" s="4"/>
+      <c r="AF519" s="4"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
       <c r="A520" s="4"/>
@@ -24007,6 +24532,7 @@
       <c r="AC520" s="4"/>
       <c r="AD520" s="4"/>
       <c r="AE520" s="4"/>
+      <c r="AF520" s="4"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
       <c r="A521" s="4"/>
@@ -24040,6 +24566,7 @@
       <c r="AC521" s="4"/>
       <c r="AD521" s="4"/>
       <c r="AE521" s="4"/>
+      <c r="AF521" s="4"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
       <c r="A522" s="4"/>
@@ -24073,6 +24600,7 @@
       <c r="AC522" s="4"/>
       <c r="AD522" s="4"/>
       <c r="AE522" s="4"/>
+      <c r="AF522" s="4"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
       <c r="A523" s="4"/>
@@ -24106,6 +24634,7 @@
       <c r="AC523" s="4"/>
       <c r="AD523" s="4"/>
       <c r="AE523" s="4"/>
+      <c r="AF523" s="4"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
       <c r="A524" s="4"/>
@@ -24139,6 +24668,7 @@
       <c r="AC524" s="4"/>
       <c r="AD524" s="4"/>
       <c r="AE524" s="4"/>
+      <c r="AF524" s="4"/>
     </row>
     <row r="525" ht="14.25" customHeight="1">
       <c r="A525" s="4"/>
@@ -24172,6 +24702,7 @@
       <c r="AC525" s="4"/>
       <c r="AD525" s="4"/>
       <c r="AE525" s="4"/>
+      <c r="AF525" s="4"/>
     </row>
     <row r="526" ht="14.25" customHeight="1">
       <c r="A526" s="4"/>
@@ -24205,6 +24736,7 @@
       <c r="AC526" s="4"/>
       <c r="AD526" s="4"/>
       <c r="AE526" s="4"/>
+      <c r="AF526" s="4"/>
     </row>
     <row r="527" ht="14.25" customHeight="1">
       <c r="A527" s="4"/>
@@ -24238,6 +24770,7 @@
       <c r="AC527" s="4"/>
       <c r="AD527" s="4"/>
       <c r="AE527" s="4"/>
+      <c r="AF527" s="4"/>
     </row>
     <row r="528" ht="14.25" customHeight="1">
       <c r="A528" s="4"/>
@@ -24271,6 +24804,7 @@
       <c r="AC528" s="4"/>
       <c r="AD528" s="4"/>
       <c r="AE528" s="4"/>
+      <c r="AF528" s="4"/>
     </row>
     <row r="529" ht="14.25" customHeight="1">
       <c r="A529" s="4"/>
@@ -24304,6 +24838,7 @@
       <c r="AC529" s="4"/>
       <c r="AD529" s="4"/>
       <c r="AE529" s="4"/>
+      <c r="AF529" s="4"/>
     </row>
     <row r="530" ht="14.25" customHeight="1">
       <c r="A530" s="4"/>
@@ -24337,6 +24872,7 @@
       <c r="AC530" s="4"/>
       <c r="AD530" s="4"/>
       <c r="AE530" s="4"/>
+      <c r="AF530" s="4"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
       <c r="A531" s="4"/>
@@ -24370,6 +24906,7 @@
       <c r="AC531" s="4"/>
       <c r="AD531" s="4"/>
       <c r="AE531" s="4"/>
+      <c r="AF531" s="4"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
       <c r="A532" s="4"/>
@@ -24403,6 +24940,7 @@
       <c r="AC532" s="4"/>
       <c r="AD532" s="4"/>
       <c r="AE532" s="4"/>
+      <c r="AF532" s="4"/>
     </row>
     <row r="533" ht="14.25" customHeight="1">
       <c r="A533" s="4"/>
@@ -24436,6 +24974,7 @@
       <c r="AC533" s="4"/>
       <c r="AD533" s="4"/>
       <c r="AE533" s="4"/>
+      <c r="AF533" s="4"/>
     </row>
     <row r="534" ht="14.25" customHeight="1">
       <c r="A534" s="4"/>
@@ -24469,6 +25008,7 @@
       <c r="AC534" s="4"/>
       <c r="AD534" s="4"/>
       <c r="AE534" s="4"/>
+      <c r="AF534" s="4"/>
     </row>
     <row r="535" ht="14.25" customHeight="1">
       <c r="A535" s="4"/>
@@ -24502,6 +25042,7 @@
       <c r="AC535" s="4"/>
       <c r="AD535" s="4"/>
       <c r="AE535" s="4"/>
+      <c r="AF535" s="4"/>
     </row>
     <row r="536" ht="14.25" customHeight="1">
       <c r="A536" s="4"/>
@@ -24535,6 +25076,7 @@
       <c r="AC536" s="4"/>
       <c r="AD536" s="4"/>
       <c r="AE536" s="4"/>
+      <c r="AF536" s="4"/>
     </row>
     <row r="537" ht="14.25" customHeight="1">
       <c r="A537" s="4"/>
@@ -24568,6 +25110,7 @@
       <c r="AC537" s="4"/>
       <c r="AD537" s="4"/>
       <c r="AE537" s="4"/>
+      <c r="AF537" s="4"/>
     </row>
     <row r="538" ht="14.25" customHeight="1">
       <c r="A538" s="4"/>
@@ -24601,6 +25144,7 @@
       <c r="AC538" s="4"/>
       <c r="AD538" s="4"/>
       <c r="AE538" s="4"/>
+      <c r="AF538" s="4"/>
     </row>
     <row r="539" ht="14.25" customHeight="1">
       <c r="A539" s="4"/>
@@ -24634,6 +25178,7 @@
       <c r="AC539" s="4"/>
       <c r="AD539" s="4"/>
       <c r="AE539" s="4"/>
+      <c r="AF539" s="4"/>
     </row>
     <row r="540" ht="14.25" customHeight="1">
       <c r="A540" s="4"/>
@@ -24667,6 +25212,7 @@
       <c r="AC540" s="4"/>
       <c r="AD540" s="4"/>
       <c r="AE540" s="4"/>
+      <c r="AF540" s="4"/>
     </row>
     <row r="541" ht="14.25" customHeight="1">
       <c r="A541" s="4"/>
@@ -24700,6 +25246,7 @@
       <c r="AC541" s="4"/>
       <c r="AD541" s="4"/>
       <c r="AE541" s="4"/>
+      <c r="AF541" s="4"/>
     </row>
     <row r="542" ht="14.25" customHeight="1">
       <c r="A542" s="4"/>
@@ -24733,6 +25280,7 @@
       <c r="AC542" s="4"/>
       <c r="AD542" s="4"/>
       <c r="AE542" s="4"/>
+      <c r="AF542" s="4"/>
     </row>
     <row r="543" ht="14.25" customHeight="1">
       <c r="A543" s="4"/>
@@ -24766,6 +25314,7 @@
       <c r="AC543" s="4"/>
       <c r="AD543" s="4"/>
       <c r="AE543" s="4"/>
+      <c r="AF543" s="4"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
       <c r="A544" s="4"/>
@@ -24799,6 +25348,7 @@
       <c r="AC544" s="4"/>
       <c r="AD544" s="4"/>
       <c r="AE544" s="4"/>
+      <c r="AF544" s="4"/>
     </row>
     <row r="545" ht="14.25" customHeight="1">
       <c r="A545" s="4"/>
@@ -24832,6 +25382,7 @@
       <c r="AC545" s="4"/>
       <c r="AD545" s="4"/>
       <c r="AE545" s="4"/>
+      <c r="AF545" s="4"/>
     </row>
     <row r="546" ht="14.25" customHeight="1">
       <c r="A546" s="4"/>
@@ -24865,6 +25416,7 @@
       <c r="AC546" s="4"/>
       <c r="AD546" s="4"/>
       <c r="AE546" s="4"/>
+      <c r="AF546" s="4"/>
     </row>
     <row r="547" ht="14.25" customHeight="1">
       <c r="A547" s="4"/>
@@ -24898,6 +25450,7 @@
       <c r="AC547" s="4"/>
       <c r="AD547" s="4"/>
       <c r="AE547" s="4"/>
+      <c r="AF547" s="4"/>
     </row>
     <row r="548" ht="14.25" customHeight="1">
       <c r="A548" s="4"/>
@@ -24931,6 +25484,7 @@
       <c r="AC548" s="4"/>
       <c r="AD548" s="4"/>
       <c r="AE548" s="4"/>
+      <c r="AF548" s="4"/>
     </row>
     <row r="549" ht="14.25" customHeight="1">
       <c r="A549" s="4"/>
@@ -24964,6 +25518,7 @@
       <c r="AC549" s="4"/>
       <c r="AD549" s="4"/>
       <c r="AE549" s="4"/>
+      <c r="AF549" s="4"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
       <c r="A550" s="4"/>
@@ -24997,6 +25552,7 @@
       <c r="AC550" s="4"/>
       <c r="AD550" s="4"/>
       <c r="AE550" s="4"/>
+      <c r="AF550" s="4"/>
     </row>
     <row r="551" ht="14.25" customHeight="1">
       <c r="A551" s="4"/>
@@ -25030,6 +25586,7 @@
       <c r="AC551" s="4"/>
       <c r="AD551" s="4"/>
       <c r="AE551" s="4"/>
+      <c r="AF551" s="4"/>
     </row>
     <row r="552" ht="14.25" customHeight="1">
       <c r="A552" s="4"/>
@@ -25063,6 +25620,7 @@
       <c r="AC552" s="4"/>
       <c r="AD552" s="4"/>
       <c r="AE552" s="4"/>
+      <c r="AF552" s="4"/>
     </row>
     <row r="553" ht="14.25" customHeight="1">
       <c r="A553" s="4"/>
@@ -25096,6 +25654,7 @@
       <c r="AC553" s="4"/>
       <c r="AD553" s="4"/>
       <c r="AE553" s="4"/>
+      <c r="AF553" s="4"/>
     </row>
     <row r="554" ht="14.25" customHeight="1">
       <c r="A554" s="4"/>
@@ -25129,6 +25688,7 @@
       <c r="AC554" s="4"/>
       <c r="AD554" s="4"/>
       <c r="AE554" s="4"/>
+      <c r="AF554" s="4"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
       <c r="A555" s="4"/>
@@ -25162,6 +25722,7 @@
       <c r="AC555" s="4"/>
       <c r="AD555" s="4"/>
       <c r="AE555" s="4"/>
+      <c r="AF555" s="4"/>
     </row>
     <row r="556" ht="14.25" customHeight="1">
       <c r="A556" s="4"/>
@@ -25195,6 +25756,7 @@
       <c r="AC556" s="4"/>
       <c r="AD556" s="4"/>
       <c r="AE556" s="4"/>
+      <c r="AF556" s="4"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
       <c r="A557" s="4"/>
@@ -25228,6 +25790,7 @@
       <c r="AC557" s="4"/>
       <c r="AD557" s="4"/>
       <c r="AE557" s="4"/>
+      <c r="AF557" s="4"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
       <c r="A558" s="4"/>
@@ -25261,6 +25824,7 @@
       <c r="AC558" s="4"/>
       <c r="AD558" s="4"/>
       <c r="AE558" s="4"/>
+      <c r="AF558" s="4"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
       <c r="A559" s="4"/>
@@ -25294,6 +25858,7 @@
       <c r="AC559" s="4"/>
       <c r="AD559" s="4"/>
       <c r="AE559" s="4"/>
+      <c r="AF559" s="4"/>
     </row>
     <row r="560" ht="14.25" customHeight="1">
       <c r="A560" s="4"/>
@@ -25327,6 +25892,7 @@
       <c r="AC560" s="4"/>
       <c r="AD560" s="4"/>
       <c r="AE560" s="4"/>
+      <c r="AF560" s="4"/>
     </row>
     <row r="561" ht="14.25" customHeight="1">
       <c r="A561" s="4"/>
@@ -25360,6 +25926,7 @@
       <c r="AC561" s="4"/>
       <c r="AD561" s="4"/>
       <c r="AE561" s="4"/>
+      <c r="AF561" s="4"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
       <c r="A562" s="4"/>
@@ -25393,6 +25960,7 @@
       <c r="AC562" s="4"/>
       <c r="AD562" s="4"/>
       <c r="AE562" s="4"/>
+      <c r="AF562" s="4"/>
     </row>
     <row r="563" ht="14.25" customHeight="1">
       <c r="A563" s="4"/>
@@ -25426,6 +25994,7 @@
       <c r="AC563" s="4"/>
       <c r="AD563" s="4"/>
       <c r="AE563" s="4"/>
+      <c r="AF563" s="4"/>
     </row>
     <row r="564" ht="14.25" customHeight="1">
       <c r="A564" s="4"/>
@@ -25459,6 +26028,7 @@
       <c r="AC564" s="4"/>
       <c r="AD564" s="4"/>
       <c r="AE564" s="4"/>
+      <c r="AF564" s="4"/>
     </row>
     <row r="565" ht="14.25" customHeight="1">
       <c r="A565" s="4"/>
@@ -25492,6 +26062,7 @@
       <c r="AC565" s="4"/>
       <c r="AD565" s="4"/>
       <c r="AE565" s="4"/>
+      <c r="AF565" s="4"/>
     </row>
     <row r="566" ht="14.25" customHeight="1">
       <c r="A566" s="4"/>
@@ -25525,6 +26096,7 @@
       <c r="AC566" s="4"/>
       <c r="AD566" s="4"/>
       <c r="AE566" s="4"/>
+      <c r="AF566" s="4"/>
     </row>
     <row r="567" ht="14.25" customHeight="1">
       <c r="A567" s="4"/>
@@ -25558,6 +26130,7 @@
       <c r="AC567" s="4"/>
       <c r="AD567" s="4"/>
       <c r="AE567" s="4"/>
+      <c r="AF567" s="4"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
       <c r="A568" s="4"/>
@@ -25591,6 +26164,7 @@
       <c r="AC568" s="4"/>
       <c r="AD568" s="4"/>
       <c r="AE568" s="4"/>
+      <c r="AF568" s="4"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
       <c r="A569" s="4"/>
@@ -25624,6 +26198,7 @@
       <c r="AC569" s="4"/>
       <c r="AD569" s="4"/>
       <c r="AE569" s="4"/>
+      <c r="AF569" s="4"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
       <c r="A570" s="4"/>
@@ -25657,6 +26232,7 @@
       <c r="AC570" s="4"/>
       <c r="AD570" s="4"/>
       <c r="AE570" s="4"/>
+      <c r="AF570" s="4"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
       <c r="A571" s="4"/>
@@ -25690,6 +26266,7 @@
       <c r="AC571" s="4"/>
       <c r="AD571" s="4"/>
       <c r="AE571" s="4"/>
+      <c r="AF571" s="4"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
       <c r="A572" s="4"/>
@@ -25723,6 +26300,7 @@
       <c r="AC572" s="4"/>
       <c r="AD572" s="4"/>
       <c r="AE572" s="4"/>
+      <c r="AF572" s="4"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
       <c r="A573" s="4"/>
@@ -25756,6 +26334,7 @@
       <c r="AC573" s="4"/>
       <c r="AD573" s="4"/>
       <c r="AE573" s="4"/>
+      <c r="AF573" s="4"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
       <c r="A574" s="4"/>
@@ -25789,6 +26368,7 @@
       <c r="AC574" s="4"/>
       <c r="AD574" s="4"/>
       <c r="AE574" s="4"/>
+      <c r="AF574" s="4"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
       <c r="A575" s="4"/>
@@ -25822,6 +26402,7 @@
       <c r="AC575" s="4"/>
       <c r="AD575" s="4"/>
       <c r="AE575" s="4"/>
+      <c r="AF575" s="4"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
       <c r="A576" s="4"/>
@@ -25855,6 +26436,7 @@
       <c r="AC576" s="4"/>
       <c r="AD576" s="4"/>
       <c r="AE576" s="4"/>
+      <c r="AF576" s="4"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
       <c r="A577" s="4"/>
@@ -25888,6 +26470,7 @@
       <c r="AC577" s="4"/>
       <c r="AD577" s="4"/>
       <c r="AE577" s="4"/>
+      <c r="AF577" s="4"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
       <c r="A578" s="4"/>
@@ -25921,6 +26504,7 @@
       <c r="AC578" s="4"/>
       <c r="AD578" s="4"/>
       <c r="AE578" s="4"/>
+      <c r="AF578" s="4"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
       <c r="A579" s="4"/>
@@ -25954,6 +26538,7 @@
       <c r="AC579" s="4"/>
       <c r="AD579" s="4"/>
       <c r="AE579" s="4"/>
+      <c r="AF579" s="4"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
       <c r="A580" s="4"/>
@@ -25987,6 +26572,7 @@
       <c r="AC580" s="4"/>
       <c r="AD580" s="4"/>
       <c r="AE580" s="4"/>
+      <c r="AF580" s="4"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
       <c r="A581" s="4"/>
@@ -26020,6 +26606,7 @@
       <c r="AC581" s="4"/>
       <c r="AD581" s="4"/>
       <c r="AE581" s="4"/>
+      <c r="AF581" s="4"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
       <c r="A582" s="4"/>
@@ -26053,6 +26640,7 @@
       <c r="AC582" s="4"/>
       <c r="AD582" s="4"/>
       <c r="AE582" s="4"/>
+      <c r="AF582" s="4"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
       <c r="A583" s="4"/>
@@ -26086,6 +26674,7 @@
       <c r="AC583" s="4"/>
       <c r="AD583" s="4"/>
       <c r="AE583" s="4"/>
+      <c r="AF583" s="4"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
       <c r="A584" s="4"/>
@@ -26119,6 +26708,7 @@
       <c r="AC584" s="4"/>
       <c r="AD584" s="4"/>
       <c r="AE584" s="4"/>
+      <c r="AF584" s="4"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
       <c r="A585" s="4"/>
@@ -26152,6 +26742,7 @@
       <c r="AC585" s="4"/>
       <c r="AD585" s="4"/>
       <c r="AE585" s="4"/>
+      <c r="AF585" s="4"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
       <c r="A586" s="4"/>
@@ -26185,6 +26776,7 @@
       <c r="AC586" s="4"/>
       <c r="AD586" s="4"/>
       <c r="AE586" s="4"/>
+      <c r="AF586" s="4"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
       <c r="A587" s="4"/>
@@ -26218,6 +26810,7 @@
       <c r="AC587" s="4"/>
       <c r="AD587" s="4"/>
       <c r="AE587" s="4"/>
+      <c r="AF587" s="4"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
       <c r="A588" s="4"/>
@@ -26251,6 +26844,7 @@
       <c r="AC588" s="4"/>
       <c r="AD588" s="4"/>
       <c r="AE588" s="4"/>
+      <c r="AF588" s="4"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
       <c r="A589" s="4"/>
@@ -26284,6 +26878,7 @@
       <c r="AC589" s="4"/>
       <c r="AD589" s="4"/>
       <c r="AE589" s="4"/>
+      <c r="AF589" s="4"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
       <c r="A590" s="4"/>
@@ -26317,6 +26912,7 @@
       <c r="AC590" s="4"/>
       <c r="AD590" s="4"/>
       <c r="AE590" s="4"/>
+      <c r="AF590" s="4"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
       <c r="A591" s="4"/>
@@ -26350,6 +26946,7 @@
       <c r="AC591" s="4"/>
       <c r="AD591" s="4"/>
       <c r="AE591" s="4"/>
+      <c r="AF591" s="4"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
       <c r="A592" s="4"/>
@@ -26383,6 +26980,7 @@
       <c r="AC592" s="4"/>
       <c r="AD592" s="4"/>
       <c r="AE592" s="4"/>
+      <c r="AF592" s="4"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
       <c r="A593" s="4"/>
@@ -26416,6 +27014,7 @@
       <c r="AC593" s="4"/>
       <c r="AD593" s="4"/>
       <c r="AE593" s="4"/>
+      <c r="AF593" s="4"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
       <c r="A594" s="4"/>
@@ -26449,6 +27048,7 @@
       <c r="AC594" s="4"/>
       <c r="AD594" s="4"/>
       <c r="AE594" s="4"/>
+      <c r="AF594" s="4"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
       <c r="A595" s="4"/>
@@ -26482,6 +27082,7 @@
       <c r="AC595" s="4"/>
       <c r="AD595" s="4"/>
       <c r="AE595" s="4"/>
+      <c r="AF595" s="4"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
       <c r="A596" s="4"/>
@@ -26515,6 +27116,7 @@
       <c r="AC596" s="4"/>
       <c r="AD596" s="4"/>
       <c r="AE596" s="4"/>
+      <c r="AF596" s="4"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
       <c r="A597" s="4"/>
@@ -26548,6 +27150,7 @@
       <c r="AC597" s="4"/>
       <c r="AD597" s="4"/>
       <c r="AE597" s="4"/>
+      <c r="AF597" s="4"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
       <c r="A598" s="4"/>
@@ -26581,6 +27184,7 @@
       <c r="AC598" s="4"/>
       <c r="AD598" s="4"/>
       <c r="AE598" s="4"/>
+      <c r="AF598" s="4"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
       <c r="A599" s="4"/>
@@ -26614,6 +27218,7 @@
       <c r="AC599" s="4"/>
       <c r="AD599" s="4"/>
       <c r="AE599" s="4"/>
+      <c r="AF599" s="4"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
       <c r="A600" s="4"/>
@@ -26647,6 +27252,7 @@
       <c r="AC600" s="4"/>
       <c r="AD600" s="4"/>
       <c r="AE600" s="4"/>
+      <c r="AF600" s="4"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
       <c r="A601" s="4"/>
@@ -26680,6 +27286,7 @@
       <c r="AC601" s="4"/>
       <c r="AD601" s="4"/>
       <c r="AE601" s="4"/>
+      <c r="AF601" s="4"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
       <c r="A602" s="4"/>
@@ -26713,6 +27320,7 @@
       <c r="AC602" s="4"/>
       <c r="AD602" s="4"/>
       <c r="AE602" s="4"/>
+      <c r="AF602" s="4"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
       <c r="A603" s="4"/>
@@ -26746,6 +27354,7 @@
       <c r="AC603" s="4"/>
       <c r="AD603" s="4"/>
       <c r="AE603" s="4"/>
+      <c r="AF603" s="4"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
       <c r="A604" s="4"/>
@@ -26779,6 +27388,7 @@
       <c r="AC604" s="4"/>
       <c r="AD604" s="4"/>
       <c r="AE604" s="4"/>
+      <c r="AF604" s="4"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
       <c r="A605" s="4"/>
@@ -26812,6 +27422,7 @@
       <c r="AC605" s="4"/>
       <c r="AD605" s="4"/>
       <c r="AE605" s="4"/>
+      <c r="AF605" s="4"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
       <c r="A606" s="4"/>
@@ -26845,6 +27456,7 @@
       <c r="AC606" s="4"/>
       <c r="AD606" s="4"/>
       <c r="AE606" s="4"/>
+      <c r="AF606" s="4"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
       <c r="A607" s="4"/>
@@ -26878,6 +27490,7 @@
       <c r="AC607" s="4"/>
       <c r="AD607" s="4"/>
       <c r="AE607" s="4"/>
+      <c r="AF607" s="4"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
       <c r="A608" s="4"/>
@@ -26911,6 +27524,7 @@
       <c r="AC608" s="4"/>
       <c r="AD608" s="4"/>
       <c r="AE608" s="4"/>
+      <c r="AF608" s="4"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
       <c r="A609" s="4"/>
@@ -26944,6 +27558,7 @@
       <c r="AC609" s="4"/>
       <c r="AD609" s="4"/>
       <c r="AE609" s="4"/>
+      <c r="AF609" s="4"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
       <c r="A610" s="4"/>
@@ -26977,6 +27592,7 @@
       <c r="AC610" s="4"/>
       <c r="AD610" s="4"/>
       <c r="AE610" s="4"/>
+      <c r="AF610" s="4"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
       <c r="A611" s="4"/>
@@ -27010,6 +27626,7 @@
       <c r="AC611" s="4"/>
       <c r="AD611" s="4"/>
       <c r="AE611" s="4"/>
+      <c r="AF611" s="4"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
       <c r="A612" s="4"/>
@@ -27043,6 +27660,7 @@
       <c r="AC612" s="4"/>
       <c r="AD612" s="4"/>
       <c r="AE612" s="4"/>
+      <c r="AF612" s="4"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
       <c r="A613" s="4"/>
@@ -27076,6 +27694,7 @@
       <c r="AC613" s="4"/>
       <c r="AD613" s="4"/>
       <c r="AE613" s="4"/>
+      <c r="AF613" s="4"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
       <c r="A614" s="4"/>
@@ -27109,6 +27728,7 @@
       <c r="AC614" s="4"/>
       <c r="AD614" s="4"/>
       <c r="AE614" s="4"/>
+      <c r="AF614" s="4"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
       <c r="A615" s="4"/>
@@ -27142,6 +27762,7 @@
       <c r="AC615" s="4"/>
       <c r="AD615" s="4"/>
       <c r="AE615" s="4"/>
+      <c r="AF615" s="4"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
       <c r="A616" s="4"/>
@@ -27175,6 +27796,7 @@
       <c r="AC616" s="4"/>
       <c r="AD616" s="4"/>
       <c r="AE616" s="4"/>
+      <c r="AF616" s="4"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
       <c r="A617" s="4"/>
@@ -27208,6 +27830,7 @@
       <c r="AC617" s="4"/>
       <c r="AD617" s="4"/>
       <c r="AE617" s="4"/>
+      <c r="AF617" s="4"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
       <c r="A618" s="4"/>
@@ -27241,6 +27864,7 @@
       <c r="AC618" s="4"/>
       <c r="AD618" s="4"/>
       <c r="AE618" s="4"/>
+      <c r="AF618" s="4"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
       <c r="A619" s="4"/>
@@ -27274,6 +27898,7 @@
       <c r="AC619" s="4"/>
       <c r="AD619" s="4"/>
       <c r="AE619" s="4"/>
+      <c r="AF619" s="4"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
       <c r="A620" s="4"/>
@@ -27307,6 +27932,7 @@
       <c r="AC620" s="4"/>
       <c r="AD620" s="4"/>
       <c r="AE620" s="4"/>
+      <c r="AF620" s="4"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
       <c r="A621" s="4"/>
@@ -27340,6 +27966,7 @@
       <c r="AC621" s="4"/>
       <c r="AD621" s="4"/>
       <c r="AE621" s="4"/>
+      <c r="AF621" s="4"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
       <c r="A622" s="4"/>
@@ -27373,6 +28000,7 @@
       <c r="AC622" s="4"/>
       <c r="AD622" s="4"/>
       <c r="AE622" s="4"/>
+      <c r="AF622" s="4"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
       <c r="A623" s="4"/>
@@ -27406,6 +28034,7 @@
       <c r="AC623" s="4"/>
       <c r="AD623" s="4"/>
       <c r="AE623" s="4"/>
+      <c r="AF623" s="4"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
       <c r="A624" s="4"/>
@@ -27439,6 +28068,7 @@
       <c r="AC624" s="4"/>
       <c r="AD624" s="4"/>
       <c r="AE624" s="4"/>
+      <c r="AF624" s="4"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
       <c r="A625" s="4"/>
@@ -27472,6 +28102,7 @@
       <c r="AC625" s="4"/>
       <c r="AD625" s="4"/>
       <c r="AE625" s="4"/>
+      <c r="AF625" s="4"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
       <c r="A626" s="4"/>
@@ -27505,6 +28136,7 @@
       <c r="AC626" s="4"/>
       <c r="AD626" s="4"/>
       <c r="AE626" s="4"/>
+      <c r="AF626" s="4"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
       <c r="A627" s="4"/>
@@ -27538,6 +28170,7 @@
       <c r="AC627" s="4"/>
       <c r="AD627" s="4"/>
       <c r="AE627" s="4"/>
+      <c r="AF627" s="4"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
       <c r="A628" s="4"/>
@@ -27571,6 +28204,7 @@
       <c r="AC628" s="4"/>
       <c r="AD628" s="4"/>
       <c r="AE628" s="4"/>
+      <c r="AF628" s="4"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
       <c r="A629" s="4"/>
@@ -27604,6 +28238,7 @@
       <c r="AC629" s="4"/>
       <c r="AD629" s="4"/>
       <c r="AE629" s="4"/>
+      <c r="AF629" s="4"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
       <c r="A630" s="4"/>
@@ -27637,6 +28272,7 @@
       <c r="AC630" s="4"/>
       <c r="AD630" s="4"/>
       <c r="AE630" s="4"/>
+      <c r="AF630" s="4"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
       <c r="A631" s="4"/>
@@ -27670,6 +28306,7 @@
       <c r="AC631" s="4"/>
       <c r="AD631" s="4"/>
       <c r="AE631" s="4"/>
+      <c r="AF631" s="4"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
       <c r="A632" s="4"/>
@@ -27703,6 +28340,7 @@
       <c r="AC632" s="4"/>
       <c r="AD632" s="4"/>
       <c r="AE632" s="4"/>
+      <c r="AF632" s="4"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="4"/>
@@ -27736,6 +28374,7 @@
       <c r="AC633" s="4"/>
       <c r="AD633" s="4"/>
       <c r="AE633" s="4"/>
+      <c r="AF633" s="4"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
       <c r="A634" s="4"/>
@@ -27769,6 +28408,7 @@
       <c r="AC634" s="4"/>
       <c r="AD634" s="4"/>
       <c r="AE634" s="4"/>
+      <c r="AF634" s="4"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
       <c r="A635" s="4"/>
@@ -27802,6 +28442,7 @@
       <c r="AC635" s="4"/>
       <c r="AD635" s="4"/>
       <c r="AE635" s="4"/>
+      <c r="AF635" s="4"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
       <c r="A636" s="4"/>
@@ -27835,6 +28476,7 @@
       <c r="AC636" s="4"/>
       <c r="AD636" s="4"/>
       <c r="AE636" s="4"/>
+      <c r="AF636" s="4"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
       <c r="A637" s="4"/>
@@ -27868,6 +28510,7 @@
       <c r="AC637" s="4"/>
       <c r="AD637" s="4"/>
       <c r="AE637" s="4"/>
+      <c r="AF637" s="4"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
       <c r="A638" s="4"/>
@@ -27901,6 +28544,7 @@
       <c r="AC638" s="4"/>
       <c r="AD638" s="4"/>
       <c r="AE638" s="4"/>
+      <c r="AF638" s="4"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
       <c r="A639" s="4"/>
@@ -27934,6 +28578,7 @@
       <c r="AC639" s="4"/>
       <c r="AD639" s="4"/>
       <c r="AE639" s="4"/>
+      <c r="AF639" s="4"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
       <c r="A640" s="4"/>
@@ -27967,6 +28612,7 @@
       <c r="AC640" s="4"/>
       <c r="AD640" s="4"/>
       <c r="AE640" s="4"/>
+      <c r="AF640" s="4"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
       <c r="A641" s="4"/>
@@ -28000,6 +28646,7 @@
       <c r="AC641" s="4"/>
       <c r="AD641" s="4"/>
       <c r="AE641" s="4"/>
+      <c r="AF641" s="4"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
       <c r="A642" s="4"/>
@@ -28033,6 +28680,7 @@
       <c r="AC642" s="4"/>
       <c r="AD642" s="4"/>
       <c r="AE642" s="4"/>
+      <c r="AF642" s="4"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
       <c r="A643" s="4"/>
@@ -28066,6 +28714,7 @@
       <c r="AC643" s="4"/>
       <c r="AD643" s="4"/>
       <c r="AE643" s="4"/>
+      <c r="AF643" s="4"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
       <c r="A644" s="4"/>
@@ -28099,6 +28748,7 @@
       <c r="AC644" s="4"/>
       <c r="AD644" s="4"/>
       <c r="AE644" s="4"/>
+      <c r="AF644" s="4"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
       <c r="A645" s="4"/>
@@ -28132,6 +28782,7 @@
       <c r="AC645" s="4"/>
       <c r="AD645" s="4"/>
       <c r="AE645" s="4"/>
+      <c r="AF645" s="4"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
       <c r="A646" s="4"/>
@@ -28165,6 +28816,7 @@
       <c r="AC646" s="4"/>
       <c r="AD646" s="4"/>
       <c r="AE646" s="4"/>
+      <c r="AF646" s="4"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
       <c r="A647" s="4"/>
@@ -28198,6 +28850,7 @@
       <c r="AC647" s="4"/>
       <c r="AD647" s="4"/>
       <c r="AE647" s="4"/>
+      <c r="AF647" s="4"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
       <c r="A648" s="4"/>
@@ -28231,6 +28884,7 @@
       <c r="AC648" s="4"/>
       <c r="AD648" s="4"/>
       <c r="AE648" s="4"/>
+      <c r="AF648" s="4"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
       <c r="A649" s="4"/>
@@ -28264,6 +28918,7 @@
       <c r="AC649" s="4"/>
       <c r="AD649" s="4"/>
       <c r="AE649" s="4"/>
+      <c r="AF649" s="4"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
       <c r="A650" s="4"/>
@@ -28297,6 +28952,7 @@
       <c r="AC650" s="4"/>
       <c r="AD650" s="4"/>
       <c r="AE650" s="4"/>
+      <c r="AF650" s="4"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
       <c r="A651" s="4"/>
@@ -28330,6 +28986,7 @@
       <c r="AC651" s="4"/>
       <c r="AD651" s="4"/>
       <c r="AE651" s="4"/>
+      <c r="AF651" s="4"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
       <c r="A652" s="4"/>
@@ -28363,6 +29020,7 @@
       <c r="AC652" s="4"/>
       <c r="AD652" s="4"/>
       <c r="AE652" s="4"/>
+      <c r="AF652" s="4"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
       <c r="A653" s="4"/>
@@ -28396,6 +29054,7 @@
       <c r="AC653" s="4"/>
       <c r="AD653" s="4"/>
       <c r="AE653" s="4"/>
+      <c r="AF653" s="4"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
       <c r="A654" s="4"/>
@@ -28429,6 +29088,7 @@
       <c r="AC654" s="4"/>
       <c r="AD654" s="4"/>
       <c r="AE654" s="4"/>
+      <c r="AF654" s="4"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
       <c r="A655" s="4"/>
@@ -28462,6 +29122,7 @@
       <c r="AC655" s="4"/>
       <c r="AD655" s="4"/>
       <c r="AE655" s="4"/>
+      <c r="AF655" s="4"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
       <c r="A656" s="4"/>
@@ -28495,6 +29156,7 @@
       <c r="AC656" s="4"/>
       <c r="AD656" s="4"/>
       <c r="AE656" s="4"/>
+      <c r="AF656" s="4"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
       <c r="A657" s="4"/>
@@ -28528,6 +29190,7 @@
       <c r="AC657" s="4"/>
       <c r="AD657" s="4"/>
       <c r="AE657" s="4"/>
+      <c r="AF657" s="4"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
       <c r="A658" s="4"/>
@@ -28561,6 +29224,7 @@
       <c r="AC658" s="4"/>
       <c r="AD658" s="4"/>
       <c r="AE658" s="4"/>
+      <c r="AF658" s="4"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
       <c r="A659" s="4"/>
@@ -28594,6 +29258,7 @@
       <c r="AC659" s="4"/>
       <c r="AD659" s="4"/>
       <c r="AE659" s="4"/>
+      <c r="AF659" s="4"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
       <c r="A660" s="4"/>
@@ -28627,6 +29292,7 @@
       <c r="AC660" s="4"/>
       <c r="AD660" s="4"/>
       <c r="AE660" s="4"/>
+      <c r="AF660" s="4"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
       <c r="A661" s="4"/>
@@ -28660,6 +29326,7 @@
       <c r="AC661" s="4"/>
       <c r="AD661" s="4"/>
       <c r="AE661" s="4"/>
+      <c r="AF661" s="4"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
       <c r="A662" s="4"/>
@@ -28693,6 +29360,7 @@
       <c r="AC662" s="4"/>
       <c r="AD662" s="4"/>
       <c r="AE662" s="4"/>
+      <c r="AF662" s="4"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
       <c r="A663" s="4"/>
@@ -28726,6 +29394,7 @@
       <c r="AC663" s="4"/>
       <c r="AD663" s="4"/>
       <c r="AE663" s="4"/>
+      <c r="AF663" s="4"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
       <c r="A664" s="4"/>
@@ -28759,6 +29428,7 @@
       <c r="AC664" s="4"/>
       <c r="AD664" s="4"/>
       <c r="AE664" s="4"/>
+      <c r="AF664" s="4"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
       <c r="A665" s="4"/>
@@ -28792,6 +29462,7 @@
       <c r="AC665" s="4"/>
       <c r="AD665" s="4"/>
       <c r="AE665" s="4"/>
+      <c r="AF665" s="4"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
       <c r="A666" s="4"/>
@@ -28825,6 +29496,7 @@
       <c r="AC666" s="4"/>
       <c r="AD666" s="4"/>
       <c r="AE666" s="4"/>
+      <c r="AF666" s="4"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
       <c r="A667" s="4"/>
@@ -28858,6 +29530,7 @@
       <c r="AC667" s="4"/>
       <c r="AD667" s="4"/>
       <c r="AE667" s="4"/>
+      <c r="AF667" s="4"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
       <c r="A668" s="4"/>
@@ -28891,6 +29564,7 @@
       <c r="AC668" s="4"/>
       <c r="AD668" s="4"/>
       <c r="AE668" s="4"/>
+      <c r="AF668" s="4"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
       <c r="A669" s="4"/>
@@ -28924,6 +29598,7 @@
       <c r="AC669" s="4"/>
       <c r="AD669" s="4"/>
       <c r="AE669" s="4"/>
+      <c r="AF669" s="4"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
       <c r="A670" s="4"/>
@@ -28957,6 +29632,7 @@
       <c r="AC670" s="4"/>
       <c r="AD670" s="4"/>
       <c r="AE670" s="4"/>
+      <c r="AF670" s="4"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
       <c r="A671" s="4"/>
@@ -28990,6 +29666,7 @@
       <c r="AC671" s="4"/>
       <c r="AD671" s="4"/>
       <c r="AE671" s="4"/>
+      <c r="AF671" s="4"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
       <c r="A672" s="4"/>
@@ -29023,6 +29700,7 @@
       <c r="AC672" s="4"/>
       <c r="AD672" s="4"/>
       <c r="AE672" s="4"/>
+      <c r="AF672" s="4"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
       <c r="A673" s="4"/>
@@ -29056,6 +29734,7 @@
       <c r="AC673" s="4"/>
       <c r="AD673" s="4"/>
       <c r="AE673" s="4"/>
+      <c r="AF673" s="4"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
       <c r="A674" s="4"/>
@@ -29089,6 +29768,7 @@
       <c r="AC674" s="4"/>
       <c r="AD674" s="4"/>
       <c r="AE674" s="4"/>
+      <c r="AF674" s="4"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
       <c r="A675" s="4"/>
@@ -29122,6 +29802,7 @@
       <c r="AC675" s="4"/>
       <c r="AD675" s="4"/>
       <c r="AE675" s="4"/>
+      <c r="AF675" s="4"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
       <c r="A676" s="4"/>
@@ -29155,6 +29836,7 @@
       <c r="AC676" s="4"/>
       <c r="AD676" s="4"/>
       <c r="AE676" s="4"/>
+      <c r="AF676" s="4"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
       <c r="A677" s="4"/>
@@ -29188,6 +29870,7 @@
       <c r="AC677" s="4"/>
       <c r="AD677" s="4"/>
       <c r="AE677" s="4"/>
+      <c r="AF677" s="4"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
       <c r="A678" s="4"/>
@@ -29221,6 +29904,7 @@
       <c r="AC678" s="4"/>
       <c r="AD678" s="4"/>
       <c r="AE678" s="4"/>
+      <c r="AF678" s="4"/>
     </row>
     <row r="679" ht="14.25" customHeight="1">
       <c r="A679" s="4"/>
@@ -29254,6 +29938,7 @@
       <c r="AC679" s="4"/>
       <c r="AD679" s="4"/>
       <c r="AE679" s="4"/>
+      <c r="AF679" s="4"/>
     </row>
     <row r="680" ht="14.25" customHeight="1">
       <c r="A680" s="4"/>
@@ -29287,6 +29972,7 @@
       <c r="AC680" s="4"/>
       <c r="AD680" s="4"/>
       <c r="AE680" s="4"/>
+      <c r="AF680" s="4"/>
     </row>
     <row r="681" ht="14.25" customHeight="1">
       <c r="A681" s="4"/>
@@ -29320,6 +30006,7 @@
       <c r="AC681" s="4"/>
       <c r="AD681" s="4"/>
       <c r="AE681" s="4"/>
+      <c r="AF681" s="4"/>
     </row>
     <row r="682" ht="14.25" customHeight="1">
       <c r="A682" s="4"/>
@@ -29353,6 +30040,7 @@
       <c r="AC682" s="4"/>
       <c r="AD682" s="4"/>
       <c r="AE682" s="4"/>
+      <c r="AF682" s="4"/>
     </row>
     <row r="683" ht="14.25" customHeight="1">
       <c r="A683" s="4"/>
@@ -29386,6 +30074,7 @@
       <c r="AC683" s="4"/>
       <c r="AD683" s="4"/>
       <c r="AE683" s="4"/>
+      <c r="AF683" s="4"/>
     </row>
     <row r="684" ht="14.25" customHeight="1">
       <c r="A684" s="4"/>
@@ -29419,6 +30108,7 @@
       <c r="AC684" s="4"/>
       <c r="AD684" s="4"/>
       <c r="AE684" s="4"/>
+      <c r="AF684" s="4"/>
     </row>
     <row r="685" ht="14.25" customHeight="1">
       <c r="A685" s="4"/>
@@ -29452,6 +30142,7 @@
       <c r="AC685" s="4"/>
       <c r="AD685" s="4"/>
       <c r="AE685" s="4"/>
+      <c r="AF685" s="4"/>
     </row>
     <row r="686" ht="14.25" customHeight="1">
       <c r="A686" s="4"/>
@@ -29485,6 +30176,7 @@
       <c r="AC686" s="4"/>
       <c r="AD686" s="4"/>
       <c r="AE686" s="4"/>
+      <c r="AF686" s="4"/>
     </row>
     <row r="687" ht="14.25" customHeight="1">
       <c r="A687" s="4"/>
@@ -29518,6 +30210,7 @@
       <c r="AC687" s="4"/>
       <c r="AD687" s="4"/>
       <c r="AE687" s="4"/>
+      <c r="AF687" s="4"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
       <c r="A688" s="4"/>
@@ -29551,6 +30244,7 @@
       <c r="AC688" s="4"/>
       <c r="AD688" s="4"/>
       <c r="AE688" s="4"/>
+      <c r="AF688" s="4"/>
     </row>
     <row r="689" ht="14.25" customHeight="1">
       <c r="A689" s="4"/>
@@ -29584,6 +30278,7 @@
       <c r="AC689" s="4"/>
       <c r="AD689" s="4"/>
       <c r="AE689" s="4"/>
+      <c r="AF689" s="4"/>
     </row>
     <row r="690" ht="14.25" customHeight="1">
       <c r="A690" s="4"/>
@@ -29617,6 +30312,7 @@
       <c r="AC690" s="4"/>
       <c r="AD690" s="4"/>
       <c r="AE690" s="4"/>
+      <c r="AF690" s="4"/>
     </row>
     <row r="691" ht="14.25" customHeight="1">
       <c r="A691" s="4"/>
@@ -29650,6 +30346,7 @@
       <c r="AC691" s="4"/>
       <c r="AD691" s="4"/>
       <c r="AE691" s="4"/>
+      <c r="AF691" s="4"/>
     </row>
     <row r="692" ht="14.25" customHeight="1">
       <c r="A692" s="4"/>
@@ -29683,6 +30380,7 @@
       <c r="AC692" s="4"/>
       <c r="AD692" s="4"/>
       <c r="AE692" s="4"/>
+      <c r="AF692" s="4"/>
     </row>
     <row r="693" ht="14.25" customHeight="1">
       <c r="A693" s="4"/>
@@ -29716,6 +30414,7 @@
       <c r="AC693" s="4"/>
       <c r="AD693" s="4"/>
       <c r="AE693" s="4"/>
+      <c r="AF693" s="4"/>
     </row>
     <row r="694" ht="14.25" customHeight="1">
       <c r="A694" s="4"/>
@@ -29749,6 +30448,7 @@
       <c r="AC694" s="4"/>
       <c r="AD694" s="4"/>
       <c r="AE694" s="4"/>
+      <c r="AF694" s="4"/>
     </row>
     <row r="695" ht="14.25" customHeight="1">
       <c r="A695" s="4"/>
@@ -29782,6 +30482,7 @@
       <c r="AC695" s="4"/>
       <c r="AD695" s="4"/>
       <c r="AE695" s="4"/>
+      <c r="AF695" s="4"/>
     </row>
     <row r="696" ht="14.25" customHeight="1">
       <c r="A696" s="4"/>
@@ -29815,6 +30516,7 @@
       <c r="AC696" s="4"/>
       <c r="AD696" s="4"/>
       <c r="AE696" s="4"/>
+      <c r="AF696" s="4"/>
     </row>
     <row r="697" ht="14.25" customHeight="1">
       <c r="A697" s="4"/>
@@ -29848,6 +30550,7 @@
       <c r="AC697" s="4"/>
       <c r="AD697" s="4"/>
       <c r="AE697" s="4"/>
+      <c r="AF697" s="4"/>
     </row>
     <row r="698" ht="14.25" customHeight="1">
       <c r="A698" s="4"/>
@@ -29881,6 +30584,7 @@
       <c r="AC698" s="4"/>
       <c r="AD698" s="4"/>
       <c r="AE698" s="4"/>
+      <c r="AF698" s="4"/>
     </row>
     <row r="699" ht="14.25" customHeight="1">
       <c r="A699" s="4"/>
@@ -29914,6 +30618,7 @@
       <c r="AC699" s="4"/>
       <c r="AD699" s="4"/>
       <c r="AE699" s="4"/>
+      <c r="AF699" s="4"/>
     </row>
     <row r="700" ht="14.25" customHeight="1">
       <c r="A700" s="4"/>
@@ -29947,6 +30652,7 @@
       <c r="AC700" s="4"/>
       <c r="AD700" s="4"/>
       <c r="AE700" s="4"/>
+      <c r="AF700" s="4"/>
     </row>
     <row r="701" ht="14.25" customHeight="1">
       <c r="A701" s="4"/>
@@ -29980,6 +30686,7 @@
       <c r="AC701" s="4"/>
       <c r="AD701" s="4"/>
       <c r="AE701" s="4"/>
+      <c r="AF701" s="4"/>
     </row>
     <row r="702" ht="14.25" customHeight="1">
       <c r="A702" s="4"/>
@@ -30013,6 +30720,7 @@
       <c r="AC702" s="4"/>
       <c r="AD702" s="4"/>
       <c r="AE702" s="4"/>
+      <c r="AF702" s="4"/>
     </row>
     <row r="703" ht="14.25" customHeight="1">
       <c r="A703" s="4"/>
@@ -30046,6 +30754,7 @@
       <c r="AC703" s="4"/>
       <c r="AD703" s="4"/>
       <c r="AE703" s="4"/>
+      <c r="AF703" s="4"/>
     </row>
     <row r="704" ht="14.25" customHeight="1">
       <c r="A704" s="4"/>
@@ -30079,6 +30788,7 @@
       <c r="AC704" s="4"/>
       <c r="AD704" s="4"/>
       <c r="AE704" s="4"/>
+      <c r="AF704" s="4"/>
     </row>
     <row r="705" ht="14.25" customHeight="1">
       <c r="A705" s="4"/>
@@ -30112,6 +30822,7 @@
       <c r="AC705" s="4"/>
       <c r="AD705" s="4"/>
       <c r="AE705" s="4"/>
+      <c r="AF705" s="4"/>
     </row>
     <row r="706" ht="14.25" customHeight="1">
       <c r="A706" s="4"/>
@@ -30145,6 +30856,7 @@
       <c r="AC706" s="4"/>
       <c r="AD706" s="4"/>
       <c r="AE706" s="4"/>
+      <c r="AF706" s="4"/>
     </row>
     <row r="707" ht="14.25" customHeight="1">
       <c r="A707" s="4"/>
@@ -30178,6 +30890,7 @@
       <c r="AC707" s="4"/>
       <c r="AD707" s="4"/>
       <c r="AE707" s="4"/>
+      <c r="AF707" s="4"/>
     </row>
     <row r="708" ht="14.25" customHeight="1">
       <c r="A708" s="4"/>
@@ -30211,6 +30924,7 @@
       <c r="AC708" s="4"/>
       <c r="AD708" s="4"/>
       <c r="AE708" s="4"/>
+      <c r="AF708" s="4"/>
     </row>
     <row r="709" ht="14.25" customHeight="1">
       <c r="A709" s="4"/>
@@ -30244,6 +30958,7 @@
       <c r="AC709" s="4"/>
       <c r="AD709" s="4"/>
       <c r="AE709" s="4"/>
+      <c r="AF709" s="4"/>
     </row>
     <row r="710" ht="14.25" customHeight="1">
       <c r="A710" s="4"/>
@@ -30277,6 +30992,7 @@
       <c r="AC710" s="4"/>
       <c r="AD710" s="4"/>
       <c r="AE710" s="4"/>
+      <c r="AF710" s="4"/>
     </row>
     <row r="711" ht="14.25" customHeight="1">
       <c r="A711" s="4"/>
@@ -30310,6 +31026,7 @@
       <c r="AC711" s="4"/>
       <c r="AD711" s="4"/>
       <c r="AE711" s="4"/>
+      <c r="AF711" s="4"/>
     </row>
     <row r="712" ht="14.25" customHeight="1">
       <c r="A712" s="4"/>
@@ -30343,6 +31060,7 @@
       <c r="AC712" s="4"/>
       <c r="AD712" s="4"/>
       <c r="AE712" s="4"/>
+      <c r="AF712" s="4"/>
     </row>
     <row r="713" ht="14.25" customHeight="1">
       <c r="A713" s="4"/>
@@ -30376,6 +31094,7 @@
       <c r="AC713" s="4"/>
       <c r="AD713" s="4"/>
       <c r="AE713" s="4"/>
+      <c r="AF713" s="4"/>
     </row>
     <row r="714" ht="14.25" customHeight="1">
       <c r="A714" s="4"/>
@@ -30409,6 +31128,7 @@
       <c r="AC714" s="4"/>
       <c r="AD714" s="4"/>
       <c r="AE714" s="4"/>
+      <c r="AF714" s="4"/>
     </row>
     <row r="715" ht="14.25" customHeight="1">
       <c r="A715" s="4"/>
@@ -30442,6 +31162,7 @@
       <c r="AC715" s="4"/>
       <c r="AD715" s="4"/>
       <c r="AE715" s="4"/>
+      <c r="AF715" s="4"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
       <c r="A716" s="4"/>
@@ -30475,6 +31196,7 @@
       <c r="AC716" s="4"/>
       <c r="AD716" s="4"/>
       <c r="AE716" s="4"/>
+      <c r="AF716" s="4"/>
     </row>
     <row r="717" ht="14.25" customHeight="1">
       <c r="A717" s="4"/>
@@ -30508,6 +31230,7 @@
       <c r="AC717" s="4"/>
       <c r="AD717" s="4"/>
       <c r="AE717" s="4"/>
+      <c r="AF717" s="4"/>
     </row>
     <row r="718" ht="14.25" customHeight="1">
       <c r="A718" s="4"/>
@@ -30541,6 +31264,7 @@
       <c r="AC718" s="4"/>
       <c r="AD718" s="4"/>
       <c r="AE718" s="4"/>
+      <c r="AF718" s="4"/>
     </row>
     <row r="719" ht="14.25" customHeight="1">
       <c r="A719" s="4"/>
@@ -30574,6 +31298,7 @@
       <c r="AC719" s="4"/>
       <c r="AD719" s="4"/>
       <c r="AE719" s="4"/>
+      <c r="AF719" s="4"/>
     </row>
     <row r="720" ht="14.25" customHeight="1">
       <c r="A720" s="4"/>
@@ -30607,6 +31332,7 @@
       <c r="AC720" s="4"/>
       <c r="AD720" s="4"/>
       <c r="AE720" s="4"/>
+      <c r="AF720" s="4"/>
     </row>
     <row r="721" ht="14.25" customHeight="1">
       <c r="A721" s="4"/>
@@ -30640,6 +31366,7 @@
       <c r="AC721" s="4"/>
       <c r="AD721" s="4"/>
       <c r="AE721" s="4"/>
+      <c r="AF721" s="4"/>
     </row>
     <row r="722" ht="14.25" customHeight="1">
       <c r="A722" s="4"/>
@@ -30673,6 +31400,7 @@
       <c r="AC722" s="4"/>
       <c r="AD722" s="4"/>
       <c r="AE722" s="4"/>
+      <c r="AF722" s="4"/>
     </row>
     <row r="723" ht="14.25" customHeight="1">
       <c r="A723" s="4"/>
@@ -30706,6 +31434,7 @@
       <c r="AC723" s="4"/>
       <c r="AD723" s="4"/>
       <c r="AE723" s="4"/>
+      <c r="AF723" s="4"/>
     </row>
     <row r="724" ht="14.25" customHeight="1">
       <c r="A724" s="4"/>
@@ -30739,6 +31468,7 @@
       <c r="AC724" s="4"/>
       <c r="AD724" s="4"/>
       <c r="AE724" s="4"/>
+      <c r="AF724" s="4"/>
     </row>
     <row r="725" ht="14.25" customHeight="1">
       <c r="A725" s="4"/>
@@ -30772,6 +31502,7 @@
       <c r="AC725" s="4"/>
       <c r="AD725" s="4"/>
       <c r="AE725" s="4"/>
+      <c r="AF725" s="4"/>
     </row>
     <row r="726" ht="14.25" customHeight="1">
       <c r="A726" s="4"/>
@@ -30805,6 +31536,7 @@
       <c r="AC726" s="4"/>
       <c r="AD726" s="4"/>
       <c r="AE726" s="4"/>
+      <c r="AF726" s="4"/>
     </row>
     <row r="727" ht="14.25" customHeight="1">
       <c r="A727" s="4"/>
@@ -30838,6 +31570,7 @@
       <c r="AC727" s="4"/>
       <c r="AD727" s="4"/>
       <c r="AE727" s="4"/>
+      <c r="AF727" s="4"/>
     </row>
     <row r="728" ht="14.25" customHeight="1">
       <c r="A728" s="4"/>
@@ -30871,6 +31604,7 @@
       <c r="AC728" s="4"/>
       <c r="AD728" s="4"/>
       <c r="AE728" s="4"/>
+      <c r="AF728" s="4"/>
     </row>
     <row r="729" ht="14.25" customHeight="1">
       <c r="A729" s="4"/>
@@ -30904,6 +31638,7 @@
       <c r="AC729" s="4"/>
       <c r="AD729" s="4"/>
       <c r="AE729" s="4"/>
+      <c r="AF729" s="4"/>
     </row>
     <row r="730" ht="14.25" customHeight="1">
       <c r="A730" s="4"/>
@@ -30937,6 +31672,7 @@
       <c r="AC730" s="4"/>
       <c r="AD730" s="4"/>
       <c r="AE730" s="4"/>
+      <c r="AF730" s="4"/>
     </row>
     <row r="731" ht="14.25" customHeight="1">
       <c r="A731" s="4"/>
@@ -30970,6 +31706,7 @@
       <c r="AC731" s="4"/>
       <c r="AD731" s="4"/>
       <c r="AE731" s="4"/>
+      <c r="AF731" s="4"/>
     </row>
     <row r="732" ht="14.25" customHeight="1">
       <c r="A732" s="4"/>
@@ -31003,6 +31740,7 @@
       <c r="AC732" s="4"/>
       <c r="AD732" s="4"/>
       <c r="AE732" s="4"/>
+      <c r="AF732" s="4"/>
     </row>
     <row r="733" ht="14.25" customHeight="1">
       <c r="A733" s="4"/>
@@ -31036,6 +31774,7 @@
       <c r="AC733" s="4"/>
       <c r="AD733" s="4"/>
       <c r="AE733" s="4"/>
+      <c r="AF733" s="4"/>
     </row>
     <row r="734" ht="14.25" customHeight="1">
       <c r="A734" s="4"/>
@@ -31069,6 +31808,7 @@
       <c r="AC734" s="4"/>
       <c r="AD734" s="4"/>
       <c r="AE734" s="4"/>
+      <c r="AF734" s="4"/>
     </row>
     <row r="735" ht="14.25" customHeight="1">
       <c r="A735" s="4"/>
@@ -31102,6 +31842,7 @@
       <c r="AC735" s="4"/>
       <c r="AD735" s="4"/>
       <c r="AE735" s="4"/>
+      <c r="AF735" s="4"/>
     </row>
     <row r="736" ht="14.25" customHeight="1">
       <c r="A736" s="4"/>
@@ -31135,6 +31876,7 @@
       <c r="AC736" s="4"/>
       <c r="AD736" s="4"/>
       <c r="AE736" s="4"/>
+      <c r="AF736" s="4"/>
     </row>
     <row r="737" ht="14.25" customHeight="1">
       <c r="A737" s="4"/>
@@ -31168,6 +31910,7 @@
       <c r="AC737" s="4"/>
       <c r="AD737" s="4"/>
       <c r="AE737" s="4"/>
+      <c r="AF737" s="4"/>
     </row>
     <row r="738" ht="14.25" customHeight="1">
       <c r="A738" s="4"/>
@@ -31201,6 +31944,7 @@
       <c r="AC738" s="4"/>
       <c r="AD738" s="4"/>
       <c r="AE738" s="4"/>
+      <c r="AF738" s="4"/>
     </row>
     <row r="739" ht="14.25" customHeight="1">
       <c r="A739" s="4"/>
@@ -31234,6 +31978,7 @@
       <c r="AC739" s="4"/>
       <c r="AD739" s="4"/>
       <c r="AE739" s="4"/>
+      <c r="AF739" s="4"/>
     </row>
     <row r="740" ht="14.25" customHeight="1">
       <c r="A740" s="4"/>
@@ -31267,6 +32012,7 @@
       <c r="AC740" s="4"/>
       <c r="AD740" s="4"/>
       <c r="AE740" s="4"/>
+      <c r="AF740" s="4"/>
     </row>
     <row r="741" ht="14.25" customHeight="1">
       <c r="A741" s="4"/>
@@ -31300,6 +32046,7 @@
       <c r="AC741" s="4"/>
       <c r="AD741" s="4"/>
       <c r="AE741" s="4"/>
+      <c r="AF741" s="4"/>
     </row>
     <row r="742" ht="14.25" customHeight="1">
       <c r="A742" s="4"/>
@@ -31333,6 +32080,7 @@
       <c r="AC742" s="4"/>
       <c r="AD742" s="4"/>
       <c r="AE742" s="4"/>
+      <c r="AF742" s="4"/>
     </row>
     <row r="743" ht="14.25" customHeight="1">
       <c r="A743" s="4"/>
@@ -31366,6 +32114,7 @@
       <c r="AC743" s="4"/>
       <c r="AD743" s="4"/>
       <c r="AE743" s="4"/>
+      <c r="AF743" s="4"/>
     </row>
     <row r="744" ht="14.25" customHeight="1">
       <c r="A744" s="4"/>
@@ -31399,6 +32148,7 @@
       <c r="AC744" s="4"/>
       <c r="AD744" s="4"/>
       <c r="AE744" s="4"/>
+      <c r="AF744" s="4"/>
     </row>
     <row r="745" ht="14.25" customHeight="1">
       <c r="A745" s="4"/>
@@ -31432,6 +32182,7 @@
       <c r="AC745" s="4"/>
       <c r="AD745" s="4"/>
       <c r="AE745" s="4"/>
+      <c r="AF745" s="4"/>
     </row>
     <row r="746" ht="14.25" customHeight="1">
       <c r="A746" s="4"/>
@@ -31465,6 +32216,7 @@
       <c r="AC746" s="4"/>
       <c r="AD746" s="4"/>
       <c r="AE746" s="4"/>
+      <c r="AF746" s="4"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
       <c r="A747" s="4"/>
@@ -31498,6 +32250,7 @@
       <c r="AC747" s="4"/>
       <c r="AD747" s="4"/>
       <c r="AE747" s="4"/>
+      <c r="AF747" s="4"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
       <c r="A748" s="4"/>
@@ -31531,6 +32284,7 @@
       <c r="AC748" s="4"/>
       <c r="AD748" s="4"/>
       <c r="AE748" s="4"/>
+      <c r="AF748" s="4"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
       <c r="A749" s="4"/>
@@ -31564,6 +32318,7 @@
       <c r="AC749" s="4"/>
       <c r="AD749" s="4"/>
       <c r="AE749" s="4"/>
+      <c r="AF749" s="4"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
       <c r="A750" s="4"/>
@@ -31597,6 +32352,7 @@
       <c r="AC750" s="4"/>
       <c r="AD750" s="4"/>
       <c r="AE750" s="4"/>
+      <c r="AF750" s="4"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
       <c r="A751" s="4"/>
@@ -31630,6 +32386,7 @@
       <c r="AC751" s="4"/>
       <c r="AD751" s="4"/>
       <c r="AE751" s="4"/>
+      <c r="AF751" s="4"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
       <c r="A752" s="4"/>
@@ -31663,6 +32420,7 @@
       <c r="AC752" s="4"/>
       <c r="AD752" s="4"/>
       <c r="AE752" s="4"/>
+      <c r="AF752" s="4"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
       <c r="A753" s="4"/>
@@ -31696,6 +32454,7 @@
       <c r="AC753" s="4"/>
       <c r="AD753" s="4"/>
       <c r="AE753" s="4"/>
+      <c r="AF753" s="4"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
       <c r="A754" s="4"/>
@@ -31729,6 +32488,7 @@
       <c r="AC754" s="4"/>
       <c r="AD754" s="4"/>
       <c r="AE754" s="4"/>
+      <c r="AF754" s="4"/>
     </row>
     <row r="755" ht="14.25" customHeight="1">
       <c r="A755" s="4"/>
@@ -31762,6 +32522,7 @@
       <c r="AC755" s="4"/>
       <c r="AD755" s="4"/>
       <c r="AE755" s="4"/>
+      <c r="AF755" s="4"/>
     </row>
     <row r="756" ht="14.25" customHeight="1">
       <c r="A756" s="4"/>
@@ -31795,6 +32556,7 @@
       <c r="AC756" s="4"/>
       <c r="AD756" s="4"/>
       <c r="AE756" s="4"/>
+      <c r="AF756" s="4"/>
     </row>
     <row r="757" ht="14.25" customHeight="1">
       <c r="A757" s="4"/>
@@ -31828,6 +32590,7 @@
       <c r="AC757" s="4"/>
       <c r="AD757" s="4"/>
       <c r="AE757" s="4"/>
+      <c r="AF757" s="4"/>
     </row>
     <row r="758" ht="14.25" customHeight="1">
       <c r="A758" s="4"/>
@@ -31861,6 +32624,7 @@
       <c r="AC758" s="4"/>
       <c r="AD758" s="4"/>
       <c r="AE758" s="4"/>
+      <c r="AF758" s="4"/>
     </row>
     <row r="759" ht="14.25" customHeight="1">
       <c r="A759" s="4"/>
@@ -31894,6 +32658,7 @@
       <c r="AC759" s="4"/>
       <c r="AD759" s="4"/>
       <c r="AE759" s="4"/>
+      <c r="AF759" s="4"/>
     </row>
     <row r="760" ht="14.25" customHeight="1">
       <c r="A760" s="4"/>
@@ -31927,6 +32692,7 @@
       <c r="AC760" s="4"/>
       <c r="AD760" s="4"/>
       <c r="AE760" s="4"/>
+      <c r="AF760" s="4"/>
     </row>
     <row r="761" ht="14.25" customHeight="1">
       <c r="A761" s="4"/>
@@ -31960,6 +32726,7 @@
       <c r="AC761" s="4"/>
       <c r="AD761" s="4"/>
       <c r="AE761" s="4"/>
+      <c r="AF761" s="4"/>
     </row>
     <row r="762" ht="14.25" customHeight="1">
       <c r="A762" s="4"/>
@@ -31993,6 +32760,7 @@
       <c r="AC762" s="4"/>
       <c r="AD762" s="4"/>
       <c r="AE762" s="4"/>
+      <c r="AF762" s="4"/>
     </row>
     <row r="763" ht="14.25" customHeight="1">
       <c r="A763" s="4"/>
@@ -32026,6 +32794,7 @@
       <c r="AC763" s="4"/>
       <c r="AD763" s="4"/>
       <c r="AE763" s="4"/>
+      <c r="AF763" s="4"/>
     </row>
     <row r="764" ht="14.25" customHeight="1">
       <c r="A764" s="4"/>
@@ -32059,6 +32828,7 @@
       <c r="AC764" s="4"/>
       <c r="AD764" s="4"/>
       <c r="AE764" s="4"/>
+      <c r="AF764" s="4"/>
     </row>
     <row r="765" ht="14.25" customHeight="1">
       <c r="A765" s="4"/>
@@ -32092,6 +32862,7 @@
       <c r="AC765" s="4"/>
       <c r="AD765" s="4"/>
       <c r="AE765" s="4"/>
+      <c r="AF765" s="4"/>
     </row>
     <row r="766" ht="14.25" customHeight="1">
       <c r="A766" s="4"/>
@@ -32125,6 +32896,7 @@
       <c r="AC766" s="4"/>
       <c r="AD766" s="4"/>
       <c r="AE766" s="4"/>
+      <c r="AF766" s="4"/>
     </row>
     <row r="767" ht="14.25" customHeight="1">
       <c r="A767" s="4"/>
@@ -32158,6 +32930,7 @@
       <c r="AC767" s="4"/>
       <c r="AD767" s="4"/>
       <c r="AE767" s="4"/>
+      <c r="AF767" s="4"/>
     </row>
     <row r="768" ht="14.25" customHeight="1">
       <c r="A768" s="4"/>
@@ -32191,6 +32964,7 @@
       <c r="AC768" s="4"/>
       <c r="AD768" s="4"/>
       <c r="AE768" s="4"/>
+      <c r="AF768" s="4"/>
     </row>
     <row r="769" ht="14.25" customHeight="1">
       <c r="A769" s="4"/>
@@ -32224,6 +32998,7 @@
       <c r="AC769" s="4"/>
       <c r="AD769" s="4"/>
       <c r="AE769" s="4"/>
+      <c r="AF769" s="4"/>
     </row>
     <row r="770" ht="14.25" customHeight="1">
       <c r="A770" s="4"/>
@@ -32257,6 +33032,7 @@
       <c r="AC770" s="4"/>
       <c r="AD770" s="4"/>
       <c r="AE770" s="4"/>
+      <c r="AF770" s="4"/>
     </row>
     <row r="771" ht="14.25" customHeight="1">
       <c r="A771" s="4"/>
@@ -32290,6 +33066,7 @@
       <c r="AC771" s="4"/>
       <c r="AD771" s="4"/>
       <c r="AE771" s="4"/>
+      <c r="AF771" s="4"/>
     </row>
     <row r="772" ht="14.25" customHeight="1">
       <c r="A772" s="4"/>
@@ -32323,6 +33100,7 @@
       <c r="AC772" s="4"/>
       <c r="AD772" s="4"/>
       <c r="AE772" s="4"/>
+      <c r="AF772" s="4"/>
     </row>
     <row r="773" ht="14.25" customHeight="1">
       <c r="A773" s="4"/>
@@ -32356,6 +33134,7 @@
       <c r="AC773" s="4"/>
       <c r="AD773" s="4"/>
       <c r="AE773" s="4"/>
+      <c r="AF773" s="4"/>
     </row>
     <row r="774" ht="14.25" customHeight="1">
       <c r="A774" s="4"/>
@@ -32389,6 +33168,7 @@
       <c r="AC774" s="4"/>
       <c r="AD774" s="4"/>
       <c r="AE774" s="4"/>
+      <c r="AF774" s="4"/>
     </row>
     <row r="775" ht="14.25" customHeight="1">
       <c r="A775" s="4"/>
@@ -32422,6 +33202,7 @@
       <c r="AC775" s="4"/>
       <c r="AD775" s="4"/>
       <c r="AE775" s="4"/>
+      <c r="AF775" s="4"/>
     </row>
     <row r="776" ht="14.25" customHeight="1">
       <c r="A776" s="4"/>
@@ -32455,6 +33236,7 @@
       <c r="AC776" s="4"/>
       <c r="AD776" s="4"/>
       <c r="AE776" s="4"/>
+      <c r="AF776" s="4"/>
     </row>
     <row r="777" ht="14.25" customHeight="1">
       <c r="A777" s="4"/>
@@ -32488,6 +33270,7 @@
       <c r="AC777" s="4"/>
       <c r="AD777" s="4"/>
       <c r="AE777" s="4"/>
+      <c r="AF777" s="4"/>
     </row>
     <row r="778" ht="14.25" customHeight="1">
       <c r="A778" s="4"/>
@@ -32521,6 +33304,7 @@
       <c r="AC778" s="4"/>
       <c r="AD778" s="4"/>
       <c r="AE778" s="4"/>
+      <c r="AF778" s="4"/>
     </row>
     <row r="779" ht="14.25" customHeight="1">
       <c r="A779" s="4"/>
@@ -32554,6 +33338,7 @@
       <c r="AC779" s="4"/>
       <c r="AD779" s="4"/>
       <c r="AE779" s="4"/>
+      <c r="AF779" s="4"/>
     </row>
     <row r="780" ht="14.25" customHeight="1">
       <c r="A780" s="4"/>
@@ -32587,6 +33372,7 @@
       <c r="AC780" s="4"/>
       <c r="AD780" s="4"/>
       <c r="AE780" s="4"/>
+      <c r="AF780" s="4"/>
     </row>
     <row r="781" ht="14.25" customHeight="1">
       <c r="A781" s="4"/>
@@ -32620,6 +33406,7 @@
       <c r="AC781" s="4"/>
       <c r="AD781" s="4"/>
       <c r="AE781" s="4"/>
+      <c r="AF781" s="4"/>
     </row>
     <row r="782" ht="14.25" customHeight="1">
       <c r="A782" s="4"/>
@@ -32653,6 +33440,7 @@
       <c r="AC782" s="4"/>
       <c r="AD782" s="4"/>
       <c r="AE782" s="4"/>
+      <c r="AF782" s="4"/>
     </row>
     <row r="783" ht="14.25" customHeight="1">
       <c r="A783" s="4"/>
@@ -32686,6 +33474,7 @@
       <c r="AC783" s="4"/>
       <c r="AD783" s="4"/>
       <c r="AE783" s="4"/>
+      <c r="AF783" s="4"/>
     </row>
     <row r="784" ht="14.25" customHeight="1">
       <c r="A784" s="4"/>
@@ -32719,6 +33508,7 @@
       <c r="AC784" s="4"/>
       <c r="AD784" s="4"/>
       <c r="AE784" s="4"/>
+      <c r="AF784" s="4"/>
     </row>
     <row r="785" ht="14.25" customHeight="1">
       <c r="A785" s="4"/>
@@ -32752,6 +33542,7 @@
       <c r="AC785" s="4"/>
       <c r="AD785" s="4"/>
       <c r="AE785" s="4"/>
+      <c r="AF785" s="4"/>
     </row>
     <row r="786" ht="14.25" customHeight="1">
       <c r="A786" s="4"/>
@@ -32785,6 +33576,7 @@
       <c r="AC786" s="4"/>
       <c r="AD786" s="4"/>
       <c r="AE786" s="4"/>
+      <c r="AF786" s="4"/>
     </row>
     <row r="787" ht="14.25" customHeight="1">
       <c r="A787" s="4"/>
@@ -32818,6 +33610,7 @@
       <c r="AC787" s="4"/>
       <c r="AD787" s="4"/>
       <c r="AE787" s="4"/>
+      <c r="AF787" s="4"/>
     </row>
     <row r="788" ht="14.25" customHeight="1">
       <c r="A788" s="4"/>
@@ -32851,6 +33644,7 @@
       <c r="AC788" s="4"/>
       <c r="AD788" s="4"/>
       <c r="AE788" s="4"/>
+      <c r="AF788" s="4"/>
     </row>
     <row r="789" ht="14.25" customHeight="1">
       <c r="A789" s="4"/>
@@ -32884,6 +33678,7 @@
       <c r="AC789" s="4"/>
       <c r="AD789" s="4"/>
       <c r="AE789" s="4"/>
+      <c r="AF789" s="4"/>
     </row>
     <row r="790" ht="14.25" customHeight="1">
       <c r="A790" s="4"/>
@@ -32917,6 +33712,7 @@
       <c r="AC790" s="4"/>
       <c r="AD790" s="4"/>
       <c r="AE790" s="4"/>
+      <c r="AF790" s="4"/>
     </row>
     <row r="791" ht="14.25" customHeight="1">
       <c r="A791" s="4"/>
@@ -32950,6 +33746,7 @@
       <c r="AC791" s="4"/>
       <c r="AD791" s="4"/>
       <c r="AE791" s="4"/>
+      <c r="AF791" s="4"/>
     </row>
     <row r="792" ht="14.25" customHeight="1">
       <c r="A792" s="4"/>
@@ -32983,6 +33780,7 @@
       <c r="AC792" s="4"/>
       <c r="AD792" s="4"/>
       <c r="AE792" s="4"/>
+      <c r="AF792" s="4"/>
     </row>
     <row r="793" ht="14.25" customHeight="1">
       <c r="A793" s="4"/>
@@ -33016,6 +33814,7 @@
       <c r="AC793" s="4"/>
       <c r="AD793" s="4"/>
       <c r="AE793" s="4"/>
+      <c r="AF793" s="4"/>
     </row>
     <row r="794" ht="14.25" customHeight="1">
       <c r="A794" s="4"/>
@@ -33049,6 +33848,7 @@
       <c r="AC794" s="4"/>
       <c r="AD794" s="4"/>
       <c r="AE794" s="4"/>
+      <c r="AF794" s="4"/>
     </row>
     <row r="795" ht="14.25" customHeight="1">
       <c r="A795" s="4"/>
@@ -33082,6 +33882,7 @@
       <c r="AC795" s="4"/>
       <c r="AD795" s="4"/>
       <c r="AE795" s="4"/>
+      <c r="AF795" s="4"/>
     </row>
     <row r="796" ht="14.25" customHeight="1">
       <c r="A796" s="4"/>
@@ -33115,6 +33916,7 @@
       <c r="AC796" s="4"/>
       <c r="AD796" s="4"/>
       <c r="AE796" s="4"/>
+      <c r="AF796" s="4"/>
     </row>
     <row r="797" ht="14.25" customHeight="1">
       <c r="A797" s="4"/>
@@ -33148,6 +33950,7 @@
       <c r="AC797" s="4"/>
       <c r="AD797" s="4"/>
       <c r="AE797" s="4"/>
+      <c r="AF797" s="4"/>
     </row>
     <row r="798" ht="14.25" customHeight="1">
       <c r="A798" s="4"/>
@@ -33181,6 +33984,7 @@
       <c r="AC798" s="4"/>
       <c r="AD798" s="4"/>
       <c r="AE798" s="4"/>
+      <c r="AF798" s="4"/>
     </row>
     <row r="799" ht="14.25" customHeight="1">
       <c r="A799" s="4"/>
@@ -33214,6 +34018,7 @@
       <c r="AC799" s="4"/>
       <c r="AD799" s="4"/>
       <c r="AE799" s="4"/>
+      <c r="AF799" s="4"/>
     </row>
     <row r="800" ht="14.25" customHeight="1">
       <c r="A800" s="4"/>
@@ -33247,6 +34052,7 @@
       <c r="AC800" s="4"/>
       <c r="AD800" s="4"/>
       <c r="AE800" s="4"/>
+      <c r="AF800" s="4"/>
     </row>
     <row r="801" ht="14.25" customHeight="1">
       <c r="A801" s="4"/>
@@ -33280,6 +34086,7 @@
       <c r="AC801" s="4"/>
       <c r="AD801" s="4"/>
       <c r="AE801" s="4"/>
+      <c r="AF801" s="4"/>
     </row>
     <row r="802" ht="14.25" customHeight="1">
       <c r="A802" s="4"/>
@@ -33313,6 +34120,7 @@
       <c r="AC802" s="4"/>
       <c r="AD802" s="4"/>
       <c r="AE802" s="4"/>
+      <c r="AF802" s="4"/>
     </row>
     <row r="803" ht="14.25" customHeight="1">
       <c r="A803" s="4"/>
@@ -33346,6 +34154,7 @@
       <c r="AC803" s="4"/>
       <c r="AD803" s="4"/>
       <c r="AE803" s="4"/>
+      <c r="AF803" s="4"/>
     </row>
     <row r="804" ht="14.25" customHeight="1">
       <c r="A804" s="4"/>
@@ -33379,6 +34188,7 @@
       <c r="AC804" s="4"/>
       <c r="AD804" s="4"/>
       <c r="AE804" s="4"/>
+      <c r="AF804" s="4"/>
     </row>
     <row r="805" ht="14.25" customHeight="1">
       <c r="A805" s="4"/>
@@ -33412,6 +34222,7 @@
       <c r="AC805" s="4"/>
       <c r="AD805" s="4"/>
       <c r="AE805" s="4"/>
+      <c r="AF805" s="4"/>
     </row>
     <row r="806" ht="14.25" customHeight="1">
       <c r="A806" s="4"/>
@@ -33445,6 +34256,7 @@
       <c r="AC806" s="4"/>
       <c r="AD806" s="4"/>
       <c r="AE806" s="4"/>
+      <c r="AF806" s="4"/>
     </row>
     <row r="807" ht="14.25" customHeight="1">
       <c r="A807" s="4"/>
@@ -33478,6 +34290,7 @@
       <c r="AC807" s="4"/>
       <c r="AD807" s="4"/>
       <c r="AE807" s="4"/>
+      <c r="AF807" s="4"/>
     </row>
     <row r="808" ht="14.25" customHeight="1">
       <c r="A808" s="4"/>
@@ -33511,6 +34324,7 @@
       <c r="AC808" s="4"/>
       <c r="AD808" s="4"/>
       <c r="AE808" s="4"/>
+      <c r="AF808" s="4"/>
     </row>
     <row r="809" ht="14.25" customHeight="1">
       <c r="A809" s="4"/>
@@ -33544,6 +34358,7 @@
       <c r="AC809" s="4"/>
       <c r="AD809" s="4"/>
       <c r="AE809" s="4"/>
+      <c r="AF809" s="4"/>
     </row>
     <row r="810" ht="14.25" customHeight="1">
       <c r="A810" s="4"/>
@@ -33577,6 +34392,7 @@
       <c r="AC810" s="4"/>
       <c r="AD810" s="4"/>
       <c r="AE810" s="4"/>
+      <c r="AF810" s="4"/>
     </row>
     <row r="811" ht="14.25" customHeight="1">
       <c r="A811" s="4"/>
@@ -33610,6 +34426,7 @@
       <c r="AC811" s="4"/>
       <c r="AD811" s="4"/>
       <c r="AE811" s="4"/>
+      <c r="AF811" s="4"/>
     </row>
     <row r="812" ht="14.25" customHeight="1">
       <c r="A812" s="4"/>
@@ -33643,6 +34460,7 @@
       <c r="AC812" s="4"/>
       <c r="AD812" s="4"/>
       <c r="AE812" s="4"/>
+      <c r="AF812" s="4"/>
     </row>
     <row r="813" ht="14.25" customHeight="1">
       <c r="A813" s="4"/>
@@ -33676,6 +34494,7 @@
       <c r="AC813" s="4"/>
       <c r="AD813" s="4"/>
       <c r="AE813" s="4"/>
+      <c r="AF813" s="4"/>
     </row>
     <row r="814" ht="14.25" customHeight="1">
       <c r="A814" s="4"/>
@@ -33709,6 +34528,7 @@
       <c r="AC814" s="4"/>
       <c r="AD814" s="4"/>
       <c r="AE814" s="4"/>
+      <c r="AF814" s="4"/>
     </row>
     <row r="815" ht="14.25" customHeight="1">
       <c r="A815" s="4"/>
@@ -33742,6 +34562,7 @@
       <c r="AC815" s="4"/>
       <c r="AD815" s="4"/>
       <c r="AE815" s="4"/>
+      <c r="AF815" s="4"/>
     </row>
     <row r="816" ht="14.25" customHeight="1">
       <c r="A816" s="4"/>
@@ -33775,6 +34596,7 @@
       <c r="AC816" s="4"/>
       <c r="AD816" s="4"/>
       <c r="AE816" s="4"/>
+      <c r="AF816" s="4"/>
     </row>
     <row r="817" ht="14.25" customHeight="1">
       <c r="A817" s="4"/>
@@ -33808,6 +34630,7 @@
       <c r="AC817" s="4"/>
       <c r="AD817" s="4"/>
       <c r="AE817" s="4"/>
+      <c r="AF817" s="4"/>
     </row>
     <row r="818" ht="14.25" customHeight="1">
       <c r="A818" s="4"/>
@@ -33841,6 +34664,7 @@
       <c r="AC818" s="4"/>
       <c r="AD818" s="4"/>
       <c r="AE818" s="4"/>
+      <c r="AF818" s="4"/>
     </row>
     <row r="819" ht="14.25" customHeight="1">
       <c r="A819" s="4"/>
@@ -33874,6 +34698,7 @@
       <c r="AC819" s="4"/>
       <c r="AD819" s="4"/>
       <c r="AE819" s="4"/>
+      <c r="AF819" s="4"/>
     </row>
     <row r="820" ht="14.25" customHeight="1">
       <c r="A820" s="4"/>
@@ -33907,6 +34732,7 @@
       <c r="AC820" s="4"/>
       <c r="AD820" s="4"/>
       <c r="AE820" s="4"/>
+      <c r="AF820" s="4"/>
     </row>
     <row r="821" ht="14.25" customHeight="1">
       <c r="A821" s="4"/>
@@ -33940,6 +34766,7 @@
       <c r="AC821" s="4"/>
       <c r="AD821" s="4"/>
       <c r="AE821" s="4"/>
+      <c r="AF821" s="4"/>
     </row>
     <row r="822" ht="14.25" customHeight="1">
       <c r="A822" s="4"/>
@@ -33973,6 +34800,7 @@
       <c r="AC822" s="4"/>
       <c r="AD822" s="4"/>
       <c r="AE822" s="4"/>
+      <c r="AF822" s="4"/>
     </row>
     <row r="823" ht="14.25" customHeight="1">
       <c r="A823" s="4"/>
@@ -34006,6 +34834,7 @@
       <c r="AC823" s="4"/>
       <c r="AD823" s="4"/>
       <c r="AE823" s="4"/>
+      <c r="AF823" s="4"/>
     </row>
     <row r="824" ht="14.25" customHeight="1">
       <c r="A824" s="4"/>
@@ -34039,6 +34868,7 @@
       <c r="AC824" s="4"/>
       <c r="AD824" s="4"/>
       <c r="AE824" s="4"/>
+      <c r="AF824" s="4"/>
     </row>
     <row r="825" ht="14.25" customHeight="1">
       <c r="A825" s="4"/>
@@ -34072,6 +34902,7 @@
       <c r="AC825" s="4"/>
       <c r="AD825" s="4"/>
       <c r="AE825" s="4"/>
+      <c r="AF825" s="4"/>
     </row>
     <row r="826" ht="14.25" customHeight="1">
       <c r="A826" s="4"/>
@@ -34105,6 +34936,7 @@
       <c r="AC826" s="4"/>
       <c r="AD826" s="4"/>
       <c r="AE826" s="4"/>
+      <c r="AF826" s="4"/>
     </row>
     <row r="827" ht="14.25" customHeight="1">
       <c r="A827" s="4"/>
@@ -34138,6 +34970,7 @@
       <c r="AC827" s="4"/>
       <c r="AD827" s="4"/>
       <c r="AE827" s="4"/>
+      <c r="AF827" s="4"/>
     </row>
     <row r="828" ht="14.25" customHeight="1">
       <c r="A828" s="4"/>
@@ -34171,6 +35004,7 @@
       <c r="AC828" s="4"/>
       <c r="AD828" s="4"/>
       <c r="AE828" s="4"/>
+      <c r="AF828" s="4"/>
     </row>
     <row r="829" ht="14.25" customHeight="1">
       <c r="A829" s="4"/>
@@ -34204,6 +35038,7 @@
       <c r="AC829" s="4"/>
       <c r="AD829" s="4"/>
       <c r="AE829" s="4"/>
+      <c r="AF829" s="4"/>
     </row>
     <row r="830" ht="14.25" customHeight="1">
       <c r="A830" s="4"/>
@@ -34237,6 +35072,7 @@
       <c r="AC830" s="4"/>
       <c r="AD830" s="4"/>
       <c r="AE830" s="4"/>
+      <c r="AF830" s="4"/>
     </row>
     <row r="831" ht="14.25" customHeight="1">
       <c r="A831" s="4"/>
@@ -34270,6 +35106,7 @@
       <c r="AC831" s="4"/>
       <c r="AD831" s="4"/>
       <c r="AE831" s="4"/>
+      <c r="AF831" s="4"/>
     </row>
     <row r="832" ht="14.25" customHeight="1">
       <c r="A832" s="4"/>
@@ -34303,6 +35140,7 @@
       <c r="AC832" s="4"/>
       <c r="AD832" s="4"/>
       <c r="AE832" s="4"/>
+      <c r="AF832" s="4"/>
     </row>
     <row r="833" ht="14.25" customHeight="1">
       <c r="A833" s="4"/>
@@ -34336,6 +35174,7 @@
       <c r="AC833" s="4"/>
       <c r="AD833" s="4"/>
       <c r="AE833" s="4"/>
+      <c r="AF833" s="4"/>
     </row>
     <row r="834" ht="14.25" customHeight="1">
       <c r="A834" s="4"/>
@@ -34369,6 +35208,7 @@
       <c r="AC834" s="4"/>
       <c r="AD834" s="4"/>
       <c r="AE834" s="4"/>
+      <c r="AF834" s="4"/>
     </row>
     <row r="835" ht="14.25" customHeight="1">
       <c r="A835" s="4"/>
@@ -34402,6 +35242,7 @@
       <c r="AC835" s="4"/>
       <c r="AD835" s="4"/>
       <c r="AE835" s="4"/>
+      <c r="AF835" s="4"/>
     </row>
     <row r="836" ht="14.25" customHeight="1">
       <c r="A836" s="4"/>
@@ -34435,6 +35276,7 @@
       <c r="AC836" s="4"/>
       <c r="AD836" s="4"/>
       <c r="AE836" s="4"/>
+      <c r="AF836" s="4"/>
     </row>
     <row r="837" ht="14.25" customHeight="1">
       <c r="A837" s="4"/>
@@ -34468,6 +35310,7 @@
       <c r="AC837" s="4"/>
       <c r="AD837" s="4"/>
       <c r="AE837" s="4"/>
+      <c r="AF837" s="4"/>
     </row>
     <row r="838" ht="14.25" customHeight="1">
       <c r="A838" s="4"/>
@@ -34501,6 +35344,7 @@
       <c r="AC838" s="4"/>
       <c r="AD838" s="4"/>
       <c r="AE838" s="4"/>
+      <c r="AF838" s="4"/>
     </row>
     <row r="839" ht="14.25" customHeight="1">
       <c r="A839" s="4"/>
@@ -34534,6 +35378,7 @@
       <c r="AC839" s="4"/>
       <c r="AD839" s="4"/>
       <c r="AE839" s="4"/>
+      <c r="AF839" s="4"/>
     </row>
     <row r="840" ht="14.25" customHeight="1">
       <c r="A840" s="4"/>
@@ -34567,6 +35412,7 @@
       <c r="AC840" s="4"/>
       <c r="AD840" s="4"/>
       <c r="AE840" s="4"/>
+      <c r="AF840" s="4"/>
     </row>
     <row r="841" ht="14.25" customHeight="1">
       <c r="A841" s="4"/>
@@ -34600,6 +35446,7 @@
       <c r="AC841" s="4"/>
       <c r="AD841" s="4"/>
       <c r="AE841" s="4"/>
+      <c r="AF841" s="4"/>
     </row>
     <row r="842" ht="14.25" customHeight="1">
       <c r="A842" s="4"/>
@@ -34633,6 +35480,7 @@
       <c r="AC842" s="4"/>
       <c r="AD842" s="4"/>
       <c r="AE842" s="4"/>
+      <c r="AF842" s="4"/>
     </row>
     <row r="843" ht="14.25" customHeight="1">
       <c r="A843" s="4"/>
@@ -34666,6 +35514,7 @@
       <c r="AC843" s="4"/>
       <c r="AD843" s="4"/>
       <c r="AE843" s="4"/>
+      <c r="AF843" s="4"/>
     </row>
     <row r="844" ht="14.25" customHeight="1">
       <c r="A844" s="4"/>
@@ -34699,6 +35548,7 @@
       <c r="AC844" s="4"/>
       <c r="AD844" s="4"/>
       <c r="AE844" s="4"/>
+      <c r="AF844" s="4"/>
     </row>
     <row r="845" ht="14.25" customHeight="1">
       <c r="A845" s="4"/>
@@ -34732,6 +35582,7 @@
       <c r="AC845" s="4"/>
       <c r="AD845" s="4"/>
       <c r="AE845" s="4"/>
+      <c r="AF845" s="4"/>
     </row>
     <row r="846" ht="14.25" customHeight="1">
       <c r="A846" s="4"/>
@@ -34765,6 +35616,7 @@
       <c r="AC846" s="4"/>
       <c r="AD846" s="4"/>
       <c r="AE846" s="4"/>
+      <c r="AF846" s="4"/>
     </row>
     <row r="847" ht="14.25" customHeight="1">
       <c r="A847" s="4"/>
@@ -34798,6 +35650,7 @@
       <c r="AC847" s="4"/>
       <c r="AD847" s="4"/>
       <c r="AE847" s="4"/>
+      <c r="AF847" s="4"/>
     </row>
     <row r="848" ht="14.25" customHeight="1">
       <c r="A848" s="4"/>
@@ -34831,6 +35684,7 @@
       <c r="AC848" s="4"/>
       <c r="AD848" s="4"/>
       <c r="AE848" s="4"/>
+      <c r="AF848" s="4"/>
     </row>
     <row r="849" ht="14.25" customHeight="1">
       <c r="A849" s="4"/>
@@ -34864,6 +35718,7 @@
       <c r="AC849" s="4"/>
       <c r="AD849" s="4"/>
       <c r="AE849" s="4"/>
+      <c r="AF849" s="4"/>
     </row>
     <row r="850" ht="14.25" customHeight="1">
       <c r="A850" s="4"/>
@@ -34897,6 +35752,7 @@
       <c r="AC850" s="4"/>
       <c r="AD850" s="4"/>
       <c r="AE850" s="4"/>
+      <c r="AF850" s="4"/>
     </row>
     <row r="851" ht="14.25" customHeight="1">
       <c r="A851" s="4"/>
@@ -34930,6 +35786,7 @@
       <c r="AC851" s="4"/>
       <c r="AD851" s="4"/>
       <c r="AE851" s="4"/>
+      <c r="AF851" s="4"/>
     </row>
     <row r="852" ht="14.25" customHeight="1">
       <c r="A852" s="4"/>
@@ -34963,6 +35820,7 @@
       <c r="AC852" s="4"/>
       <c r="AD852" s="4"/>
       <c r="AE852" s="4"/>
+      <c r="AF852" s="4"/>
     </row>
     <row r="853" ht="14.25" customHeight="1">
       <c r="A853" s="4"/>
@@ -34996,6 +35854,7 @@
       <c r="AC853" s="4"/>
       <c r="AD853" s="4"/>
       <c r="AE853" s="4"/>
+      <c r="AF853" s="4"/>
     </row>
     <row r="854" ht="14.25" customHeight="1">
       <c r="A854" s="4"/>
@@ -35029,6 +35888,7 @@
       <c r="AC854" s="4"/>
       <c r="AD854" s="4"/>
       <c r="AE854" s="4"/>
+      <c r="AF854" s="4"/>
     </row>
     <row r="855" ht="14.25" customHeight="1">
       <c r="A855" s="4"/>
@@ -35062,6 +35922,7 @@
       <c r="AC855" s="4"/>
       <c r="AD855" s="4"/>
       <c r="AE855" s="4"/>
+      <c r="AF855" s="4"/>
     </row>
     <row r="856" ht="14.25" customHeight="1">
       <c r="A856" s="4"/>
@@ -35095,6 +35956,7 @@
       <c r="AC856" s="4"/>
       <c r="AD856" s="4"/>
       <c r="AE856" s="4"/>
+      <c r="AF856" s="4"/>
     </row>
     <row r="857" ht="14.25" customHeight="1">
       <c r="A857" s="4"/>
@@ -35128,6 +35990,7 @@
       <c r="AC857" s="4"/>
       <c r="AD857" s="4"/>
       <c r="AE857" s="4"/>
+      <c r="AF857" s="4"/>
     </row>
     <row r="858" ht="14.25" customHeight="1">
       <c r="A858" s="4"/>
@@ -35161,6 +36024,7 @@
       <c r="AC858" s="4"/>
       <c r="AD858" s="4"/>
       <c r="AE858" s="4"/>
+      <c r="AF858" s="4"/>
     </row>
     <row r="859" ht="14.25" customHeight="1">
       <c r="A859" s="4"/>
@@ -35194,6 +36058,7 @@
       <c r="AC859" s="4"/>
       <c r="AD859" s="4"/>
       <c r="AE859" s="4"/>
+      <c r="AF859" s="4"/>
     </row>
     <row r="860" ht="14.25" customHeight="1">
       <c r="A860" s="4"/>
@@ -35227,6 +36092,7 @@
       <c r="AC860" s="4"/>
       <c r="AD860" s="4"/>
       <c r="AE860" s="4"/>
+      <c r="AF860" s="4"/>
     </row>
     <row r="861" ht="14.25" customHeight="1">
       <c r="A861" s="4"/>
@@ -35260,6 +36126,7 @@
       <c r="AC861" s="4"/>
       <c r="AD861" s="4"/>
       <c r="AE861" s="4"/>
+      <c r="AF861" s="4"/>
     </row>
     <row r="862" ht="14.25" customHeight="1">
       <c r="A862" s="4"/>
@@ -35293,6 +36160,7 @@
       <c r="AC862" s="4"/>
       <c r="AD862" s="4"/>
       <c r="AE862" s="4"/>
+      <c r="AF862" s="4"/>
     </row>
     <row r="863" ht="14.25" customHeight="1">
       <c r="A863" s="4"/>
@@ -35326,6 +36194,7 @@
       <c r="AC863" s="4"/>
       <c r="AD863" s="4"/>
       <c r="AE863" s="4"/>
+      <c r="AF863" s="4"/>
     </row>
     <row r="864" ht="14.25" customHeight="1">
       <c r="A864" s="4"/>
@@ -35359,6 +36228,7 @@
       <c r="AC864" s="4"/>
       <c r="AD864" s="4"/>
       <c r="AE864" s="4"/>
+      <c r="AF864" s="4"/>
     </row>
     <row r="865" ht="14.25" customHeight="1">
       <c r="A865" s="4"/>
@@ -35392,6 +36262,7 @@
       <c r="AC865" s="4"/>
       <c r="AD865" s="4"/>
       <c r="AE865" s="4"/>
+      <c r="AF865" s="4"/>
     </row>
     <row r="866" ht="14.25" customHeight="1">
       <c r="A866" s="4"/>
@@ -35425,6 +36296,7 @@
       <c r="AC866" s="4"/>
       <c r="AD866" s="4"/>
       <c r="AE866" s="4"/>
+      <c r="AF866" s="4"/>
     </row>
     <row r="867" ht="14.25" customHeight="1">
       <c r="A867" s="4"/>
@@ -35458,6 +36330,7 @@
       <c r="AC867" s="4"/>
       <c r="AD867" s="4"/>
       <c r="AE867" s="4"/>
+      <c r="AF867" s="4"/>
     </row>
     <row r="868" ht="14.25" customHeight="1">
       <c r="A868" s="4"/>
@@ -35491,6 +36364,7 @@
       <c r="AC868" s="4"/>
       <c r="AD868" s="4"/>
       <c r="AE868" s="4"/>
+      <c r="AF868" s="4"/>
     </row>
     <row r="869" ht="14.25" customHeight="1">
       <c r="A869" s="4"/>
@@ -35524,6 +36398,7 @@
       <c r="AC869" s="4"/>
       <c r="AD869" s="4"/>
       <c r="AE869" s="4"/>
+      <c r="AF869" s="4"/>
     </row>
     <row r="870" ht="14.25" customHeight="1">
       <c r="A870" s="4"/>
@@ -35557,6 +36432,7 @@
       <c r="AC870" s="4"/>
       <c r="AD870" s="4"/>
       <c r="AE870" s="4"/>
+      <c r="AF870" s="4"/>
     </row>
     <row r="871" ht="14.25" customHeight="1">
       <c r="A871" s="4"/>
@@ -35590,6 +36466,7 @@
       <c r="AC871" s="4"/>
       <c r="AD871" s="4"/>
       <c r="AE871" s="4"/>
+      <c r="AF871" s="4"/>
     </row>
     <row r="872" ht="14.25" customHeight="1">
       <c r="A872" s="4"/>
@@ -35623,6 +36500,7 @@
       <c r="AC872" s="4"/>
       <c r="AD872" s="4"/>
       <c r="AE872" s="4"/>
+      <c r="AF872" s="4"/>
     </row>
     <row r="873" ht="14.25" customHeight="1">
       <c r="A873" s="4"/>
@@ -35656,6 +36534,7 @@
       <c r="AC873" s="4"/>
       <c r="AD873" s="4"/>
       <c r="AE873" s="4"/>
+      <c r="AF873" s="4"/>
     </row>
     <row r="874" ht="14.25" customHeight="1">
       <c r="A874" s="4"/>
@@ -35689,6 +36568,7 @@
       <c r="AC874" s="4"/>
       <c r="AD874" s="4"/>
       <c r="AE874" s="4"/>
+      <c r="AF874" s="4"/>
     </row>
     <row r="875" ht="14.25" customHeight="1">
       <c r="A875" s="4"/>
@@ -35722,6 +36602,7 @@
       <c r="AC875" s="4"/>
       <c r="AD875" s="4"/>
       <c r="AE875" s="4"/>
+      <c r="AF875" s="4"/>
     </row>
     <row r="876" ht="14.25" customHeight="1">
       <c r="A876" s="4"/>
@@ -35755,6 +36636,7 @@
       <c r="AC876" s="4"/>
       <c r="AD876" s="4"/>
       <c r="AE876" s="4"/>
+      <c r="AF876" s="4"/>
     </row>
     <row r="877" ht="14.25" customHeight="1">
       <c r="A877" s="4"/>
@@ -35788,6 +36670,7 @@
       <c r="AC877" s="4"/>
       <c r="AD877" s="4"/>
       <c r="AE877" s="4"/>
+      <c r="AF877" s="4"/>
     </row>
     <row r="878" ht="14.25" customHeight="1">
       <c r="A878" s="4"/>
@@ -35821,6 +36704,7 @@
       <c r="AC878" s="4"/>
       <c r="AD878" s="4"/>
       <c r="AE878" s="4"/>
+      <c r="AF878" s="4"/>
     </row>
     <row r="879" ht="14.25" customHeight="1">
       <c r="A879" s="4"/>
@@ -35854,6 +36738,7 @@
       <c r="AC879" s="4"/>
       <c r="AD879" s="4"/>
       <c r="AE879" s="4"/>
+      <c r="AF879" s="4"/>
     </row>
     <row r="880" ht="14.25" customHeight="1">
       <c r="A880" s="4"/>
@@ -35887,6 +36772,7 @@
       <c r="AC880" s="4"/>
       <c r="AD880" s="4"/>
       <c r="AE880" s="4"/>
+      <c r="AF880" s="4"/>
     </row>
     <row r="881" ht="14.25" customHeight="1">
       <c r="A881" s="4"/>
@@ -35920,6 +36806,7 @@
       <c r="AC881" s="4"/>
       <c r="AD881" s="4"/>
       <c r="AE881" s="4"/>
+      <c r="AF881" s="4"/>
     </row>
     <row r="882" ht="14.25" customHeight="1">
       <c r="A882" s="4"/>
@@ -35953,6 +36840,7 @@
       <c r="AC882" s="4"/>
       <c r="AD882" s="4"/>
       <c r="AE882" s="4"/>
+      <c r="AF882" s="4"/>
     </row>
     <row r="883" ht="14.25" customHeight="1">
       <c r="A883" s="4"/>
@@ -35986,6 +36874,7 @@
       <c r="AC883" s="4"/>
       <c r="AD883" s="4"/>
       <c r="AE883" s="4"/>
+      <c r="AF883" s="4"/>
     </row>
     <row r="884" ht="14.25" customHeight="1">
       <c r="A884" s="4"/>
@@ -36019,6 +36908,7 @@
       <c r="AC884" s="4"/>
       <c r="AD884" s="4"/>
       <c r="AE884" s="4"/>
+      <c r="AF884" s="4"/>
     </row>
     <row r="885" ht="14.25" customHeight="1">
       <c r="A885" s="4"/>
@@ -36052,6 +36942,7 @@
       <c r="AC885" s="4"/>
       <c r="AD885" s="4"/>
       <c r="AE885" s="4"/>
+      <c r="AF885" s="4"/>
     </row>
     <row r="886" ht="14.25" customHeight="1">
       <c r="A886" s="4"/>
@@ -36085,6 +36976,7 @@
       <c r="AC886" s="4"/>
       <c r="AD886" s="4"/>
       <c r="AE886" s="4"/>
+      <c r="AF886" s="4"/>
     </row>
     <row r="887" ht="14.25" customHeight="1">
       <c r="A887" s="4"/>
@@ -36118,6 +37010,7 @@
       <c r="AC887" s="4"/>
       <c r="AD887" s="4"/>
       <c r="AE887" s="4"/>
+      <c r="AF887" s="4"/>
     </row>
     <row r="888" ht="14.25" customHeight="1">
       <c r="A888" s="4"/>
@@ -36151,6 +37044,7 @@
       <c r="AC888" s="4"/>
       <c r="AD888" s="4"/>
       <c r="AE888" s="4"/>
+      <c r="AF888" s="4"/>
     </row>
     <row r="889" ht="14.25" customHeight="1">
       <c r="A889" s="4"/>
@@ -36184,6 +37078,7 @@
       <c r="AC889" s="4"/>
       <c r="AD889" s="4"/>
       <c r="AE889" s="4"/>
+      <c r="AF889" s="4"/>
     </row>
     <row r="890" ht="14.25" customHeight="1">
       <c r="A890" s="4"/>
@@ -36217,6 +37112,7 @@
       <c r="AC890" s="4"/>
       <c r="AD890" s="4"/>
       <c r="AE890" s="4"/>
+      <c r="AF890" s="4"/>
     </row>
     <row r="891" ht="14.25" customHeight="1">
       <c r="A891" s="4"/>
@@ -36250,6 +37146,7 @@
       <c r="AC891" s="4"/>
       <c r="AD891" s="4"/>
       <c r="AE891" s="4"/>
+      <c r="AF891" s="4"/>
     </row>
     <row r="892" ht="14.25" customHeight="1">
       <c r="A892" s="4"/>
@@ -36283,6 +37180,7 @@
       <c r="AC892" s="4"/>
       <c r="AD892" s="4"/>
       <c r="AE892" s="4"/>
+      <c r="AF892" s="4"/>
     </row>
     <row r="893" ht="14.25" customHeight="1">
       <c r="A893" s="4"/>
@@ -36316,6 +37214,7 @@
       <c r="AC893" s="4"/>
       <c r="AD893" s="4"/>
       <c r="AE893" s="4"/>
+      <c r="AF893" s="4"/>
     </row>
     <row r="894" ht="14.25" customHeight="1">
       <c r="A894" s="4"/>
@@ -36349,6 +37248,7 @@
       <c r="AC894" s="4"/>
       <c r="AD894" s="4"/>
       <c r="AE894" s="4"/>
+      <c r="AF894" s="4"/>
     </row>
     <row r="895" ht="14.25" customHeight="1">
       <c r="A895" s="4"/>
@@ -36382,6 +37282,7 @@
       <c r="AC895" s="4"/>
       <c r="AD895" s="4"/>
       <c r="AE895" s="4"/>
+      <c r="AF895" s="4"/>
     </row>
     <row r="896" ht="14.25" customHeight="1">
       <c r="A896" s="4"/>
@@ -36415,6 +37316,7 @@
       <c r="AC896" s="4"/>
       <c r="AD896" s="4"/>
       <c r="AE896" s="4"/>
+      <c r="AF896" s="4"/>
     </row>
     <row r="897" ht="14.25" customHeight="1">
       <c r="A897" s="4"/>
@@ -36448,6 +37350,7 @@
       <c r="AC897" s="4"/>
       <c r="AD897" s="4"/>
       <c r="AE897" s="4"/>
+      <c r="AF897" s="4"/>
     </row>
     <row r="898" ht="14.25" customHeight="1">
       <c r="A898" s="4"/>
@@ -36481,6 +37384,7 @@
       <c r="AC898" s="4"/>
       <c r="AD898" s="4"/>
       <c r="AE898" s="4"/>
+      <c r="AF898" s="4"/>
     </row>
     <row r="899" ht="14.25" customHeight="1">
       <c r="A899" s="4"/>
@@ -36514,6 +37418,7 @@
       <c r="AC899" s="4"/>
       <c r="AD899" s="4"/>
       <c r="AE899" s="4"/>
+      <c r="AF899" s="4"/>
     </row>
     <row r="900" ht="14.25" customHeight="1">
       <c r="A900" s="4"/>
@@ -36547,6 +37452,7 @@
       <c r="AC900" s="4"/>
       <c r="AD900" s="4"/>
       <c r="AE900" s="4"/>
+      <c r="AF900" s="4"/>
     </row>
     <row r="901" ht="14.25" customHeight="1">
       <c r="A901" s="4"/>
@@ -36580,6 +37486,7 @@
       <c r="AC901" s="4"/>
       <c r="AD901" s="4"/>
       <c r="AE901" s="4"/>
+      <c r="AF901" s="4"/>
     </row>
     <row r="902" ht="14.25" customHeight="1">
       <c r="A902" s="4"/>
@@ -36613,6 +37520,7 @@
       <c r="AC902" s="4"/>
       <c r="AD902" s="4"/>
       <c r="AE902" s="4"/>
+      <c r="AF902" s="4"/>
     </row>
     <row r="903" ht="14.25" customHeight="1">
       <c r="A903" s="4"/>
@@ -36646,6 +37554,7 @@
       <c r="AC903" s="4"/>
       <c r="AD903" s="4"/>
       <c r="AE903" s="4"/>
+      <c r="AF903" s="4"/>
     </row>
     <row r="904" ht="14.25" customHeight="1">
       <c r="A904" s="4"/>
@@ -36679,6 +37588,7 @@
       <c r="AC904" s="4"/>
       <c r="AD904" s="4"/>
       <c r="AE904" s="4"/>
+      <c r="AF904" s="4"/>
     </row>
     <row r="905" ht="14.25" customHeight="1">
       <c r="A905" s="4"/>
@@ -36712,6 +37622,7 @@
       <c r="AC905" s="4"/>
       <c r="AD905" s="4"/>
       <c r="AE905" s="4"/>
+      <c r="AF905" s="4"/>
     </row>
     <row r="906" ht="14.25" customHeight="1">
       <c r="A906" s="4"/>
@@ -36745,6 +37656,7 @@
       <c r="AC906" s="4"/>
       <c r="AD906" s="4"/>
       <c r="AE906" s="4"/>
+      <c r="AF906" s="4"/>
     </row>
     <row r="907" ht="14.25" customHeight="1">
       <c r="A907" s="4"/>
@@ -36778,6 +37690,7 @@
       <c r="AC907" s="4"/>
       <c r="AD907" s="4"/>
       <c r="AE907" s="4"/>
+      <c r="AF907" s="4"/>
     </row>
     <row r="908" ht="14.25" customHeight="1">
       <c r="A908" s="4"/>
@@ -36811,6 +37724,7 @@
       <c r="AC908" s="4"/>
       <c r="AD908" s="4"/>
       <c r="AE908" s="4"/>
+      <c r="AF908" s="4"/>
     </row>
     <row r="909" ht="14.25" customHeight="1">
       <c r="A909" s="4"/>
@@ -36844,6 +37758,7 @@
       <c r="AC909" s="4"/>
       <c r="AD909" s="4"/>
       <c r="AE909" s="4"/>
+      <c r="AF909" s="4"/>
     </row>
     <row r="910" ht="14.25" customHeight="1">
       <c r="A910" s="4"/>
@@ -36877,6 +37792,7 @@
       <c r="AC910" s="4"/>
       <c r="AD910" s="4"/>
       <c r="AE910" s="4"/>
+      <c r="AF910" s="4"/>
     </row>
     <row r="911" ht="14.25" customHeight="1">
       <c r="A911" s="4"/>
@@ -36910,6 +37826,7 @@
       <c r="AC911" s="4"/>
       <c r="AD911" s="4"/>
       <c r="AE911" s="4"/>
+      <c r="AF911" s="4"/>
     </row>
     <row r="912" ht="14.25" customHeight="1">
       <c r="A912" s="4"/>
@@ -36943,6 +37860,7 @@
       <c r="AC912" s="4"/>
       <c r="AD912" s="4"/>
       <c r="AE912" s="4"/>
+      <c r="AF912" s="4"/>
     </row>
     <row r="913" ht="14.25" customHeight="1">
       <c r="A913" s="4"/>
@@ -36976,6 +37894,7 @@
       <c r="AC913" s="4"/>
       <c r="AD913" s="4"/>
       <c r="AE913" s="4"/>
+      <c r="AF913" s="4"/>
     </row>
     <row r="914" ht="14.25" customHeight="1">
       <c r="A914" s="4"/>
@@ -37009,6 +37928,7 @@
       <c r="AC914" s="4"/>
       <c r="AD914" s="4"/>
       <c r="AE914" s="4"/>
+      <c r="AF914" s="4"/>
     </row>
     <row r="915" ht="14.25" customHeight="1">
       <c r="A915" s="4"/>
@@ -37042,6 +37962,7 @@
       <c r="AC915" s="4"/>
       <c r="AD915" s="4"/>
       <c r="AE915" s="4"/>
+      <c r="AF915" s="4"/>
     </row>
     <row r="916" ht="14.25" customHeight="1">
       <c r="A916" s="4"/>
@@ -37075,6 +37996,7 @@
       <c r="AC916" s="4"/>
       <c r="AD916" s="4"/>
       <c r="AE916" s="4"/>
+      <c r="AF916" s="4"/>
     </row>
     <row r="917" ht="14.25" customHeight="1">
       <c r="A917" s="4"/>
@@ -37108,6 +38030,7 @@
       <c r="AC917" s="4"/>
       <c r="AD917" s="4"/>
       <c r="AE917" s="4"/>
+      <c r="AF917" s="4"/>
     </row>
     <row r="918" ht="14.25" customHeight="1">
       <c r="A918" s="4"/>
@@ -37141,6 +38064,7 @@
       <c r="AC918" s="4"/>
       <c r="AD918" s="4"/>
       <c r="AE918" s="4"/>
+      <c r="AF918" s="4"/>
     </row>
     <row r="919" ht="14.25" customHeight="1">
       <c r="A919" s="4"/>
@@ -37174,6 +38098,7 @@
       <c r="AC919" s="4"/>
       <c r="AD919" s="4"/>
       <c r="AE919" s="4"/>
+      <c r="AF919" s="4"/>
     </row>
     <row r="920" ht="14.25" customHeight="1">
       <c r="A920" s="4"/>
@@ -37207,6 +38132,7 @@
       <c r="AC920" s="4"/>
       <c r="AD920" s="4"/>
       <c r="AE920" s="4"/>
+      <c r="AF920" s="4"/>
     </row>
     <row r="921" ht="14.25" customHeight="1">
       <c r="A921" s="4"/>
@@ -37240,6 +38166,7 @@
       <c r="AC921" s="4"/>
       <c r="AD921" s="4"/>
       <c r="AE921" s="4"/>
+      <c r="AF921" s="4"/>
     </row>
     <row r="922" ht="14.25" customHeight="1">
       <c r="A922" s="4"/>
@@ -37273,6 +38200,7 @@
       <c r="AC922" s="4"/>
       <c r="AD922" s="4"/>
       <c r="AE922" s="4"/>
+      <c r="AF922" s="4"/>
     </row>
     <row r="923" ht="14.25" customHeight="1">
       <c r="A923" s="4"/>
@@ -37306,6 +38234,7 @@
       <c r="AC923" s="4"/>
       <c r="AD923" s="4"/>
       <c r="AE923" s="4"/>
+      <c r="AF923" s="4"/>
     </row>
     <row r="924" ht="14.25" customHeight="1">
       <c r="A924" s="4"/>
@@ -37339,6 +38268,7 @@
       <c r="AC924" s="4"/>
       <c r="AD924" s="4"/>
       <c r="AE924" s="4"/>
+      <c r="AF924" s="4"/>
     </row>
     <row r="925" ht="14.25" customHeight="1">
       <c r="A925" s="4"/>
@@ -37372,6 +38302,7 @@
       <c r="AC925" s="4"/>
       <c r="AD925" s="4"/>
       <c r="AE925" s="4"/>
+      <c r="AF925" s="4"/>
     </row>
     <row r="926" ht="14.25" customHeight="1">
       <c r="A926" s="4"/>
@@ -37405,6 +38336,7 @@
       <c r="AC926" s="4"/>
       <c r="AD926" s="4"/>
       <c r="AE926" s="4"/>
+      <c r="AF926" s="4"/>
     </row>
     <row r="927" ht="14.25" customHeight="1">
       <c r="A927" s="4"/>
@@ -37438,6 +38370,7 @@
       <c r="AC927" s="4"/>
       <c r="AD927" s="4"/>
       <c r="AE927" s="4"/>
+      <c r="AF927" s="4"/>
     </row>
     <row r="928" ht="14.25" customHeight="1">
       <c r="A928" s="4"/>
@@ -37471,6 +38404,7 @@
       <c r="AC928" s="4"/>
       <c r="AD928" s="4"/>
       <c r="AE928" s="4"/>
+      <c r="AF928" s="4"/>
     </row>
     <row r="929" ht="14.25" customHeight="1">
       <c r="A929" s="4"/>
@@ -37504,6 +38438,7 @@
       <c r="AC929" s="4"/>
       <c r="AD929" s="4"/>
       <c r="AE929" s="4"/>
+      <c r="AF929" s="4"/>
     </row>
     <row r="930" ht="14.25" customHeight="1">
       <c r="A930" s="4"/>
@@ -37537,6 +38472,7 @@
       <c r="AC930" s="4"/>
       <c r="AD930" s="4"/>
       <c r="AE930" s="4"/>
+      <c r="AF930" s="4"/>
     </row>
     <row r="931" ht="14.25" customHeight="1">
       <c r="A931" s="4"/>
@@ -37570,6 +38506,7 @@
       <c r="AC931" s="4"/>
       <c r="AD931" s="4"/>
       <c r="AE931" s="4"/>
+      <c r="AF931" s="4"/>
     </row>
     <row r="932" ht="14.25" customHeight="1">
       <c r="A932" s="4"/>
@@ -37603,6 +38540,7 @@
       <c r="AC932" s="4"/>
       <c r="AD932" s="4"/>
       <c r="AE932" s="4"/>
+      <c r="AF932" s="4"/>
     </row>
     <row r="933" ht="14.25" customHeight="1">
       <c r="A933" s="4"/>
@@ -37636,6 +38574,7 @@
       <c r="AC933" s="4"/>
       <c r="AD933" s="4"/>
       <c r="AE933" s="4"/>
+      <c r="AF933" s="4"/>
     </row>
     <row r="934" ht="14.25" customHeight="1">
       <c r="A934" s="4"/>
@@ -37669,6 +38608,7 @@
       <c r="AC934" s="4"/>
       <c r="AD934" s="4"/>
       <c r="AE934" s="4"/>
+      <c r="AF934" s="4"/>
     </row>
     <row r="935" ht="14.25" customHeight="1">
       <c r="A935" s="4"/>
@@ -37702,6 +38642,7 @@
       <c r="AC935" s="4"/>
       <c r="AD935" s="4"/>
       <c r="AE935" s="4"/>
+      <c r="AF935" s="4"/>
     </row>
     <row r="936" ht="14.25" customHeight="1">
       <c r="A936" s="4"/>
@@ -37735,6 +38676,7 @@
       <c r="AC936" s="4"/>
       <c r="AD936" s="4"/>
       <c r="AE936" s="4"/>
+      <c r="AF936" s="4"/>
     </row>
     <row r="937" ht="14.25" customHeight="1">
       <c r="A937" s="4"/>
@@ -37768,6 +38710,7 @@
       <c r="AC937" s="4"/>
       <c r="AD937" s="4"/>
       <c r="AE937" s="4"/>
+      <c r="AF937" s="4"/>
     </row>
     <row r="938" ht="14.25" customHeight="1">
       <c r="A938" s="4"/>
@@ -37801,6 +38744,7 @@
       <c r="AC938" s="4"/>
       <c r="AD938" s="4"/>
       <c r="AE938" s="4"/>
+      <c r="AF938" s="4"/>
     </row>
     <row r="939" ht="14.25" customHeight="1">
       <c r="A939" s="4"/>
@@ -37834,6 +38778,7 @@
       <c r="AC939" s="4"/>
       <c r="AD939" s="4"/>
       <c r="AE939" s="4"/>
+      <c r="AF939" s="4"/>
     </row>
     <row r="940" ht="14.25" customHeight="1">
       <c r="A940" s="4"/>
@@ -37867,6 +38812,7 @@
       <c r="AC940" s="4"/>
       <c r="AD940" s="4"/>
       <c r="AE940" s="4"/>
+      <c r="AF940" s="4"/>
     </row>
     <row r="941" ht="14.25" customHeight="1">
       <c r="A941" s="4"/>
@@ -37900,6 +38846,7 @@
       <c r="AC941" s="4"/>
       <c r="AD941" s="4"/>
       <c r="AE941" s="4"/>
+      <c r="AF941" s="4"/>
     </row>
     <row r="942" ht="14.25" customHeight="1">
       <c r="A942" s="4"/>
@@ -37933,6 +38880,7 @@
       <c r="AC942" s="4"/>
       <c r="AD942" s="4"/>
       <c r="AE942" s="4"/>
+      <c r="AF942" s="4"/>
     </row>
     <row r="943" ht="14.25" customHeight="1">
       <c r="A943" s="4"/>
@@ -37966,6 +38914,7 @@
       <c r="AC943" s="4"/>
       <c r="AD943" s="4"/>
       <c r="AE943" s="4"/>
+      <c r="AF943" s="4"/>
     </row>
     <row r="944" ht="14.25" customHeight="1">
       <c r="A944" s="4"/>
@@ -37999,6 +38948,7 @@
       <c r="AC944" s="4"/>
       <c r="AD944" s="4"/>
       <c r="AE944" s="4"/>
+      <c r="AF944" s="4"/>
     </row>
     <row r="945" ht="14.25" customHeight="1">
       <c r="A945" s="4"/>
@@ -38032,6 +38982,7 @@
       <c r="AC945" s="4"/>
       <c r="AD945" s="4"/>
       <c r="AE945" s="4"/>
+      <c r="AF945" s="4"/>
     </row>
     <row r="946" ht="14.25" customHeight="1">
       <c r="A946" s="4"/>
@@ -38065,6 +39016,7 @@
       <c r="AC946" s="4"/>
       <c r="AD946" s="4"/>
       <c r="AE946" s="4"/>
+      <c r="AF946" s="4"/>
     </row>
     <row r="947" ht="14.25" customHeight="1">
       <c r="A947" s="4"/>
@@ -38098,6 +39050,7 @@
       <c r="AC947" s="4"/>
       <c r="AD947" s="4"/>
       <c r="AE947" s="4"/>
+      <c r="AF947" s="4"/>
     </row>
     <row r="948" ht="14.25" customHeight="1">
       <c r="A948" s="4"/>
@@ -38131,6 +39084,7 @@
       <c r="AC948" s="4"/>
       <c r="AD948" s="4"/>
       <c r="AE948" s="4"/>
+      <c r="AF948" s="4"/>
     </row>
     <row r="949" ht="14.25" customHeight="1">
       <c r="A949" s="4"/>
@@ -38164,6 +39118,7 @@
       <c r="AC949" s="4"/>
       <c r="AD949" s="4"/>
       <c r="AE949" s="4"/>
+      <c r="AF949" s="4"/>
     </row>
     <row r="950" ht="14.25" customHeight="1">
       <c r="A950" s="4"/>
@@ -38197,6 +39152,7 @@
       <c r="AC950" s="4"/>
       <c r="AD950" s="4"/>
       <c r="AE950" s="4"/>
+      <c r="AF950" s="4"/>
     </row>
     <row r="951" ht="14.25" customHeight="1">
       <c r="A951" s="4"/>
@@ -38230,6 +39186,7 @@
       <c r="AC951" s="4"/>
       <c r="AD951" s="4"/>
       <c r="AE951" s="4"/>
+      <c r="AF951" s="4"/>
     </row>
     <row r="952" ht="14.25" customHeight="1">
       <c r="A952" s="4"/>
@@ -38263,6 +39220,7 @@
       <c r="AC952" s="4"/>
       <c r="AD952" s="4"/>
       <c r="AE952" s="4"/>
+      <c r="AF952" s="4"/>
     </row>
     <row r="953" ht="14.25" customHeight="1">
       <c r="A953" s="4"/>
@@ -38296,6 +39254,7 @@
       <c r="AC953" s="4"/>
       <c r="AD953" s="4"/>
       <c r="AE953" s="4"/>
+      <c r="AF953" s="4"/>
     </row>
     <row r="954" ht="14.25" customHeight="1">
       <c r="A954" s="4"/>
@@ -38329,6 +39288,7 @@
       <c r="AC954" s="4"/>
       <c r="AD954" s="4"/>
       <c r="AE954" s="4"/>
+      <c r="AF954" s="4"/>
     </row>
     <row r="955" ht="14.25" customHeight="1">
       <c r="A955" s="4"/>
@@ -38362,6 +39322,7 @@
       <c r="AC955" s="4"/>
       <c r="AD955" s="4"/>
       <c r="AE955" s="4"/>
+      <c r="AF955" s="4"/>
     </row>
     <row r="956" ht="14.25" customHeight="1">
       <c r="A956" s="4"/>
@@ -38395,6 +39356,7 @@
       <c r="AC956" s="4"/>
       <c r="AD956" s="4"/>
       <c r="AE956" s="4"/>
+      <c r="AF956" s="4"/>
     </row>
     <row r="957" ht="14.25" customHeight="1">
       <c r="A957" s="4"/>
@@ -38428,6 +39390,7 @@
       <c r="AC957" s="4"/>
       <c r="AD957" s="4"/>
       <c r="AE957" s="4"/>
+      <c r="AF957" s="4"/>
     </row>
     <row r="958" ht="14.25" customHeight="1">
       <c r="A958" s="4"/>
@@ -38461,6 +39424,7 @@
       <c r="AC958" s="4"/>
       <c r="AD958" s="4"/>
       <c r="AE958" s="4"/>
+      <c r="AF958" s="4"/>
     </row>
     <row r="959" ht="14.25" customHeight="1">
       <c r="A959" s="4"/>
@@ -38494,6 +39458,7 @@
       <c r="AC959" s="4"/>
       <c r="AD959" s="4"/>
       <c r="AE959" s="4"/>
+      <c r="AF959" s="4"/>
     </row>
     <row r="960" ht="14.25" customHeight="1">
       <c r="A960" s="4"/>
@@ -38527,6 +39492,7 @@
       <c r="AC960" s="4"/>
       <c r="AD960" s="4"/>
       <c r="AE960" s="4"/>
+      <c r="AF960" s="4"/>
     </row>
     <row r="961" ht="14.25" customHeight="1">
       <c r="A961" s="4"/>
@@ -38560,6 +39526,7 @@
       <c r="AC961" s="4"/>
       <c r="AD961" s="4"/>
       <c r="AE961" s="4"/>
+      <c r="AF961" s="4"/>
     </row>
     <row r="962" ht="14.25" customHeight="1">
       <c r="A962" s="4"/>
@@ -38593,6 +39560,7 @@
       <c r="AC962" s="4"/>
       <c r="AD962" s="4"/>
       <c r="AE962" s="4"/>
+      <c r="AF962" s="4"/>
     </row>
     <row r="963" ht="14.25" customHeight="1">
       <c r="A963" s="4"/>
@@ -38626,6 +39594,7 @@
       <c r="AC963" s="4"/>
       <c r="AD963" s="4"/>
       <c r="AE963" s="4"/>
+      <c r="AF963" s="4"/>
     </row>
     <row r="964" ht="14.25" customHeight="1">
       <c r="A964" s="4"/>
@@ -38659,6 +39628,7 @@
       <c r="AC964" s="4"/>
       <c r="AD964" s="4"/>
       <c r="AE964" s="4"/>
+      <c r="AF964" s="4"/>
     </row>
     <row r="965" ht="14.25" customHeight="1">
       <c r="A965" s="4"/>
@@ -38692,6 +39662,7 @@
       <c r="AC965" s="4"/>
       <c r="AD965" s="4"/>
       <c r="AE965" s="4"/>
+      <c r="AF965" s="4"/>
     </row>
     <row r="966" ht="14.25" customHeight="1">
       <c r="A966" s="4"/>
@@ -38725,6 +39696,7 @@
       <c r="AC966" s="4"/>
       <c r="AD966" s="4"/>
       <c r="AE966" s="4"/>
+      <c r="AF966" s="4"/>
     </row>
     <row r="967" ht="14.25" customHeight="1">
       <c r="A967" s="4"/>
@@ -38758,6 +39730,7 @@
       <c r="AC967" s="4"/>
       <c r="AD967" s="4"/>
       <c r="AE967" s="4"/>
+      <c r="AF967" s="4"/>
     </row>
     <row r="968" ht="14.25" customHeight="1">
       <c r="A968" s="4"/>
@@ -38791,6 +39764,7 @@
       <c r="AC968" s="4"/>
       <c r="AD968" s="4"/>
       <c r="AE968" s="4"/>
+      <c r="AF968" s="4"/>
     </row>
     <row r="969" ht="14.25" customHeight="1">
       <c r="A969" s="4"/>
@@ -38824,6 +39798,7 @@
       <c r="AC969" s="4"/>
       <c r="AD969" s="4"/>
       <c r="AE969" s="4"/>
+      <c r="AF969" s="4"/>
     </row>
     <row r="970" ht="14.25" customHeight="1">
       <c r="A970" s="4"/>
@@ -38857,6 +39832,7 @@
       <c r="AC970" s="4"/>
       <c r="AD970" s="4"/>
       <c r="AE970" s="4"/>
+      <c r="AF970" s="4"/>
     </row>
     <row r="971" ht="14.25" customHeight="1">
       <c r="A971" s="4"/>
@@ -38890,6 +39866,7 @@
       <c r="AC971" s="4"/>
       <c r="AD971" s="4"/>
       <c r="AE971" s="4"/>
+      <c r="AF971" s="4"/>
     </row>
     <row r="972" ht="14.25" customHeight="1">
       <c r="A972" s="4"/>
@@ -38923,6 +39900,7 @@
       <c r="AC972" s="4"/>
       <c r="AD972" s="4"/>
       <c r="AE972" s="4"/>
+      <c r="AF972" s="4"/>
     </row>
     <row r="973" ht="14.25" customHeight="1">
       <c r="A973" s="4"/>
@@ -38956,6 +39934,7 @@
       <c r="AC973" s="4"/>
       <c r="AD973" s="4"/>
       <c r="AE973" s="4"/>
+      <c r="AF973" s="4"/>
     </row>
     <row r="974" ht="14.25" customHeight="1">
       <c r="A974" s="4"/>
@@ -38989,6 +39968,7 @@
       <c r="AC974" s="4"/>
       <c r="AD974" s="4"/>
       <c r="AE974" s="4"/>
+      <c r="AF974" s="4"/>
     </row>
     <row r="975" ht="14.25" customHeight="1">
       <c r="A975" s="4"/>
@@ -39022,6 +40002,7 @@
       <c r="AC975" s="4"/>
       <c r="AD975" s="4"/>
       <c r="AE975" s="4"/>
+      <c r="AF975" s="4"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
       <c r="A976" s="4"/>
@@ -39055,6 +40036,7 @@
       <c r="AC976" s="4"/>
       <c r="AD976" s="4"/>
       <c r="AE976" s="4"/>
+      <c r="AF976" s="4"/>
     </row>
     <row r="977" ht="14.25" customHeight="1">
       <c r="A977" s="4"/>
@@ -39088,6 +40070,7 @@
       <c r="AC977" s="4"/>
       <c r="AD977" s="4"/>
       <c r="AE977" s="4"/>
+      <c r="AF977" s="4"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
       <c r="A978" s="4"/>
@@ -39121,6 +40104,7 @@
       <c r="AC978" s="4"/>
       <c r="AD978" s="4"/>
       <c r="AE978" s="4"/>
+      <c r="AF978" s="4"/>
     </row>
     <row r="979" ht="14.25" customHeight="1">
       <c r="A979" s="4"/>
@@ -39154,6 +40138,7 @@
       <c r="AC979" s="4"/>
       <c r="AD979" s="4"/>
       <c r="AE979" s="4"/>
+      <c r="AF979" s="4"/>
     </row>
     <row r="980" ht="14.25" customHeight="1">
       <c r="A980" s="4"/>
@@ -39187,6 +40172,7 @@
       <c r="AC980" s="4"/>
       <c r="AD980" s="4"/>
       <c r="AE980" s="4"/>
+      <c r="AF980" s="4"/>
     </row>
     <row r="981" ht="14.25" customHeight="1">
       <c r="A981" s="4"/>
@@ -39220,6 +40206,7 @@
       <c r="AC981" s="4"/>
       <c r="AD981" s="4"/>
       <c r="AE981" s="4"/>
+      <c r="AF981" s="4"/>
     </row>
     <row r="982" ht="14.25" customHeight="1">
       <c r="A982" s="4"/>
@@ -39253,6 +40240,7 @@
       <c r="AC982" s="4"/>
       <c r="AD982" s="4"/>
       <c r="AE982" s="4"/>
+      <c r="AF982" s="4"/>
     </row>
     <row r="983" ht="14.25" customHeight="1">
       <c r="A983" s="4"/>
@@ -39286,6 +40274,7 @@
       <c r="AC983" s="4"/>
       <c r="AD983" s="4"/>
       <c r="AE983" s="4"/>
+      <c r="AF983" s="4"/>
     </row>
     <row r="984" ht="14.25" customHeight="1">
       <c r="A984" s="4"/>
@@ -39319,6 +40308,7 @@
       <c r="AC984" s="4"/>
       <c r="AD984" s="4"/>
       <c r="AE984" s="4"/>
+      <c r="AF984" s="4"/>
     </row>
     <row r="985" ht="14.25" customHeight="1">
       <c r="A985" s="4"/>
@@ -39352,6 +40342,7 @@
       <c r="AC985" s="4"/>
       <c r="AD985" s="4"/>
       <c r="AE985" s="4"/>
+      <c r="AF985" s="4"/>
     </row>
     <row r="986" ht="14.25" customHeight="1">
       <c r="A986" s="4"/>
@@ -39385,6 +40376,7 @@
       <c r="AC986" s="4"/>
       <c r="AD986" s="4"/>
       <c r="AE986" s="4"/>
+      <c r="AF986" s="4"/>
     </row>
     <row r="987" ht="14.25" customHeight="1">
       <c r="A987" s="4"/>
@@ -39418,6 +40410,7 @@
       <c r="AC987" s="4"/>
       <c r="AD987" s="4"/>
       <c r="AE987" s="4"/>
+      <c r="AF987" s="4"/>
     </row>
     <row r="988" ht="14.25" customHeight="1">
       <c r="A988" s="4"/>
@@ -39451,6 +40444,7 @@
       <c r="AC988" s="4"/>
       <c r="AD988" s="4"/>
       <c r="AE988" s="4"/>
+      <c r="AF988" s="4"/>
     </row>
     <row r="989" ht="14.25" customHeight="1">
       <c r="A989" s="4"/>
@@ -39484,6 +40478,7 @@
       <c r="AC989" s="4"/>
       <c r="AD989" s="4"/>
       <c r="AE989" s="4"/>
+      <c r="AF989" s="4"/>
     </row>
     <row r="990" ht="14.25" customHeight="1">
       <c r="A990" s="4"/>
@@ -39517,6 +40512,7 @@
       <c r="AC990" s="4"/>
       <c r="AD990" s="4"/>
       <c r="AE990" s="4"/>
+      <c r="AF990" s="4"/>
     </row>
     <row r="991" ht="14.25" customHeight="1">
       <c r="A991" s="4"/>
@@ -39550,6 +40546,7 @@
       <c r="AC991" s="4"/>
       <c r="AD991" s="4"/>
       <c r="AE991" s="4"/>
+      <c r="AF991" s="4"/>
     </row>
     <row r="992" ht="14.25" customHeight="1">
       <c r="A992" s="4"/>
@@ -39583,6 +40580,7 @@
       <c r="AC992" s="4"/>
       <c r="AD992" s="4"/>
       <c r="AE992" s="4"/>
+      <c r="AF992" s="4"/>
     </row>
     <row r="993" ht="14.25" customHeight="1">
       <c r="A993" s="4"/>
@@ -39616,6 +40614,7 @@
       <c r="AC993" s="4"/>
       <c r="AD993" s="4"/>
       <c r="AE993" s="4"/>
+      <c r="AF993" s="4"/>
     </row>
     <row r="994" ht="14.25" customHeight="1">
       <c r="A994" s="4"/>
@@ -39649,6 +40648,7 @@
       <c r="AC994" s="4"/>
       <c r="AD994" s="4"/>
       <c r="AE994" s="4"/>
+      <c r="AF994" s="4"/>
     </row>
     <row r="995" ht="14.25" customHeight="1">
       <c r="A995" s="4"/>
@@ -39682,6 +40682,7 @@
       <c r="AC995" s="4"/>
       <c r="AD995" s="4"/>
       <c r="AE995" s="4"/>
+      <c r="AF995" s="4"/>
     </row>
     <row r="996" ht="14.25" customHeight="1">
       <c r="A996" s="4"/>
@@ -39715,6 +40716,7 @@
       <c r="AC996" s="4"/>
       <c r="AD996" s="4"/>
       <c r="AE996" s="4"/>
+      <c r="AF996" s="4"/>
     </row>
     <row r="997" ht="14.25" customHeight="1">
       <c r="A997" s="4"/>
@@ -39748,6 +40750,7 @@
       <c r="AC997" s="4"/>
       <c r="AD997" s="4"/>
       <c r="AE997" s="4"/>
+      <c r="AF997" s="4"/>
     </row>
     <row r="998" ht="14.25" customHeight="1">
       <c r="A998" s="4"/>
@@ -39781,6 +40784,7 @@
       <c r="AC998" s="4"/>
       <c r="AD998" s="4"/>
       <c r="AE998" s="4"/>
+      <c r="AF998" s="4"/>
     </row>
     <row r="999" ht="14.25" customHeight="1">
       <c r="A999" s="4"/>
@@ -39814,6 +40818,7 @@
       <c r="AC999" s="4"/>
       <c r="AD999" s="4"/>
       <c r="AE999" s="4"/>
+      <c r="AF999" s="4"/>
     </row>
     <row r="1000" ht="14.25" customHeight="1">
       <c r="A1000" s="4"/>
@@ -39847,37 +40852,38 @@
       <c r="AC1000" s="4"/>
       <c r="AD1000" s="4"/>
       <c r="AE1000" s="4"/>
+      <c r="AF1000" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="F3"/>
+    <hyperlink r:id="rId3" ref="G3"/>
     <hyperlink r:id="rId4" ref="B4"/>
     <hyperlink r:id="rId5" ref="B5"/>
-    <hyperlink r:id="rId6" ref="C5"/>
-    <hyperlink r:id="rId7" location="scrollTo=QTxoEwZJKynW" ref="G5"/>
-    <hyperlink r:id="rId8" ref="H5"/>
-    <hyperlink r:id="rId9" ref="I5"/>
-    <hyperlink r:id="rId10" ref="J5"/>
-    <hyperlink r:id="rId11" ref="H6"/>
-    <hyperlink r:id="rId12" ref="I6"/>
-    <hyperlink r:id="rId13" ref="J6"/>
+    <hyperlink r:id="rId6" ref="D5"/>
+    <hyperlink r:id="rId7" location="scrollTo=QTxoEwZJKynW" ref="H5"/>
+    <hyperlink r:id="rId8" ref="I5"/>
+    <hyperlink r:id="rId9" ref="J5"/>
+    <hyperlink r:id="rId10" ref="K5"/>
+    <hyperlink r:id="rId11" ref="I6"/>
+    <hyperlink r:id="rId12" ref="J6"/>
+    <hyperlink r:id="rId13" ref="K6"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -6397,7 +6397,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6436,9 +6436,6 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -6936,13 +6933,13 @@
       <c r="E5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -6982,13 +6979,13 @@
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="8" t="s">
         <v>54</v>
       </c>
@@ -7027,29 +7024,29 @@
         <v>58</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="7" t="s">
@@ -7080,16 +7077,16 @@
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="7" t="s">
         <v>69</v>
       </c>
@@ -7115,50 +7112,50 @@
       <c r="AF8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="4"/>

--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -9,19 +9,22 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="vNp/D68fvwuS1HVDj8UnvmGgeusHrdNbwwVmFlAIuH4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="AWINaGwsGRkYJZWBIng2GH/avtg7O7+/kV7NFkGrlNo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>연구자/주차</t>
   </si>
   <si>
     <t>공유폴더</t>
+  </si>
+  <si>
+    <t>W12</t>
   </si>
   <si>
     <t>W11</t>
@@ -65,6 +68,46 @@
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">논의사항
+1. 검토과정에서 기존사용모델링에 문제가 발생했다는것을 알게됨 
+직업 코든는     1: '관리자', 2: '전문가', 3: '사무직', 4: '서비스직', 5: '판매직',
+    6: '농어업', 7: '기능직', 8: '장치조작', 9: '단순노무', 10: '직업군인' 순서가 없어서 샤프해석 전혀 안됨
+개선해야함 
+2. 그리고 교수님께서 보고서 작성후 코드 피드백 주신걸 기반으로 작성해야하는지…
+3. 다양한 방법으로 정책 타당성을 검토하기 위해 실험중인데 어떤걸 버려야할지 감이 안옴…어떤걸 선택해야할지도…
+이번주에 실험해본 내용: 연령X샤프 상위 변수로 파생변수를 만들어 고령층의 평생교육 비형식학습을 제고하기 위한 정책을 제언하고자 하였으나…. 하다보니 논리적 이슈가 생겨… 일단 완성은 했는데 컨펌이 필요 
+4. 같은논리로 만족도도 진행을 해야할지…
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>[향후 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 서울시 교육청 보고서 요약본 제출(~5/30)
+- 수도권 필터링하여 분석 실행
+2) 논문그대로 or 추가주제 기반 통계청 활용대회(~6/30)
+3) 통계청 결과 발표 9월말 이후 KCI 투고 (~10/30)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
         <b/>
         <color theme="1"/>
         <sz val="11.0"/>
@@ -101,8 +144,25 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
-1) 서울시 교육청 보고서 요약본 제출(~5/30)
-- 수도권 필터링하여 분석 실행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <strike/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1) 서울시 교육청 보고서 요약본 제출(~5/30)
+- 수도권 필터링하여 분석 실행</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 2) 논문그대로 or 추가주제 기반 통계청 활용대회(~6/30)</t>
     </r>
   </si>
@@ -2411,6 +2471,10 @@
     <t>DEBA-Research/[Project]/MovieCommentAnalysis</t>
   </si>
   <si>
+    <t>[이번주진행]
+1) CSR 뉴스 데이터 LDA 토픽 모델링 세부 과정</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
@@ -2845,6 +2909,30 @@
   </si>
   <si>
     <t>DEBA-Research/[Project]/AnomalyDetection</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.figma.com/board/kzns5FdgZi4uHWZlcLGIXa/%ED%9A%8C%EC%9D%98%EB%A1%9D?node-id=0-1&amp;t=77be585CGThiNhpE-1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;진행상황&gt;
+1. 경진대회 서식 작성
+2. 프로토타입 제작 
+3. 좌표별로 낙상위험도 계산 완료 -&gt; 시각화 필요</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4489,42 +4577,6 @@
   </si>
   <si>
     <t>방가연(미디어3학년/DEBA2기Pro)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">[이번주 진행]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">보고서 제출 완료
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Malgun Gothic"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>[향후 계획]
-1) 관광공모전이 되면 12주차에 데이터 설명 부탁!
-2) 관광공모전이 안되면 향후 계획~
-3) 가연학생은 기말고사 후 프로젝트 별도 진행
-4) 경수학생은 대전공모전(5월말 참가신청 + 6월초대전출장 + 6월말제출) 진행!
--&gt; 데이터 + 아이디어 공유</t>
-    </r>
   </si>
   <si>
     <r>
@@ -5379,6 +5431,12 @@
   </si>
   <si>
     <t>강경수(무역4학년)</t>
+  </si>
+  <si>
+    <t>“체육시설 접근성 격차 분석 및 운동 취약지역 제안"을 주제로 진행 예정
+데이터 수집 중에 있음-(구별 체육 시설 현황, 공공시설 현황, 개방 시설 현황, 대중교통 접근성 등).. 
+어제 갑자기 든 고민 : 지금 정한 주제가 뻔하다고 생각이 듦.  **주제 탐색을 다시 해야하나 고민** 
+우선 데이터 수집 중</t>
   </si>
   <si>
     <r>
@@ -6577,14 +6635,14 @@
     <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6820,9 +6878,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="40.43"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="12" width="55.57"/>
-    <col customWidth="1" min="13" max="32" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="9.29"/>
+    <col customWidth="1" min="3" max="13" width="55.57"/>
+    <col customWidth="1" min="14" max="33" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6835,7 +6893,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -6862,7 +6920,9 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -6882,45 +6942,48 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="L2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -6940,43 +7003,44 @@
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="L3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -6996,43 +7060,46 @@
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="F4" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -7052,45 +7119,48 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>47</v>
+      <c r="D5" s="12" t="s">
+        <v>50</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>48</v>
+      <c r="E5" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="G5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="H5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="I5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="J5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -7110,6 +7180,7 @@
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="17"/>
@@ -7120,19 +7191,19 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="I6" s="17"/>
       <c r="J6" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>59</v>
+      <c r="L6" s="9" t="s">
+        <v>62</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -7152,43 +7223,46 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="F7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="J7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="K7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -7208,14 +7282,17 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="18"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -7223,10 +7300,10 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="8" t="s">
-        <v>72</v>
+      <c r="L8" s="17"/>
+      <c r="M8" s="8" t="s">
+        <v>76</v>
       </c>
-      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -7246,10 +7323,11 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
@@ -7257,22 +7335,22 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="24" t="s">
-        <v>74</v>
-      </c>
+      <c r="H9" s="24"/>
       <c r="I9" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
-      <c r="M9" s="25"/>
+      <c r="M9" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
@@ -7292,6 +7370,7 @@
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="5"/>
@@ -7326,6 +7405,7 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="5"/>
@@ -7360,6 +7440,7 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="5"/>
@@ -7394,6 +7475,7 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="5"/>
@@ -7428,6 +7510,7 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="5"/>
@@ -7462,6 +7545,7 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="5"/>
@@ -7496,6 +7580,7 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="5"/>
@@ -7530,6 +7615,7 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="5"/>
@@ -7564,6 +7650,7 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="5"/>
@@ -7598,6 +7685,7 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="5"/>
@@ -7632,6 +7720,7 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="5"/>
@@ -7666,6 +7755,7 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="5"/>
@@ -7700,6 +7790,7 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="5"/>
@@ -7734,6 +7825,7 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="5"/>
@@ -7768,6 +7860,7 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="5"/>
@@ -7802,6 +7895,7 @@
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="5"/>
@@ -7836,6 +7930,7 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="5"/>
@@ -7870,6 +7965,7 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="5"/>
@@ -7904,6 +8000,7 @@
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="5"/>
@@ -7938,6 +8035,7 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="5"/>
@@ -7972,6 +8070,7 @@
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="5"/>
@@ -8006,6 +8105,7 @@
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="5"/>
@@ -8040,6 +8140,7 @@
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="5"/>
@@ -8074,6 +8175,7 @@
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="5"/>
@@ -8108,6 +8210,7 @@
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="5"/>
@@ -8142,6 +8245,7 @@
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="5"/>
@@ -8176,6 +8280,7 @@
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="5"/>
@@ -8210,6 +8315,7 @@
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="5"/>
@@ -8244,6 +8350,7 @@
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="5"/>
@@ -8278,6 +8385,7 @@
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="5"/>
@@ -8312,6 +8420,7 @@
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="5"/>
@@ -8346,6 +8455,7 @@
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="5"/>
@@ -8380,6 +8490,7 @@
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="5"/>
@@ -8414,6 +8525,7 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="5"/>
@@ -8448,6 +8560,7 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="5"/>
@@ -8482,6 +8595,7 @@
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="5"/>
@@ -8516,6 +8630,7 @@
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="5"/>
@@ -8550,6 +8665,7 @@
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="5"/>
@@ -8584,6 +8700,7 @@
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="5"/>
@@ -8618,6 +8735,7 @@
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="5"/>
@@ -8652,6 +8770,7 @@
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="5"/>
@@ -8686,6 +8805,7 @@
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="5"/>
@@ -8720,6 +8840,7 @@
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="5"/>
@@ -8754,6 +8875,7 @@
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="5"/>
@@ -8788,6 +8910,7 @@
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="5"/>
@@ -8822,6 +8945,7 @@
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="5"/>
@@ -8856,6 +8980,7 @@
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="5"/>
@@ -8890,6 +9015,7 @@
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="5"/>
@@ -8924,6 +9050,7 @@
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="5"/>
@@ -8958,6 +9085,7 @@
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="5"/>
@@ -8992,6 +9120,7 @@
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="5"/>
@@ -9026,6 +9155,7 @@
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="5"/>
@@ -9060,6 +9190,7 @@
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="5"/>
@@ -9094,6 +9225,7 @@
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="5"/>
@@ -9128,6 +9260,7 @@
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="5"/>
@@ -9162,6 +9295,7 @@
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="5"/>
@@ -9196,6 +9330,7 @@
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="5"/>
@@ -9230,6 +9365,7 @@
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="5"/>
@@ -9264,6 +9400,7 @@
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="5"/>
@@ -9298,6 +9435,7 @@
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="5"/>
@@ -9332,6 +9470,7 @@
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="5"/>
@@ -9366,6 +9505,7 @@
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="5"/>
@@ -9400,6 +9540,7 @@
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="5"/>
@@ -9434,6 +9575,7 @@
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
+      <c r="AG72" s="5"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="5"/>
@@ -9468,6 +9610,7 @@
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
+      <c r="AG73" s="5"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="5"/>
@@ -9502,6 +9645,7 @@
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="5"/>
@@ -9536,6 +9680,7 @@
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="5"/>
@@ -9570,6 +9715,7 @@
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
+      <c r="AG76" s="5"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="5"/>
@@ -9604,6 +9750,7 @@
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
+      <c r="AG77" s="5"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="5"/>
@@ -9638,6 +9785,7 @@
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="5"/>
@@ -9672,6 +9820,7 @@
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
+      <c r="AG79" s="5"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="5"/>
@@ -9706,6 +9855,7 @@
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
+      <c r="AG80" s="5"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="5"/>
@@ -9740,6 +9890,7 @@
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
+      <c r="AG81" s="5"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="5"/>
@@ -9774,6 +9925,7 @@
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="5"/>
@@ -9808,6 +9960,7 @@
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="5"/>
@@ -9842,6 +9995,7 @@
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
+      <c r="AG84" s="5"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="5"/>
@@ -9876,6 +10030,7 @@
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
+      <c r="AG85" s="5"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="5"/>
@@ -9910,6 +10065,7 @@
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
+      <c r="AG86" s="5"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="5"/>
@@ -9944,6 +10100,7 @@
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
+      <c r="AG87" s="5"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="5"/>
@@ -9978,6 +10135,7 @@
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
+      <c r="AG88" s="5"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="5"/>
@@ -10012,6 +10170,7 @@
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
+      <c r="AG89" s="5"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="5"/>
@@ -10046,6 +10205,7 @@
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
+      <c r="AG90" s="5"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="5"/>
@@ -10080,6 +10240,7 @@
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
+      <c r="AG91" s="5"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="5"/>
@@ -10114,6 +10275,7 @@
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
+      <c r="AG92" s="5"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="5"/>
@@ -10148,6 +10310,7 @@
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
+      <c r="AG93" s="5"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="5"/>
@@ -10182,6 +10345,7 @@
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
+      <c r="AG94" s="5"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="5"/>
@@ -10216,6 +10380,7 @@
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
+      <c r="AG95" s="5"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="5"/>
@@ -10250,6 +10415,7 @@
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
+      <c r="AG96" s="5"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="5"/>
@@ -10284,6 +10450,7 @@
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
+      <c r="AG97" s="5"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="5"/>
@@ -10318,6 +10485,7 @@
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
+      <c r="AG98" s="5"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="5"/>
@@ -10352,6 +10520,7 @@
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
+      <c r="AG99" s="5"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="5"/>
@@ -10386,6 +10555,7 @@
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
+      <c r="AG100" s="5"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="5"/>
@@ -10420,6 +10590,7 @@
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
+      <c r="AG101" s="5"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="5"/>
@@ -10454,6 +10625,7 @@
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
+      <c r="AG102" s="5"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="5"/>
@@ -10488,6 +10660,7 @@
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
+      <c r="AG103" s="5"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="5"/>
@@ -10522,6 +10695,7 @@
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
+      <c r="AG104" s="5"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="5"/>
@@ -10556,6 +10730,7 @@
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
+      <c r="AG105" s="5"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="5"/>
@@ -10590,6 +10765,7 @@
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
+      <c r="AG106" s="5"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="5"/>
@@ -10624,6 +10800,7 @@
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
+      <c r="AG107" s="5"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="5"/>
@@ -10658,6 +10835,7 @@
       <c r="AD108" s="5"/>
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
+      <c r="AG108" s="5"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="5"/>
@@ -10692,6 +10870,7 @@
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
+      <c r="AG109" s="5"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="5"/>
@@ -10726,6 +10905,7 @@
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
+      <c r="AG110" s="5"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="5"/>
@@ -10760,6 +10940,7 @@
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
+      <c r="AG111" s="5"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="5"/>
@@ -10794,6 +10975,7 @@
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
+      <c r="AG112" s="5"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="5"/>
@@ -10828,6 +11010,7 @@
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
+      <c r="AG113" s="5"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="5"/>
@@ -10862,6 +11045,7 @@
       <c r="AD114" s="5"/>
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
+      <c r="AG114" s="5"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="5"/>
@@ -10896,6 +11080,7 @@
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
+      <c r="AG115" s="5"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="5"/>
@@ -10930,6 +11115,7 @@
       <c r="AD116" s="5"/>
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
+      <c r="AG116" s="5"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="5"/>
@@ -10964,6 +11150,7 @@
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
+      <c r="AG117" s="5"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="5"/>
@@ -10998,6 +11185,7 @@
       <c r="AD118" s="5"/>
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
+      <c r="AG118" s="5"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="5"/>
@@ -11032,6 +11220,7 @@
       <c r="AD119" s="5"/>
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
+      <c r="AG119" s="5"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="5"/>
@@ -11066,6 +11255,7 @@
       <c r="AD120" s="5"/>
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
+      <c r="AG120" s="5"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="5"/>
@@ -11100,6 +11290,7 @@
       <c r="AD121" s="5"/>
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
+      <c r="AG121" s="5"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="5"/>
@@ -11134,6 +11325,7 @@
       <c r="AD122" s="5"/>
       <c r="AE122" s="5"/>
       <c r="AF122" s="5"/>
+      <c r="AG122" s="5"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="5"/>
@@ -11168,6 +11360,7 @@
       <c r="AD123" s="5"/>
       <c r="AE123" s="5"/>
       <c r="AF123" s="5"/>
+      <c r="AG123" s="5"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="5"/>
@@ -11202,6 +11395,7 @@
       <c r="AD124" s="5"/>
       <c r="AE124" s="5"/>
       <c r="AF124" s="5"/>
+      <c r="AG124" s="5"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="5"/>
@@ -11236,6 +11430,7 @@
       <c r="AD125" s="5"/>
       <c r="AE125" s="5"/>
       <c r="AF125" s="5"/>
+      <c r="AG125" s="5"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="5"/>
@@ -11270,6 +11465,7 @@
       <c r="AD126" s="5"/>
       <c r="AE126" s="5"/>
       <c r="AF126" s="5"/>
+      <c r="AG126" s="5"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="5"/>
@@ -11304,6 +11500,7 @@
       <c r="AD127" s="5"/>
       <c r="AE127" s="5"/>
       <c r="AF127" s="5"/>
+      <c r="AG127" s="5"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="5"/>
@@ -11338,6 +11535,7 @@
       <c r="AD128" s="5"/>
       <c r="AE128" s="5"/>
       <c r="AF128" s="5"/>
+      <c r="AG128" s="5"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="5"/>
@@ -11372,6 +11570,7 @@
       <c r="AD129" s="5"/>
       <c r="AE129" s="5"/>
       <c r="AF129" s="5"/>
+      <c r="AG129" s="5"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="5"/>
@@ -11406,6 +11605,7 @@
       <c r="AD130" s="5"/>
       <c r="AE130" s="5"/>
       <c r="AF130" s="5"/>
+      <c r="AG130" s="5"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="5"/>
@@ -11440,6 +11640,7 @@
       <c r="AD131" s="5"/>
       <c r="AE131" s="5"/>
       <c r="AF131" s="5"/>
+      <c r="AG131" s="5"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="5"/>
@@ -11474,6 +11675,7 @@
       <c r="AD132" s="5"/>
       <c r="AE132" s="5"/>
       <c r="AF132" s="5"/>
+      <c r="AG132" s="5"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="5"/>
@@ -11508,6 +11710,7 @@
       <c r="AD133" s="5"/>
       <c r="AE133" s="5"/>
       <c r="AF133" s="5"/>
+      <c r="AG133" s="5"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="5"/>
@@ -11542,6 +11745,7 @@
       <c r="AD134" s="5"/>
       <c r="AE134" s="5"/>
       <c r="AF134" s="5"/>
+      <c r="AG134" s="5"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" s="5"/>
@@ -11576,6 +11780,7 @@
       <c r="AD135" s="5"/>
       <c r="AE135" s="5"/>
       <c r="AF135" s="5"/>
+      <c r="AG135" s="5"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="5"/>
@@ -11610,6 +11815,7 @@
       <c r="AD136" s="5"/>
       <c r="AE136" s="5"/>
       <c r="AF136" s="5"/>
+      <c r="AG136" s="5"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="5"/>
@@ -11644,6 +11850,7 @@
       <c r="AD137" s="5"/>
       <c r="AE137" s="5"/>
       <c r="AF137" s="5"/>
+      <c r="AG137" s="5"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="5"/>
@@ -11678,6 +11885,7 @@
       <c r="AD138" s="5"/>
       <c r="AE138" s="5"/>
       <c r="AF138" s="5"/>
+      <c r="AG138" s="5"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="5"/>
@@ -11712,6 +11920,7 @@
       <c r="AD139" s="5"/>
       <c r="AE139" s="5"/>
       <c r="AF139" s="5"/>
+      <c r="AG139" s="5"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="5"/>
@@ -11746,6 +11955,7 @@
       <c r="AD140" s="5"/>
       <c r="AE140" s="5"/>
       <c r="AF140" s="5"/>
+      <c r="AG140" s="5"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="5"/>
@@ -11780,6 +11990,7 @@
       <c r="AD141" s="5"/>
       <c r="AE141" s="5"/>
       <c r="AF141" s="5"/>
+      <c r="AG141" s="5"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" s="5"/>
@@ -11814,6 +12025,7 @@
       <c r="AD142" s="5"/>
       <c r="AE142" s="5"/>
       <c r="AF142" s="5"/>
+      <c r="AG142" s="5"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="5"/>
@@ -11848,6 +12060,7 @@
       <c r="AD143" s="5"/>
       <c r="AE143" s="5"/>
       <c r="AF143" s="5"/>
+      <c r="AG143" s="5"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" s="5"/>
@@ -11882,6 +12095,7 @@
       <c r="AD144" s="5"/>
       <c r="AE144" s="5"/>
       <c r="AF144" s="5"/>
+      <c r="AG144" s="5"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" s="5"/>
@@ -11916,6 +12130,7 @@
       <c r="AD145" s="5"/>
       <c r="AE145" s="5"/>
       <c r="AF145" s="5"/>
+      <c r="AG145" s="5"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="5"/>
@@ -11950,6 +12165,7 @@
       <c r="AD146" s="5"/>
       <c r="AE146" s="5"/>
       <c r="AF146" s="5"/>
+      <c r="AG146" s="5"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="5"/>
@@ -11984,6 +12200,7 @@
       <c r="AD147" s="5"/>
       <c r="AE147" s="5"/>
       <c r="AF147" s="5"/>
+      <c r="AG147" s="5"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="5"/>
@@ -12018,6 +12235,7 @@
       <c r="AD148" s="5"/>
       <c r="AE148" s="5"/>
       <c r="AF148" s="5"/>
+      <c r="AG148" s="5"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="5"/>
@@ -12052,6 +12270,7 @@
       <c r="AD149" s="5"/>
       <c r="AE149" s="5"/>
       <c r="AF149" s="5"/>
+      <c r="AG149" s="5"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="A150" s="5"/>
@@ -12086,6 +12305,7 @@
       <c r="AD150" s="5"/>
       <c r="AE150" s="5"/>
       <c r="AF150" s="5"/>
+      <c r="AG150" s="5"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="5"/>
@@ -12120,6 +12340,7 @@
       <c r="AD151" s="5"/>
       <c r="AE151" s="5"/>
       <c r="AF151" s="5"/>
+      <c r="AG151" s="5"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" s="5"/>
@@ -12154,6 +12375,7 @@
       <c r="AD152" s="5"/>
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
+      <c r="AG152" s="5"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" s="5"/>
@@ -12188,6 +12410,7 @@
       <c r="AD153" s="5"/>
       <c r="AE153" s="5"/>
       <c r="AF153" s="5"/>
+      <c r="AG153" s="5"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="5"/>
@@ -12222,6 +12445,7 @@
       <c r="AD154" s="5"/>
       <c r="AE154" s="5"/>
       <c r="AF154" s="5"/>
+      <c r="AG154" s="5"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="5"/>
@@ -12256,6 +12480,7 @@
       <c r="AD155" s="5"/>
       <c r="AE155" s="5"/>
       <c r="AF155" s="5"/>
+      <c r="AG155" s="5"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" s="5"/>
@@ -12290,6 +12515,7 @@
       <c r="AD156" s="5"/>
       <c r="AE156" s="5"/>
       <c r="AF156" s="5"/>
+      <c r="AG156" s="5"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="5"/>
@@ -12324,6 +12550,7 @@
       <c r="AD157" s="5"/>
       <c r="AE157" s="5"/>
       <c r="AF157" s="5"/>
+      <c r="AG157" s="5"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="5"/>
@@ -12358,6 +12585,7 @@
       <c r="AD158" s="5"/>
       <c r="AE158" s="5"/>
       <c r="AF158" s="5"/>
+      <c r="AG158" s="5"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" s="5"/>
@@ -12392,6 +12620,7 @@
       <c r="AD159" s="5"/>
       <c r="AE159" s="5"/>
       <c r="AF159" s="5"/>
+      <c r="AG159" s="5"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" s="5"/>
@@ -12426,6 +12655,7 @@
       <c r="AD160" s="5"/>
       <c r="AE160" s="5"/>
       <c r="AF160" s="5"/>
+      <c r="AG160" s="5"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="5"/>
@@ -12460,6 +12690,7 @@
       <c r="AD161" s="5"/>
       <c r="AE161" s="5"/>
       <c r="AF161" s="5"/>
+      <c r="AG161" s="5"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="5"/>
@@ -12494,6 +12725,7 @@
       <c r="AD162" s="5"/>
       <c r="AE162" s="5"/>
       <c r="AF162" s="5"/>
+      <c r="AG162" s="5"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" s="5"/>
@@ -12528,6 +12760,7 @@
       <c r="AD163" s="5"/>
       <c r="AE163" s="5"/>
       <c r="AF163" s="5"/>
+      <c r="AG163" s="5"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="5"/>
@@ -12562,6 +12795,7 @@
       <c r="AD164" s="5"/>
       <c r="AE164" s="5"/>
       <c r="AF164" s="5"/>
+      <c r="AG164" s="5"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" s="5"/>
@@ -12596,6 +12830,7 @@
       <c r="AD165" s="5"/>
       <c r="AE165" s="5"/>
       <c r="AF165" s="5"/>
+      <c r="AG165" s="5"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="5"/>
@@ -12630,6 +12865,7 @@
       <c r="AD166" s="5"/>
       <c r="AE166" s="5"/>
       <c r="AF166" s="5"/>
+      <c r="AG166" s="5"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="A167" s="5"/>
@@ -12664,6 +12900,7 @@
       <c r="AD167" s="5"/>
       <c r="AE167" s="5"/>
       <c r="AF167" s="5"/>
+      <c r="AG167" s="5"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="5"/>
@@ -12698,6 +12935,7 @@
       <c r="AD168" s="5"/>
       <c r="AE168" s="5"/>
       <c r="AF168" s="5"/>
+      <c r="AG168" s="5"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="5"/>
@@ -12732,6 +12970,7 @@
       <c r="AD169" s="5"/>
       <c r="AE169" s="5"/>
       <c r="AF169" s="5"/>
+      <c r="AG169" s="5"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" s="5"/>
@@ -12766,6 +13005,7 @@
       <c r="AD170" s="5"/>
       <c r="AE170" s="5"/>
       <c r="AF170" s="5"/>
+      <c r="AG170" s="5"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="5"/>
@@ -12800,6 +13040,7 @@
       <c r="AD171" s="5"/>
       <c r="AE171" s="5"/>
       <c r="AF171" s="5"/>
+      <c r="AG171" s="5"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="A172" s="5"/>
@@ -12834,6 +13075,7 @@
       <c r="AD172" s="5"/>
       <c r="AE172" s="5"/>
       <c r="AF172" s="5"/>
+      <c r="AG172" s="5"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="5"/>
@@ -12868,6 +13110,7 @@
       <c r="AD173" s="5"/>
       <c r="AE173" s="5"/>
       <c r="AF173" s="5"/>
+      <c r="AG173" s="5"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="5"/>
@@ -12902,6 +13145,7 @@
       <c r="AD174" s="5"/>
       <c r="AE174" s="5"/>
       <c r="AF174" s="5"/>
+      <c r="AG174" s="5"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
       <c r="A175" s="5"/>
@@ -12936,6 +13180,7 @@
       <c r="AD175" s="5"/>
       <c r="AE175" s="5"/>
       <c r="AF175" s="5"/>
+      <c r="AG175" s="5"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
       <c r="A176" s="5"/>
@@ -12970,6 +13215,7 @@
       <c r="AD176" s="5"/>
       <c r="AE176" s="5"/>
       <c r="AF176" s="5"/>
+      <c r="AG176" s="5"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
       <c r="A177" s="5"/>
@@ -13004,6 +13250,7 @@
       <c r="AD177" s="5"/>
       <c r="AE177" s="5"/>
       <c r="AF177" s="5"/>
+      <c r="AG177" s="5"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
       <c r="A178" s="5"/>
@@ -13038,6 +13285,7 @@
       <c r="AD178" s="5"/>
       <c r="AE178" s="5"/>
       <c r="AF178" s="5"/>
+      <c r="AG178" s="5"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
       <c r="A179" s="5"/>
@@ -13072,6 +13320,7 @@
       <c r="AD179" s="5"/>
       <c r="AE179" s="5"/>
       <c r="AF179" s="5"/>
+      <c r="AG179" s="5"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
       <c r="A180" s="5"/>
@@ -13106,6 +13355,7 @@
       <c r="AD180" s="5"/>
       <c r="AE180" s="5"/>
       <c r="AF180" s="5"/>
+      <c r="AG180" s="5"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
       <c r="A181" s="5"/>
@@ -13140,6 +13390,7 @@
       <c r="AD181" s="5"/>
       <c r="AE181" s="5"/>
       <c r="AF181" s="5"/>
+      <c r="AG181" s="5"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
       <c r="A182" s="5"/>
@@ -13174,6 +13425,7 @@
       <c r="AD182" s="5"/>
       <c r="AE182" s="5"/>
       <c r="AF182" s="5"/>
+      <c r="AG182" s="5"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="5"/>
@@ -13208,6 +13460,7 @@
       <c r="AD183" s="5"/>
       <c r="AE183" s="5"/>
       <c r="AF183" s="5"/>
+      <c r="AG183" s="5"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="5"/>
@@ -13242,6 +13495,7 @@
       <c r="AD184" s="5"/>
       <c r="AE184" s="5"/>
       <c r="AF184" s="5"/>
+      <c r="AG184" s="5"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="A185" s="5"/>
@@ -13276,6 +13530,7 @@
       <c r="AD185" s="5"/>
       <c r="AE185" s="5"/>
       <c r="AF185" s="5"/>
+      <c r="AG185" s="5"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
       <c r="A186" s="5"/>
@@ -13310,6 +13565,7 @@
       <c r="AD186" s="5"/>
       <c r="AE186" s="5"/>
       <c r="AF186" s="5"/>
+      <c r="AG186" s="5"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
       <c r="A187" s="5"/>
@@ -13344,6 +13600,7 @@
       <c r="AD187" s="5"/>
       <c r="AE187" s="5"/>
       <c r="AF187" s="5"/>
+      <c r="AG187" s="5"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
       <c r="A188" s="5"/>
@@ -13378,6 +13635,7 @@
       <c r="AD188" s="5"/>
       <c r="AE188" s="5"/>
       <c r="AF188" s="5"/>
+      <c r="AG188" s="5"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
       <c r="A189" s="5"/>
@@ -13412,6 +13670,7 @@
       <c r="AD189" s="5"/>
       <c r="AE189" s="5"/>
       <c r="AF189" s="5"/>
+      <c r="AG189" s="5"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
       <c r="A190" s="5"/>
@@ -13446,6 +13705,7 @@
       <c r="AD190" s="5"/>
       <c r="AE190" s="5"/>
       <c r="AF190" s="5"/>
+      <c r="AG190" s="5"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
       <c r="A191" s="5"/>
@@ -13480,6 +13740,7 @@
       <c r="AD191" s="5"/>
       <c r="AE191" s="5"/>
       <c r="AF191" s="5"/>
+      <c r="AG191" s="5"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
       <c r="A192" s="5"/>
@@ -13514,6 +13775,7 @@
       <c r="AD192" s="5"/>
       <c r="AE192" s="5"/>
       <c r="AF192" s="5"/>
+      <c r="AG192" s="5"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
       <c r="A193" s="5"/>
@@ -13548,6 +13810,7 @@
       <c r="AD193" s="5"/>
       <c r="AE193" s="5"/>
       <c r="AF193" s="5"/>
+      <c r="AG193" s="5"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
       <c r="A194" s="5"/>
@@ -13582,6 +13845,7 @@
       <c r="AD194" s="5"/>
       <c r="AE194" s="5"/>
       <c r="AF194" s="5"/>
+      <c r="AG194" s="5"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
       <c r="A195" s="5"/>
@@ -13616,6 +13880,7 @@
       <c r="AD195" s="5"/>
       <c r="AE195" s="5"/>
       <c r="AF195" s="5"/>
+      <c r="AG195" s="5"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
       <c r="A196" s="5"/>
@@ -13650,6 +13915,7 @@
       <c r="AD196" s="5"/>
       <c r="AE196" s="5"/>
       <c r="AF196" s="5"/>
+      <c r="AG196" s="5"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
       <c r="A197" s="5"/>
@@ -13684,6 +13950,7 @@
       <c r="AD197" s="5"/>
       <c r="AE197" s="5"/>
       <c r="AF197" s="5"/>
+      <c r="AG197" s="5"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
       <c r="A198" s="5"/>
@@ -13718,6 +13985,7 @@
       <c r="AD198" s="5"/>
       <c r="AE198" s="5"/>
       <c r="AF198" s="5"/>
+      <c r="AG198" s="5"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
       <c r="A199" s="5"/>
@@ -13752,6 +14020,7 @@
       <c r="AD199" s="5"/>
       <c r="AE199" s="5"/>
       <c r="AF199" s="5"/>
+      <c r="AG199" s="5"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
       <c r="A200" s="5"/>
@@ -13786,6 +14055,7 @@
       <c r="AD200" s="5"/>
       <c r="AE200" s="5"/>
       <c r="AF200" s="5"/>
+      <c r="AG200" s="5"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
       <c r="A201" s="5"/>
@@ -13820,6 +14090,7 @@
       <c r="AD201" s="5"/>
       <c r="AE201" s="5"/>
       <c r="AF201" s="5"/>
+      <c r="AG201" s="5"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
       <c r="A202" s="5"/>
@@ -13854,6 +14125,7 @@
       <c r="AD202" s="5"/>
       <c r="AE202" s="5"/>
       <c r="AF202" s="5"/>
+      <c r="AG202" s="5"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
       <c r="A203" s="5"/>
@@ -13888,6 +14160,7 @@
       <c r="AD203" s="5"/>
       <c r="AE203" s="5"/>
       <c r="AF203" s="5"/>
+      <c r="AG203" s="5"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
       <c r="A204" s="5"/>
@@ -13922,6 +14195,7 @@
       <c r="AD204" s="5"/>
       <c r="AE204" s="5"/>
       <c r="AF204" s="5"/>
+      <c r="AG204" s="5"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
       <c r="A205" s="5"/>
@@ -13956,6 +14230,7 @@
       <c r="AD205" s="5"/>
       <c r="AE205" s="5"/>
       <c r="AF205" s="5"/>
+      <c r="AG205" s="5"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
       <c r="A206" s="5"/>
@@ -13990,6 +14265,7 @@
       <c r="AD206" s="5"/>
       <c r="AE206" s="5"/>
       <c r="AF206" s="5"/>
+      <c r="AG206" s="5"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
       <c r="A207" s="5"/>
@@ -14024,6 +14300,7 @@
       <c r="AD207" s="5"/>
       <c r="AE207" s="5"/>
       <c r="AF207" s="5"/>
+      <c r="AG207" s="5"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
       <c r="A208" s="5"/>
@@ -14058,6 +14335,7 @@
       <c r="AD208" s="5"/>
       <c r="AE208" s="5"/>
       <c r="AF208" s="5"/>
+      <c r="AG208" s="5"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
       <c r="A209" s="5"/>
@@ -14092,6 +14370,7 @@
       <c r="AD209" s="5"/>
       <c r="AE209" s="5"/>
       <c r="AF209" s="5"/>
+      <c r="AG209" s="5"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
       <c r="A210" s="5"/>
@@ -14126,6 +14405,7 @@
       <c r="AD210" s="5"/>
       <c r="AE210" s="5"/>
       <c r="AF210" s="5"/>
+      <c r="AG210" s="5"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
       <c r="A211" s="5"/>
@@ -14160,6 +14440,7 @@
       <c r="AD211" s="5"/>
       <c r="AE211" s="5"/>
       <c r="AF211" s="5"/>
+      <c r="AG211" s="5"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
       <c r="A212" s="5"/>
@@ -14194,6 +14475,7 @@
       <c r="AD212" s="5"/>
       <c r="AE212" s="5"/>
       <c r="AF212" s="5"/>
+      <c r="AG212" s="5"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
       <c r="A213" s="5"/>
@@ -14228,6 +14510,7 @@
       <c r="AD213" s="5"/>
       <c r="AE213" s="5"/>
       <c r="AF213" s="5"/>
+      <c r="AG213" s="5"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
       <c r="A214" s="5"/>
@@ -14262,6 +14545,7 @@
       <c r="AD214" s="5"/>
       <c r="AE214" s="5"/>
       <c r="AF214" s="5"/>
+      <c r="AG214" s="5"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
       <c r="A215" s="5"/>
@@ -14296,6 +14580,7 @@
       <c r="AD215" s="5"/>
       <c r="AE215" s="5"/>
       <c r="AF215" s="5"/>
+      <c r="AG215" s="5"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
       <c r="A216" s="5"/>
@@ -14330,6 +14615,7 @@
       <c r="AD216" s="5"/>
       <c r="AE216" s="5"/>
       <c r="AF216" s="5"/>
+      <c r="AG216" s="5"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
       <c r="A217" s="5"/>
@@ -14364,6 +14650,7 @@
       <c r="AD217" s="5"/>
       <c r="AE217" s="5"/>
       <c r="AF217" s="5"/>
+      <c r="AG217" s="5"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
       <c r="A218" s="5"/>
@@ -14398,6 +14685,7 @@
       <c r="AD218" s="5"/>
       <c r="AE218" s="5"/>
       <c r="AF218" s="5"/>
+      <c r="AG218" s="5"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
       <c r="A219" s="5"/>
@@ -14432,6 +14720,7 @@
       <c r="AD219" s="5"/>
       <c r="AE219" s="5"/>
       <c r="AF219" s="5"/>
+      <c r="AG219" s="5"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
       <c r="A220" s="5"/>
@@ -14466,6 +14755,7 @@
       <c r="AD220" s="5"/>
       <c r="AE220" s="5"/>
       <c r="AF220" s="5"/>
+      <c r="AG220" s="5"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
       <c r="A221" s="5"/>
@@ -14500,6 +14790,7 @@
       <c r="AD221" s="5"/>
       <c r="AE221" s="5"/>
       <c r="AF221" s="5"/>
+      <c r="AG221" s="5"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
       <c r="A222" s="5"/>
@@ -14534,6 +14825,7 @@
       <c r="AD222" s="5"/>
       <c r="AE222" s="5"/>
       <c r="AF222" s="5"/>
+      <c r="AG222" s="5"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
       <c r="A223" s="5"/>
@@ -14568,6 +14860,7 @@
       <c r="AD223" s="5"/>
       <c r="AE223" s="5"/>
       <c r="AF223" s="5"/>
+      <c r="AG223" s="5"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
       <c r="A224" s="5"/>
@@ -14602,6 +14895,7 @@
       <c r="AD224" s="5"/>
       <c r="AE224" s="5"/>
       <c r="AF224" s="5"/>
+      <c r="AG224" s="5"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
       <c r="A225" s="5"/>
@@ -14636,6 +14930,7 @@
       <c r="AD225" s="5"/>
       <c r="AE225" s="5"/>
       <c r="AF225" s="5"/>
+      <c r="AG225" s="5"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
       <c r="A226" s="5"/>
@@ -14670,6 +14965,7 @@
       <c r="AD226" s="5"/>
       <c r="AE226" s="5"/>
       <c r="AF226" s="5"/>
+      <c r="AG226" s="5"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
       <c r="A227" s="5"/>
@@ -14704,6 +15000,7 @@
       <c r="AD227" s="5"/>
       <c r="AE227" s="5"/>
       <c r="AF227" s="5"/>
+      <c r="AG227" s="5"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
       <c r="A228" s="5"/>
@@ -14738,6 +15035,7 @@
       <c r="AD228" s="5"/>
       <c r="AE228" s="5"/>
       <c r="AF228" s="5"/>
+      <c r="AG228" s="5"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
       <c r="A229" s="5"/>
@@ -14772,6 +15070,7 @@
       <c r="AD229" s="5"/>
       <c r="AE229" s="5"/>
       <c r="AF229" s="5"/>
+      <c r="AG229" s="5"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
       <c r="A230" s="5"/>
@@ -14806,6 +15105,7 @@
       <c r="AD230" s="5"/>
       <c r="AE230" s="5"/>
       <c r="AF230" s="5"/>
+      <c r="AG230" s="5"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
       <c r="A231" s="5"/>
@@ -14840,6 +15140,7 @@
       <c r="AD231" s="5"/>
       <c r="AE231" s="5"/>
       <c r="AF231" s="5"/>
+      <c r="AG231" s="5"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
       <c r="A232" s="5"/>
@@ -14874,6 +15175,7 @@
       <c r="AD232" s="5"/>
       <c r="AE232" s="5"/>
       <c r="AF232" s="5"/>
+      <c r="AG232" s="5"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
       <c r="A233" s="5"/>
@@ -14908,6 +15210,7 @@
       <c r="AD233" s="5"/>
       <c r="AE233" s="5"/>
       <c r="AF233" s="5"/>
+      <c r="AG233" s="5"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
       <c r="A234" s="5"/>
@@ -14942,6 +15245,7 @@
       <c r="AD234" s="5"/>
       <c r="AE234" s="5"/>
       <c r="AF234" s="5"/>
+      <c r="AG234" s="5"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
       <c r="A235" s="5"/>
@@ -14976,6 +15280,7 @@
       <c r="AD235" s="5"/>
       <c r="AE235" s="5"/>
       <c r="AF235" s="5"/>
+      <c r="AG235" s="5"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
       <c r="A236" s="5"/>
@@ -15010,6 +15315,7 @@
       <c r="AD236" s="5"/>
       <c r="AE236" s="5"/>
       <c r="AF236" s="5"/>
+      <c r="AG236" s="5"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
       <c r="A237" s="5"/>
@@ -15044,6 +15350,7 @@
       <c r="AD237" s="5"/>
       <c r="AE237" s="5"/>
       <c r="AF237" s="5"/>
+      <c r="AG237" s="5"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
       <c r="A238" s="5"/>
@@ -15078,6 +15385,7 @@
       <c r="AD238" s="5"/>
       <c r="AE238" s="5"/>
       <c r="AF238" s="5"/>
+      <c r="AG238" s="5"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
       <c r="A239" s="5"/>
@@ -15112,6 +15420,7 @@
       <c r="AD239" s="5"/>
       <c r="AE239" s="5"/>
       <c r="AF239" s="5"/>
+      <c r="AG239" s="5"/>
     </row>
     <row r="240" ht="14.25" customHeight="1">
       <c r="A240" s="5"/>
@@ -15146,6 +15455,7 @@
       <c r="AD240" s="5"/>
       <c r="AE240" s="5"/>
       <c r="AF240" s="5"/>
+      <c r="AG240" s="5"/>
     </row>
     <row r="241" ht="14.25" customHeight="1">
       <c r="A241" s="5"/>
@@ -15180,6 +15490,7 @@
       <c r="AD241" s="5"/>
       <c r="AE241" s="5"/>
       <c r="AF241" s="5"/>
+      <c r="AG241" s="5"/>
     </row>
     <row r="242" ht="14.25" customHeight="1">
       <c r="A242" s="5"/>
@@ -15214,6 +15525,7 @@
       <c r="AD242" s="5"/>
       <c r="AE242" s="5"/>
       <c r="AF242" s="5"/>
+      <c r="AG242" s="5"/>
     </row>
     <row r="243" ht="14.25" customHeight="1">
       <c r="A243" s="5"/>
@@ -15248,6 +15560,7 @@
       <c r="AD243" s="5"/>
       <c r="AE243" s="5"/>
       <c r="AF243" s="5"/>
+      <c r="AG243" s="5"/>
     </row>
     <row r="244" ht="14.25" customHeight="1">
       <c r="A244" s="5"/>
@@ -15282,6 +15595,7 @@
       <c r="AD244" s="5"/>
       <c r="AE244" s="5"/>
       <c r="AF244" s="5"/>
+      <c r="AG244" s="5"/>
     </row>
     <row r="245" ht="14.25" customHeight="1">
       <c r="A245" s="5"/>
@@ -15316,6 +15630,7 @@
       <c r="AD245" s="5"/>
       <c r="AE245" s="5"/>
       <c r="AF245" s="5"/>
+      <c r="AG245" s="5"/>
     </row>
     <row r="246" ht="14.25" customHeight="1">
       <c r="A246" s="5"/>
@@ -15350,6 +15665,7 @@
       <c r="AD246" s="5"/>
       <c r="AE246" s="5"/>
       <c r="AF246" s="5"/>
+      <c r="AG246" s="5"/>
     </row>
     <row r="247" ht="14.25" customHeight="1">
       <c r="A247" s="5"/>
@@ -15384,6 +15700,7 @@
       <c r="AD247" s="5"/>
       <c r="AE247" s="5"/>
       <c r="AF247" s="5"/>
+      <c r="AG247" s="5"/>
     </row>
     <row r="248" ht="14.25" customHeight="1">
       <c r="A248" s="5"/>
@@ -15418,6 +15735,7 @@
       <c r="AD248" s="5"/>
       <c r="AE248" s="5"/>
       <c r="AF248" s="5"/>
+      <c r="AG248" s="5"/>
     </row>
     <row r="249" ht="14.25" customHeight="1">
       <c r="A249" s="5"/>
@@ -15452,6 +15770,7 @@
       <c r="AD249" s="5"/>
       <c r="AE249" s="5"/>
       <c r="AF249" s="5"/>
+      <c r="AG249" s="5"/>
     </row>
     <row r="250" ht="14.25" customHeight="1">
       <c r="A250" s="5"/>
@@ -15486,6 +15805,7 @@
       <c r="AD250" s="5"/>
       <c r="AE250" s="5"/>
       <c r="AF250" s="5"/>
+      <c r="AG250" s="5"/>
     </row>
     <row r="251" ht="14.25" customHeight="1">
       <c r="A251" s="5"/>
@@ -15520,6 +15840,7 @@
       <c r="AD251" s="5"/>
       <c r="AE251" s="5"/>
       <c r="AF251" s="5"/>
+      <c r="AG251" s="5"/>
     </row>
     <row r="252" ht="14.25" customHeight="1">
       <c r="A252" s="5"/>
@@ -15554,6 +15875,7 @@
       <c r="AD252" s="5"/>
       <c r="AE252" s="5"/>
       <c r="AF252" s="5"/>
+      <c r="AG252" s="5"/>
     </row>
     <row r="253" ht="14.25" customHeight="1">
       <c r="A253" s="5"/>
@@ -15588,6 +15910,7 @@
       <c r="AD253" s="5"/>
       <c r="AE253" s="5"/>
       <c r="AF253" s="5"/>
+      <c r="AG253" s="5"/>
     </row>
     <row r="254" ht="14.25" customHeight="1">
       <c r="A254" s="5"/>
@@ -15622,6 +15945,7 @@
       <c r="AD254" s="5"/>
       <c r="AE254" s="5"/>
       <c r="AF254" s="5"/>
+      <c r="AG254" s="5"/>
     </row>
     <row r="255" ht="14.25" customHeight="1">
       <c r="A255" s="5"/>
@@ -15656,6 +15980,7 @@
       <c r="AD255" s="5"/>
       <c r="AE255" s="5"/>
       <c r="AF255" s="5"/>
+      <c r="AG255" s="5"/>
     </row>
     <row r="256" ht="14.25" customHeight="1">
       <c r="A256" s="5"/>
@@ -15690,6 +16015,7 @@
       <c r="AD256" s="5"/>
       <c r="AE256" s="5"/>
       <c r="AF256" s="5"/>
+      <c r="AG256" s="5"/>
     </row>
     <row r="257" ht="14.25" customHeight="1">
       <c r="A257" s="5"/>
@@ -15724,6 +16050,7 @@
       <c r="AD257" s="5"/>
       <c r="AE257" s="5"/>
       <c r="AF257" s="5"/>
+      <c r="AG257" s="5"/>
     </row>
     <row r="258" ht="14.25" customHeight="1">
       <c r="A258" s="5"/>
@@ -15758,6 +16085,7 @@
       <c r="AD258" s="5"/>
       <c r="AE258" s="5"/>
       <c r="AF258" s="5"/>
+      <c r="AG258" s="5"/>
     </row>
     <row r="259" ht="14.25" customHeight="1">
       <c r="A259" s="5"/>
@@ -15792,6 +16120,7 @@
       <c r="AD259" s="5"/>
       <c r="AE259" s="5"/>
       <c r="AF259" s="5"/>
+      <c r="AG259" s="5"/>
     </row>
     <row r="260" ht="14.25" customHeight="1">
       <c r="A260" s="5"/>
@@ -15826,6 +16155,7 @@
       <c r="AD260" s="5"/>
       <c r="AE260" s="5"/>
       <c r="AF260" s="5"/>
+      <c r="AG260" s="5"/>
     </row>
     <row r="261" ht="14.25" customHeight="1">
       <c r="A261" s="5"/>
@@ -15860,6 +16190,7 @@
       <c r="AD261" s="5"/>
       <c r="AE261" s="5"/>
       <c r="AF261" s="5"/>
+      <c r="AG261" s="5"/>
     </row>
     <row r="262" ht="14.25" customHeight="1">
       <c r="A262" s="5"/>
@@ -15894,6 +16225,7 @@
       <c r="AD262" s="5"/>
       <c r="AE262" s="5"/>
       <c r="AF262" s="5"/>
+      <c r="AG262" s="5"/>
     </row>
     <row r="263" ht="14.25" customHeight="1">
       <c r="A263" s="5"/>
@@ -15928,6 +16260,7 @@
       <c r="AD263" s="5"/>
       <c r="AE263" s="5"/>
       <c r="AF263" s="5"/>
+      <c r="AG263" s="5"/>
     </row>
     <row r="264" ht="14.25" customHeight="1">
       <c r="A264" s="5"/>
@@ -15962,6 +16295,7 @@
       <c r="AD264" s="5"/>
       <c r="AE264" s="5"/>
       <c r="AF264" s="5"/>
+      <c r="AG264" s="5"/>
     </row>
     <row r="265" ht="14.25" customHeight="1">
       <c r="A265" s="5"/>
@@ -15996,6 +16330,7 @@
       <c r="AD265" s="5"/>
       <c r="AE265" s="5"/>
       <c r="AF265" s="5"/>
+      <c r="AG265" s="5"/>
     </row>
     <row r="266" ht="14.25" customHeight="1">
       <c r="A266" s="5"/>
@@ -16030,6 +16365,7 @@
       <c r="AD266" s="5"/>
       <c r="AE266" s="5"/>
       <c r="AF266" s="5"/>
+      <c r="AG266" s="5"/>
     </row>
     <row r="267" ht="14.25" customHeight="1">
       <c r="A267" s="5"/>
@@ -16064,6 +16400,7 @@
       <c r="AD267" s="5"/>
       <c r="AE267" s="5"/>
       <c r="AF267" s="5"/>
+      <c r="AG267" s="5"/>
     </row>
     <row r="268" ht="14.25" customHeight="1">
       <c r="A268" s="5"/>
@@ -16098,6 +16435,7 @@
       <c r="AD268" s="5"/>
       <c r="AE268" s="5"/>
       <c r="AF268" s="5"/>
+      <c r="AG268" s="5"/>
     </row>
     <row r="269" ht="14.25" customHeight="1">
       <c r="A269" s="5"/>
@@ -16132,6 +16470,7 @@
       <c r="AD269" s="5"/>
       <c r="AE269" s="5"/>
       <c r="AF269" s="5"/>
+      <c r="AG269" s="5"/>
     </row>
     <row r="270" ht="14.25" customHeight="1">
       <c r="A270" s="5"/>
@@ -16166,6 +16505,7 @@
       <c r="AD270" s="5"/>
       <c r="AE270" s="5"/>
       <c r="AF270" s="5"/>
+      <c r="AG270" s="5"/>
     </row>
     <row r="271" ht="14.25" customHeight="1">
       <c r="A271" s="5"/>
@@ -16200,6 +16540,7 @@
       <c r="AD271" s="5"/>
       <c r="AE271" s="5"/>
       <c r="AF271" s="5"/>
+      <c r="AG271" s="5"/>
     </row>
     <row r="272" ht="14.25" customHeight="1">
       <c r="A272" s="5"/>
@@ -16234,6 +16575,7 @@
       <c r="AD272" s="5"/>
       <c r="AE272" s="5"/>
       <c r="AF272" s="5"/>
+      <c r="AG272" s="5"/>
     </row>
     <row r="273" ht="14.25" customHeight="1">
       <c r="A273" s="5"/>
@@ -16268,6 +16610,7 @@
       <c r="AD273" s="5"/>
       <c r="AE273" s="5"/>
       <c r="AF273" s="5"/>
+      <c r="AG273" s="5"/>
     </row>
     <row r="274" ht="14.25" customHeight="1">
       <c r="A274" s="5"/>
@@ -16302,6 +16645,7 @@
       <c r="AD274" s="5"/>
       <c r="AE274" s="5"/>
       <c r="AF274" s="5"/>
+      <c r="AG274" s="5"/>
     </row>
     <row r="275" ht="14.25" customHeight="1">
       <c r="A275" s="5"/>
@@ -16336,6 +16680,7 @@
       <c r="AD275" s="5"/>
       <c r="AE275" s="5"/>
       <c r="AF275" s="5"/>
+      <c r="AG275" s="5"/>
     </row>
     <row r="276" ht="14.25" customHeight="1">
       <c r="A276" s="5"/>
@@ -16370,6 +16715,7 @@
       <c r="AD276" s="5"/>
       <c r="AE276" s="5"/>
       <c r="AF276" s="5"/>
+      <c r="AG276" s="5"/>
     </row>
     <row r="277" ht="14.25" customHeight="1">
       <c r="A277" s="5"/>
@@ -16404,6 +16750,7 @@
       <c r="AD277" s="5"/>
       <c r="AE277" s="5"/>
       <c r="AF277" s="5"/>
+      <c r="AG277" s="5"/>
     </row>
     <row r="278" ht="14.25" customHeight="1">
       <c r="A278" s="5"/>
@@ -16438,6 +16785,7 @@
       <c r="AD278" s="5"/>
       <c r="AE278" s="5"/>
       <c r="AF278" s="5"/>
+      <c r="AG278" s="5"/>
     </row>
     <row r="279" ht="14.25" customHeight="1">
       <c r="A279" s="5"/>
@@ -16472,6 +16820,7 @@
       <c r="AD279" s="5"/>
       <c r="AE279" s="5"/>
       <c r="AF279" s="5"/>
+      <c r="AG279" s="5"/>
     </row>
     <row r="280" ht="14.25" customHeight="1">
       <c r="A280" s="5"/>
@@ -16506,6 +16855,7 @@
       <c r="AD280" s="5"/>
       <c r="AE280" s="5"/>
       <c r="AF280" s="5"/>
+      <c r="AG280" s="5"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
       <c r="A281" s="5"/>
@@ -16540,6 +16890,7 @@
       <c r="AD281" s="5"/>
       <c r="AE281" s="5"/>
       <c r="AF281" s="5"/>
+      <c r="AG281" s="5"/>
     </row>
     <row r="282" ht="14.25" customHeight="1">
       <c r="A282" s="5"/>
@@ -16574,6 +16925,7 @@
       <c r="AD282" s="5"/>
       <c r="AE282" s="5"/>
       <c r="AF282" s="5"/>
+      <c r="AG282" s="5"/>
     </row>
     <row r="283" ht="14.25" customHeight="1">
       <c r="A283" s="5"/>
@@ -16608,6 +16960,7 @@
       <c r="AD283" s="5"/>
       <c r="AE283" s="5"/>
       <c r="AF283" s="5"/>
+      <c r="AG283" s="5"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
       <c r="A284" s="5"/>
@@ -16642,6 +16995,7 @@
       <c r="AD284" s="5"/>
       <c r="AE284" s="5"/>
       <c r="AF284" s="5"/>
+      <c r="AG284" s="5"/>
     </row>
     <row r="285" ht="14.25" customHeight="1">
       <c r="A285" s="5"/>
@@ -16676,6 +17030,7 @@
       <c r="AD285" s="5"/>
       <c r="AE285" s="5"/>
       <c r="AF285" s="5"/>
+      <c r="AG285" s="5"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
       <c r="A286" s="5"/>
@@ -16710,6 +17065,7 @@
       <c r="AD286" s="5"/>
       <c r="AE286" s="5"/>
       <c r="AF286" s="5"/>
+      <c r="AG286" s="5"/>
     </row>
     <row r="287" ht="14.25" customHeight="1">
       <c r="A287" s="5"/>
@@ -16744,6 +17100,7 @@
       <c r="AD287" s="5"/>
       <c r="AE287" s="5"/>
       <c r="AF287" s="5"/>
+      <c r="AG287" s="5"/>
     </row>
     <row r="288" ht="14.25" customHeight="1">
       <c r="A288" s="5"/>
@@ -16778,6 +17135,7 @@
       <c r="AD288" s="5"/>
       <c r="AE288" s="5"/>
       <c r="AF288" s="5"/>
+      <c r="AG288" s="5"/>
     </row>
     <row r="289" ht="14.25" customHeight="1">
       <c r="A289" s="5"/>
@@ -16812,6 +17170,7 @@
       <c r="AD289" s="5"/>
       <c r="AE289" s="5"/>
       <c r="AF289" s="5"/>
+      <c r="AG289" s="5"/>
     </row>
     <row r="290" ht="14.25" customHeight="1">
       <c r="A290" s="5"/>
@@ -16846,6 +17205,7 @@
       <c r="AD290" s="5"/>
       <c r="AE290" s="5"/>
       <c r="AF290" s="5"/>
+      <c r="AG290" s="5"/>
     </row>
     <row r="291" ht="14.25" customHeight="1">
       <c r="A291" s="5"/>
@@ -16880,6 +17240,7 @@
       <c r="AD291" s="5"/>
       <c r="AE291" s="5"/>
       <c r="AF291" s="5"/>
+      <c r="AG291" s="5"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
       <c r="A292" s="5"/>
@@ -16914,6 +17275,7 @@
       <c r="AD292" s="5"/>
       <c r="AE292" s="5"/>
       <c r="AF292" s="5"/>
+      <c r="AG292" s="5"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
       <c r="A293" s="5"/>
@@ -16948,6 +17310,7 @@
       <c r="AD293" s="5"/>
       <c r="AE293" s="5"/>
       <c r="AF293" s="5"/>
+      <c r="AG293" s="5"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
       <c r="A294" s="5"/>
@@ -16982,6 +17345,7 @@
       <c r="AD294" s="5"/>
       <c r="AE294" s="5"/>
       <c r="AF294" s="5"/>
+      <c r="AG294" s="5"/>
     </row>
     <row r="295" ht="14.25" customHeight="1">
       <c r="A295" s="5"/>
@@ -17016,6 +17380,7 @@
       <c r="AD295" s="5"/>
       <c r="AE295" s="5"/>
       <c r="AF295" s="5"/>
+      <c r="AG295" s="5"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
       <c r="A296" s="5"/>
@@ -17050,6 +17415,7 @@
       <c r="AD296" s="5"/>
       <c r="AE296" s="5"/>
       <c r="AF296" s="5"/>
+      <c r="AG296" s="5"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
       <c r="A297" s="5"/>
@@ -17084,6 +17450,7 @@
       <c r="AD297" s="5"/>
       <c r="AE297" s="5"/>
       <c r="AF297" s="5"/>
+      <c r="AG297" s="5"/>
     </row>
     <row r="298" ht="14.25" customHeight="1">
       <c r="A298" s="5"/>
@@ -17118,6 +17485,7 @@
       <c r="AD298" s="5"/>
       <c r="AE298" s="5"/>
       <c r="AF298" s="5"/>
+      <c r="AG298" s="5"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
       <c r="A299" s="5"/>
@@ -17152,6 +17520,7 @@
       <c r="AD299" s="5"/>
       <c r="AE299" s="5"/>
       <c r="AF299" s="5"/>
+      <c r="AG299" s="5"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
       <c r="A300" s="5"/>
@@ -17186,6 +17555,7 @@
       <c r="AD300" s="5"/>
       <c r="AE300" s="5"/>
       <c r="AF300" s="5"/>
+      <c r="AG300" s="5"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
       <c r="A301" s="5"/>
@@ -17220,6 +17590,7 @@
       <c r="AD301" s="5"/>
       <c r="AE301" s="5"/>
       <c r="AF301" s="5"/>
+      <c r="AG301" s="5"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
       <c r="A302" s="5"/>
@@ -17254,6 +17625,7 @@
       <c r="AD302" s="5"/>
       <c r="AE302" s="5"/>
       <c r="AF302" s="5"/>
+      <c r="AG302" s="5"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
       <c r="A303" s="5"/>
@@ -17288,6 +17660,7 @@
       <c r="AD303" s="5"/>
       <c r="AE303" s="5"/>
       <c r="AF303" s="5"/>
+      <c r="AG303" s="5"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
       <c r="A304" s="5"/>
@@ -17322,6 +17695,7 @@
       <c r="AD304" s="5"/>
       <c r="AE304" s="5"/>
       <c r="AF304" s="5"/>
+      <c r="AG304" s="5"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
       <c r="A305" s="5"/>
@@ -17356,6 +17730,7 @@
       <c r="AD305" s="5"/>
       <c r="AE305" s="5"/>
       <c r="AF305" s="5"/>
+      <c r="AG305" s="5"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
       <c r="A306" s="5"/>
@@ -17390,6 +17765,7 @@
       <c r="AD306" s="5"/>
       <c r="AE306" s="5"/>
       <c r="AF306" s="5"/>
+      <c r="AG306" s="5"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
       <c r="A307" s="5"/>
@@ -17424,6 +17800,7 @@
       <c r="AD307" s="5"/>
       <c r="AE307" s="5"/>
       <c r="AF307" s="5"/>
+      <c r="AG307" s="5"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
       <c r="A308" s="5"/>
@@ -17458,6 +17835,7 @@
       <c r="AD308" s="5"/>
       <c r="AE308" s="5"/>
       <c r="AF308" s="5"/>
+      <c r="AG308" s="5"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
       <c r="A309" s="5"/>
@@ -17492,6 +17870,7 @@
       <c r="AD309" s="5"/>
       <c r="AE309" s="5"/>
       <c r="AF309" s="5"/>
+      <c r="AG309" s="5"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
       <c r="A310" s="5"/>
@@ -17526,6 +17905,7 @@
       <c r="AD310" s="5"/>
       <c r="AE310" s="5"/>
       <c r="AF310" s="5"/>
+      <c r="AG310" s="5"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
       <c r="A311" s="5"/>
@@ -17560,6 +17940,7 @@
       <c r="AD311" s="5"/>
       <c r="AE311" s="5"/>
       <c r="AF311" s="5"/>
+      <c r="AG311" s="5"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
       <c r="A312" s="5"/>
@@ -17594,6 +17975,7 @@
       <c r="AD312" s="5"/>
       <c r="AE312" s="5"/>
       <c r="AF312" s="5"/>
+      <c r="AG312" s="5"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
       <c r="A313" s="5"/>
@@ -17628,6 +18010,7 @@
       <c r="AD313" s="5"/>
       <c r="AE313" s="5"/>
       <c r="AF313" s="5"/>
+      <c r="AG313" s="5"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
       <c r="A314" s="5"/>
@@ -17662,6 +18045,7 @@
       <c r="AD314" s="5"/>
       <c r="AE314" s="5"/>
       <c r="AF314" s="5"/>
+      <c r="AG314" s="5"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
       <c r="A315" s="5"/>
@@ -17696,6 +18080,7 @@
       <c r="AD315" s="5"/>
       <c r="AE315" s="5"/>
       <c r="AF315" s="5"/>
+      <c r="AG315" s="5"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
       <c r="A316" s="5"/>
@@ -17730,6 +18115,7 @@
       <c r="AD316" s="5"/>
       <c r="AE316" s="5"/>
       <c r="AF316" s="5"/>
+      <c r="AG316" s="5"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
       <c r="A317" s="5"/>
@@ -17764,6 +18150,7 @@
       <c r="AD317" s="5"/>
       <c r="AE317" s="5"/>
       <c r="AF317" s="5"/>
+      <c r="AG317" s="5"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
       <c r="A318" s="5"/>
@@ -17798,6 +18185,7 @@
       <c r="AD318" s="5"/>
       <c r="AE318" s="5"/>
       <c r="AF318" s="5"/>
+      <c r="AG318" s="5"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
       <c r="A319" s="5"/>
@@ -17832,6 +18220,7 @@
       <c r="AD319" s="5"/>
       <c r="AE319" s="5"/>
       <c r="AF319" s="5"/>
+      <c r="AG319" s="5"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
       <c r="A320" s="5"/>
@@ -17866,6 +18255,7 @@
       <c r="AD320" s="5"/>
       <c r="AE320" s="5"/>
       <c r="AF320" s="5"/>
+      <c r="AG320" s="5"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
       <c r="A321" s="5"/>
@@ -17900,6 +18290,7 @@
       <c r="AD321" s="5"/>
       <c r="AE321" s="5"/>
       <c r="AF321" s="5"/>
+      <c r="AG321" s="5"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
       <c r="A322" s="5"/>
@@ -17934,6 +18325,7 @@
       <c r="AD322" s="5"/>
       <c r="AE322" s="5"/>
       <c r="AF322" s="5"/>
+      <c r="AG322" s="5"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
       <c r="A323" s="5"/>
@@ -17968,6 +18360,7 @@
       <c r="AD323" s="5"/>
       <c r="AE323" s="5"/>
       <c r="AF323" s="5"/>
+      <c r="AG323" s="5"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
       <c r="A324" s="5"/>
@@ -18002,6 +18395,7 @@
       <c r="AD324" s="5"/>
       <c r="AE324" s="5"/>
       <c r="AF324" s="5"/>
+      <c r="AG324" s="5"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
       <c r="A325" s="5"/>
@@ -18036,6 +18430,7 @@
       <c r="AD325" s="5"/>
       <c r="AE325" s="5"/>
       <c r="AF325" s="5"/>
+      <c r="AG325" s="5"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
       <c r="A326" s="5"/>
@@ -18070,6 +18465,7 @@
       <c r="AD326" s="5"/>
       <c r="AE326" s="5"/>
       <c r="AF326" s="5"/>
+      <c r="AG326" s="5"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
       <c r="A327" s="5"/>
@@ -18104,6 +18500,7 @@
       <c r="AD327" s="5"/>
       <c r="AE327" s="5"/>
       <c r="AF327" s="5"/>
+      <c r="AG327" s="5"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
       <c r="A328" s="5"/>
@@ -18138,6 +18535,7 @@
       <c r="AD328" s="5"/>
       <c r="AE328" s="5"/>
       <c r="AF328" s="5"/>
+      <c r="AG328" s="5"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
       <c r="A329" s="5"/>
@@ -18172,6 +18570,7 @@
       <c r="AD329" s="5"/>
       <c r="AE329" s="5"/>
       <c r="AF329" s="5"/>
+      <c r="AG329" s="5"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
       <c r="A330" s="5"/>
@@ -18206,6 +18605,7 @@
       <c r="AD330" s="5"/>
       <c r="AE330" s="5"/>
       <c r="AF330" s="5"/>
+      <c r="AG330" s="5"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
       <c r="A331" s="5"/>
@@ -18240,6 +18640,7 @@
       <c r="AD331" s="5"/>
       <c r="AE331" s="5"/>
       <c r="AF331" s="5"/>
+      <c r="AG331" s="5"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
       <c r="A332" s="5"/>
@@ -18274,6 +18675,7 @@
       <c r="AD332" s="5"/>
       <c r="AE332" s="5"/>
       <c r="AF332" s="5"/>
+      <c r="AG332" s="5"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
       <c r="A333" s="5"/>
@@ -18308,6 +18710,7 @@
       <c r="AD333" s="5"/>
       <c r="AE333" s="5"/>
       <c r="AF333" s="5"/>
+      <c r="AG333" s="5"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
       <c r="A334" s="5"/>
@@ -18342,6 +18745,7 @@
       <c r="AD334" s="5"/>
       <c r="AE334" s="5"/>
       <c r="AF334" s="5"/>
+      <c r="AG334" s="5"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
       <c r="A335" s="5"/>
@@ -18376,6 +18780,7 @@
       <c r="AD335" s="5"/>
       <c r="AE335" s="5"/>
       <c r="AF335" s="5"/>
+      <c r="AG335" s="5"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
       <c r="A336" s="5"/>
@@ -18410,6 +18815,7 @@
       <c r="AD336" s="5"/>
       <c r="AE336" s="5"/>
       <c r="AF336" s="5"/>
+      <c r="AG336" s="5"/>
     </row>
     <row r="337" ht="14.25" customHeight="1">
       <c r="A337" s="5"/>
@@ -18444,6 +18850,7 @@
       <c r="AD337" s="5"/>
       <c r="AE337" s="5"/>
       <c r="AF337" s="5"/>
+      <c r="AG337" s="5"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
       <c r="A338" s="5"/>
@@ -18478,6 +18885,7 @@
       <c r="AD338" s="5"/>
       <c r="AE338" s="5"/>
       <c r="AF338" s="5"/>
+      <c r="AG338" s="5"/>
     </row>
     <row r="339" ht="14.25" customHeight="1">
       <c r="A339" s="5"/>
@@ -18512,6 +18920,7 @@
       <c r="AD339" s="5"/>
       <c r="AE339" s="5"/>
       <c r="AF339" s="5"/>
+      <c r="AG339" s="5"/>
     </row>
     <row r="340" ht="14.25" customHeight="1">
       <c r="A340" s="5"/>
@@ -18546,6 +18955,7 @@
       <c r="AD340" s="5"/>
       <c r="AE340" s="5"/>
       <c r="AF340" s="5"/>
+      <c r="AG340" s="5"/>
     </row>
     <row r="341" ht="14.25" customHeight="1">
       <c r="A341" s="5"/>
@@ -18580,6 +18990,7 @@
       <c r="AD341" s="5"/>
       <c r="AE341" s="5"/>
       <c r="AF341" s="5"/>
+      <c r="AG341" s="5"/>
     </row>
     <row r="342" ht="14.25" customHeight="1">
       <c r="A342" s="5"/>
@@ -18614,6 +19025,7 @@
       <c r="AD342" s="5"/>
       <c r="AE342" s="5"/>
       <c r="AF342" s="5"/>
+      <c r="AG342" s="5"/>
     </row>
     <row r="343" ht="14.25" customHeight="1">
       <c r="A343" s="5"/>
@@ -18648,6 +19060,7 @@
       <c r="AD343" s="5"/>
       <c r="AE343" s="5"/>
       <c r="AF343" s="5"/>
+      <c r="AG343" s="5"/>
     </row>
     <row r="344" ht="14.25" customHeight="1">
       <c r="A344" s="5"/>
@@ -18682,6 +19095,7 @@
       <c r="AD344" s="5"/>
       <c r="AE344" s="5"/>
       <c r="AF344" s="5"/>
+      <c r="AG344" s="5"/>
     </row>
     <row r="345" ht="14.25" customHeight="1">
       <c r="A345" s="5"/>
@@ -18716,6 +19130,7 @@
       <c r="AD345" s="5"/>
       <c r="AE345" s="5"/>
       <c r="AF345" s="5"/>
+      <c r="AG345" s="5"/>
     </row>
     <row r="346" ht="14.25" customHeight="1">
       <c r="A346" s="5"/>
@@ -18750,6 +19165,7 @@
       <c r="AD346" s="5"/>
       <c r="AE346" s="5"/>
       <c r="AF346" s="5"/>
+      <c r="AG346" s="5"/>
     </row>
     <row r="347" ht="14.25" customHeight="1">
       <c r="A347" s="5"/>
@@ -18784,6 +19200,7 @@
       <c r="AD347" s="5"/>
       <c r="AE347" s="5"/>
       <c r="AF347" s="5"/>
+      <c r="AG347" s="5"/>
     </row>
     <row r="348" ht="14.25" customHeight="1">
       <c r="A348" s="5"/>
@@ -18818,6 +19235,7 @@
       <c r="AD348" s="5"/>
       <c r="AE348" s="5"/>
       <c r="AF348" s="5"/>
+      <c r="AG348" s="5"/>
     </row>
     <row r="349" ht="14.25" customHeight="1">
       <c r="A349" s="5"/>
@@ -18852,6 +19270,7 @@
       <c r="AD349" s="5"/>
       <c r="AE349" s="5"/>
       <c r="AF349" s="5"/>
+      <c r="AG349" s="5"/>
     </row>
     <row r="350" ht="14.25" customHeight="1">
       <c r="A350" s="5"/>
@@ -18886,6 +19305,7 @@
       <c r="AD350" s="5"/>
       <c r="AE350" s="5"/>
       <c r="AF350" s="5"/>
+      <c r="AG350" s="5"/>
     </row>
     <row r="351" ht="14.25" customHeight="1">
       <c r="A351" s="5"/>
@@ -18920,6 +19340,7 @@
       <c r="AD351" s="5"/>
       <c r="AE351" s="5"/>
       <c r="AF351" s="5"/>
+      <c r="AG351" s="5"/>
     </row>
     <row r="352" ht="14.25" customHeight="1">
       <c r="A352" s="5"/>
@@ -18954,6 +19375,7 @@
       <c r="AD352" s="5"/>
       <c r="AE352" s="5"/>
       <c r="AF352" s="5"/>
+      <c r="AG352" s="5"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
       <c r="A353" s="5"/>
@@ -18988,6 +19410,7 @@
       <c r="AD353" s="5"/>
       <c r="AE353" s="5"/>
       <c r="AF353" s="5"/>
+      <c r="AG353" s="5"/>
     </row>
     <row r="354" ht="14.25" customHeight="1">
       <c r="A354" s="5"/>
@@ -19022,6 +19445,7 @@
       <c r="AD354" s="5"/>
       <c r="AE354" s="5"/>
       <c r="AF354" s="5"/>
+      <c r="AG354" s="5"/>
     </row>
     <row r="355" ht="14.25" customHeight="1">
       <c r="A355" s="5"/>
@@ -19056,6 +19480,7 @@
       <c r="AD355" s="5"/>
       <c r="AE355" s="5"/>
       <c r="AF355" s="5"/>
+      <c r="AG355" s="5"/>
     </row>
     <row r="356" ht="14.25" customHeight="1">
       <c r="A356" s="5"/>
@@ -19090,6 +19515,7 @@
       <c r="AD356" s="5"/>
       <c r="AE356" s="5"/>
       <c r="AF356" s="5"/>
+      <c r="AG356" s="5"/>
     </row>
     <row r="357" ht="14.25" customHeight="1">
       <c r="A357" s="5"/>
@@ -19124,6 +19550,7 @@
       <c r="AD357" s="5"/>
       <c r="AE357" s="5"/>
       <c r="AF357" s="5"/>
+      <c r="AG357" s="5"/>
     </row>
     <row r="358" ht="14.25" customHeight="1">
       <c r="A358" s="5"/>
@@ -19158,6 +19585,7 @@
       <c r="AD358" s="5"/>
       <c r="AE358" s="5"/>
       <c r="AF358" s="5"/>
+      <c r="AG358" s="5"/>
     </row>
     <row r="359" ht="14.25" customHeight="1">
       <c r="A359" s="5"/>
@@ -19192,6 +19620,7 @@
       <c r="AD359" s="5"/>
       <c r="AE359" s="5"/>
       <c r="AF359" s="5"/>
+      <c r="AG359" s="5"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
       <c r="A360" s="5"/>
@@ -19226,6 +19655,7 @@
       <c r="AD360" s="5"/>
       <c r="AE360" s="5"/>
       <c r="AF360" s="5"/>
+      <c r="AG360" s="5"/>
     </row>
     <row r="361" ht="14.25" customHeight="1">
       <c r="A361" s="5"/>
@@ -19260,6 +19690,7 @@
       <c r="AD361" s="5"/>
       <c r="AE361" s="5"/>
       <c r="AF361" s="5"/>
+      <c r="AG361" s="5"/>
     </row>
     <row r="362" ht="14.25" customHeight="1">
       <c r="A362" s="5"/>
@@ -19294,6 +19725,7 @@
       <c r="AD362" s="5"/>
       <c r="AE362" s="5"/>
       <c r="AF362" s="5"/>
+      <c r="AG362" s="5"/>
     </row>
     <row r="363" ht="14.25" customHeight="1">
       <c r="A363" s="5"/>
@@ -19328,6 +19760,7 @@
       <c r="AD363" s="5"/>
       <c r="AE363" s="5"/>
       <c r="AF363" s="5"/>
+      <c r="AG363" s="5"/>
     </row>
     <row r="364" ht="14.25" customHeight="1">
       <c r="A364" s="5"/>
@@ -19362,6 +19795,7 @@
       <c r="AD364" s="5"/>
       <c r="AE364" s="5"/>
       <c r="AF364" s="5"/>
+      <c r="AG364" s="5"/>
     </row>
     <row r="365" ht="14.25" customHeight="1">
       <c r="A365" s="5"/>
@@ -19396,6 +19830,7 @@
       <c r="AD365" s="5"/>
       <c r="AE365" s="5"/>
       <c r="AF365" s="5"/>
+      <c r="AG365" s="5"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
       <c r="A366" s="5"/>
@@ -19430,6 +19865,7 @@
       <c r="AD366" s="5"/>
       <c r="AE366" s="5"/>
       <c r="AF366" s="5"/>
+      <c r="AG366" s="5"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
       <c r="A367" s="5"/>
@@ -19464,6 +19900,7 @@
       <c r="AD367" s="5"/>
       <c r="AE367" s="5"/>
       <c r="AF367" s="5"/>
+      <c r="AG367" s="5"/>
     </row>
     <row r="368" ht="14.25" customHeight="1">
       <c r="A368" s="5"/>
@@ -19498,6 +19935,7 @@
       <c r="AD368" s="5"/>
       <c r="AE368" s="5"/>
       <c r="AF368" s="5"/>
+      <c r="AG368" s="5"/>
     </row>
     <row r="369" ht="14.25" customHeight="1">
       <c r="A369" s="5"/>
@@ -19532,6 +19970,7 @@
       <c r="AD369" s="5"/>
       <c r="AE369" s="5"/>
       <c r="AF369" s="5"/>
+      <c r="AG369" s="5"/>
     </row>
     <row r="370" ht="14.25" customHeight="1">
       <c r="A370" s="5"/>
@@ -19566,6 +20005,7 @@
       <c r="AD370" s="5"/>
       <c r="AE370" s="5"/>
       <c r="AF370" s="5"/>
+      <c r="AG370" s="5"/>
     </row>
     <row r="371" ht="14.25" customHeight="1">
       <c r="A371" s="5"/>
@@ -19600,6 +20040,7 @@
       <c r="AD371" s="5"/>
       <c r="AE371" s="5"/>
       <c r="AF371" s="5"/>
+      <c r="AG371" s="5"/>
     </row>
     <row r="372" ht="14.25" customHeight="1">
       <c r="A372" s="5"/>
@@ -19634,6 +20075,7 @@
       <c r="AD372" s="5"/>
       <c r="AE372" s="5"/>
       <c r="AF372" s="5"/>
+      <c r="AG372" s="5"/>
     </row>
     <row r="373" ht="14.25" customHeight="1">
       <c r="A373" s="5"/>
@@ -19668,6 +20110,7 @@
       <c r="AD373" s="5"/>
       <c r="AE373" s="5"/>
       <c r="AF373" s="5"/>
+      <c r="AG373" s="5"/>
     </row>
     <row r="374" ht="14.25" customHeight="1">
       <c r="A374" s="5"/>
@@ -19702,6 +20145,7 @@
       <c r="AD374" s="5"/>
       <c r="AE374" s="5"/>
       <c r="AF374" s="5"/>
+      <c r="AG374" s="5"/>
     </row>
     <row r="375" ht="14.25" customHeight="1">
       <c r="A375" s="5"/>
@@ -19736,6 +20180,7 @@
       <c r="AD375" s="5"/>
       <c r="AE375" s="5"/>
       <c r="AF375" s="5"/>
+      <c r="AG375" s="5"/>
     </row>
     <row r="376" ht="14.25" customHeight="1">
       <c r="A376" s="5"/>
@@ -19770,6 +20215,7 @@
       <c r="AD376" s="5"/>
       <c r="AE376" s="5"/>
       <c r="AF376" s="5"/>
+      <c r="AG376" s="5"/>
     </row>
     <row r="377" ht="14.25" customHeight="1">
       <c r="A377" s="5"/>
@@ -19804,6 +20250,7 @@
       <c r="AD377" s="5"/>
       <c r="AE377" s="5"/>
       <c r="AF377" s="5"/>
+      <c r="AG377" s="5"/>
     </row>
     <row r="378" ht="14.25" customHeight="1">
       <c r="A378" s="5"/>
@@ -19838,6 +20285,7 @@
       <c r="AD378" s="5"/>
       <c r="AE378" s="5"/>
       <c r="AF378" s="5"/>
+      <c r="AG378" s="5"/>
     </row>
     <row r="379" ht="14.25" customHeight="1">
       <c r="A379" s="5"/>
@@ -19872,6 +20320,7 @@
       <c r="AD379" s="5"/>
       <c r="AE379" s="5"/>
       <c r="AF379" s="5"/>
+      <c r="AG379" s="5"/>
     </row>
     <row r="380" ht="14.25" customHeight="1">
       <c r="A380" s="5"/>
@@ -19906,6 +20355,7 @@
       <c r="AD380" s="5"/>
       <c r="AE380" s="5"/>
       <c r="AF380" s="5"/>
+      <c r="AG380" s="5"/>
     </row>
     <row r="381" ht="14.25" customHeight="1">
       <c r="A381" s="5"/>
@@ -19940,6 +20390,7 @@
       <c r="AD381" s="5"/>
       <c r="AE381" s="5"/>
       <c r="AF381" s="5"/>
+      <c r="AG381" s="5"/>
     </row>
     <row r="382" ht="14.25" customHeight="1">
       <c r="A382" s="5"/>
@@ -19974,6 +20425,7 @@
       <c r="AD382" s="5"/>
       <c r="AE382" s="5"/>
       <c r="AF382" s="5"/>
+      <c r="AG382" s="5"/>
     </row>
     <row r="383" ht="14.25" customHeight="1">
       <c r="A383" s="5"/>
@@ -20008,6 +20460,7 @@
       <c r="AD383" s="5"/>
       <c r="AE383" s="5"/>
       <c r="AF383" s="5"/>
+      <c r="AG383" s="5"/>
     </row>
     <row r="384" ht="14.25" customHeight="1">
       <c r="A384" s="5"/>
@@ -20042,6 +20495,7 @@
       <c r="AD384" s="5"/>
       <c r="AE384" s="5"/>
       <c r="AF384" s="5"/>
+      <c r="AG384" s="5"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
       <c r="A385" s="5"/>
@@ -20076,6 +20530,7 @@
       <c r="AD385" s="5"/>
       <c r="AE385" s="5"/>
       <c r="AF385" s="5"/>
+      <c r="AG385" s="5"/>
     </row>
     <row r="386" ht="14.25" customHeight="1">
       <c r="A386" s="5"/>
@@ -20110,6 +20565,7 @@
       <c r="AD386" s="5"/>
       <c r="AE386" s="5"/>
       <c r="AF386" s="5"/>
+      <c r="AG386" s="5"/>
     </row>
     <row r="387" ht="14.25" customHeight="1">
       <c r="A387" s="5"/>
@@ -20144,6 +20600,7 @@
       <c r="AD387" s="5"/>
       <c r="AE387" s="5"/>
       <c r="AF387" s="5"/>
+      <c r="AG387" s="5"/>
     </row>
     <row r="388" ht="14.25" customHeight="1">
       <c r="A388" s="5"/>
@@ -20178,6 +20635,7 @@
       <c r="AD388" s="5"/>
       <c r="AE388" s="5"/>
       <c r="AF388" s="5"/>
+      <c r="AG388" s="5"/>
     </row>
     <row r="389" ht="14.25" customHeight="1">
       <c r="A389" s="5"/>
@@ -20212,6 +20670,7 @@
       <c r="AD389" s="5"/>
       <c r="AE389" s="5"/>
       <c r="AF389" s="5"/>
+      <c r="AG389" s="5"/>
     </row>
     <row r="390" ht="14.25" customHeight="1">
       <c r="A390" s="5"/>
@@ -20246,6 +20705,7 @@
       <c r="AD390" s="5"/>
       <c r="AE390" s="5"/>
       <c r="AF390" s="5"/>
+      <c r="AG390" s="5"/>
     </row>
     <row r="391" ht="14.25" customHeight="1">
       <c r="A391" s="5"/>
@@ -20280,6 +20740,7 @@
       <c r="AD391" s="5"/>
       <c r="AE391" s="5"/>
       <c r="AF391" s="5"/>
+      <c r="AG391" s="5"/>
     </row>
     <row r="392" ht="14.25" customHeight="1">
       <c r="A392" s="5"/>
@@ -20314,6 +20775,7 @@
       <c r="AD392" s="5"/>
       <c r="AE392" s="5"/>
       <c r="AF392" s="5"/>
+      <c r="AG392" s="5"/>
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="5"/>
@@ -20348,6 +20810,7 @@
       <c r="AD393" s="5"/>
       <c r="AE393" s="5"/>
       <c r="AF393" s="5"/>
+      <c r="AG393" s="5"/>
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="5"/>
@@ -20382,6 +20845,7 @@
       <c r="AD394" s="5"/>
       <c r="AE394" s="5"/>
       <c r="AF394" s="5"/>
+      <c r="AG394" s="5"/>
     </row>
     <row r="395" ht="14.25" customHeight="1">
       <c r="A395" s="5"/>
@@ -20416,6 +20880,7 @@
       <c r="AD395" s="5"/>
       <c r="AE395" s="5"/>
       <c r="AF395" s="5"/>
+      <c r="AG395" s="5"/>
     </row>
     <row r="396" ht="14.25" customHeight="1">
       <c r="A396" s="5"/>
@@ -20450,6 +20915,7 @@
       <c r="AD396" s="5"/>
       <c r="AE396" s="5"/>
       <c r="AF396" s="5"/>
+      <c r="AG396" s="5"/>
     </row>
     <row r="397" ht="14.25" customHeight="1">
       <c r="A397" s="5"/>
@@ -20484,6 +20950,7 @@
       <c r="AD397" s="5"/>
       <c r="AE397" s="5"/>
       <c r="AF397" s="5"/>
+      <c r="AG397" s="5"/>
     </row>
     <row r="398" ht="14.25" customHeight="1">
       <c r="A398" s="5"/>
@@ -20518,6 +20985,7 @@
       <c r="AD398" s="5"/>
       <c r="AE398" s="5"/>
       <c r="AF398" s="5"/>
+      <c r="AG398" s="5"/>
     </row>
     <row r="399" ht="14.25" customHeight="1">
       <c r="A399" s="5"/>
@@ -20552,6 +21020,7 @@
       <c r="AD399" s="5"/>
       <c r="AE399" s="5"/>
       <c r="AF399" s="5"/>
+      <c r="AG399" s="5"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
       <c r="A400" s="5"/>
@@ -20586,6 +21055,7 @@
       <c r="AD400" s="5"/>
       <c r="AE400" s="5"/>
       <c r="AF400" s="5"/>
+      <c r="AG400" s="5"/>
     </row>
     <row r="401" ht="14.25" customHeight="1">
       <c r="A401" s="5"/>
@@ -20620,6 +21090,7 @@
       <c r="AD401" s="5"/>
       <c r="AE401" s="5"/>
       <c r="AF401" s="5"/>
+      <c r="AG401" s="5"/>
     </row>
     <row r="402" ht="14.25" customHeight="1">
       <c r="A402" s="5"/>
@@ -20654,6 +21125,7 @@
       <c r="AD402" s="5"/>
       <c r="AE402" s="5"/>
       <c r="AF402" s="5"/>
+      <c r="AG402" s="5"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
       <c r="A403" s="5"/>
@@ -20688,6 +21160,7 @@
       <c r="AD403" s="5"/>
       <c r="AE403" s="5"/>
       <c r="AF403" s="5"/>
+      <c r="AG403" s="5"/>
     </row>
     <row r="404" ht="14.25" customHeight="1">
       <c r="A404" s="5"/>
@@ -20722,6 +21195,7 @@
       <c r="AD404" s="5"/>
       <c r="AE404" s="5"/>
       <c r="AF404" s="5"/>
+      <c r="AG404" s="5"/>
     </row>
     <row r="405" ht="14.25" customHeight="1">
       <c r="A405" s="5"/>
@@ -20756,6 +21230,7 @@
       <c r="AD405" s="5"/>
       <c r="AE405" s="5"/>
       <c r="AF405" s="5"/>
+      <c r="AG405" s="5"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
       <c r="A406" s="5"/>
@@ -20790,6 +21265,7 @@
       <c r="AD406" s="5"/>
       <c r="AE406" s="5"/>
       <c r="AF406" s="5"/>
+      <c r="AG406" s="5"/>
     </row>
     <row r="407" ht="14.25" customHeight="1">
       <c r="A407" s="5"/>
@@ -20824,6 +21300,7 @@
       <c r="AD407" s="5"/>
       <c r="AE407" s="5"/>
       <c r="AF407" s="5"/>
+      <c r="AG407" s="5"/>
     </row>
     <row r="408" ht="14.25" customHeight="1">
       <c r="A408" s="5"/>
@@ -20858,6 +21335,7 @@
       <c r="AD408" s="5"/>
       <c r="AE408" s="5"/>
       <c r="AF408" s="5"/>
+      <c r="AG408" s="5"/>
     </row>
     <row r="409" ht="14.25" customHeight="1">
       <c r="A409" s="5"/>
@@ -20892,6 +21370,7 @@
       <c r="AD409" s="5"/>
       <c r="AE409" s="5"/>
       <c r="AF409" s="5"/>
+      <c r="AG409" s="5"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
       <c r="A410" s="5"/>
@@ -20926,6 +21405,7 @@
       <c r="AD410" s="5"/>
       <c r="AE410" s="5"/>
       <c r="AF410" s="5"/>
+      <c r="AG410" s="5"/>
     </row>
     <row r="411" ht="14.25" customHeight="1">
       <c r="A411" s="5"/>
@@ -20960,6 +21440,7 @@
       <c r="AD411" s="5"/>
       <c r="AE411" s="5"/>
       <c r="AF411" s="5"/>
+      <c r="AG411" s="5"/>
     </row>
     <row r="412" ht="14.25" customHeight="1">
       <c r="A412" s="5"/>
@@ -20994,6 +21475,7 @@
       <c r="AD412" s="5"/>
       <c r="AE412" s="5"/>
       <c r="AF412" s="5"/>
+      <c r="AG412" s="5"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
       <c r="A413" s="5"/>
@@ -21028,6 +21510,7 @@
       <c r="AD413" s="5"/>
       <c r="AE413" s="5"/>
       <c r="AF413" s="5"/>
+      <c r="AG413" s="5"/>
     </row>
     <row r="414" ht="14.25" customHeight="1">
       <c r="A414" s="5"/>
@@ -21062,6 +21545,7 @@
       <c r="AD414" s="5"/>
       <c r="AE414" s="5"/>
       <c r="AF414" s="5"/>
+      <c r="AG414" s="5"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
       <c r="A415" s="5"/>
@@ -21096,6 +21580,7 @@
       <c r="AD415" s="5"/>
       <c r="AE415" s="5"/>
       <c r="AF415" s="5"/>
+      <c r="AG415" s="5"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
       <c r="A416" s="5"/>
@@ -21130,6 +21615,7 @@
       <c r="AD416" s="5"/>
       <c r="AE416" s="5"/>
       <c r="AF416" s="5"/>
+      <c r="AG416" s="5"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
       <c r="A417" s="5"/>
@@ -21164,6 +21650,7 @@
       <c r="AD417" s="5"/>
       <c r="AE417" s="5"/>
       <c r="AF417" s="5"/>
+      <c r="AG417" s="5"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
       <c r="A418" s="5"/>
@@ -21198,6 +21685,7 @@
       <c r="AD418" s="5"/>
       <c r="AE418" s="5"/>
       <c r="AF418" s="5"/>
+      <c r="AG418" s="5"/>
     </row>
     <row r="419" ht="14.25" customHeight="1">
       <c r="A419" s="5"/>
@@ -21232,6 +21720,7 @@
       <c r="AD419" s="5"/>
       <c r="AE419" s="5"/>
       <c r="AF419" s="5"/>
+      <c r="AG419" s="5"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
       <c r="A420" s="5"/>
@@ -21266,6 +21755,7 @@
       <c r="AD420" s="5"/>
       <c r="AE420" s="5"/>
       <c r="AF420" s="5"/>
+      <c r="AG420" s="5"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
       <c r="A421" s="5"/>
@@ -21300,6 +21790,7 @@
       <c r="AD421" s="5"/>
       <c r="AE421" s="5"/>
       <c r="AF421" s="5"/>
+      <c r="AG421" s="5"/>
     </row>
     <row r="422" ht="14.25" customHeight="1">
       <c r="A422" s="5"/>
@@ -21334,6 +21825,7 @@
       <c r="AD422" s="5"/>
       <c r="AE422" s="5"/>
       <c r="AF422" s="5"/>
+      <c r="AG422" s="5"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
       <c r="A423" s="5"/>
@@ -21368,6 +21860,7 @@
       <c r="AD423" s="5"/>
       <c r="AE423" s="5"/>
       <c r="AF423" s="5"/>
+      <c r="AG423" s="5"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
       <c r="A424" s="5"/>
@@ -21402,6 +21895,7 @@
       <c r="AD424" s="5"/>
       <c r="AE424" s="5"/>
       <c r="AF424" s="5"/>
+      <c r="AG424" s="5"/>
     </row>
     <row r="425" ht="14.25" customHeight="1">
       <c r="A425" s="5"/>
@@ -21436,6 +21930,7 @@
       <c r="AD425" s="5"/>
       <c r="AE425" s="5"/>
       <c r="AF425" s="5"/>
+      <c r="AG425" s="5"/>
     </row>
     <row r="426" ht="14.25" customHeight="1">
       <c r="A426" s="5"/>
@@ -21470,6 +21965,7 @@
       <c r="AD426" s="5"/>
       <c r="AE426" s="5"/>
       <c r="AF426" s="5"/>
+      <c r="AG426" s="5"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
       <c r="A427" s="5"/>
@@ -21504,6 +22000,7 @@
       <c r="AD427" s="5"/>
       <c r="AE427" s="5"/>
       <c r="AF427" s="5"/>
+      <c r="AG427" s="5"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
       <c r="A428" s="5"/>
@@ -21538,6 +22035,7 @@
       <c r="AD428" s="5"/>
       <c r="AE428" s="5"/>
       <c r="AF428" s="5"/>
+      <c r="AG428" s="5"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
       <c r="A429" s="5"/>
@@ -21572,6 +22070,7 @@
       <c r="AD429" s="5"/>
       <c r="AE429" s="5"/>
       <c r="AF429" s="5"/>
+      <c r="AG429" s="5"/>
     </row>
     <row r="430" ht="14.25" customHeight="1">
       <c r="A430" s="5"/>
@@ -21606,6 +22105,7 @@
       <c r="AD430" s="5"/>
       <c r="AE430" s="5"/>
       <c r="AF430" s="5"/>
+      <c r="AG430" s="5"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
       <c r="A431" s="5"/>
@@ -21640,6 +22140,7 @@
       <c r="AD431" s="5"/>
       <c r="AE431" s="5"/>
       <c r="AF431" s="5"/>
+      <c r="AG431" s="5"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
       <c r="A432" s="5"/>
@@ -21674,6 +22175,7 @@
       <c r="AD432" s="5"/>
       <c r="AE432" s="5"/>
       <c r="AF432" s="5"/>
+      <c r="AG432" s="5"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
       <c r="A433" s="5"/>
@@ -21708,6 +22210,7 @@
       <c r="AD433" s="5"/>
       <c r="AE433" s="5"/>
       <c r="AF433" s="5"/>
+      <c r="AG433" s="5"/>
     </row>
     <row r="434" ht="14.25" customHeight="1">
       <c r="A434" s="5"/>
@@ -21742,6 +22245,7 @@
       <c r="AD434" s="5"/>
       <c r="AE434" s="5"/>
       <c r="AF434" s="5"/>
+      <c r="AG434" s="5"/>
     </row>
     <row r="435" ht="14.25" customHeight="1">
       <c r="A435" s="5"/>
@@ -21776,6 +22280,7 @@
       <c r="AD435" s="5"/>
       <c r="AE435" s="5"/>
       <c r="AF435" s="5"/>
+      <c r="AG435" s="5"/>
     </row>
     <row r="436" ht="14.25" customHeight="1">
       <c r="A436" s="5"/>
@@ -21810,6 +22315,7 @@
       <c r="AD436" s="5"/>
       <c r="AE436" s="5"/>
       <c r="AF436" s="5"/>
+      <c r="AG436" s="5"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
       <c r="A437" s="5"/>
@@ -21844,6 +22350,7 @@
       <c r="AD437" s="5"/>
       <c r="AE437" s="5"/>
       <c r="AF437" s="5"/>
+      <c r="AG437" s="5"/>
     </row>
     <row r="438" ht="14.25" customHeight="1">
       <c r="A438" s="5"/>
@@ -21878,6 +22385,7 @@
       <c r="AD438" s="5"/>
       <c r="AE438" s="5"/>
       <c r="AF438" s="5"/>
+      <c r="AG438" s="5"/>
     </row>
     <row r="439" ht="14.25" customHeight="1">
       <c r="A439" s="5"/>
@@ -21912,6 +22420,7 @@
       <c r="AD439" s="5"/>
       <c r="AE439" s="5"/>
       <c r="AF439" s="5"/>
+      <c r="AG439" s="5"/>
     </row>
     <row r="440" ht="14.25" customHeight="1">
       <c r="A440" s="5"/>
@@ -21946,6 +22455,7 @@
       <c r="AD440" s="5"/>
       <c r="AE440" s="5"/>
       <c r="AF440" s="5"/>
+      <c r="AG440" s="5"/>
     </row>
     <row r="441" ht="14.25" customHeight="1">
       <c r="A441" s="5"/>
@@ -21980,6 +22490,7 @@
       <c r="AD441" s="5"/>
       <c r="AE441" s="5"/>
       <c r="AF441" s="5"/>
+      <c r="AG441" s="5"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
       <c r="A442" s="5"/>
@@ -22014,6 +22525,7 @@
       <c r="AD442" s="5"/>
       <c r="AE442" s="5"/>
       <c r="AF442" s="5"/>
+      <c r="AG442" s="5"/>
     </row>
     <row r="443" ht="14.25" customHeight="1">
       <c r="A443" s="5"/>
@@ -22048,6 +22560,7 @@
       <c r="AD443" s="5"/>
       <c r="AE443" s="5"/>
       <c r="AF443" s="5"/>
+      <c r="AG443" s="5"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
       <c r="A444" s="5"/>
@@ -22082,6 +22595,7 @@
       <c r="AD444" s="5"/>
       <c r="AE444" s="5"/>
       <c r="AF444" s="5"/>
+      <c r="AG444" s="5"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
       <c r="A445" s="5"/>
@@ -22116,6 +22630,7 @@
       <c r="AD445" s="5"/>
       <c r="AE445" s="5"/>
       <c r="AF445" s="5"/>
+      <c r="AG445" s="5"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
       <c r="A446" s="5"/>
@@ -22150,6 +22665,7 @@
       <c r="AD446" s="5"/>
       <c r="AE446" s="5"/>
       <c r="AF446" s="5"/>
+      <c r="AG446" s="5"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
       <c r="A447" s="5"/>
@@ -22184,6 +22700,7 @@
       <c r="AD447" s="5"/>
       <c r="AE447" s="5"/>
       <c r="AF447" s="5"/>
+      <c r="AG447" s="5"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
       <c r="A448" s="5"/>
@@ -22218,6 +22735,7 @@
       <c r="AD448" s="5"/>
       <c r="AE448" s="5"/>
       <c r="AF448" s="5"/>
+      <c r="AG448" s="5"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
       <c r="A449" s="5"/>
@@ -22252,6 +22770,7 @@
       <c r="AD449" s="5"/>
       <c r="AE449" s="5"/>
       <c r="AF449" s="5"/>
+      <c r="AG449" s="5"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
       <c r="A450" s="5"/>
@@ -22286,6 +22805,7 @@
       <c r="AD450" s="5"/>
       <c r="AE450" s="5"/>
       <c r="AF450" s="5"/>
+      <c r="AG450" s="5"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
       <c r="A451" s="5"/>
@@ -22320,6 +22840,7 @@
       <c r="AD451" s="5"/>
       <c r="AE451" s="5"/>
       <c r="AF451" s="5"/>
+      <c r="AG451" s="5"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
       <c r="A452" s="5"/>
@@ -22354,6 +22875,7 @@
       <c r="AD452" s="5"/>
       <c r="AE452" s="5"/>
       <c r="AF452" s="5"/>
+      <c r="AG452" s="5"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
       <c r="A453" s="5"/>
@@ -22388,6 +22910,7 @@
       <c r="AD453" s="5"/>
       <c r="AE453" s="5"/>
       <c r="AF453" s="5"/>
+      <c r="AG453" s="5"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
       <c r="A454" s="5"/>
@@ -22422,6 +22945,7 @@
       <c r="AD454" s="5"/>
       <c r="AE454" s="5"/>
       <c r="AF454" s="5"/>
+      <c r="AG454" s="5"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
       <c r="A455" s="5"/>
@@ -22456,6 +22980,7 @@
       <c r="AD455" s="5"/>
       <c r="AE455" s="5"/>
       <c r="AF455" s="5"/>
+      <c r="AG455" s="5"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
       <c r="A456" s="5"/>
@@ -22490,6 +23015,7 @@
       <c r="AD456" s="5"/>
       <c r="AE456" s="5"/>
       <c r="AF456" s="5"/>
+      <c r="AG456" s="5"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
       <c r="A457" s="5"/>
@@ -22524,6 +23050,7 @@
       <c r="AD457" s="5"/>
       <c r="AE457" s="5"/>
       <c r="AF457" s="5"/>
+      <c r="AG457" s="5"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
       <c r="A458" s="5"/>
@@ -22558,6 +23085,7 @@
       <c r="AD458" s="5"/>
       <c r="AE458" s="5"/>
       <c r="AF458" s="5"/>
+      <c r="AG458" s="5"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
       <c r="A459" s="5"/>
@@ -22592,6 +23120,7 @@
       <c r="AD459" s="5"/>
       <c r="AE459" s="5"/>
       <c r="AF459" s="5"/>
+      <c r="AG459" s="5"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
       <c r="A460" s="5"/>
@@ -22626,6 +23155,7 @@
       <c r="AD460" s="5"/>
       <c r="AE460" s="5"/>
       <c r="AF460" s="5"/>
+      <c r="AG460" s="5"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="5"/>
@@ -22660,6 +23190,7 @@
       <c r="AD461" s="5"/>
       <c r="AE461" s="5"/>
       <c r="AF461" s="5"/>
+      <c r="AG461" s="5"/>
     </row>
     <row r="462" ht="14.25" customHeight="1">
       <c r="A462" s="5"/>
@@ -22694,6 +23225,7 @@
       <c r="AD462" s="5"/>
       <c r="AE462" s="5"/>
       <c r="AF462" s="5"/>
+      <c r="AG462" s="5"/>
     </row>
     <row r="463" ht="14.25" customHeight="1">
       <c r="A463" s="5"/>
@@ -22728,6 +23260,7 @@
       <c r="AD463" s="5"/>
       <c r="AE463" s="5"/>
       <c r="AF463" s="5"/>
+      <c r="AG463" s="5"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="5"/>
@@ -22762,6 +23295,7 @@
       <c r="AD464" s="5"/>
       <c r="AE464" s="5"/>
       <c r="AF464" s="5"/>
+      <c r="AG464" s="5"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="5"/>
@@ -22796,6 +23330,7 @@
       <c r="AD465" s="5"/>
       <c r="AE465" s="5"/>
       <c r="AF465" s="5"/>
+      <c r="AG465" s="5"/>
     </row>
     <row r="466" ht="14.25" customHeight="1">
       <c r="A466" s="5"/>
@@ -22830,6 +23365,7 @@
       <c r="AD466" s="5"/>
       <c r="AE466" s="5"/>
       <c r="AF466" s="5"/>
+      <c r="AG466" s="5"/>
     </row>
     <row r="467" ht="14.25" customHeight="1">
       <c r="A467" s="5"/>
@@ -22864,6 +23400,7 @@
       <c r="AD467" s="5"/>
       <c r="AE467" s="5"/>
       <c r="AF467" s="5"/>
+      <c r="AG467" s="5"/>
     </row>
     <row r="468" ht="14.25" customHeight="1">
       <c r="A468" s="5"/>
@@ -22898,6 +23435,7 @@
       <c r="AD468" s="5"/>
       <c r="AE468" s="5"/>
       <c r="AF468" s="5"/>
+      <c r="AG468" s="5"/>
     </row>
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="5"/>
@@ -22932,6 +23470,7 @@
       <c r="AD469" s="5"/>
       <c r="AE469" s="5"/>
       <c r="AF469" s="5"/>
+      <c r="AG469" s="5"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="5"/>
@@ -22966,6 +23505,7 @@
       <c r="AD470" s="5"/>
       <c r="AE470" s="5"/>
       <c r="AF470" s="5"/>
+      <c r="AG470" s="5"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="5"/>
@@ -23000,6 +23540,7 @@
       <c r="AD471" s="5"/>
       <c r="AE471" s="5"/>
       <c r="AF471" s="5"/>
+      <c r="AG471" s="5"/>
     </row>
     <row r="472" ht="14.25" customHeight="1">
       <c r="A472" s="5"/>
@@ -23034,6 +23575,7 @@
       <c r="AD472" s="5"/>
       <c r="AE472" s="5"/>
       <c r="AF472" s="5"/>
+      <c r="AG472" s="5"/>
     </row>
     <row r="473" ht="14.25" customHeight="1">
       <c r="A473" s="5"/>
@@ -23068,6 +23610,7 @@
       <c r="AD473" s="5"/>
       <c r="AE473" s="5"/>
       <c r="AF473" s="5"/>
+      <c r="AG473" s="5"/>
     </row>
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="5"/>
@@ -23102,6 +23645,7 @@
       <c r="AD474" s="5"/>
       <c r="AE474" s="5"/>
       <c r="AF474" s="5"/>
+      <c r="AG474" s="5"/>
     </row>
     <row r="475" ht="14.25" customHeight="1">
       <c r="A475" s="5"/>
@@ -23136,6 +23680,7 @@
       <c r="AD475" s="5"/>
       <c r="AE475" s="5"/>
       <c r="AF475" s="5"/>
+      <c r="AG475" s="5"/>
     </row>
     <row r="476" ht="14.25" customHeight="1">
       <c r="A476" s="5"/>
@@ -23170,6 +23715,7 @@
       <c r="AD476" s="5"/>
       <c r="AE476" s="5"/>
       <c r="AF476" s="5"/>
+      <c r="AG476" s="5"/>
     </row>
     <row r="477" ht="14.25" customHeight="1">
       <c r="A477" s="5"/>
@@ -23204,6 +23750,7 @@
       <c r="AD477" s="5"/>
       <c r="AE477" s="5"/>
       <c r="AF477" s="5"/>
+      <c r="AG477" s="5"/>
     </row>
     <row r="478" ht="14.25" customHeight="1">
       <c r="A478" s="5"/>
@@ -23238,6 +23785,7 @@
       <c r="AD478" s="5"/>
       <c r="AE478" s="5"/>
       <c r="AF478" s="5"/>
+      <c r="AG478" s="5"/>
     </row>
     <row r="479" ht="14.25" customHeight="1">
       <c r="A479" s="5"/>
@@ -23272,6 +23820,7 @@
       <c r="AD479" s="5"/>
       <c r="AE479" s="5"/>
       <c r="AF479" s="5"/>
+      <c r="AG479" s="5"/>
     </row>
     <row r="480" ht="14.25" customHeight="1">
       <c r="A480" s="5"/>
@@ -23306,6 +23855,7 @@
       <c r="AD480" s="5"/>
       <c r="AE480" s="5"/>
       <c r="AF480" s="5"/>
+      <c r="AG480" s="5"/>
     </row>
     <row r="481" ht="14.25" customHeight="1">
       <c r="A481" s="5"/>
@@ -23340,6 +23890,7 @@
       <c r="AD481" s="5"/>
       <c r="AE481" s="5"/>
       <c r="AF481" s="5"/>
+      <c r="AG481" s="5"/>
     </row>
     <row r="482" ht="14.25" customHeight="1">
       <c r="A482" s="5"/>
@@ -23374,6 +23925,7 @@
       <c r="AD482" s="5"/>
       <c r="AE482" s="5"/>
       <c r="AF482" s="5"/>
+      <c r="AG482" s="5"/>
     </row>
     <row r="483" ht="14.25" customHeight="1">
       <c r="A483" s="5"/>
@@ -23408,6 +23960,7 @@
       <c r="AD483" s="5"/>
       <c r="AE483" s="5"/>
       <c r="AF483" s="5"/>
+      <c r="AG483" s="5"/>
     </row>
     <row r="484" ht="14.25" customHeight="1">
       <c r="A484" s="5"/>
@@ -23442,6 +23995,7 @@
       <c r="AD484" s="5"/>
       <c r="AE484" s="5"/>
       <c r="AF484" s="5"/>
+      <c r="AG484" s="5"/>
     </row>
     <row r="485" ht="14.25" customHeight="1">
       <c r="A485" s="5"/>
@@ -23476,6 +24030,7 @@
       <c r="AD485" s="5"/>
       <c r="AE485" s="5"/>
       <c r="AF485" s="5"/>
+      <c r="AG485" s="5"/>
     </row>
     <row r="486" ht="14.25" customHeight="1">
       <c r="A486" s="5"/>
@@ -23510,6 +24065,7 @@
       <c r="AD486" s="5"/>
       <c r="AE486" s="5"/>
       <c r="AF486" s="5"/>
+      <c r="AG486" s="5"/>
     </row>
     <row r="487" ht="14.25" customHeight="1">
       <c r="A487" s="5"/>
@@ -23544,6 +24100,7 @@
       <c r="AD487" s="5"/>
       <c r="AE487" s="5"/>
       <c r="AF487" s="5"/>
+      <c r="AG487" s="5"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
       <c r="A488" s="5"/>
@@ -23578,6 +24135,7 @@
       <c r="AD488" s="5"/>
       <c r="AE488" s="5"/>
       <c r="AF488" s="5"/>
+      <c r="AG488" s="5"/>
     </row>
     <row r="489" ht="14.25" customHeight="1">
       <c r="A489" s="5"/>
@@ -23612,6 +24170,7 @@
       <c r="AD489" s="5"/>
       <c r="AE489" s="5"/>
       <c r="AF489" s="5"/>
+      <c r="AG489" s="5"/>
     </row>
     <row r="490" ht="14.25" customHeight="1">
       <c r="A490" s="5"/>
@@ -23646,6 +24205,7 @@
       <c r="AD490" s="5"/>
       <c r="AE490" s="5"/>
       <c r="AF490" s="5"/>
+      <c r="AG490" s="5"/>
     </row>
     <row r="491" ht="14.25" customHeight="1">
       <c r="A491" s="5"/>
@@ -23680,6 +24240,7 @@
       <c r="AD491" s="5"/>
       <c r="AE491" s="5"/>
       <c r="AF491" s="5"/>
+      <c r="AG491" s="5"/>
     </row>
     <row r="492" ht="14.25" customHeight="1">
       <c r="A492" s="5"/>
@@ -23714,6 +24275,7 @@
       <c r="AD492" s="5"/>
       <c r="AE492" s="5"/>
       <c r="AF492" s="5"/>
+      <c r="AG492" s="5"/>
     </row>
     <row r="493" ht="14.25" customHeight="1">
       <c r="A493" s="5"/>
@@ -23748,6 +24310,7 @@
       <c r="AD493" s="5"/>
       <c r="AE493" s="5"/>
       <c r="AF493" s="5"/>
+      <c r="AG493" s="5"/>
     </row>
     <row r="494" ht="14.25" customHeight="1">
       <c r="A494" s="5"/>
@@ -23782,6 +24345,7 @@
       <c r="AD494" s="5"/>
       <c r="AE494" s="5"/>
       <c r="AF494" s="5"/>
+      <c r="AG494" s="5"/>
     </row>
     <row r="495" ht="14.25" customHeight="1">
       <c r="A495" s="5"/>
@@ -23816,6 +24380,7 @@
       <c r="AD495" s="5"/>
       <c r="AE495" s="5"/>
       <c r="AF495" s="5"/>
+      <c r="AG495" s="5"/>
     </row>
     <row r="496" ht="14.25" customHeight="1">
       <c r="A496" s="5"/>
@@ -23850,6 +24415,7 @@
       <c r="AD496" s="5"/>
       <c r="AE496" s="5"/>
       <c r="AF496" s="5"/>
+      <c r="AG496" s="5"/>
     </row>
     <row r="497" ht="14.25" customHeight="1">
       <c r="A497" s="5"/>
@@ -23884,6 +24450,7 @@
       <c r="AD497" s="5"/>
       <c r="AE497" s="5"/>
       <c r="AF497" s="5"/>
+      <c r="AG497" s="5"/>
     </row>
     <row r="498" ht="14.25" customHeight="1">
       <c r="A498" s="5"/>
@@ -23918,6 +24485,7 @@
       <c r="AD498" s="5"/>
       <c r="AE498" s="5"/>
       <c r="AF498" s="5"/>
+      <c r="AG498" s="5"/>
     </row>
     <row r="499" ht="14.25" customHeight="1">
       <c r="A499" s="5"/>
@@ -23952,6 +24520,7 @@
       <c r="AD499" s="5"/>
       <c r="AE499" s="5"/>
       <c r="AF499" s="5"/>
+      <c r="AG499" s="5"/>
     </row>
     <row r="500" ht="14.25" customHeight="1">
       <c r="A500" s="5"/>
@@ -23986,6 +24555,7 @@
       <c r="AD500" s="5"/>
       <c r="AE500" s="5"/>
       <c r="AF500" s="5"/>
+      <c r="AG500" s="5"/>
     </row>
     <row r="501" ht="14.25" customHeight="1">
       <c r="A501" s="5"/>
@@ -24020,6 +24590,7 @@
       <c r="AD501" s="5"/>
       <c r="AE501" s="5"/>
       <c r="AF501" s="5"/>
+      <c r="AG501" s="5"/>
     </row>
     <row r="502" ht="14.25" customHeight="1">
       <c r="A502" s="5"/>
@@ -24054,6 +24625,7 @@
       <c r="AD502" s="5"/>
       <c r="AE502" s="5"/>
       <c r="AF502" s="5"/>
+      <c r="AG502" s="5"/>
     </row>
     <row r="503" ht="14.25" customHeight="1">
       <c r="A503" s="5"/>
@@ -24088,6 +24660,7 @@
       <c r="AD503" s="5"/>
       <c r="AE503" s="5"/>
       <c r="AF503" s="5"/>
+      <c r="AG503" s="5"/>
     </row>
     <row r="504" ht="14.25" customHeight="1">
       <c r="A504" s="5"/>
@@ -24122,6 +24695,7 @@
       <c r="AD504" s="5"/>
       <c r="AE504" s="5"/>
       <c r="AF504" s="5"/>
+      <c r="AG504" s="5"/>
     </row>
     <row r="505" ht="14.25" customHeight="1">
       <c r="A505" s="5"/>
@@ -24156,6 +24730,7 @@
       <c r="AD505" s="5"/>
       <c r="AE505" s="5"/>
       <c r="AF505" s="5"/>
+      <c r="AG505" s="5"/>
     </row>
     <row r="506" ht="14.25" customHeight="1">
       <c r="A506" s="5"/>
@@ -24190,6 +24765,7 @@
       <c r="AD506" s="5"/>
       <c r="AE506" s="5"/>
       <c r="AF506" s="5"/>
+      <c r="AG506" s="5"/>
     </row>
     <row r="507" ht="14.25" customHeight="1">
       <c r="A507" s="5"/>
@@ -24224,6 +24800,7 @@
       <c r="AD507" s="5"/>
       <c r="AE507" s="5"/>
       <c r="AF507" s="5"/>
+      <c r="AG507" s="5"/>
     </row>
     <row r="508" ht="14.25" customHeight="1">
       <c r="A508" s="5"/>
@@ -24258,6 +24835,7 @@
       <c r="AD508" s="5"/>
       <c r="AE508" s="5"/>
       <c r="AF508" s="5"/>
+      <c r="AG508" s="5"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
       <c r="A509" s="5"/>
@@ -24292,6 +24870,7 @@
       <c r="AD509" s="5"/>
       <c r="AE509" s="5"/>
       <c r="AF509" s="5"/>
+      <c r="AG509" s="5"/>
     </row>
     <row r="510" ht="14.25" customHeight="1">
       <c r="A510" s="5"/>
@@ -24326,6 +24905,7 @@
       <c r="AD510" s="5"/>
       <c r="AE510" s="5"/>
       <c r="AF510" s="5"/>
+      <c r="AG510" s="5"/>
     </row>
     <row r="511" ht="14.25" customHeight="1">
       <c r="A511" s="5"/>
@@ -24360,6 +24940,7 @@
       <c r="AD511" s="5"/>
       <c r="AE511" s="5"/>
       <c r="AF511" s="5"/>
+      <c r="AG511" s="5"/>
     </row>
     <row r="512" ht="14.25" customHeight="1">
       <c r="A512" s="5"/>
@@ -24394,6 +24975,7 @@
       <c r="AD512" s="5"/>
       <c r="AE512" s="5"/>
       <c r="AF512" s="5"/>
+      <c r="AG512" s="5"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
       <c r="A513" s="5"/>
@@ -24428,6 +25010,7 @@
       <c r="AD513" s="5"/>
       <c r="AE513" s="5"/>
       <c r="AF513" s="5"/>
+      <c r="AG513" s="5"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
       <c r="A514" s="5"/>
@@ -24462,6 +25045,7 @@
       <c r="AD514" s="5"/>
       <c r="AE514" s="5"/>
       <c r="AF514" s="5"/>
+      <c r="AG514" s="5"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
       <c r="A515" s="5"/>
@@ -24496,6 +25080,7 @@
       <c r="AD515" s="5"/>
       <c r="AE515" s="5"/>
       <c r="AF515" s="5"/>
+      <c r="AG515" s="5"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
       <c r="A516" s="5"/>
@@ -24530,6 +25115,7 @@
       <c r="AD516" s="5"/>
       <c r="AE516" s="5"/>
       <c r="AF516" s="5"/>
+      <c r="AG516" s="5"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
       <c r="A517" s="5"/>
@@ -24564,6 +25150,7 @@
       <c r="AD517" s="5"/>
       <c r="AE517" s="5"/>
       <c r="AF517" s="5"/>
+      <c r="AG517" s="5"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
       <c r="A518" s="5"/>
@@ -24598,6 +25185,7 @@
       <c r="AD518" s="5"/>
       <c r="AE518" s="5"/>
       <c r="AF518" s="5"/>
+      <c r="AG518" s="5"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
       <c r="A519" s="5"/>
@@ -24632,6 +25220,7 @@
       <c r="AD519" s="5"/>
       <c r="AE519" s="5"/>
       <c r="AF519" s="5"/>
+      <c r="AG519" s="5"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
       <c r="A520" s="5"/>
@@ -24666,6 +25255,7 @@
       <c r="AD520" s="5"/>
       <c r="AE520" s="5"/>
       <c r="AF520" s="5"/>
+      <c r="AG520" s="5"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
       <c r="A521" s="5"/>
@@ -24700,6 +25290,7 @@
       <c r="AD521" s="5"/>
       <c r="AE521" s="5"/>
       <c r="AF521" s="5"/>
+      <c r="AG521" s="5"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
       <c r="A522" s="5"/>
@@ -24734,6 +25325,7 @@
       <c r="AD522" s="5"/>
       <c r="AE522" s="5"/>
       <c r="AF522" s="5"/>
+      <c r="AG522" s="5"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
       <c r="A523" s="5"/>
@@ -24768,6 +25360,7 @@
       <c r="AD523" s="5"/>
       <c r="AE523" s="5"/>
       <c r="AF523" s="5"/>
+      <c r="AG523" s="5"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
       <c r="A524" s="5"/>
@@ -24802,6 +25395,7 @@
       <c r="AD524" s="5"/>
       <c r="AE524" s="5"/>
       <c r="AF524" s="5"/>
+      <c r="AG524" s="5"/>
     </row>
     <row r="525" ht="14.25" customHeight="1">
       <c r="A525" s="5"/>
@@ -24836,6 +25430,7 @@
       <c r="AD525" s="5"/>
       <c r="AE525" s="5"/>
       <c r="AF525" s="5"/>
+      <c r="AG525" s="5"/>
     </row>
     <row r="526" ht="14.25" customHeight="1">
       <c r="A526" s="5"/>
@@ -24870,6 +25465,7 @@
       <c r="AD526" s="5"/>
       <c r="AE526" s="5"/>
       <c r="AF526" s="5"/>
+      <c r="AG526" s="5"/>
     </row>
     <row r="527" ht="14.25" customHeight="1">
       <c r="A527" s="5"/>
@@ -24904,6 +25500,7 @@
       <c r="AD527" s="5"/>
       <c r="AE527" s="5"/>
       <c r="AF527" s="5"/>
+      <c r="AG527" s="5"/>
     </row>
     <row r="528" ht="14.25" customHeight="1">
       <c r="A528" s="5"/>
@@ -24938,6 +25535,7 @@
       <c r="AD528" s="5"/>
       <c r="AE528" s="5"/>
       <c r="AF528" s="5"/>
+      <c r="AG528" s="5"/>
     </row>
     <row r="529" ht="14.25" customHeight="1">
       <c r="A529" s="5"/>
@@ -24972,6 +25570,7 @@
       <c r="AD529" s="5"/>
       <c r="AE529" s="5"/>
       <c r="AF529" s="5"/>
+      <c r="AG529" s="5"/>
     </row>
     <row r="530" ht="14.25" customHeight="1">
       <c r="A530" s="5"/>
@@ -25006,6 +25605,7 @@
       <c r="AD530" s="5"/>
       <c r="AE530" s="5"/>
       <c r="AF530" s="5"/>
+      <c r="AG530" s="5"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
       <c r="A531" s="5"/>
@@ -25040,6 +25640,7 @@
       <c r="AD531" s="5"/>
       <c r="AE531" s="5"/>
       <c r="AF531" s="5"/>
+      <c r="AG531" s="5"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
       <c r="A532" s="5"/>
@@ -25074,6 +25675,7 @@
       <c r="AD532" s="5"/>
       <c r="AE532" s="5"/>
       <c r="AF532" s="5"/>
+      <c r="AG532" s="5"/>
     </row>
     <row r="533" ht="14.25" customHeight="1">
       <c r="A533" s="5"/>
@@ -25108,6 +25710,7 @@
       <c r="AD533" s="5"/>
       <c r="AE533" s="5"/>
       <c r="AF533" s="5"/>
+      <c r="AG533" s="5"/>
     </row>
     <row r="534" ht="14.25" customHeight="1">
       <c r="A534" s="5"/>
@@ -25142,6 +25745,7 @@
       <c r="AD534" s="5"/>
       <c r="AE534" s="5"/>
       <c r="AF534" s="5"/>
+      <c r="AG534" s="5"/>
     </row>
     <row r="535" ht="14.25" customHeight="1">
       <c r="A535" s="5"/>
@@ -25176,6 +25780,7 @@
       <c r="AD535" s="5"/>
       <c r="AE535" s="5"/>
       <c r="AF535" s="5"/>
+      <c r="AG535" s="5"/>
     </row>
     <row r="536" ht="14.25" customHeight="1">
       <c r="A536" s="5"/>
@@ -25210,6 +25815,7 @@
       <c r="AD536" s="5"/>
       <c r="AE536" s="5"/>
       <c r="AF536" s="5"/>
+      <c r="AG536" s="5"/>
     </row>
     <row r="537" ht="14.25" customHeight="1">
       <c r="A537" s="5"/>
@@ -25244,6 +25850,7 @@
       <c r="AD537" s="5"/>
       <c r="AE537" s="5"/>
       <c r="AF537" s="5"/>
+      <c r="AG537" s="5"/>
     </row>
     <row r="538" ht="14.25" customHeight="1">
       <c r="A538" s="5"/>
@@ -25278,6 +25885,7 @@
       <c r="AD538" s="5"/>
       <c r="AE538" s="5"/>
       <c r="AF538" s="5"/>
+      <c r="AG538" s="5"/>
     </row>
     <row r="539" ht="14.25" customHeight="1">
       <c r="A539" s="5"/>
@@ -25312,6 +25920,7 @@
       <c r="AD539" s="5"/>
       <c r="AE539" s="5"/>
       <c r="AF539" s="5"/>
+      <c r="AG539" s="5"/>
     </row>
     <row r="540" ht="14.25" customHeight="1">
       <c r="A540" s="5"/>
@@ -25346,6 +25955,7 @@
       <c r="AD540" s="5"/>
       <c r="AE540" s="5"/>
       <c r="AF540" s="5"/>
+      <c r="AG540" s="5"/>
     </row>
     <row r="541" ht="14.25" customHeight="1">
       <c r="A541" s="5"/>
@@ -25380,6 +25990,7 @@
       <c r="AD541" s="5"/>
       <c r="AE541" s="5"/>
       <c r="AF541" s="5"/>
+      <c r="AG541" s="5"/>
     </row>
     <row r="542" ht="14.25" customHeight="1">
       <c r="A542" s="5"/>
@@ -25414,6 +26025,7 @@
       <c r="AD542" s="5"/>
       <c r="AE542" s="5"/>
       <c r="AF542" s="5"/>
+      <c r="AG542" s="5"/>
     </row>
     <row r="543" ht="14.25" customHeight="1">
       <c r="A543" s="5"/>
@@ -25448,6 +26060,7 @@
       <c r="AD543" s="5"/>
       <c r="AE543" s="5"/>
       <c r="AF543" s="5"/>
+      <c r="AG543" s="5"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
       <c r="A544" s="5"/>
@@ -25482,6 +26095,7 @@
       <c r="AD544" s="5"/>
       <c r="AE544" s="5"/>
       <c r="AF544" s="5"/>
+      <c r="AG544" s="5"/>
     </row>
     <row r="545" ht="14.25" customHeight="1">
       <c r="A545" s="5"/>
@@ -25516,6 +26130,7 @@
       <c r="AD545" s="5"/>
       <c r="AE545" s="5"/>
       <c r="AF545" s="5"/>
+      <c r="AG545" s="5"/>
     </row>
     <row r="546" ht="14.25" customHeight="1">
       <c r="A546" s="5"/>
@@ -25550,6 +26165,7 @@
       <c r="AD546" s="5"/>
       <c r="AE546" s="5"/>
       <c r="AF546" s="5"/>
+      <c r="AG546" s="5"/>
     </row>
     <row r="547" ht="14.25" customHeight="1">
       <c r="A547" s="5"/>
@@ -25584,6 +26200,7 @@
       <c r="AD547" s="5"/>
       <c r="AE547" s="5"/>
       <c r="AF547" s="5"/>
+      <c r="AG547" s="5"/>
     </row>
     <row r="548" ht="14.25" customHeight="1">
       <c r="A548" s="5"/>
@@ -25618,6 +26235,7 @@
       <c r="AD548" s="5"/>
       <c r="AE548" s="5"/>
       <c r="AF548" s="5"/>
+      <c r="AG548" s="5"/>
     </row>
     <row r="549" ht="14.25" customHeight="1">
       <c r="A549" s="5"/>
@@ -25652,6 +26270,7 @@
       <c r="AD549" s="5"/>
       <c r="AE549" s="5"/>
       <c r="AF549" s="5"/>
+      <c r="AG549" s="5"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
       <c r="A550" s="5"/>
@@ -25686,6 +26305,7 @@
       <c r="AD550" s="5"/>
       <c r="AE550" s="5"/>
       <c r="AF550" s="5"/>
+      <c r="AG550" s="5"/>
     </row>
     <row r="551" ht="14.25" customHeight="1">
       <c r="A551" s="5"/>
@@ -25720,6 +26340,7 @@
       <c r="AD551" s="5"/>
       <c r="AE551" s="5"/>
       <c r="AF551" s="5"/>
+      <c r="AG551" s="5"/>
     </row>
     <row r="552" ht="14.25" customHeight="1">
       <c r="A552" s="5"/>
@@ -25754,6 +26375,7 @@
       <c r="AD552" s="5"/>
       <c r="AE552" s="5"/>
       <c r="AF552" s="5"/>
+      <c r="AG552" s="5"/>
     </row>
     <row r="553" ht="14.25" customHeight="1">
       <c r="A553" s="5"/>
@@ -25788,6 +26410,7 @@
       <c r="AD553" s="5"/>
       <c r="AE553" s="5"/>
       <c r="AF553" s="5"/>
+      <c r="AG553" s="5"/>
     </row>
     <row r="554" ht="14.25" customHeight="1">
       <c r="A554" s="5"/>
@@ -25822,6 +26445,7 @@
       <c r="AD554" s="5"/>
       <c r="AE554" s="5"/>
       <c r="AF554" s="5"/>
+      <c r="AG554" s="5"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
       <c r="A555" s="5"/>
@@ -25856,6 +26480,7 @@
       <c r="AD555" s="5"/>
       <c r="AE555" s="5"/>
       <c r="AF555" s="5"/>
+      <c r="AG555" s="5"/>
     </row>
     <row r="556" ht="14.25" customHeight="1">
       <c r="A556" s="5"/>
@@ -25890,6 +26515,7 @@
       <c r="AD556" s="5"/>
       <c r="AE556" s="5"/>
       <c r="AF556" s="5"/>
+      <c r="AG556" s="5"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
       <c r="A557" s="5"/>
@@ -25924,6 +26550,7 @@
       <c r="AD557" s="5"/>
       <c r="AE557" s="5"/>
       <c r="AF557" s="5"/>
+      <c r="AG557" s="5"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
       <c r="A558" s="5"/>
@@ -25958,6 +26585,7 @@
       <c r="AD558" s="5"/>
       <c r="AE558" s="5"/>
       <c r="AF558" s="5"/>
+      <c r="AG558" s="5"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
       <c r="A559" s="5"/>
@@ -25992,6 +26620,7 @@
       <c r="AD559" s="5"/>
       <c r="AE559" s="5"/>
       <c r="AF559" s="5"/>
+      <c r="AG559" s="5"/>
     </row>
     <row r="560" ht="14.25" customHeight="1">
       <c r="A560" s="5"/>
@@ -26026,6 +26655,7 @@
       <c r="AD560" s="5"/>
       <c r="AE560" s="5"/>
       <c r="AF560" s="5"/>
+      <c r="AG560" s="5"/>
     </row>
     <row r="561" ht="14.25" customHeight="1">
       <c r="A561" s="5"/>
@@ -26060,6 +26690,7 @@
       <c r="AD561" s="5"/>
       <c r="AE561" s="5"/>
       <c r="AF561" s="5"/>
+      <c r="AG561" s="5"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
       <c r="A562" s="5"/>
@@ -26094,6 +26725,7 @@
       <c r="AD562" s="5"/>
       <c r="AE562" s="5"/>
       <c r="AF562" s="5"/>
+      <c r="AG562" s="5"/>
     </row>
     <row r="563" ht="14.25" customHeight="1">
       <c r="A563" s="5"/>
@@ -26128,6 +26760,7 @@
       <c r="AD563" s="5"/>
       <c r="AE563" s="5"/>
       <c r="AF563" s="5"/>
+      <c r="AG563" s="5"/>
     </row>
     <row r="564" ht="14.25" customHeight="1">
       <c r="A564" s="5"/>
@@ -26162,6 +26795,7 @@
       <c r="AD564" s="5"/>
       <c r="AE564" s="5"/>
       <c r="AF564" s="5"/>
+      <c r="AG564" s="5"/>
     </row>
     <row r="565" ht="14.25" customHeight="1">
       <c r="A565" s="5"/>
@@ -26196,6 +26830,7 @@
       <c r="AD565" s="5"/>
       <c r="AE565" s="5"/>
       <c r="AF565" s="5"/>
+      <c r="AG565" s="5"/>
     </row>
     <row r="566" ht="14.25" customHeight="1">
       <c r="A566" s="5"/>
@@ -26230,6 +26865,7 @@
       <c r="AD566" s="5"/>
       <c r="AE566" s="5"/>
       <c r="AF566" s="5"/>
+      <c r="AG566" s="5"/>
     </row>
     <row r="567" ht="14.25" customHeight="1">
       <c r="A567" s="5"/>
@@ -26264,6 +26900,7 @@
       <c r="AD567" s="5"/>
       <c r="AE567" s="5"/>
       <c r="AF567" s="5"/>
+      <c r="AG567" s="5"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
       <c r="A568" s="5"/>
@@ -26298,6 +26935,7 @@
       <c r="AD568" s="5"/>
       <c r="AE568" s="5"/>
       <c r="AF568" s="5"/>
+      <c r="AG568" s="5"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
       <c r="A569" s="5"/>
@@ -26332,6 +26970,7 @@
       <c r="AD569" s="5"/>
       <c r="AE569" s="5"/>
       <c r="AF569" s="5"/>
+      <c r="AG569" s="5"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
       <c r="A570" s="5"/>
@@ -26366,6 +27005,7 @@
       <c r="AD570" s="5"/>
       <c r="AE570" s="5"/>
       <c r="AF570" s="5"/>
+      <c r="AG570" s="5"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
       <c r="A571" s="5"/>
@@ -26400,6 +27040,7 @@
       <c r="AD571" s="5"/>
       <c r="AE571" s="5"/>
       <c r="AF571" s="5"/>
+      <c r="AG571" s="5"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
       <c r="A572" s="5"/>
@@ -26434,6 +27075,7 @@
       <c r="AD572" s="5"/>
       <c r="AE572" s="5"/>
       <c r="AF572" s="5"/>
+      <c r="AG572" s="5"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
       <c r="A573" s="5"/>
@@ -26468,6 +27110,7 @@
       <c r="AD573" s="5"/>
       <c r="AE573" s="5"/>
       <c r="AF573" s="5"/>
+      <c r="AG573" s="5"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
       <c r="A574" s="5"/>
@@ -26502,6 +27145,7 @@
       <c r="AD574" s="5"/>
       <c r="AE574" s="5"/>
       <c r="AF574" s="5"/>
+      <c r="AG574" s="5"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
       <c r="A575" s="5"/>
@@ -26536,6 +27180,7 @@
       <c r="AD575" s="5"/>
       <c r="AE575" s="5"/>
       <c r="AF575" s="5"/>
+      <c r="AG575" s="5"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
       <c r="A576" s="5"/>
@@ -26570,6 +27215,7 @@
       <c r="AD576" s="5"/>
       <c r="AE576" s="5"/>
       <c r="AF576" s="5"/>
+      <c r="AG576" s="5"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
       <c r="A577" s="5"/>
@@ -26604,6 +27250,7 @@
       <c r="AD577" s="5"/>
       <c r="AE577" s="5"/>
       <c r="AF577" s="5"/>
+      <c r="AG577" s="5"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
       <c r="A578" s="5"/>
@@ -26638,6 +27285,7 @@
       <c r="AD578" s="5"/>
       <c r="AE578" s="5"/>
       <c r="AF578" s="5"/>
+      <c r="AG578" s="5"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
       <c r="A579" s="5"/>
@@ -26672,6 +27320,7 @@
       <c r="AD579" s="5"/>
       <c r="AE579" s="5"/>
       <c r="AF579" s="5"/>
+      <c r="AG579" s="5"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
       <c r="A580" s="5"/>
@@ -26706,6 +27355,7 @@
       <c r="AD580" s="5"/>
       <c r="AE580" s="5"/>
       <c r="AF580" s="5"/>
+      <c r="AG580" s="5"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
       <c r="A581" s="5"/>
@@ -26740,6 +27390,7 @@
       <c r="AD581" s="5"/>
       <c r="AE581" s="5"/>
       <c r="AF581" s="5"/>
+      <c r="AG581" s="5"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
       <c r="A582" s="5"/>
@@ -26774,6 +27425,7 @@
       <c r="AD582" s="5"/>
       <c r="AE582" s="5"/>
       <c r="AF582" s="5"/>
+      <c r="AG582" s="5"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
       <c r="A583" s="5"/>
@@ -26808,6 +27460,7 @@
       <c r="AD583" s="5"/>
       <c r="AE583" s="5"/>
       <c r="AF583" s="5"/>
+      <c r="AG583" s="5"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
       <c r="A584" s="5"/>
@@ -26842,6 +27495,7 @@
       <c r="AD584" s="5"/>
       <c r="AE584" s="5"/>
       <c r="AF584" s="5"/>
+      <c r="AG584" s="5"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
       <c r="A585" s="5"/>
@@ -26876,6 +27530,7 @@
       <c r="AD585" s="5"/>
       <c r="AE585" s="5"/>
       <c r="AF585" s="5"/>
+      <c r="AG585" s="5"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
       <c r="A586" s="5"/>
@@ -26910,6 +27565,7 @@
       <c r="AD586" s="5"/>
       <c r="AE586" s="5"/>
       <c r="AF586" s="5"/>
+      <c r="AG586" s="5"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
       <c r="A587" s="5"/>
@@ -26944,6 +27600,7 @@
       <c r="AD587" s="5"/>
       <c r="AE587" s="5"/>
       <c r="AF587" s="5"/>
+      <c r="AG587" s="5"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
       <c r="A588" s="5"/>
@@ -26978,6 +27635,7 @@
       <c r="AD588" s="5"/>
       <c r="AE588" s="5"/>
       <c r="AF588" s="5"/>
+      <c r="AG588" s="5"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
       <c r="A589" s="5"/>
@@ -27012,6 +27670,7 @@
       <c r="AD589" s="5"/>
       <c r="AE589" s="5"/>
       <c r="AF589" s="5"/>
+      <c r="AG589" s="5"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
       <c r="A590" s="5"/>
@@ -27046,6 +27705,7 @@
       <c r="AD590" s="5"/>
       <c r="AE590" s="5"/>
       <c r="AF590" s="5"/>
+      <c r="AG590" s="5"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
       <c r="A591" s="5"/>
@@ -27080,6 +27740,7 @@
       <c r="AD591" s="5"/>
       <c r="AE591" s="5"/>
       <c r="AF591" s="5"/>
+      <c r="AG591" s="5"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
       <c r="A592" s="5"/>
@@ -27114,6 +27775,7 @@
       <c r="AD592" s="5"/>
       <c r="AE592" s="5"/>
       <c r="AF592" s="5"/>
+      <c r="AG592" s="5"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
       <c r="A593" s="5"/>
@@ -27148,6 +27810,7 @@
       <c r="AD593" s="5"/>
       <c r="AE593" s="5"/>
       <c r="AF593" s="5"/>
+      <c r="AG593" s="5"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
       <c r="A594" s="5"/>
@@ -27182,6 +27845,7 @@
       <c r="AD594" s="5"/>
       <c r="AE594" s="5"/>
       <c r="AF594" s="5"/>
+      <c r="AG594" s="5"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
       <c r="A595" s="5"/>
@@ -27216,6 +27880,7 @@
       <c r="AD595" s="5"/>
       <c r="AE595" s="5"/>
       <c r="AF595" s="5"/>
+      <c r="AG595" s="5"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
       <c r="A596" s="5"/>
@@ -27250,6 +27915,7 @@
       <c r="AD596" s="5"/>
       <c r="AE596" s="5"/>
       <c r="AF596" s="5"/>
+      <c r="AG596" s="5"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
       <c r="A597" s="5"/>
@@ -27284,6 +27950,7 @@
       <c r="AD597" s="5"/>
       <c r="AE597" s="5"/>
       <c r="AF597" s="5"/>
+      <c r="AG597" s="5"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
       <c r="A598" s="5"/>
@@ -27318,6 +27985,7 @@
       <c r="AD598" s="5"/>
       <c r="AE598" s="5"/>
       <c r="AF598" s="5"/>
+      <c r="AG598" s="5"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
       <c r="A599" s="5"/>
@@ -27352,6 +28020,7 @@
       <c r="AD599" s="5"/>
       <c r="AE599" s="5"/>
       <c r="AF599" s="5"/>
+      <c r="AG599" s="5"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
       <c r="A600" s="5"/>
@@ -27386,6 +28055,7 @@
       <c r="AD600" s="5"/>
       <c r="AE600" s="5"/>
       <c r="AF600" s="5"/>
+      <c r="AG600" s="5"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
       <c r="A601" s="5"/>
@@ -27420,6 +28090,7 @@
       <c r="AD601" s="5"/>
       <c r="AE601" s="5"/>
       <c r="AF601" s="5"/>
+      <c r="AG601" s="5"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
       <c r="A602" s="5"/>
@@ -27454,6 +28125,7 @@
       <c r="AD602" s="5"/>
       <c r="AE602" s="5"/>
       <c r="AF602" s="5"/>
+      <c r="AG602" s="5"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
       <c r="A603" s="5"/>
@@ -27488,6 +28160,7 @@
       <c r="AD603" s="5"/>
       <c r="AE603" s="5"/>
       <c r="AF603" s="5"/>
+      <c r="AG603" s="5"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
       <c r="A604" s="5"/>
@@ -27522,6 +28195,7 @@
       <c r="AD604" s="5"/>
       <c r="AE604" s="5"/>
       <c r="AF604" s="5"/>
+      <c r="AG604" s="5"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
       <c r="A605" s="5"/>
@@ -27556,6 +28230,7 @@
       <c r="AD605" s="5"/>
       <c r="AE605" s="5"/>
       <c r="AF605" s="5"/>
+      <c r="AG605" s="5"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
       <c r="A606" s="5"/>
@@ -27590,6 +28265,7 @@
       <c r="AD606" s="5"/>
       <c r="AE606" s="5"/>
       <c r="AF606" s="5"/>
+      <c r="AG606" s="5"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
       <c r="A607" s="5"/>
@@ -27624,6 +28300,7 @@
       <c r="AD607" s="5"/>
       <c r="AE607" s="5"/>
       <c r="AF607" s="5"/>
+      <c r="AG607" s="5"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
       <c r="A608" s="5"/>
@@ -27658,6 +28335,7 @@
       <c r="AD608" s="5"/>
       <c r="AE608" s="5"/>
       <c r="AF608" s="5"/>
+      <c r="AG608" s="5"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
       <c r="A609" s="5"/>
@@ -27692,6 +28370,7 @@
       <c r="AD609" s="5"/>
       <c r="AE609" s="5"/>
       <c r="AF609" s="5"/>
+      <c r="AG609" s="5"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
       <c r="A610" s="5"/>
@@ -27726,6 +28405,7 @@
       <c r="AD610" s="5"/>
       <c r="AE610" s="5"/>
       <c r="AF610" s="5"/>
+      <c r="AG610" s="5"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
       <c r="A611" s="5"/>
@@ -27760,6 +28440,7 @@
       <c r="AD611" s="5"/>
       <c r="AE611" s="5"/>
       <c r="AF611" s="5"/>
+      <c r="AG611" s="5"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
       <c r="A612" s="5"/>
@@ -27794,6 +28475,7 @@
       <c r="AD612" s="5"/>
       <c r="AE612" s="5"/>
       <c r="AF612" s="5"/>
+      <c r="AG612" s="5"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
       <c r="A613" s="5"/>
@@ -27828,6 +28510,7 @@
       <c r="AD613" s="5"/>
       <c r="AE613" s="5"/>
       <c r="AF613" s="5"/>
+      <c r="AG613" s="5"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
       <c r="A614" s="5"/>
@@ -27862,6 +28545,7 @@
       <c r="AD614" s="5"/>
       <c r="AE614" s="5"/>
       <c r="AF614" s="5"/>
+      <c r="AG614" s="5"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
       <c r="A615" s="5"/>
@@ -27896,6 +28580,7 @@
       <c r="AD615" s="5"/>
       <c r="AE615" s="5"/>
       <c r="AF615" s="5"/>
+      <c r="AG615" s="5"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
       <c r="A616" s="5"/>
@@ -27930,6 +28615,7 @@
       <c r="AD616" s="5"/>
       <c r="AE616" s="5"/>
       <c r="AF616" s="5"/>
+      <c r="AG616" s="5"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
       <c r="A617" s="5"/>
@@ -27964,6 +28650,7 @@
       <c r="AD617" s="5"/>
       <c r="AE617" s="5"/>
       <c r="AF617" s="5"/>
+      <c r="AG617" s="5"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
       <c r="A618" s="5"/>
@@ -27998,6 +28685,7 @@
       <c r="AD618" s="5"/>
       <c r="AE618" s="5"/>
       <c r="AF618" s="5"/>
+      <c r="AG618" s="5"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
       <c r="A619" s="5"/>
@@ -28032,6 +28720,7 @@
       <c r="AD619" s="5"/>
       <c r="AE619" s="5"/>
       <c r="AF619" s="5"/>
+      <c r="AG619" s="5"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
       <c r="A620" s="5"/>
@@ -28066,6 +28755,7 @@
       <c r="AD620" s="5"/>
       <c r="AE620" s="5"/>
       <c r="AF620" s="5"/>
+      <c r="AG620" s="5"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
       <c r="A621" s="5"/>
@@ -28100,6 +28790,7 @@
       <c r="AD621" s="5"/>
       <c r="AE621" s="5"/>
       <c r="AF621" s="5"/>
+      <c r="AG621" s="5"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
       <c r="A622" s="5"/>
@@ -28134,6 +28825,7 @@
       <c r="AD622" s="5"/>
       <c r="AE622" s="5"/>
       <c r="AF622" s="5"/>
+      <c r="AG622" s="5"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
       <c r="A623" s="5"/>
@@ -28168,6 +28860,7 @@
       <c r="AD623" s="5"/>
       <c r="AE623" s="5"/>
       <c r="AF623" s="5"/>
+      <c r="AG623" s="5"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
       <c r="A624" s="5"/>
@@ -28202,6 +28895,7 @@
       <c r="AD624" s="5"/>
       <c r="AE624" s="5"/>
       <c r="AF624" s="5"/>
+      <c r="AG624" s="5"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
       <c r="A625" s="5"/>
@@ -28236,6 +28930,7 @@
       <c r="AD625" s="5"/>
       <c r="AE625" s="5"/>
       <c r="AF625" s="5"/>
+      <c r="AG625" s="5"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
       <c r="A626" s="5"/>
@@ -28270,6 +28965,7 @@
       <c r="AD626" s="5"/>
       <c r="AE626" s="5"/>
       <c r="AF626" s="5"/>
+      <c r="AG626" s="5"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
       <c r="A627" s="5"/>
@@ -28304,6 +29000,7 @@
       <c r="AD627" s="5"/>
       <c r="AE627" s="5"/>
       <c r="AF627" s="5"/>
+      <c r="AG627" s="5"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
       <c r="A628" s="5"/>
@@ -28338,6 +29035,7 @@
       <c r="AD628" s="5"/>
       <c r="AE628" s="5"/>
       <c r="AF628" s="5"/>
+      <c r="AG628" s="5"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
       <c r="A629" s="5"/>
@@ -28372,6 +29070,7 @@
       <c r="AD629" s="5"/>
       <c r="AE629" s="5"/>
       <c r="AF629" s="5"/>
+      <c r="AG629" s="5"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
       <c r="A630" s="5"/>
@@ -28406,6 +29105,7 @@
       <c r="AD630" s="5"/>
       <c r="AE630" s="5"/>
       <c r="AF630" s="5"/>
+      <c r="AG630" s="5"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
       <c r="A631" s="5"/>
@@ -28440,6 +29140,7 @@
       <c r="AD631" s="5"/>
       <c r="AE631" s="5"/>
       <c r="AF631" s="5"/>
+      <c r="AG631" s="5"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
       <c r="A632" s="5"/>
@@ -28474,6 +29175,7 @@
       <c r="AD632" s="5"/>
       <c r="AE632" s="5"/>
       <c r="AF632" s="5"/>
+      <c r="AG632" s="5"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="5"/>
@@ -28508,6 +29210,7 @@
       <c r="AD633" s="5"/>
       <c r="AE633" s="5"/>
       <c r="AF633" s="5"/>
+      <c r="AG633" s="5"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
       <c r="A634" s="5"/>
@@ -28542,6 +29245,7 @@
       <c r="AD634" s="5"/>
       <c r="AE634" s="5"/>
       <c r="AF634" s="5"/>
+      <c r="AG634" s="5"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
       <c r="A635" s="5"/>
@@ -28576,6 +29280,7 @@
       <c r="AD635" s="5"/>
       <c r="AE635" s="5"/>
       <c r="AF635" s="5"/>
+      <c r="AG635" s="5"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
       <c r="A636" s="5"/>
@@ -28610,6 +29315,7 @@
       <c r="AD636" s="5"/>
       <c r="AE636" s="5"/>
       <c r="AF636" s="5"/>
+      <c r="AG636" s="5"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
       <c r="A637" s="5"/>
@@ -28644,6 +29350,7 @@
       <c r="AD637" s="5"/>
       <c r="AE637" s="5"/>
       <c r="AF637" s="5"/>
+      <c r="AG637" s="5"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
       <c r="A638" s="5"/>
@@ -28678,6 +29385,7 @@
       <c r="AD638" s="5"/>
       <c r="AE638" s="5"/>
       <c r="AF638" s="5"/>
+      <c r="AG638" s="5"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
       <c r="A639" s="5"/>
@@ -28712,6 +29420,7 @@
       <c r="AD639" s="5"/>
       <c r="AE639" s="5"/>
       <c r="AF639" s="5"/>
+      <c r="AG639" s="5"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
       <c r="A640" s="5"/>
@@ -28746,6 +29455,7 @@
       <c r="AD640" s="5"/>
       <c r="AE640" s="5"/>
       <c r="AF640" s="5"/>
+      <c r="AG640" s="5"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
       <c r="A641" s="5"/>
@@ -28780,6 +29490,7 @@
       <c r="AD641" s="5"/>
       <c r="AE641" s="5"/>
       <c r="AF641" s="5"/>
+      <c r="AG641" s="5"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
       <c r="A642" s="5"/>
@@ -28814,6 +29525,7 @@
       <c r="AD642" s="5"/>
       <c r="AE642" s="5"/>
       <c r="AF642" s="5"/>
+      <c r="AG642" s="5"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
       <c r="A643" s="5"/>
@@ -28848,6 +29560,7 @@
       <c r="AD643" s="5"/>
       <c r="AE643" s="5"/>
       <c r="AF643" s="5"/>
+      <c r="AG643" s="5"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
       <c r="A644" s="5"/>
@@ -28882,6 +29595,7 @@
       <c r="AD644" s="5"/>
       <c r="AE644" s="5"/>
       <c r="AF644" s="5"/>
+      <c r="AG644" s="5"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
       <c r="A645" s="5"/>
@@ -28916,6 +29630,7 @@
       <c r="AD645" s="5"/>
       <c r="AE645" s="5"/>
       <c r="AF645" s="5"/>
+      <c r="AG645" s="5"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
       <c r="A646" s="5"/>
@@ -28950,6 +29665,7 @@
       <c r="AD646" s="5"/>
       <c r="AE646" s="5"/>
       <c r="AF646" s="5"/>
+      <c r="AG646" s="5"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
       <c r="A647" s="5"/>
@@ -28984,6 +29700,7 @@
       <c r="AD647" s="5"/>
       <c r="AE647" s="5"/>
       <c r="AF647" s="5"/>
+      <c r="AG647" s="5"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
       <c r="A648" s="5"/>
@@ -29018,6 +29735,7 @@
       <c r="AD648" s="5"/>
       <c r="AE648" s="5"/>
       <c r="AF648" s="5"/>
+      <c r="AG648" s="5"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
       <c r="A649" s="5"/>
@@ -29052,6 +29770,7 @@
       <c r="AD649" s="5"/>
       <c r="AE649" s="5"/>
       <c r="AF649" s="5"/>
+      <c r="AG649" s="5"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
       <c r="A650" s="5"/>
@@ -29086,6 +29805,7 @@
       <c r="AD650" s="5"/>
       <c r="AE650" s="5"/>
       <c r="AF650" s="5"/>
+      <c r="AG650" s="5"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
       <c r="A651" s="5"/>
@@ -29120,6 +29840,7 @@
       <c r="AD651" s="5"/>
       <c r="AE651" s="5"/>
       <c r="AF651" s="5"/>
+      <c r="AG651" s="5"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
       <c r="A652" s="5"/>
@@ -29154,6 +29875,7 @@
       <c r="AD652" s="5"/>
       <c r="AE652" s="5"/>
       <c r="AF652" s="5"/>
+      <c r="AG652" s="5"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
       <c r="A653" s="5"/>
@@ -29188,6 +29910,7 @@
       <c r="AD653" s="5"/>
       <c r="AE653" s="5"/>
       <c r="AF653" s="5"/>
+      <c r="AG653" s="5"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
       <c r="A654" s="5"/>
@@ -29222,6 +29945,7 @@
       <c r="AD654" s="5"/>
       <c r="AE654" s="5"/>
       <c r="AF654" s="5"/>
+      <c r="AG654" s="5"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
       <c r="A655" s="5"/>
@@ -29256,6 +29980,7 @@
       <c r="AD655" s="5"/>
       <c r="AE655" s="5"/>
       <c r="AF655" s="5"/>
+      <c r="AG655" s="5"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
       <c r="A656" s="5"/>
@@ -29290,6 +30015,7 @@
       <c r="AD656" s="5"/>
       <c r="AE656" s="5"/>
       <c r="AF656" s="5"/>
+      <c r="AG656" s="5"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
       <c r="A657" s="5"/>
@@ -29324,6 +30050,7 @@
       <c r="AD657" s="5"/>
       <c r="AE657" s="5"/>
       <c r="AF657" s="5"/>
+      <c r="AG657" s="5"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
       <c r="A658" s="5"/>
@@ -29358,6 +30085,7 @@
       <c r="AD658" s="5"/>
       <c r="AE658" s="5"/>
       <c r="AF658" s="5"/>
+      <c r="AG658" s="5"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
       <c r="A659" s="5"/>
@@ -29392,6 +30120,7 @@
       <c r="AD659" s="5"/>
       <c r="AE659" s="5"/>
       <c r="AF659" s="5"/>
+      <c r="AG659" s="5"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
       <c r="A660" s="5"/>
@@ -29426,6 +30155,7 @@
       <c r="AD660" s="5"/>
       <c r="AE660" s="5"/>
       <c r="AF660" s="5"/>
+      <c r="AG660" s="5"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
       <c r="A661" s="5"/>
@@ -29460,6 +30190,7 @@
       <c r="AD661" s="5"/>
       <c r="AE661" s="5"/>
       <c r="AF661" s="5"/>
+      <c r="AG661" s="5"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
       <c r="A662" s="5"/>
@@ -29494,6 +30225,7 @@
       <c r="AD662" s="5"/>
       <c r="AE662" s="5"/>
       <c r="AF662" s="5"/>
+      <c r="AG662" s="5"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
       <c r="A663" s="5"/>
@@ -29528,6 +30260,7 @@
       <c r="AD663" s="5"/>
       <c r="AE663" s="5"/>
       <c r="AF663" s="5"/>
+      <c r="AG663" s="5"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
       <c r="A664" s="5"/>
@@ -29562,6 +30295,7 @@
       <c r="AD664" s="5"/>
       <c r="AE664" s="5"/>
       <c r="AF664" s="5"/>
+      <c r="AG664" s="5"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
       <c r="A665" s="5"/>
@@ -29596,6 +30330,7 @@
       <c r="AD665" s="5"/>
       <c r="AE665" s="5"/>
       <c r="AF665" s="5"/>
+      <c r="AG665" s="5"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
       <c r="A666" s="5"/>
@@ -29630,6 +30365,7 @@
       <c r="AD666" s="5"/>
       <c r="AE666" s="5"/>
       <c r="AF666" s="5"/>
+      <c r="AG666" s="5"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
       <c r="A667" s="5"/>
@@ -29664,6 +30400,7 @@
       <c r="AD667" s="5"/>
       <c r="AE667" s="5"/>
       <c r="AF667" s="5"/>
+      <c r="AG667" s="5"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
       <c r="A668" s="5"/>
@@ -29698,6 +30435,7 @@
       <c r="AD668" s="5"/>
       <c r="AE668" s="5"/>
       <c r="AF668" s="5"/>
+      <c r="AG668" s="5"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
       <c r="A669" s="5"/>
@@ -29732,6 +30470,7 @@
       <c r="AD669" s="5"/>
       <c r="AE669" s="5"/>
       <c r="AF669" s="5"/>
+      <c r="AG669" s="5"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
       <c r="A670" s="5"/>
@@ -29766,6 +30505,7 @@
       <c r="AD670" s="5"/>
       <c r="AE670" s="5"/>
       <c r="AF670" s="5"/>
+      <c r="AG670" s="5"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
       <c r="A671" s="5"/>
@@ -29800,6 +30540,7 @@
       <c r="AD671" s="5"/>
       <c r="AE671" s="5"/>
       <c r="AF671" s="5"/>
+      <c r="AG671" s="5"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
       <c r="A672" s="5"/>
@@ -29834,6 +30575,7 @@
       <c r="AD672" s="5"/>
       <c r="AE672" s="5"/>
       <c r="AF672" s="5"/>
+      <c r="AG672" s="5"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
       <c r="A673" s="5"/>
@@ -29868,6 +30610,7 @@
       <c r="AD673" s="5"/>
       <c r="AE673" s="5"/>
       <c r="AF673" s="5"/>
+      <c r="AG673" s="5"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
       <c r="A674" s="5"/>
@@ -29902,6 +30645,7 @@
       <c r="AD674" s="5"/>
       <c r="AE674" s="5"/>
       <c r="AF674" s="5"/>
+      <c r="AG674" s="5"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
       <c r="A675" s="5"/>
@@ -29936,6 +30680,7 @@
       <c r="AD675" s="5"/>
       <c r="AE675" s="5"/>
       <c r="AF675" s="5"/>
+      <c r="AG675" s="5"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
       <c r="A676" s="5"/>
@@ -29970,6 +30715,7 @@
       <c r="AD676" s="5"/>
       <c r="AE676" s="5"/>
       <c r="AF676" s="5"/>
+      <c r="AG676" s="5"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
       <c r="A677" s="5"/>
@@ -30004,6 +30750,7 @@
       <c r="AD677" s="5"/>
       <c r="AE677" s="5"/>
       <c r="AF677" s="5"/>
+      <c r="AG677" s="5"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
       <c r="A678" s="5"/>
@@ -30038,6 +30785,7 @@
       <c r="AD678" s="5"/>
       <c r="AE678" s="5"/>
       <c r="AF678" s="5"/>
+      <c r="AG678" s="5"/>
     </row>
     <row r="679" ht="14.25" customHeight="1">
       <c r="A679" s="5"/>
@@ -30072,6 +30820,7 @@
       <c r="AD679" s="5"/>
       <c r="AE679" s="5"/>
       <c r="AF679" s="5"/>
+      <c r="AG679" s="5"/>
     </row>
     <row r="680" ht="14.25" customHeight="1">
       <c r="A680" s="5"/>
@@ -30106,6 +30855,7 @@
       <c r="AD680" s="5"/>
       <c r="AE680" s="5"/>
       <c r="AF680" s="5"/>
+      <c r="AG680" s="5"/>
     </row>
     <row r="681" ht="14.25" customHeight="1">
       <c r="A681" s="5"/>
@@ -30140,6 +30890,7 @@
       <c r="AD681" s="5"/>
       <c r="AE681" s="5"/>
       <c r="AF681" s="5"/>
+      <c r="AG681" s="5"/>
     </row>
     <row r="682" ht="14.25" customHeight="1">
       <c r="A682" s="5"/>
@@ -30174,6 +30925,7 @@
       <c r="AD682" s="5"/>
       <c r="AE682" s="5"/>
       <c r="AF682" s="5"/>
+      <c r="AG682" s="5"/>
     </row>
     <row r="683" ht="14.25" customHeight="1">
       <c r="A683" s="5"/>
@@ -30208,6 +30960,7 @@
       <c r="AD683" s="5"/>
       <c r="AE683" s="5"/>
       <c r="AF683" s="5"/>
+      <c r="AG683" s="5"/>
     </row>
     <row r="684" ht="14.25" customHeight="1">
       <c r="A684" s="5"/>
@@ -30242,6 +30995,7 @@
       <c r="AD684" s="5"/>
       <c r="AE684" s="5"/>
       <c r="AF684" s="5"/>
+      <c r="AG684" s="5"/>
     </row>
     <row r="685" ht="14.25" customHeight="1">
       <c r="A685" s="5"/>
@@ -30276,6 +31030,7 @@
       <c r="AD685" s="5"/>
       <c r="AE685" s="5"/>
       <c r="AF685" s="5"/>
+      <c r="AG685" s="5"/>
     </row>
     <row r="686" ht="14.25" customHeight="1">
       <c r="A686" s="5"/>
@@ -30310,6 +31065,7 @@
       <c r="AD686" s="5"/>
       <c r="AE686" s="5"/>
       <c r="AF686" s="5"/>
+      <c r="AG686" s="5"/>
     </row>
     <row r="687" ht="14.25" customHeight="1">
       <c r="A687" s="5"/>
@@ -30344,6 +31100,7 @@
       <c r="AD687" s="5"/>
       <c r="AE687" s="5"/>
       <c r="AF687" s="5"/>
+      <c r="AG687" s="5"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
       <c r="A688" s="5"/>
@@ -30378,6 +31135,7 @@
       <c r="AD688" s="5"/>
       <c r="AE688" s="5"/>
       <c r="AF688" s="5"/>
+      <c r="AG688" s="5"/>
     </row>
     <row r="689" ht="14.25" customHeight="1">
       <c r="A689" s="5"/>
@@ -30412,6 +31170,7 @@
       <c r="AD689" s="5"/>
       <c r="AE689" s="5"/>
       <c r="AF689" s="5"/>
+      <c r="AG689" s="5"/>
     </row>
     <row r="690" ht="14.25" customHeight="1">
       <c r="A690" s="5"/>
@@ -30446,6 +31205,7 @@
       <c r="AD690" s="5"/>
       <c r="AE690" s="5"/>
       <c r="AF690" s="5"/>
+      <c r="AG690" s="5"/>
     </row>
     <row r="691" ht="14.25" customHeight="1">
       <c r="A691" s="5"/>
@@ -30480,6 +31240,7 @@
       <c r="AD691" s="5"/>
       <c r="AE691" s="5"/>
       <c r="AF691" s="5"/>
+      <c r="AG691" s="5"/>
     </row>
     <row r="692" ht="14.25" customHeight="1">
       <c r="A692" s="5"/>
@@ -30514,6 +31275,7 @@
       <c r="AD692" s="5"/>
       <c r="AE692" s="5"/>
       <c r="AF692" s="5"/>
+      <c r="AG692" s="5"/>
     </row>
     <row r="693" ht="14.25" customHeight="1">
       <c r="A693" s="5"/>
@@ -30548,6 +31310,7 @@
       <c r="AD693" s="5"/>
       <c r="AE693" s="5"/>
       <c r="AF693" s="5"/>
+      <c r="AG693" s="5"/>
     </row>
     <row r="694" ht="14.25" customHeight="1">
       <c r="A694" s="5"/>
@@ -30582,6 +31345,7 @@
       <c r="AD694" s="5"/>
       <c r="AE694" s="5"/>
       <c r="AF694" s="5"/>
+      <c r="AG694" s="5"/>
     </row>
     <row r="695" ht="14.25" customHeight="1">
       <c r="A695" s="5"/>
@@ -30616,6 +31380,7 @@
       <c r="AD695" s="5"/>
       <c r="AE695" s="5"/>
       <c r="AF695" s="5"/>
+      <c r="AG695" s="5"/>
     </row>
     <row r="696" ht="14.25" customHeight="1">
       <c r="A696" s="5"/>
@@ -30650,6 +31415,7 @@
       <c r="AD696" s="5"/>
       <c r="AE696" s="5"/>
       <c r="AF696" s="5"/>
+      <c r="AG696" s="5"/>
     </row>
     <row r="697" ht="14.25" customHeight="1">
       <c r="A697" s="5"/>
@@ -30684,6 +31450,7 @@
       <c r="AD697" s="5"/>
       <c r="AE697" s="5"/>
       <c r="AF697" s="5"/>
+      <c r="AG697" s="5"/>
     </row>
     <row r="698" ht="14.25" customHeight="1">
       <c r="A698" s="5"/>
@@ -30718,6 +31485,7 @@
       <c r="AD698" s="5"/>
       <c r="AE698" s="5"/>
       <c r="AF698" s="5"/>
+      <c r="AG698" s="5"/>
     </row>
     <row r="699" ht="14.25" customHeight="1">
       <c r="A699" s="5"/>
@@ -30752,6 +31520,7 @@
       <c r="AD699" s="5"/>
       <c r="AE699" s="5"/>
       <c r="AF699" s="5"/>
+      <c r="AG699" s="5"/>
     </row>
     <row r="700" ht="14.25" customHeight="1">
       <c r="A700" s="5"/>
@@ -30786,6 +31555,7 @@
       <c r="AD700" s="5"/>
       <c r="AE700" s="5"/>
       <c r="AF700" s="5"/>
+      <c r="AG700" s="5"/>
     </row>
     <row r="701" ht="14.25" customHeight="1">
       <c r="A701" s="5"/>
@@ -30820,6 +31590,7 @@
       <c r="AD701" s="5"/>
       <c r="AE701" s="5"/>
       <c r="AF701" s="5"/>
+      <c r="AG701" s="5"/>
     </row>
     <row r="702" ht="14.25" customHeight="1">
       <c r="A702" s="5"/>
@@ -30854,6 +31625,7 @@
       <c r="AD702" s="5"/>
       <c r="AE702" s="5"/>
       <c r="AF702" s="5"/>
+      <c r="AG702" s="5"/>
     </row>
     <row r="703" ht="14.25" customHeight="1">
       <c r="A703" s="5"/>
@@ -30888,6 +31660,7 @@
       <c r="AD703" s="5"/>
       <c r="AE703" s="5"/>
       <c r="AF703" s="5"/>
+      <c r="AG703" s="5"/>
     </row>
     <row r="704" ht="14.25" customHeight="1">
       <c r="A704" s="5"/>
@@ -30922,6 +31695,7 @@
       <c r="AD704" s="5"/>
       <c r="AE704" s="5"/>
       <c r="AF704" s="5"/>
+      <c r="AG704" s="5"/>
     </row>
     <row r="705" ht="14.25" customHeight="1">
       <c r="A705" s="5"/>
@@ -30956,6 +31730,7 @@
       <c r="AD705" s="5"/>
       <c r="AE705" s="5"/>
       <c r="AF705" s="5"/>
+      <c r="AG705" s="5"/>
     </row>
     <row r="706" ht="14.25" customHeight="1">
       <c r="A706" s="5"/>
@@ -30990,6 +31765,7 @@
       <c r="AD706" s="5"/>
       <c r="AE706" s="5"/>
       <c r="AF706" s="5"/>
+      <c r="AG706" s="5"/>
     </row>
     <row r="707" ht="14.25" customHeight="1">
       <c r="A707" s="5"/>
@@ -31024,6 +31800,7 @@
       <c r="AD707" s="5"/>
       <c r="AE707" s="5"/>
       <c r="AF707" s="5"/>
+      <c r="AG707" s="5"/>
     </row>
     <row r="708" ht="14.25" customHeight="1">
       <c r="A708" s="5"/>
@@ -31058,6 +31835,7 @@
       <c r="AD708" s="5"/>
       <c r="AE708" s="5"/>
       <c r="AF708" s="5"/>
+      <c r="AG708" s="5"/>
     </row>
     <row r="709" ht="14.25" customHeight="1">
       <c r="A709" s="5"/>
@@ -31092,6 +31870,7 @@
       <c r="AD709" s="5"/>
       <c r="AE709" s="5"/>
       <c r="AF709" s="5"/>
+      <c r="AG709" s="5"/>
     </row>
     <row r="710" ht="14.25" customHeight="1">
       <c r="A710" s="5"/>
@@ -31126,6 +31905,7 @@
       <c r="AD710" s="5"/>
       <c r="AE710" s="5"/>
       <c r="AF710" s="5"/>
+      <c r="AG710" s="5"/>
     </row>
     <row r="711" ht="14.25" customHeight="1">
       <c r="A711" s="5"/>
@@ -31160,6 +31940,7 @@
       <c r="AD711" s="5"/>
       <c r="AE711" s="5"/>
       <c r="AF711" s="5"/>
+      <c r="AG711" s="5"/>
     </row>
     <row r="712" ht="14.25" customHeight="1">
       <c r="A712" s="5"/>
@@ -31194,6 +31975,7 @@
       <c r="AD712" s="5"/>
       <c r="AE712" s="5"/>
       <c r="AF712" s="5"/>
+      <c r="AG712" s="5"/>
     </row>
     <row r="713" ht="14.25" customHeight="1">
       <c r="A713" s="5"/>
@@ -31228,6 +32010,7 @@
       <c r="AD713" s="5"/>
       <c r="AE713" s="5"/>
       <c r="AF713" s="5"/>
+      <c r="AG713" s="5"/>
     </row>
     <row r="714" ht="14.25" customHeight="1">
       <c r="A714" s="5"/>
@@ -31262,6 +32045,7 @@
       <c r="AD714" s="5"/>
       <c r="AE714" s="5"/>
       <c r="AF714" s="5"/>
+      <c r="AG714" s="5"/>
     </row>
     <row r="715" ht="14.25" customHeight="1">
       <c r="A715" s="5"/>
@@ -31296,6 +32080,7 @@
       <c r="AD715" s="5"/>
       <c r="AE715" s="5"/>
       <c r="AF715" s="5"/>
+      <c r="AG715" s="5"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
       <c r="A716" s="5"/>
@@ -31330,6 +32115,7 @@
       <c r="AD716" s="5"/>
       <c r="AE716" s="5"/>
       <c r="AF716" s="5"/>
+      <c r="AG716" s="5"/>
     </row>
     <row r="717" ht="14.25" customHeight="1">
       <c r="A717" s="5"/>
@@ -31364,6 +32150,7 @@
       <c r="AD717" s="5"/>
       <c r="AE717" s="5"/>
       <c r="AF717" s="5"/>
+      <c r="AG717" s="5"/>
     </row>
     <row r="718" ht="14.25" customHeight="1">
       <c r="A718" s="5"/>
@@ -31398,6 +32185,7 @@
       <c r="AD718" s="5"/>
       <c r="AE718" s="5"/>
       <c r="AF718" s="5"/>
+      <c r="AG718" s="5"/>
     </row>
     <row r="719" ht="14.25" customHeight="1">
       <c r="A719" s="5"/>
@@ -31432,6 +32220,7 @@
       <c r="AD719" s="5"/>
       <c r="AE719" s="5"/>
       <c r="AF719" s="5"/>
+      <c r="AG719" s="5"/>
     </row>
     <row r="720" ht="14.25" customHeight="1">
       <c r="A720" s="5"/>
@@ -31466,6 +32255,7 @@
       <c r="AD720" s="5"/>
       <c r="AE720" s="5"/>
       <c r="AF720" s="5"/>
+      <c r="AG720" s="5"/>
     </row>
     <row r="721" ht="14.25" customHeight="1">
       <c r="A721" s="5"/>
@@ -31500,6 +32290,7 @@
       <c r="AD721" s="5"/>
       <c r="AE721" s="5"/>
       <c r="AF721" s="5"/>
+      <c r="AG721" s="5"/>
     </row>
     <row r="722" ht="14.25" customHeight="1">
       <c r="A722" s="5"/>
@@ -31534,6 +32325,7 @@
       <c r="AD722" s="5"/>
       <c r="AE722" s="5"/>
       <c r="AF722" s="5"/>
+      <c r="AG722" s="5"/>
     </row>
     <row r="723" ht="14.25" customHeight="1">
       <c r="A723" s="5"/>
@@ -31568,6 +32360,7 @@
       <c r="AD723" s="5"/>
       <c r="AE723" s="5"/>
       <c r="AF723" s="5"/>
+      <c r="AG723" s="5"/>
     </row>
     <row r="724" ht="14.25" customHeight="1">
       <c r="A724" s="5"/>
@@ -31602,6 +32395,7 @@
       <c r="AD724" s="5"/>
       <c r="AE724" s="5"/>
       <c r="AF724" s="5"/>
+      <c r="AG724" s="5"/>
     </row>
     <row r="725" ht="14.25" customHeight="1">
       <c r="A725" s="5"/>
@@ -31636,6 +32430,7 @@
       <c r="AD725" s="5"/>
       <c r="AE725" s="5"/>
       <c r="AF725" s="5"/>
+      <c r="AG725" s="5"/>
     </row>
     <row r="726" ht="14.25" customHeight="1">
       <c r="A726" s="5"/>
@@ -31670,6 +32465,7 @@
       <c r="AD726" s="5"/>
       <c r="AE726" s="5"/>
       <c r="AF726" s="5"/>
+      <c r="AG726" s="5"/>
     </row>
     <row r="727" ht="14.25" customHeight="1">
       <c r="A727" s="5"/>
@@ -31704,6 +32500,7 @@
       <c r="AD727" s="5"/>
       <c r="AE727" s="5"/>
       <c r="AF727" s="5"/>
+      <c r="AG727" s="5"/>
     </row>
     <row r="728" ht="14.25" customHeight="1">
       <c r="A728" s="5"/>
@@ -31738,6 +32535,7 @@
       <c r="AD728" s="5"/>
       <c r="AE728" s="5"/>
       <c r="AF728" s="5"/>
+      <c r="AG728" s="5"/>
     </row>
     <row r="729" ht="14.25" customHeight="1">
       <c r="A729" s="5"/>
@@ -31772,6 +32570,7 @@
       <c r="AD729" s="5"/>
       <c r="AE729" s="5"/>
       <c r="AF729" s="5"/>
+      <c r="AG729" s="5"/>
     </row>
     <row r="730" ht="14.25" customHeight="1">
       <c r="A730" s="5"/>
@@ -31806,6 +32605,7 @@
       <c r="AD730" s="5"/>
       <c r="AE730" s="5"/>
       <c r="AF730" s="5"/>
+      <c r="AG730" s="5"/>
     </row>
     <row r="731" ht="14.25" customHeight="1">
       <c r="A731" s="5"/>
@@ -31840,6 +32640,7 @@
       <c r="AD731" s="5"/>
       <c r="AE731" s="5"/>
       <c r="AF731" s="5"/>
+      <c r="AG731" s="5"/>
     </row>
     <row r="732" ht="14.25" customHeight="1">
       <c r="A732" s="5"/>
@@ -31874,6 +32675,7 @@
       <c r="AD732" s="5"/>
       <c r="AE732" s="5"/>
       <c r="AF732" s="5"/>
+      <c r="AG732" s="5"/>
     </row>
     <row r="733" ht="14.25" customHeight="1">
       <c r="A733" s="5"/>
@@ -31908,6 +32710,7 @@
       <c r="AD733" s="5"/>
       <c r="AE733" s="5"/>
       <c r="AF733" s="5"/>
+      <c r="AG733" s="5"/>
     </row>
     <row r="734" ht="14.25" customHeight="1">
       <c r="A734" s="5"/>
@@ -31942,6 +32745,7 @@
       <c r="AD734" s="5"/>
       <c r="AE734" s="5"/>
       <c r="AF734" s="5"/>
+      <c r="AG734" s="5"/>
     </row>
     <row r="735" ht="14.25" customHeight="1">
       <c r="A735" s="5"/>
@@ -31976,6 +32780,7 @@
       <c r="AD735" s="5"/>
       <c r="AE735" s="5"/>
       <c r="AF735" s="5"/>
+      <c r="AG735" s="5"/>
     </row>
     <row r="736" ht="14.25" customHeight="1">
       <c r="A736" s="5"/>
@@ -32010,6 +32815,7 @@
       <c r="AD736" s="5"/>
       <c r="AE736" s="5"/>
       <c r="AF736" s="5"/>
+      <c r="AG736" s="5"/>
     </row>
     <row r="737" ht="14.25" customHeight="1">
       <c r="A737" s="5"/>
@@ -32044,6 +32850,7 @@
       <c r="AD737" s="5"/>
       <c r="AE737" s="5"/>
       <c r="AF737" s="5"/>
+      <c r="AG737" s="5"/>
     </row>
     <row r="738" ht="14.25" customHeight="1">
       <c r="A738" s="5"/>
@@ -32078,6 +32885,7 @@
       <c r="AD738" s="5"/>
       <c r="AE738" s="5"/>
       <c r="AF738" s="5"/>
+      <c r="AG738" s="5"/>
     </row>
     <row r="739" ht="14.25" customHeight="1">
       <c r="A739" s="5"/>
@@ -32112,6 +32920,7 @@
       <c r="AD739" s="5"/>
       <c r="AE739" s="5"/>
       <c r="AF739" s="5"/>
+      <c r="AG739" s="5"/>
     </row>
     <row r="740" ht="14.25" customHeight="1">
       <c r="A740" s="5"/>
@@ -32146,6 +32955,7 @@
       <c r="AD740" s="5"/>
       <c r="AE740" s="5"/>
       <c r="AF740" s="5"/>
+      <c r="AG740" s="5"/>
     </row>
     <row r="741" ht="14.25" customHeight="1">
       <c r="A741" s="5"/>
@@ -32180,6 +32990,7 @@
       <c r="AD741" s="5"/>
       <c r="AE741" s="5"/>
       <c r="AF741" s="5"/>
+      <c r="AG741" s="5"/>
     </row>
     <row r="742" ht="14.25" customHeight="1">
       <c r="A742" s="5"/>
@@ -32214,6 +33025,7 @@
       <c r="AD742" s="5"/>
       <c r="AE742" s="5"/>
       <c r="AF742" s="5"/>
+      <c r="AG742" s="5"/>
     </row>
     <row r="743" ht="14.25" customHeight="1">
       <c r="A743" s="5"/>
@@ -32248,6 +33060,7 @@
       <c r="AD743" s="5"/>
       <c r="AE743" s="5"/>
       <c r="AF743" s="5"/>
+      <c r="AG743" s="5"/>
     </row>
     <row r="744" ht="14.25" customHeight="1">
       <c r="A744" s="5"/>
@@ -32282,6 +33095,7 @@
       <c r="AD744" s="5"/>
       <c r="AE744" s="5"/>
       <c r="AF744" s="5"/>
+      <c r="AG744" s="5"/>
     </row>
     <row r="745" ht="14.25" customHeight="1">
       <c r="A745" s="5"/>
@@ -32316,6 +33130,7 @@
       <c r="AD745" s="5"/>
       <c r="AE745" s="5"/>
       <c r="AF745" s="5"/>
+      <c r="AG745" s="5"/>
     </row>
     <row r="746" ht="14.25" customHeight="1">
       <c r="A746" s="5"/>
@@ -32350,6 +33165,7 @@
       <c r="AD746" s="5"/>
       <c r="AE746" s="5"/>
       <c r="AF746" s="5"/>
+      <c r="AG746" s="5"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
       <c r="A747" s="5"/>
@@ -32384,6 +33200,7 @@
       <c r="AD747" s="5"/>
       <c r="AE747" s="5"/>
       <c r="AF747" s="5"/>
+      <c r="AG747" s="5"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
       <c r="A748" s="5"/>
@@ -32418,6 +33235,7 @@
       <c r="AD748" s="5"/>
       <c r="AE748" s="5"/>
       <c r="AF748" s="5"/>
+      <c r="AG748" s="5"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
       <c r="A749" s="5"/>
@@ -32452,6 +33270,7 @@
       <c r="AD749" s="5"/>
       <c r="AE749" s="5"/>
       <c r="AF749" s="5"/>
+      <c r="AG749" s="5"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
       <c r="A750" s="5"/>
@@ -32486,6 +33305,7 @@
       <c r="AD750" s="5"/>
       <c r="AE750" s="5"/>
       <c r="AF750" s="5"/>
+      <c r="AG750" s="5"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
       <c r="A751" s="5"/>
@@ -32520,6 +33340,7 @@
       <c r="AD751" s="5"/>
       <c r="AE751" s="5"/>
       <c r="AF751" s="5"/>
+      <c r="AG751" s="5"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
       <c r="A752" s="5"/>
@@ -32554,6 +33375,7 @@
       <c r="AD752" s="5"/>
       <c r="AE752" s="5"/>
       <c r="AF752" s="5"/>
+      <c r="AG752" s="5"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
       <c r="A753" s="5"/>
@@ -32588,6 +33410,7 @@
       <c r="AD753" s="5"/>
       <c r="AE753" s="5"/>
       <c r="AF753" s="5"/>
+      <c r="AG753" s="5"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
       <c r="A754" s="5"/>
@@ -32622,6 +33445,7 @@
       <c r="AD754" s="5"/>
       <c r="AE754" s="5"/>
       <c r="AF754" s="5"/>
+      <c r="AG754" s="5"/>
     </row>
     <row r="755" ht="14.25" customHeight="1">
       <c r="A755" s="5"/>
@@ -32656,6 +33480,7 @@
       <c r="AD755" s="5"/>
       <c r="AE755" s="5"/>
       <c r="AF755" s="5"/>
+      <c r="AG755" s="5"/>
     </row>
     <row r="756" ht="14.25" customHeight="1">
       <c r="A756" s="5"/>
@@ -32690,6 +33515,7 @@
       <c r="AD756" s="5"/>
       <c r="AE756" s="5"/>
       <c r="AF756" s="5"/>
+      <c r="AG756" s="5"/>
     </row>
     <row r="757" ht="14.25" customHeight="1">
       <c r="A757" s="5"/>
@@ -32724,6 +33550,7 @@
       <c r="AD757" s="5"/>
       <c r="AE757" s="5"/>
       <c r="AF757" s="5"/>
+      <c r="AG757" s="5"/>
     </row>
     <row r="758" ht="14.25" customHeight="1">
       <c r="A758" s="5"/>
@@ -32758,6 +33585,7 @@
       <c r="AD758" s="5"/>
       <c r="AE758" s="5"/>
       <c r="AF758" s="5"/>
+      <c r="AG758" s="5"/>
     </row>
     <row r="759" ht="14.25" customHeight="1">
       <c r="A759" s="5"/>
@@ -32792,6 +33620,7 @@
       <c r="AD759" s="5"/>
       <c r="AE759" s="5"/>
       <c r="AF759" s="5"/>
+      <c r="AG759" s="5"/>
     </row>
     <row r="760" ht="14.25" customHeight="1">
       <c r="A760" s="5"/>
@@ -32826,6 +33655,7 @@
       <c r="AD760" s="5"/>
       <c r="AE760" s="5"/>
       <c r="AF760" s="5"/>
+      <c r="AG760" s="5"/>
     </row>
     <row r="761" ht="14.25" customHeight="1">
       <c r="A761" s="5"/>
@@ -32860,6 +33690,7 @@
       <c r="AD761" s="5"/>
       <c r="AE761" s="5"/>
       <c r="AF761" s="5"/>
+      <c r="AG761" s="5"/>
     </row>
     <row r="762" ht="14.25" customHeight="1">
       <c r="A762" s="5"/>
@@ -32894,6 +33725,7 @@
       <c r="AD762" s="5"/>
       <c r="AE762" s="5"/>
       <c r="AF762" s="5"/>
+      <c r="AG762" s="5"/>
     </row>
     <row r="763" ht="14.25" customHeight="1">
       <c r="A763" s="5"/>
@@ -32928,6 +33760,7 @@
       <c r="AD763" s="5"/>
       <c r="AE763" s="5"/>
       <c r="AF763" s="5"/>
+      <c r="AG763" s="5"/>
     </row>
     <row r="764" ht="14.25" customHeight="1">
       <c r="A764" s="5"/>
@@ -32962,6 +33795,7 @@
       <c r="AD764" s="5"/>
       <c r="AE764" s="5"/>
       <c r="AF764" s="5"/>
+      <c r="AG764" s="5"/>
     </row>
     <row r="765" ht="14.25" customHeight="1">
       <c r="A765" s="5"/>
@@ -32996,6 +33830,7 @@
       <c r="AD765" s="5"/>
       <c r="AE765" s="5"/>
       <c r="AF765" s="5"/>
+      <c r="AG765" s="5"/>
     </row>
     <row r="766" ht="14.25" customHeight="1">
       <c r="A766" s="5"/>
@@ -33030,6 +33865,7 @@
       <c r="AD766" s="5"/>
       <c r="AE766" s="5"/>
       <c r="AF766" s="5"/>
+      <c r="AG766" s="5"/>
     </row>
     <row r="767" ht="14.25" customHeight="1">
       <c r="A767" s="5"/>
@@ -33064,6 +33900,7 @@
       <c r="AD767" s="5"/>
       <c r="AE767" s="5"/>
       <c r="AF767" s="5"/>
+      <c r="AG767" s="5"/>
     </row>
     <row r="768" ht="14.25" customHeight="1">
       <c r="A768" s="5"/>
@@ -33098,6 +33935,7 @@
       <c r="AD768" s="5"/>
       <c r="AE768" s="5"/>
       <c r="AF768" s="5"/>
+      <c r="AG768" s="5"/>
     </row>
     <row r="769" ht="14.25" customHeight="1">
       <c r="A769" s="5"/>
@@ -33132,6 +33970,7 @@
       <c r="AD769" s="5"/>
       <c r="AE769" s="5"/>
       <c r="AF769" s="5"/>
+      <c r="AG769" s="5"/>
     </row>
     <row r="770" ht="14.25" customHeight="1">
       <c r="A770" s="5"/>
@@ -33166,6 +34005,7 @@
       <c r="AD770" s="5"/>
       <c r="AE770" s="5"/>
       <c r="AF770" s="5"/>
+      <c r="AG770" s="5"/>
     </row>
     <row r="771" ht="14.25" customHeight="1">
       <c r="A771" s="5"/>
@@ -33200,6 +34040,7 @@
       <c r="AD771" s="5"/>
       <c r="AE771" s="5"/>
       <c r="AF771" s="5"/>
+      <c r="AG771" s="5"/>
     </row>
     <row r="772" ht="14.25" customHeight="1">
       <c r="A772" s="5"/>
@@ -33234,6 +34075,7 @@
       <c r="AD772" s="5"/>
       <c r="AE772" s="5"/>
       <c r="AF772" s="5"/>
+      <c r="AG772" s="5"/>
     </row>
     <row r="773" ht="14.25" customHeight="1">
       <c r="A773" s="5"/>
@@ -33268,6 +34110,7 @@
       <c r="AD773" s="5"/>
       <c r="AE773" s="5"/>
       <c r="AF773" s="5"/>
+      <c r="AG773" s="5"/>
     </row>
     <row r="774" ht="14.25" customHeight="1">
       <c r="A774" s="5"/>
@@ -33302,6 +34145,7 @@
       <c r="AD774" s="5"/>
       <c r="AE774" s="5"/>
       <c r="AF774" s="5"/>
+      <c r="AG774" s="5"/>
     </row>
     <row r="775" ht="14.25" customHeight="1">
       <c r="A775" s="5"/>
@@ -33336,6 +34180,7 @@
       <c r="AD775" s="5"/>
       <c r="AE775" s="5"/>
       <c r="AF775" s="5"/>
+      <c r="AG775" s="5"/>
     </row>
     <row r="776" ht="14.25" customHeight="1">
       <c r="A776" s="5"/>
@@ -33370,6 +34215,7 @@
       <c r="AD776" s="5"/>
       <c r="AE776" s="5"/>
       <c r="AF776" s="5"/>
+      <c r="AG776" s="5"/>
     </row>
     <row r="777" ht="14.25" customHeight="1">
       <c r="A777" s="5"/>
@@ -33404,6 +34250,7 @@
       <c r="AD777" s="5"/>
       <c r="AE777" s="5"/>
       <c r="AF777" s="5"/>
+      <c r="AG777" s="5"/>
     </row>
     <row r="778" ht="14.25" customHeight="1">
       <c r="A778" s="5"/>
@@ -33438,6 +34285,7 @@
       <c r="AD778" s="5"/>
       <c r="AE778" s="5"/>
       <c r="AF778" s="5"/>
+      <c r="AG778" s="5"/>
     </row>
     <row r="779" ht="14.25" customHeight="1">
       <c r="A779" s="5"/>
@@ -33472,6 +34320,7 @@
       <c r="AD779" s="5"/>
       <c r="AE779" s="5"/>
       <c r="AF779" s="5"/>
+      <c r="AG779" s="5"/>
     </row>
     <row r="780" ht="14.25" customHeight="1">
       <c r="A780" s="5"/>
@@ -33506,6 +34355,7 @@
       <c r="AD780" s="5"/>
       <c r="AE780" s="5"/>
       <c r="AF780" s="5"/>
+      <c r="AG780" s="5"/>
     </row>
     <row r="781" ht="14.25" customHeight="1">
       <c r="A781" s="5"/>
@@ -33540,6 +34390,7 @@
       <c r="AD781" s="5"/>
       <c r="AE781" s="5"/>
       <c r="AF781" s="5"/>
+      <c r="AG781" s="5"/>
     </row>
     <row r="782" ht="14.25" customHeight="1">
       <c r="A782" s="5"/>
@@ -33574,6 +34425,7 @@
       <c r="AD782" s="5"/>
       <c r="AE782" s="5"/>
       <c r="AF782" s="5"/>
+      <c r="AG782" s="5"/>
     </row>
     <row r="783" ht="14.25" customHeight="1">
       <c r="A783" s="5"/>
@@ -33608,6 +34460,7 @@
       <c r="AD783" s="5"/>
       <c r="AE783" s="5"/>
       <c r="AF783" s="5"/>
+      <c r="AG783" s="5"/>
     </row>
     <row r="784" ht="14.25" customHeight="1">
       <c r="A784" s="5"/>
@@ -33642,6 +34495,7 @@
       <c r="AD784" s="5"/>
       <c r="AE784" s="5"/>
       <c r="AF784" s="5"/>
+      <c r="AG784" s="5"/>
     </row>
     <row r="785" ht="14.25" customHeight="1">
       <c r="A785" s="5"/>
@@ -33676,6 +34530,7 @@
       <c r="AD785" s="5"/>
       <c r="AE785" s="5"/>
       <c r="AF785" s="5"/>
+      <c r="AG785" s="5"/>
     </row>
     <row r="786" ht="14.25" customHeight="1">
       <c r="A786" s="5"/>
@@ -33710,6 +34565,7 @@
       <c r="AD786" s="5"/>
       <c r="AE786" s="5"/>
       <c r="AF786" s="5"/>
+      <c r="AG786" s="5"/>
     </row>
     <row r="787" ht="14.25" customHeight="1">
       <c r="A787" s="5"/>
@@ -33744,6 +34600,7 @@
       <c r="AD787" s="5"/>
       <c r="AE787" s="5"/>
       <c r="AF787" s="5"/>
+      <c r="AG787" s="5"/>
     </row>
     <row r="788" ht="14.25" customHeight="1">
       <c r="A788" s="5"/>
@@ -33778,6 +34635,7 @@
       <c r="AD788" s="5"/>
       <c r="AE788" s="5"/>
       <c r="AF788" s="5"/>
+      <c r="AG788" s="5"/>
     </row>
     <row r="789" ht="14.25" customHeight="1">
       <c r="A789" s="5"/>
@@ -33812,6 +34670,7 @@
       <c r="AD789" s="5"/>
       <c r="AE789" s="5"/>
       <c r="AF789" s="5"/>
+      <c r="AG789" s="5"/>
     </row>
     <row r="790" ht="14.25" customHeight="1">
       <c r="A790" s="5"/>
@@ -33846,6 +34705,7 @@
       <c r="AD790" s="5"/>
       <c r="AE790" s="5"/>
       <c r="AF790" s="5"/>
+      <c r="AG790" s="5"/>
     </row>
     <row r="791" ht="14.25" customHeight="1">
       <c r="A791" s="5"/>
@@ -33880,6 +34740,7 @@
       <c r="AD791" s="5"/>
       <c r="AE791" s="5"/>
       <c r="AF791" s="5"/>
+      <c r="AG791" s="5"/>
     </row>
     <row r="792" ht="14.25" customHeight="1">
       <c r="A792" s="5"/>
@@ -33914,6 +34775,7 @@
       <c r="AD792" s="5"/>
       <c r="AE792" s="5"/>
       <c r="AF792" s="5"/>
+      <c r="AG792" s="5"/>
     </row>
     <row r="793" ht="14.25" customHeight="1">
       <c r="A793" s="5"/>
@@ -33948,6 +34810,7 @@
       <c r="AD793" s="5"/>
       <c r="AE793" s="5"/>
       <c r="AF793" s="5"/>
+      <c r="AG793" s="5"/>
     </row>
     <row r="794" ht="14.25" customHeight="1">
       <c r="A794" s="5"/>
@@ -33982,6 +34845,7 @@
       <c r="AD794" s="5"/>
       <c r="AE794" s="5"/>
       <c r="AF794" s="5"/>
+      <c r="AG794" s="5"/>
     </row>
     <row r="795" ht="14.25" customHeight="1">
       <c r="A795" s="5"/>
@@ -34016,6 +34880,7 @@
       <c r="AD795" s="5"/>
       <c r="AE795" s="5"/>
       <c r="AF795" s="5"/>
+      <c r="AG795" s="5"/>
     </row>
     <row r="796" ht="14.25" customHeight="1">
       <c r="A796" s="5"/>
@@ -34050,6 +34915,7 @@
       <c r="AD796" s="5"/>
       <c r="AE796" s="5"/>
       <c r="AF796" s="5"/>
+      <c r="AG796" s="5"/>
     </row>
     <row r="797" ht="14.25" customHeight="1">
       <c r="A797" s="5"/>
@@ -34084,6 +34950,7 @@
       <c r="AD797" s="5"/>
       <c r="AE797" s="5"/>
       <c r="AF797" s="5"/>
+      <c r="AG797" s="5"/>
     </row>
     <row r="798" ht="14.25" customHeight="1">
       <c r="A798" s="5"/>
@@ -34118,6 +34985,7 @@
       <c r="AD798" s="5"/>
       <c r="AE798" s="5"/>
       <c r="AF798" s="5"/>
+      <c r="AG798" s="5"/>
     </row>
     <row r="799" ht="14.25" customHeight="1">
       <c r="A799" s="5"/>
@@ -34152,6 +35020,7 @@
       <c r="AD799" s="5"/>
       <c r="AE799" s="5"/>
       <c r="AF799" s="5"/>
+      <c r="AG799" s="5"/>
     </row>
     <row r="800" ht="14.25" customHeight="1">
       <c r="A800" s="5"/>
@@ -34186,6 +35055,7 @@
       <c r="AD800" s="5"/>
       <c r="AE800" s="5"/>
       <c r="AF800" s="5"/>
+      <c r="AG800" s="5"/>
     </row>
     <row r="801" ht="14.25" customHeight="1">
       <c r="A801" s="5"/>
@@ -34220,6 +35090,7 @@
       <c r="AD801" s="5"/>
       <c r="AE801" s="5"/>
       <c r="AF801" s="5"/>
+      <c r="AG801" s="5"/>
     </row>
     <row r="802" ht="14.25" customHeight="1">
       <c r="A802" s="5"/>
@@ -34254,6 +35125,7 @@
       <c r="AD802" s="5"/>
       <c r="AE802" s="5"/>
       <c r="AF802" s="5"/>
+      <c r="AG802" s="5"/>
     </row>
     <row r="803" ht="14.25" customHeight="1">
       <c r="A803" s="5"/>
@@ -34288,6 +35160,7 @@
       <c r="AD803" s="5"/>
       <c r="AE803" s="5"/>
       <c r="AF803" s="5"/>
+      <c r="AG803" s="5"/>
     </row>
     <row r="804" ht="14.25" customHeight="1">
       <c r="A804" s="5"/>
@@ -34322,6 +35195,7 @@
       <c r="AD804" s="5"/>
       <c r="AE804" s="5"/>
       <c r="AF804" s="5"/>
+      <c r="AG804" s="5"/>
     </row>
     <row r="805" ht="14.25" customHeight="1">
       <c r="A805" s="5"/>
@@ -34356,6 +35230,7 @@
       <c r="AD805" s="5"/>
       <c r="AE805" s="5"/>
       <c r="AF805" s="5"/>
+      <c r="AG805" s="5"/>
     </row>
     <row r="806" ht="14.25" customHeight="1">
       <c r="A806" s="5"/>
@@ -34390,6 +35265,7 @@
       <c r="AD806" s="5"/>
       <c r="AE806" s="5"/>
       <c r="AF806" s="5"/>
+      <c r="AG806" s="5"/>
     </row>
     <row r="807" ht="14.25" customHeight="1">
       <c r="A807" s="5"/>
@@ -34424,6 +35300,7 @@
       <c r="AD807" s="5"/>
       <c r="AE807" s="5"/>
       <c r="AF807" s="5"/>
+      <c r="AG807" s="5"/>
     </row>
     <row r="808" ht="14.25" customHeight="1">
       <c r="A808" s="5"/>
@@ -34458,6 +35335,7 @@
       <c r="AD808" s="5"/>
       <c r="AE808" s="5"/>
       <c r="AF808" s="5"/>
+      <c r="AG808" s="5"/>
     </row>
     <row r="809" ht="14.25" customHeight="1">
       <c r="A809" s="5"/>
@@ -34492,6 +35370,7 @@
       <c r="AD809" s="5"/>
       <c r="AE809" s="5"/>
       <c r="AF809" s="5"/>
+      <c r="AG809" s="5"/>
     </row>
     <row r="810" ht="14.25" customHeight="1">
       <c r="A810" s="5"/>
@@ -34526,6 +35405,7 @@
       <c r="AD810" s="5"/>
       <c r="AE810" s="5"/>
       <c r="AF810" s="5"/>
+      <c r="AG810" s="5"/>
     </row>
     <row r="811" ht="14.25" customHeight="1">
       <c r="A811" s="5"/>
@@ -34560,6 +35440,7 @@
       <c r="AD811" s="5"/>
       <c r="AE811" s="5"/>
       <c r="AF811" s="5"/>
+      <c r="AG811" s="5"/>
     </row>
     <row r="812" ht="14.25" customHeight="1">
       <c r="A812" s="5"/>
@@ -34594,6 +35475,7 @@
       <c r="AD812" s="5"/>
       <c r="AE812" s="5"/>
       <c r="AF812" s="5"/>
+      <c r="AG812" s="5"/>
     </row>
     <row r="813" ht="14.25" customHeight="1">
       <c r="A813" s="5"/>
@@ -34628,6 +35510,7 @@
       <c r="AD813" s="5"/>
       <c r="AE813" s="5"/>
       <c r="AF813" s="5"/>
+      <c r="AG813" s="5"/>
     </row>
     <row r="814" ht="14.25" customHeight="1">
       <c r="A814" s="5"/>
@@ -34662,6 +35545,7 @@
       <c r="AD814" s="5"/>
       <c r="AE814" s="5"/>
       <c r="AF814" s="5"/>
+      <c r="AG814" s="5"/>
     </row>
     <row r="815" ht="14.25" customHeight="1">
       <c r="A815" s="5"/>
@@ -34696,6 +35580,7 @@
       <c r="AD815" s="5"/>
       <c r="AE815" s="5"/>
       <c r="AF815" s="5"/>
+      <c r="AG815" s="5"/>
     </row>
     <row r="816" ht="14.25" customHeight="1">
       <c r="A816" s="5"/>
@@ -34730,6 +35615,7 @@
       <c r="AD816" s="5"/>
       <c r="AE816" s="5"/>
       <c r="AF816" s="5"/>
+      <c r="AG816" s="5"/>
     </row>
     <row r="817" ht="14.25" customHeight="1">
       <c r="A817" s="5"/>
@@ -34764,6 +35650,7 @@
       <c r="AD817" s="5"/>
       <c r="AE817" s="5"/>
       <c r="AF817" s="5"/>
+      <c r="AG817" s="5"/>
     </row>
     <row r="818" ht="14.25" customHeight="1">
       <c r="A818" s="5"/>
@@ -34798,6 +35685,7 @@
       <c r="AD818" s="5"/>
       <c r="AE818" s="5"/>
       <c r="AF818" s="5"/>
+      <c r="AG818" s="5"/>
     </row>
     <row r="819" ht="14.25" customHeight="1">
       <c r="A819" s="5"/>
@@ -34832,6 +35720,7 @@
       <c r="AD819" s="5"/>
       <c r="AE819" s="5"/>
       <c r="AF819" s="5"/>
+      <c r="AG819" s="5"/>
     </row>
     <row r="820" ht="14.25" customHeight="1">
       <c r="A820" s="5"/>
@@ -34866,6 +35755,7 @@
       <c r="AD820" s="5"/>
       <c r="AE820" s="5"/>
       <c r="AF820" s="5"/>
+      <c r="AG820" s="5"/>
     </row>
     <row r="821" ht="14.25" customHeight="1">
       <c r="A821" s="5"/>
@@ -34900,6 +35790,7 @@
       <c r="AD821" s="5"/>
       <c r="AE821" s="5"/>
       <c r="AF821" s="5"/>
+      <c r="AG821" s="5"/>
     </row>
     <row r="822" ht="14.25" customHeight="1">
       <c r="A822" s="5"/>
@@ -34934,6 +35825,7 @@
       <c r="AD822" s="5"/>
       <c r="AE822" s="5"/>
       <c r="AF822" s="5"/>
+      <c r="AG822" s="5"/>
     </row>
     <row r="823" ht="14.25" customHeight="1">
       <c r="A823" s="5"/>
@@ -34968,6 +35860,7 @@
       <c r="AD823" s="5"/>
       <c r="AE823" s="5"/>
       <c r="AF823" s="5"/>
+      <c r="AG823" s="5"/>
     </row>
     <row r="824" ht="14.25" customHeight="1">
       <c r="A824" s="5"/>
@@ -35002,6 +35895,7 @@
       <c r="AD824" s="5"/>
       <c r="AE824" s="5"/>
       <c r="AF824" s="5"/>
+      <c r="AG824" s="5"/>
     </row>
     <row r="825" ht="14.25" customHeight="1">
       <c r="A825" s="5"/>
@@ -35036,6 +35930,7 @@
       <c r="AD825" s="5"/>
       <c r="AE825" s="5"/>
       <c r="AF825" s="5"/>
+      <c r="AG825" s="5"/>
     </row>
     <row r="826" ht="14.25" customHeight="1">
       <c r="A826" s="5"/>
@@ -35070,6 +35965,7 @@
       <c r="AD826" s="5"/>
       <c r="AE826" s="5"/>
       <c r="AF826" s="5"/>
+      <c r="AG826" s="5"/>
     </row>
     <row r="827" ht="14.25" customHeight="1">
       <c r="A827" s="5"/>
@@ -35104,6 +36000,7 @@
       <c r="AD827" s="5"/>
       <c r="AE827" s="5"/>
       <c r="AF827" s="5"/>
+      <c r="AG827" s="5"/>
     </row>
     <row r="828" ht="14.25" customHeight="1">
       <c r="A828" s="5"/>
@@ -35138,6 +36035,7 @@
       <c r="AD828" s="5"/>
       <c r="AE828" s="5"/>
       <c r="AF828" s="5"/>
+      <c r="AG828" s="5"/>
     </row>
     <row r="829" ht="14.25" customHeight="1">
       <c r="A829" s="5"/>
@@ -35172,6 +36070,7 @@
       <c r="AD829" s="5"/>
       <c r="AE829" s="5"/>
       <c r="AF829" s="5"/>
+      <c r="AG829" s="5"/>
     </row>
     <row r="830" ht="14.25" customHeight="1">
       <c r="A830" s="5"/>
@@ -35206,6 +36105,7 @@
       <c r="AD830" s="5"/>
       <c r="AE830" s="5"/>
       <c r="AF830" s="5"/>
+      <c r="AG830" s="5"/>
     </row>
     <row r="831" ht="14.25" customHeight="1">
       <c r="A831" s="5"/>
@@ -35240,6 +36140,7 @@
       <c r="AD831" s="5"/>
       <c r="AE831" s="5"/>
       <c r="AF831" s="5"/>
+      <c r="AG831" s="5"/>
     </row>
     <row r="832" ht="14.25" customHeight="1">
       <c r="A832" s="5"/>
@@ -35274,6 +36175,7 @@
       <c r="AD832" s="5"/>
       <c r="AE832" s="5"/>
       <c r="AF832" s="5"/>
+      <c r="AG832" s="5"/>
     </row>
     <row r="833" ht="14.25" customHeight="1">
       <c r="A833" s="5"/>
@@ -35308,6 +36210,7 @@
       <c r="AD833" s="5"/>
       <c r="AE833" s="5"/>
       <c r="AF833" s="5"/>
+      <c r="AG833" s="5"/>
     </row>
     <row r="834" ht="14.25" customHeight="1">
       <c r="A834" s="5"/>
@@ -35342,6 +36245,7 @@
       <c r="AD834" s="5"/>
       <c r="AE834" s="5"/>
       <c r="AF834" s="5"/>
+      <c r="AG834" s="5"/>
     </row>
     <row r="835" ht="14.25" customHeight="1">
       <c r="A835" s="5"/>
@@ -35376,6 +36280,7 @@
       <c r="AD835" s="5"/>
       <c r="AE835" s="5"/>
       <c r="AF835" s="5"/>
+      <c r="AG835" s="5"/>
     </row>
     <row r="836" ht="14.25" customHeight="1">
       <c r="A836" s="5"/>
@@ -35410,6 +36315,7 @@
       <c r="AD836" s="5"/>
       <c r="AE836" s="5"/>
       <c r="AF836" s="5"/>
+      <c r="AG836" s="5"/>
     </row>
     <row r="837" ht="14.25" customHeight="1">
       <c r="A837" s="5"/>
@@ -35444,6 +36350,7 @@
       <c r="AD837" s="5"/>
       <c r="AE837" s="5"/>
       <c r="AF837" s="5"/>
+      <c r="AG837" s="5"/>
     </row>
     <row r="838" ht="14.25" customHeight="1">
       <c r="A838" s="5"/>
@@ -35478,6 +36385,7 @@
       <c r="AD838" s="5"/>
       <c r="AE838" s="5"/>
       <c r="AF838" s="5"/>
+      <c r="AG838" s="5"/>
     </row>
     <row r="839" ht="14.25" customHeight="1">
       <c r="A839" s="5"/>
@@ -35512,6 +36420,7 @@
       <c r="AD839" s="5"/>
       <c r="AE839" s="5"/>
       <c r="AF839" s="5"/>
+      <c r="AG839" s="5"/>
     </row>
     <row r="840" ht="14.25" customHeight="1">
       <c r="A840" s="5"/>
@@ -35546,6 +36455,7 @@
       <c r="AD840" s="5"/>
       <c r="AE840" s="5"/>
       <c r="AF840" s="5"/>
+      <c r="AG840" s="5"/>
     </row>
     <row r="841" ht="14.25" customHeight="1">
       <c r="A841" s="5"/>
@@ -35580,6 +36490,7 @@
       <c r="AD841" s="5"/>
       <c r="AE841" s="5"/>
       <c r="AF841" s="5"/>
+      <c r="AG841" s="5"/>
     </row>
     <row r="842" ht="14.25" customHeight="1">
       <c r="A842" s="5"/>
@@ -35614,6 +36525,7 @@
       <c r="AD842" s="5"/>
       <c r="AE842" s="5"/>
       <c r="AF842" s="5"/>
+      <c r="AG842" s="5"/>
     </row>
     <row r="843" ht="14.25" customHeight="1">
       <c r="A843" s="5"/>
@@ -35648,6 +36560,7 @@
       <c r="AD843" s="5"/>
       <c r="AE843" s="5"/>
       <c r="AF843" s="5"/>
+      <c r="AG843" s="5"/>
     </row>
     <row r="844" ht="14.25" customHeight="1">
       <c r="A844" s="5"/>
@@ -35682,6 +36595,7 @@
       <c r="AD844" s="5"/>
       <c r="AE844" s="5"/>
       <c r="AF844" s="5"/>
+      <c r="AG844" s="5"/>
     </row>
     <row r="845" ht="14.25" customHeight="1">
       <c r="A845" s="5"/>
@@ -35716,6 +36630,7 @@
       <c r="AD845" s="5"/>
       <c r="AE845" s="5"/>
       <c r="AF845" s="5"/>
+      <c r="AG845" s="5"/>
     </row>
     <row r="846" ht="14.25" customHeight="1">
       <c r="A846" s="5"/>
@@ -35750,6 +36665,7 @@
       <c r="AD846" s="5"/>
       <c r="AE846" s="5"/>
       <c r="AF846" s="5"/>
+      <c r="AG846" s="5"/>
     </row>
     <row r="847" ht="14.25" customHeight="1">
       <c r="A847" s="5"/>
@@ -35784,6 +36700,7 @@
       <c r="AD847" s="5"/>
       <c r="AE847" s="5"/>
       <c r="AF847" s="5"/>
+      <c r="AG847" s="5"/>
     </row>
     <row r="848" ht="14.25" customHeight="1">
       <c r="A848" s="5"/>
@@ -35818,6 +36735,7 @@
       <c r="AD848" s="5"/>
       <c r="AE848" s="5"/>
       <c r="AF848" s="5"/>
+      <c r="AG848" s="5"/>
     </row>
     <row r="849" ht="14.25" customHeight="1">
       <c r="A849" s="5"/>
@@ -35852,6 +36770,7 @@
       <c r="AD849" s="5"/>
       <c r="AE849" s="5"/>
       <c r="AF849" s="5"/>
+      <c r="AG849" s="5"/>
     </row>
     <row r="850" ht="14.25" customHeight="1">
       <c r="A850" s="5"/>
@@ -35886,6 +36805,7 @@
       <c r="AD850" s="5"/>
       <c r="AE850" s="5"/>
       <c r="AF850" s="5"/>
+      <c r="AG850" s="5"/>
     </row>
     <row r="851" ht="14.25" customHeight="1">
       <c r="A851" s="5"/>
@@ -35920,6 +36840,7 @@
       <c r="AD851" s="5"/>
       <c r="AE851" s="5"/>
       <c r="AF851" s="5"/>
+      <c r="AG851" s="5"/>
     </row>
     <row r="852" ht="14.25" customHeight="1">
       <c r="A852" s="5"/>
@@ -35954,6 +36875,7 @@
       <c r="AD852" s="5"/>
       <c r="AE852" s="5"/>
       <c r="AF852" s="5"/>
+      <c r="AG852" s="5"/>
     </row>
     <row r="853" ht="14.25" customHeight="1">
       <c r="A853" s="5"/>
@@ -35988,6 +36910,7 @@
       <c r="AD853" s="5"/>
       <c r="AE853" s="5"/>
       <c r="AF853" s="5"/>
+      <c r="AG853" s="5"/>
     </row>
     <row r="854" ht="14.25" customHeight="1">
       <c r="A854" s="5"/>
@@ -36022,6 +36945,7 @@
       <c r="AD854" s="5"/>
       <c r="AE854" s="5"/>
       <c r="AF854" s="5"/>
+      <c r="AG854" s="5"/>
     </row>
     <row r="855" ht="14.25" customHeight="1">
       <c r="A855" s="5"/>
@@ -36056,6 +36980,7 @@
       <c r="AD855" s="5"/>
       <c r="AE855" s="5"/>
       <c r="AF855" s="5"/>
+      <c r="AG855" s="5"/>
     </row>
     <row r="856" ht="14.25" customHeight="1">
       <c r="A856" s="5"/>
@@ -36090,6 +37015,7 @@
       <c r="AD856" s="5"/>
       <c r="AE856" s="5"/>
       <c r="AF856" s="5"/>
+      <c r="AG856" s="5"/>
     </row>
     <row r="857" ht="14.25" customHeight="1">
       <c r="A857" s="5"/>
@@ -36124,6 +37050,7 @@
       <c r="AD857" s="5"/>
       <c r="AE857" s="5"/>
       <c r="AF857" s="5"/>
+      <c r="AG857" s="5"/>
     </row>
     <row r="858" ht="14.25" customHeight="1">
       <c r="A858" s="5"/>
@@ -36158,6 +37085,7 @@
       <c r="AD858" s="5"/>
       <c r="AE858" s="5"/>
       <c r="AF858" s="5"/>
+      <c r="AG858" s="5"/>
     </row>
     <row r="859" ht="14.25" customHeight="1">
       <c r="A859" s="5"/>
@@ -36192,6 +37120,7 @@
       <c r="AD859" s="5"/>
       <c r="AE859" s="5"/>
       <c r="AF859" s="5"/>
+      <c r="AG859" s="5"/>
     </row>
     <row r="860" ht="14.25" customHeight="1">
       <c r="A860" s="5"/>
@@ -36226,6 +37155,7 @@
       <c r="AD860" s="5"/>
       <c r="AE860" s="5"/>
       <c r="AF860" s="5"/>
+      <c r="AG860" s="5"/>
     </row>
     <row r="861" ht="14.25" customHeight="1">
       <c r="A861" s="5"/>
@@ -36260,6 +37190,7 @@
       <c r="AD861" s="5"/>
       <c r="AE861" s="5"/>
       <c r="AF861" s="5"/>
+      <c r="AG861" s="5"/>
     </row>
     <row r="862" ht="14.25" customHeight="1">
       <c r="A862" s="5"/>
@@ -36294,6 +37225,7 @@
       <c r="AD862" s="5"/>
       <c r="AE862" s="5"/>
       <c r="AF862" s="5"/>
+      <c r="AG862" s="5"/>
     </row>
     <row r="863" ht="14.25" customHeight="1">
       <c r="A863" s="5"/>
@@ -36328,6 +37260,7 @@
       <c r="AD863" s="5"/>
       <c r="AE863" s="5"/>
       <c r="AF863" s="5"/>
+      <c r="AG863" s="5"/>
     </row>
     <row r="864" ht="14.25" customHeight="1">
       <c r="A864" s="5"/>
@@ -36362,6 +37295,7 @@
       <c r="AD864" s="5"/>
       <c r="AE864" s="5"/>
       <c r="AF864" s="5"/>
+      <c r="AG864" s="5"/>
     </row>
     <row r="865" ht="14.25" customHeight="1">
       <c r="A865" s="5"/>
@@ -36396,6 +37330,7 @@
       <c r="AD865" s="5"/>
       <c r="AE865" s="5"/>
       <c r="AF865" s="5"/>
+      <c r="AG865" s="5"/>
     </row>
     <row r="866" ht="14.25" customHeight="1">
       <c r="A866" s="5"/>
@@ -36430,6 +37365,7 @@
       <c r="AD866" s="5"/>
       <c r="AE866" s="5"/>
       <c r="AF866" s="5"/>
+      <c r="AG866" s="5"/>
     </row>
     <row r="867" ht="14.25" customHeight="1">
       <c r="A867" s="5"/>
@@ -36464,6 +37400,7 @@
       <c r="AD867" s="5"/>
       <c r="AE867" s="5"/>
       <c r="AF867" s="5"/>
+      <c r="AG867" s="5"/>
     </row>
     <row r="868" ht="14.25" customHeight="1">
       <c r="A868" s="5"/>
@@ -36498,6 +37435,7 @@
       <c r="AD868" s="5"/>
       <c r="AE868" s="5"/>
       <c r="AF868" s="5"/>
+      <c r="AG868" s="5"/>
     </row>
     <row r="869" ht="14.25" customHeight="1">
       <c r="A869" s="5"/>
@@ -36532,6 +37470,7 @@
       <c r="AD869" s="5"/>
       <c r="AE869" s="5"/>
       <c r="AF869" s="5"/>
+      <c r="AG869" s="5"/>
     </row>
     <row r="870" ht="14.25" customHeight="1">
       <c r="A870" s="5"/>
@@ -36566,6 +37505,7 @@
       <c r="AD870" s="5"/>
       <c r="AE870" s="5"/>
       <c r="AF870" s="5"/>
+      <c r="AG870" s="5"/>
     </row>
     <row r="871" ht="14.25" customHeight="1">
       <c r="A871" s="5"/>
@@ -36600,6 +37540,7 @@
       <c r="AD871" s="5"/>
       <c r="AE871" s="5"/>
       <c r="AF871" s="5"/>
+      <c r="AG871" s="5"/>
     </row>
     <row r="872" ht="14.25" customHeight="1">
       <c r="A872" s="5"/>
@@ -36634,6 +37575,7 @@
       <c r="AD872" s="5"/>
       <c r="AE872" s="5"/>
       <c r="AF872" s="5"/>
+      <c r="AG872" s="5"/>
     </row>
     <row r="873" ht="14.25" customHeight="1">
       <c r="A873" s="5"/>
@@ -36668,6 +37610,7 @@
       <c r="AD873" s="5"/>
       <c r="AE873" s="5"/>
       <c r="AF873" s="5"/>
+      <c r="AG873" s="5"/>
     </row>
     <row r="874" ht="14.25" customHeight="1">
       <c r="A874" s="5"/>
@@ -36702,6 +37645,7 @@
       <c r="AD874" s="5"/>
       <c r="AE874" s="5"/>
       <c r="AF874" s="5"/>
+      <c r="AG874" s="5"/>
     </row>
     <row r="875" ht="14.25" customHeight="1">
       <c r="A875" s="5"/>
@@ -36736,6 +37680,7 @@
       <c r="AD875" s="5"/>
       <c r="AE875" s="5"/>
       <c r="AF875" s="5"/>
+      <c r="AG875" s="5"/>
     </row>
     <row r="876" ht="14.25" customHeight="1">
       <c r="A876" s="5"/>
@@ -36770,6 +37715,7 @@
       <c r="AD876" s="5"/>
       <c r="AE876" s="5"/>
       <c r="AF876" s="5"/>
+      <c r="AG876" s="5"/>
     </row>
     <row r="877" ht="14.25" customHeight="1">
       <c r="A877" s="5"/>
@@ -36804,6 +37750,7 @@
       <c r="AD877" s="5"/>
       <c r="AE877" s="5"/>
       <c r="AF877" s="5"/>
+      <c r="AG877" s="5"/>
     </row>
     <row r="878" ht="14.25" customHeight="1">
       <c r="A878" s="5"/>
@@ -36838,6 +37785,7 @@
       <c r="AD878" s="5"/>
       <c r="AE878" s="5"/>
       <c r="AF878" s="5"/>
+      <c r="AG878" s="5"/>
     </row>
     <row r="879" ht="14.25" customHeight="1">
       <c r="A879" s="5"/>
@@ -36872,6 +37820,7 @@
       <c r="AD879" s="5"/>
       <c r="AE879" s="5"/>
       <c r="AF879" s="5"/>
+      <c r="AG879" s="5"/>
     </row>
     <row r="880" ht="14.25" customHeight="1">
       <c r="A880" s="5"/>
@@ -36906,6 +37855,7 @@
       <c r="AD880" s="5"/>
       <c r="AE880" s="5"/>
       <c r="AF880" s="5"/>
+      <c r="AG880" s="5"/>
     </row>
     <row r="881" ht="14.25" customHeight="1">
       <c r="A881" s="5"/>
@@ -36940,6 +37890,7 @@
       <c r="AD881" s="5"/>
       <c r="AE881" s="5"/>
       <c r="AF881" s="5"/>
+      <c r="AG881" s="5"/>
     </row>
     <row r="882" ht="14.25" customHeight="1">
       <c r="A882" s="5"/>
@@ -36974,6 +37925,7 @@
       <c r="AD882" s="5"/>
       <c r="AE882" s="5"/>
       <c r="AF882" s="5"/>
+      <c r="AG882" s="5"/>
     </row>
     <row r="883" ht="14.25" customHeight="1">
       <c r="A883" s="5"/>
@@ -37008,6 +37960,7 @@
       <c r="AD883" s="5"/>
       <c r="AE883" s="5"/>
       <c r="AF883" s="5"/>
+      <c r="AG883" s="5"/>
     </row>
     <row r="884" ht="14.25" customHeight="1">
       <c r="A884" s="5"/>
@@ -37042,6 +37995,7 @@
       <c r="AD884" s="5"/>
       <c r="AE884" s="5"/>
       <c r="AF884" s="5"/>
+      <c r="AG884" s="5"/>
     </row>
     <row r="885" ht="14.25" customHeight="1">
       <c r="A885" s="5"/>
@@ -37076,6 +38030,7 @@
       <c r="AD885" s="5"/>
       <c r="AE885" s="5"/>
       <c r="AF885" s="5"/>
+      <c r="AG885" s="5"/>
     </row>
     <row r="886" ht="14.25" customHeight="1">
       <c r="A886" s="5"/>
@@ -37110,6 +38065,7 @@
       <c r="AD886" s="5"/>
       <c r="AE886" s="5"/>
       <c r="AF886" s="5"/>
+      <c r="AG886" s="5"/>
     </row>
     <row r="887" ht="14.25" customHeight="1">
       <c r="A887" s="5"/>
@@ -37144,6 +38100,7 @@
       <c r="AD887" s="5"/>
       <c r="AE887" s="5"/>
       <c r="AF887" s="5"/>
+      <c r="AG887" s="5"/>
     </row>
     <row r="888" ht="14.25" customHeight="1">
       <c r="A888" s="5"/>
@@ -37178,6 +38135,7 @@
       <c r="AD888" s="5"/>
       <c r="AE888" s="5"/>
       <c r="AF888" s="5"/>
+      <c r="AG888" s="5"/>
     </row>
     <row r="889" ht="14.25" customHeight="1">
       <c r="A889" s="5"/>
@@ -37212,6 +38170,7 @@
       <c r="AD889" s="5"/>
       <c r="AE889" s="5"/>
       <c r="AF889" s="5"/>
+      <c r="AG889" s="5"/>
     </row>
     <row r="890" ht="14.25" customHeight="1">
       <c r="A890" s="5"/>
@@ -37246,6 +38205,7 @@
       <c r="AD890" s="5"/>
       <c r="AE890" s="5"/>
       <c r="AF890" s="5"/>
+      <c r="AG890" s="5"/>
     </row>
     <row r="891" ht="14.25" customHeight="1">
       <c r="A891" s="5"/>
@@ -37280,6 +38240,7 @@
       <c r="AD891" s="5"/>
       <c r="AE891" s="5"/>
       <c r="AF891" s="5"/>
+      <c r="AG891" s="5"/>
     </row>
     <row r="892" ht="14.25" customHeight="1">
       <c r="A892" s="5"/>
@@ -37314,6 +38275,7 @@
       <c r="AD892" s="5"/>
       <c r="AE892" s="5"/>
       <c r="AF892" s="5"/>
+      <c r="AG892" s="5"/>
     </row>
     <row r="893" ht="14.25" customHeight="1">
       <c r="A893" s="5"/>
@@ -37348,6 +38310,7 @@
       <c r="AD893" s="5"/>
       <c r="AE893" s="5"/>
       <c r="AF893" s="5"/>
+      <c r="AG893" s="5"/>
     </row>
     <row r="894" ht="14.25" customHeight="1">
       <c r="A894" s="5"/>
@@ -37382,6 +38345,7 @@
       <c r="AD894" s="5"/>
       <c r="AE894" s="5"/>
       <c r="AF894" s="5"/>
+      <c r="AG894" s="5"/>
     </row>
     <row r="895" ht="14.25" customHeight="1">
       <c r="A895" s="5"/>
@@ -37416,6 +38380,7 @@
       <c r="AD895" s="5"/>
       <c r="AE895" s="5"/>
       <c r="AF895" s="5"/>
+      <c r="AG895" s="5"/>
     </row>
     <row r="896" ht="14.25" customHeight="1">
       <c r="A896" s="5"/>
@@ -37450,6 +38415,7 @@
       <c r="AD896" s="5"/>
       <c r="AE896" s="5"/>
       <c r="AF896" s="5"/>
+      <c r="AG896" s="5"/>
     </row>
     <row r="897" ht="14.25" customHeight="1">
       <c r="A897" s="5"/>
@@ -37484,6 +38450,7 @@
       <c r="AD897" s="5"/>
       <c r="AE897" s="5"/>
       <c r="AF897" s="5"/>
+      <c r="AG897" s="5"/>
     </row>
     <row r="898" ht="14.25" customHeight="1">
       <c r="A898" s="5"/>
@@ -37518,6 +38485,7 @@
       <c r="AD898" s="5"/>
       <c r="AE898" s="5"/>
       <c r="AF898" s="5"/>
+      <c r="AG898" s="5"/>
     </row>
     <row r="899" ht="14.25" customHeight="1">
       <c r="A899" s="5"/>
@@ -37552,6 +38520,7 @@
       <c r="AD899" s="5"/>
       <c r="AE899" s="5"/>
       <c r="AF899" s="5"/>
+      <c r="AG899" s="5"/>
     </row>
     <row r="900" ht="14.25" customHeight="1">
       <c r="A900" s="5"/>
@@ -37586,6 +38555,7 @@
       <c r="AD900" s="5"/>
       <c r="AE900" s="5"/>
       <c r="AF900" s="5"/>
+      <c r="AG900" s="5"/>
     </row>
     <row r="901" ht="14.25" customHeight="1">
       <c r="A901" s="5"/>
@@ -37620,6 +38590,7 @@
       <c r="AD901" s="5"/>
       <c r="AE901" s="5"/>
       <c r="AF901" s="5"/>
+      <c r="AG901" s="5"/>
     </row>
     <row r="902" ht="14.25" customHeight="1">
       <c r="A902" s="5"/>
@@ -37654,6 +38625,7 @@
       <c r="AD902" s="5"/>
       <c r="AE902" s="5"/>
       <c r="AF902" s="5"/>
+      <c r="AG902" s="5"/>
     </row>
     <row r="903" ht="14.25" customHeight="1">
       <c r="A903" s="5"/>
@@ -37688,6 +38660,7 @@
       <c r="AD903" s="5"/>
       <c r="AE903" s="5"/>
       <c r="AF903" s="5"/>
+      <c r="AG903" s="5"/>
     </row>
     <row r="904" ht="14.25" customHeight="1">
       <c r="A904" s="5"/>
@@ -37722,6 +38695,7 @@
       <c r="AD904" s="5"/>
       <c r="AE904" s="5"/>
       <c r="AF904" s="5"/>
+      <c r="AG904" s="5"/>
     </row>
     <row r="905" ht="14.25" customHeight="1">
       <c r="A905" s="5"/>
@@ -37756,6 +38730,7 @@
       <c r="AD905" s="5"/>
       <c r="AE905" s="5"/>
       <c r="AF905" s="5"/>
+      <c r="AG905" s="5"/>
     </row>
     <row r="906" ht="14.25" customHeight="1">
       <c r="A906" s="5"/>
@@ -37790,6 +38765,7 @@
       <c r="AD906" s="5"/>
       <c r="AE906" s="5"/>
       <c r="AF906" s="5"/>
+      <c r="AG906" s="5"/>
     </row>
     <row r="907" ht="14.25" customHeight="1">
       <c r="A907" s="5"/>
@@ -37824,6 +38800,7 @@
       <c r="AD907" s="5"/>
       <c r="AE907" s="5"/>
       <c r="AF907" s="5"/>
+      <c r="AG907" s="5"/>
     </row>
     <row r="908" ht="14.25" customHeight="1">
       <c r="A908" s="5"/>
@@ -37858,6 +38835,7 @@
       <c r="AD908" s="5"/>
       <c r="AE908" s="5"/>
       <c r="AF908" s="5"/>
+      <c r="AG908" s="5"/>
     </row>
     <row r="909" ht="14.25" customHeight="1">
       <c r="A909" s="5"/>
@@ -37892,6 +38870,7 @@
       <c r="AD909" s="5"/>
       <c r="AE909" s="5"/>
       <c r="AF909" s="5"/>
+      <c r="AG909" s="5"/>
     </row>
     <row r="910" ht="14.25" customHeight="1">
       <c r="A910" s="5"/>
@@ -37926,6 +38905,7 @@
       <c r="AD910" s="5"/>
       <c r="AE910" s="5"/>
       <c r="AF910" s="5"/>
+      <c r="AG910" s="5"/>
     </row>
     <row r="911" ht="14.25" customHeight="1">
       <c r="A911" s="5"/>
@@ -37960,6 +38940,7 @@
       <c r="AD911" s="5"/>
       <c r="AE911" s="5"/>
       <c r="AF911" s="5"/>
+      <c r="AG911" s="5"/>
     </row>
     <row r="912" ht="14.25" customHeight="1">
       <c r="A912" s="5"/>
@@ -37994,6 +38975,7 @@
       <c r="AD912" s="5"/>
       <c r="AE912" s="5"/>
       <c r="AF912" s="5"/>
+      <c r="AG912" s="5"/>
     </row>
     <row r="913" ht="14.25" customHeight="1">
       <c r="A913" s="5"/>
@@ -38028,6 +39010,7 @@
       <c r="AD913" s="5"/>
       <c r="AE913" s="5"/>
       <c r="AF913" s="5"/>
+      <c r="AG913" s="5"/>
     </row>
     <row r="914" ht="14.25" customHeight="1">
       <c r="A914" s="5"/>
@@ -38062,6 +39045,7 @@
       <c r="AD914" s="5"/>
       <c r="AE914" s="5"/>
       <c r="AF914" s="5"/>
+      <c r="AG914" s="5"/>
     </row>
     <row r="915" ht="14.25" customHeight="1">
       <c r="A915" s="5"/>
@@ -38096,6 +39080,7 @@
       <c r="AD915" s="5"/>
       <c r="AE915" s="5"/>
       <c r="AF915" s="5"/>
+      <c r="AG915" s="5"/>
     </row>
     <row r="916" ht="14.25" customHeight="1">
       <c r="A916" s="5"/>
@@ -38130,6 +39115,7 @@
       <c r="AD916" s="5"/>
       <c r="AE916" s="5"/>
       <c r="AF916" s="5"/>
+      <c r="AG916" s="5"/>
     </row>
     <row r="917" ht="14.25" customHeight="1">
       <c r="A917" s="5"/>
@@ -38164,6 +39150,7 @@
       <c r="AD917" s="5"/>
       <c r="AE917" s="5"/>
       <c r="AF917" s="5"/>
+      <c r="AG917" s="5"/>
     </row>
     <row r="918" ht="14.25" customHeight="1">
       <c r="A918" s="5"/>
@@ -38198,6 +39185,7 @@
       <c r="AD918" s="5"/>
       <c r="AE918" s="5"/>
       <c r="AF918" s="5"/>
+      <c r="AG918" s="5"/>
     </row>
     <row r="919" ht="14.25" customHeight="1">
       <c r="A919" s="5"/>
@@ -38232,6 +39220,7 @@
       <c r="AD919" s="5"/>
       <c r="AE919" s="5"/>
       <c r="AF919" s="5"/>
+      <c r="AG919" s="5"/>
     </row>
     <row r="920" ht="14.25" customHeight="1">
       <c r="A920" s="5"/>
@@ -38266,6 +39255,7 @@
       <c r="AD920" s="5"/>
       <c r="AE920" s="5"/>
       <c r="AF920" s="5"/>
+      <c r="AG920" s="5"/>
     </row>
     <row r="921" ht="14.25" customHeight="1">
       <c r="A921" s="5"/>
@@ -38300,6 +39290,7 @@
       <c r="AD921" s="5"/>
       <c r="AE921" s="5"/>
       <c r="AF921" s="5"/>
+      <c r="AG921" s="5"/>
     </row>
     <row r="922" ht="14.25" customHeight="1">
       <c r="A922" s="5"/>
@@ -38334,6 +39325,7 @@
       <c r="AD922" s="5"/>
       <c r="AE922" s="5"/>
       <c r="AF922" s="5"/>
+      <c r="AG922" s="5"/>
     </row>
     <row r="923" ht="14.25" customHeight="1">
       <c r="A923" s="5"/>
@@ -38368,6 +39360,7 @@
       <c r="AD923" s="5"/>
       <c r="AE923" s="5"/>
       <c r="AF923" s="5"/>
+      <c r="AG923" s="5"/>
     </row>
     <row r="924" ht="14.25" customHeight="1">
       <c r="A924" s="5"/>
@@ -38402,6 +39395,7 @@
       <c r="AD924" s="5"/>
       <c r="AE924" s="5"/>
       <c r="AF924" s="5"/>
+      <c r="AG924" s="5"/>
     </row>
     <row r="925" ht="14.25" customHeight="1">
       <c r="A925" s="5"/>
@@ -38436,6 +39430,7 @@
       <c r="AD925" s="5"/>
       <c r="AE925" s="5"/>
       <c r="AF925" s="5"/>
+      <c r="AG925" s="5"/>
     </row>
     <row r="926" ht="14.25" customHeight="1">
       <c r="A926" s="5"/>
@@ -38470,6 +39465,7 @@
       <c r="AD926" s="5"/>
       <c r="AE926" s="5"/>
       <c r="AF926" s="5"/>
+      <c r="AG926" s="5"/>
     </row>
     <row r="927" ht="14.25" customHeight="1">
       <c r="A927" s="5"/>
@@ -38504,6 +39500,7 @@
       <c r="AD927" s="5"/>
       <c r="AE927" s="5"/>
       <c r="AF927" s="5"/>
+      <c r="AG927" s="5"/>
     </row>
     <row r="928" ht="14.25" customHeight="1">
       <c r="A928" s="5"/>
@@ -38538,6 +39535,7 @@
       <c r="AD928" s="5"/>
       <c r="AE928" s="5"/>
       <c r="AF928" s="5"/>
+      <c r="AG928" s="5"/>
     </row>
     <row r="929" ht="14.25" customHeight="1">
       <c r="A929" s="5"/>
@@ -38572,6 +39570,7 @@
       <c r="AD929" s="5"/>
       <c r="AE929" s="5"/>
       <c r="AF929" s="5"/>
+      <c r="AG929" s="5"/>
     </row>
     <row r="930" ht="14.25" customHeight="1">
       <c r="A930" s="5"/>
@@ -38606,6 +39605,7 @@
       <c r="AD930" s="5"/>
       <c r="AE930" s="5"/>
       <c r="AF930" s="5"/>
+      <c r="AG930" s="5"/>
     </row>
     <row r="931" ht="14.25" customHeight="1">
       <c r="A931" s="5"/>
@@ -38640,6 +39640,7 @@
       <c r="AD931" s="5"/>
       <c r="AE931" s="5"/>
       <c r="AF931" s="5"/>
+      <c r="AG931" s="5"/>
     </row>
     <row r="932" ht="14.25" customHeight="1">
       <c r="A932" s="5"/>
@@ -38674,6 +39675,7 @@
       <c r="AD932" s="5"/>
       <c r="AE932" s="5"/>
       <c r="AF932" s="5"/>
+      <c r="AG932" s="5"/>
     </row>
     <row r="933" ht="14.25" customHeight="1">
       <c r="A933" s="5"/>
@@ -38708,6 +39710,7 @@
       <c r="AD933" s="5"/>
       <c r="AE933" s="5"/>
       <c r="AF933" s="5"/>
+      <c r="AG933" s="5"/>
     </row>
     <row r="934" ht="14.25" customHeight="1">
       <c r="A934" s="5"/>
@@ -38742,6 +39745,7 @@
       <c r="AD934" s="5"/>
       <c r="AE934" s="5"/>
       <c r="AF934" s="5"/>
+      <c r="AG934" s="5"/>
     </row>
     <row r="935" ht="14.25" customHeight="1">
       <c r="A935" s="5"/>
@@ -38776,6 +39780,7 @@
       <c r="AD935" s="5"/>
       <c r="AE935" s="5"/>
       <c r="AF935" s="5"/>
+      <c r="AG935" s="5"/>
     </row>
     <row r="936" ht="14.25" customHeight="1">
       <c r="A936" s="5"/>
@@ -38810,6 +39815,7 @@
       <c r="AD936" s="5"/>
       <c r="AE936" s="5"/>
       <c r="AF936" s="5"/>
+      <c r="AG936" s="5"/>
     </row>
     <row r="937" ht="14.25" customHeight="1">
       <c r="A937" s="5"/>
@@ -38844,6 +39850,7 @@
       <c r="AD937" s="5"/>
       <c r="AE937" s="5"/>
       <c r="AF937" s="5"/>
+      <c r="AG937" s="5"/>
     </row>
     <row r="938" ht="14.25" customHeight="1">
       <c r="A938" s="5"/>
@@ -38878,6 +39885,7 @@
       <c r="AD938" s="5"/>
       <c r="AE938" s="5"/>
       <c r="AF938" s="5"/>
+      <c r="AG938" s="5"/>
     </row>
     <row r="939" ht="14.25" customHeight="1">
       <c r="A939" s="5"/>
@@ -38912,6 +39920,7 @@
       <c r="AD939" s="5"/>
       <c r="AE939" s="5"/>
       <c r="AF939" s="5"/>
+      <c r="AG939" s="5"/>
     </row>
     <row r="940" ht="14.25" customHeight="1">
       <c r="A940" s="5"/>
@@ -38946,6 +39955,7 @@
       <c r="AD940" s="5"/>
       <c r="AE940" s="5"/>
       <c r="AF940" s="5"/>
+      <c r="AG940" s="5"/>
     </row>
     <row r="941" ht="14.25" customHeight="1">
       <c r="A941" s="5"/>
@@ -38980,6 +39990,7 @@
       <c r="AD941" s="5"/>
       <c r="AE941" s="5"/>
       <c r="AF941" s="5"/>
+      <c r="AG941" s="5"/>
     </row>
     <row r="942" ht="14.25" customHeight="1">
       <c r="A942" s="5"/>
@@ -39014,6 +40025,7 @@
       <c r="AD942" s="5"/>
       <c r="AE942" s="5"/>
       <c r="AF942" s="5"/>
+      <c r="AG942" s="5"/>
     </row>
     <row r="943" ht="14.25" customHeight="1">
       <c r="A943" s="5"/>
@@ -39048,6 +40060,7 @@
       <c r="AD943" s="5"/>
       <c r="AE943" s="5"/>
       <c r="AF943" s="5"/>
+      <c r="AG943" s="5"/>
     </row>
     <row r="944" ht="14.25" customHeight="1">
       <c r="A944" s="5"/>
@@ -39082,6 +40095,7 @@
       <c r="AD944" s="5"/>
       <c r="AE944" s="5"/>
       <c r="AF944" s="5"/>
+      <c r="AG944" s="5"/>
     </row>
     <row r="945" ht="14.25" customHeight="1">
       <c r="A945" s="5"/>
@@ -39116,6 +40130,7 @@
       <c r="AD945" s="5"/>
       <c r="AE945" s="5"/>
       <c r="AF945" s="5"/>
+      <c r="AG945" s="5"/>
     </row>
     <row r="946" ht="14.25" customHeight="1">
       <c r="A946" s="5"/>
@@ -39150,6 +40165,7 @@
       <c r="AD946" s="5"/>
       <c r="AE946" s="5"/>
       <c r="AF946" s="5"/>
+      <c r="AG946" s="5"/>
     </row>
     <row r="947" ht="14.25" customHeight="1">
       <c r="A947" s="5"/>
@@ -39184,6 +40200,7 @@
       <c r="AD947" s="5"/>
       <c r="AE947" s="5"/>
       <c r="AF947" s="5"/>
+      <c r="AG947" s="5"/>
     </row>
     <row r="948" ht="14.25" customHeight="1">
       <c r="A948" s="5"/>
@@ -39218,6 +40235,7 @@
       <c r="AD948" s="5"/>
       <c r="AE948" s="5"/>
       <c r="AF948" s="5"/>
+      <c r="AG948" s="5"/>
     </row>
     <row r="949" ht="14.25" customHeight="1">
       <c r="A949" s="5"/>
@@ -39252,6 +40270,7 @@
       <c r="AD949" s="5"/>
       <c r="AE949" s="5"/>
       <c r="AF949" s="5"/>
+      <c r="AG949" s="5"/>
     </row>
     <row r="950" ht="14.25" customHeight="1">
       <c r="A950" s="5"/>
@@ -39286,6 +40305,7 @@
       <c r="AD950" s="5"/>
       <c r="AE950" s="5"/>
       <c r="AF950" s="5"/>
+      <c r="AG950" s="5"/>
     </row>
     <row r="951" ht="14.25" customHeight="1">
       <c r="A951" s="5"/>
@@ -39320,6 +40340,7 @@
       <c r="AD951" s="5"/>
       <c r="AE951" s="5"/>
       <c r="AF951" s="5"/>
+      <c r="AG951" s="5"/>
     </row>
     <row r="952" ht="14.25" customHeight="1">
       <c r="A952" s="5"/>
@@ -39354,6 +40375,7 @@
       <c r="AD952" s="5"/>
       <c r="AE952" s="5"/>
       <c r="AF952" s="5"/>
+      <c r="AG952" s="5"/>
     </row>
     <row r="953" ht="14.25" customHeight="1">
       <c r="A953" s="5"/>
@@ -39388,6 +40410,7 @@
       <c r="AD953" s="5"/>
       <c r="AE953" s="5"/>
       <c r="AF953" s="5"/>
+      <c r="AG953" s="5"/>
     </row>
     <row r="954" ht="14.25" customHeight="1">
       <c r="A954" s="5"/>
@@ -39422,6 +40445,7 @@
       <c r="AD954" s="5"/>
       <c r="AE954" s="5"/>
       <c r="AF954" s="5"/>
+      <c r="AG954" s="5"/>
     </row>
     <row r="955" ht="14.25" customHeight="1">
       <c r="A955" s="5"/>
@@ -39456,6 +40480,7 @@
       <c r="AD955" s="5"/>
       <c r="AE955" s="5"/>
       <c r="AF955" s="5"/>
+      <c r="AG955" s="5"/>
     </row>
     <row r="956" ht="14.25" customHeight="1">
       <c r="A956" s="5"/>
@@ -39490,6 +40515,7 @@
       <c r="AD956" s="5"/>
       <c r="AE956" s="5"/>
       <c r="AF956" s="5"/>
+      <c r="AG956" s="5"/>
     </row>
     <row r="957" ht="14.25" customHeight="1">
       <c r="A957" s="5"/>
@@ -39524,6 +40550,7 @@
       <c r="AD957" s="5"/>
       <c r="AE957" s="5"/>
       <c r="AF957" s="5"/>
+      <c r="AG957" s="5"/>
     </row>
     <row r="958" ht="14.25" customHeight="1">
       <c r="A958" s="5"/>
@@ -39558,6 +40585,7 @@
       <c r="AD958" s="5"/>
       <c r="AE958" s="5"/>
       <c r="AF958" s="5"/>
+      <c r="AG958" s="5"/>
     </row>
     <row r="959" ht="14.25" customHeight="1">
       <c r="A959" s="5"/>
@@ -39592,6 +40620,7 @@
       <c r="AD959" s="5"/>
       <c r="AE959" s="5"/>
       <c r="AF959" s="5"/>
+      <c r="AG959" s="5"/>
     </row>
     <row r="960" ht="14.25" customHeight="1">
       <c r="A960" s="5"/>
@@ -39626,6 +40655,7 @@
       <c r="AD960" s="5"/>
       <c r="AE960" s="5"/>
       <c r="AF960" s="5"/>
+      <c r="AG960" s="5"/>
     </row>
     <row r="961" ht="14.25" customHeight="1">
       <c r="A961" s="5"/>
@@ -39660,6 +40690,7 @@
       <c r="AD961" s="5"/>
       <c r="AE961" s="5"/>
       <c r="AF961" s="5"/>
+      <c r="AG961" s="5"/>
     </row>
     <row r="962" ht="14.25" customHeight="1">
       <c r="A962" s="5"/>
@@ -39694,6 +40725,7 @@
       <c r="AD962" s="5"/>
       <c r="AE962" s="5"/>
       <c r="AF962" s="5"/>
+      <c r="AG962" s="5"/>
     </row>
     <row r="963" ht="14.25" customHeight="1">
       <c r="A963" s="5"/>
@@ -39728,6 +40760,7 @@
       <c r="AD963" s="5"/>
       <c r="AE963" s="5"/>
       <c r="AF963" s="5"/>
+      <c r="AG963" s="5"/>
     </row>
     <row r="964" ht="14.25" customHeight="1">
       <c r="A964" s="5"/>
@@ -39762,6 +40795,7 @@
       <c r="AD964" s="5"/>
       <c r="AE964" s="5"/>
       <c r="AF964" s="5"/>
+      <c r="AG964" s="5"/>
     </row>
     <row r="965" ht="14.25" customHeight="1">
       <c r="A965" s="5"/>
@@ -39796,6 +40830,7 @@
       <c r="AD965" s="5"/>
       <c r="AE965" s="5"/>
       <c r="AF965" s="5"/>
+      <c r="AG965" s="5"/>
     </row>
     <row r="966" ht="14.25" customHeight="1">
       <c r="A966" s="5"/>
@@ -39830,6 +40865,7 @@
       <c r="AD966" s="5"/>
       <c r="AE966" s="5"/>
       <c r="AF966" s="5"/>
+      <c r="AG966" s="5"/>
     </row>
     <row r="967" ht="14.25" customHeight="1">
       <c r="A967" s="5"/>
@@ -39864,6 +40900,7 @@
       <c r="AD967" s="5"/>
       <c r="AE967" s="5"/>
       <c r="AF967" s="5"/>
+      <c r="AG967" s="5"/>
     </row>
     <row r="968" ht="14.25" customHeight="1">
       <c r="A968" s="5"/>
@@ -39898,6 +40935,7 @@
       <c r="AD968" s="5"/>
       <c r="AE968" s="5"/>
       <c r="AF968" s="5"/>
+      <c r="AG968" s="5"/>
     </row>
     <row r="969" ht="14.25" customHeight="1">
       <c r="A969" s="5"/>
@@ -39932,6 +40970,7 @@
       <c r="AD969" s="5"/>
       <c r="AE969" s="5"/>
       <c r="AF969" s="5"/>
+      <c r="AG969" s="5"/>
     </row>
     <row r="970" ht="14.25" customHeight="1">
       <c r="A970" s="5"/>
@@ -39966,6 +41005,7 @@
       <c r="AD970" s="5"/>
       <c r="AE970" s="5"/>
       <c r="AF970" s="5"/>
+      <c r="AG970" s="5"/>
     </row>
     <row r="971" ht="14.25" customHeight="1">
       <c r="A971" s="5"/>
@@ -40000,6 +41040,7 @@
       <c r="AD971" s="5"/>
       <c r="AE971" s="5"/>
       <c r="AF971" s="5"/>
+      <c r="AG971" s="5"/>
     </row>
     <row r="972" ht="14.25" customHeight="1">
       <c r="A972" s="5"/>
@@ -40034,6 +41075,7 @@
       <c r="AD972" s="5"/>
       <c r="AE972" s="5"/>
       <c r="AF972" s="5"/>
+      <c r="AG972" s="5"/>
     </row>
     <row r="973" ht="14.25" customHeight="1">
       <c r="A973" s="5"/>
@@ -40068,6 +41110,7 @@
       <c r="AD973" s="5"/>
       <c r="AE973" s="5"/>
       <c r="AF973" s="5"/>
+      <c r="AG973" s="5"/>
     </row>
     <row r="974" ht="14.25" customHeight="1">
       <c r="A974" s="5"/>
@@ -40102,6 +41145,7 @@
       <c r="AD974" s="5"/>
       <c r="AE974" s="5"/>
       <c r="AF974" s="5"/>
+      <c r="AG974" s="5"/>
     </row>
     <row r="975" ht="14.25" customHeight="1">
       <c r="A975" s="5"/>
@@ -40136,6 +41180,7 @@
       <c r="AD975" s="5"/>
       <c r="AE975" s="5"/>
       <c r="AF975" s="5"/>
+      <c r="AG975" s="5"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
       <c r="A976" s="5"/>
@@ -40170,6 +41215,7 @@
       <c r="AD976" s="5"/>
       <c r="AE976" s="5"/>
       <c r="AF976" s="5"/>
+      <c r="AG976" s="5"/>
     </row>
     <row r="977" ht="14.25" customHeight="1">
       <c r="A977" s="5"/>
@@ -40204,6 +41250,7 @@
       <c r="AD977" s="5"/>
       <c r="AE977" s="5"/>
       <c r="AF977" s="5"/>
+      <c r="AG977" s="5"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
       <c r="A978" s="5"/>
@@ -40238,6 +41285,7 @@
       <c r="AD978" s="5"/>
       <c r="AE978" s="5"/>
       <c r="AF978" s="5"/>
+      <c r="AG978" s="5"/>
     </row>
     <row r="979" ht="14.25" customHeight="1">
       <c r="A979" s="5"/>
@@ -40272,6 +41320,7 @@
       <c r="AD979" s="5"/>
       <c r="AE979" s="5"/>
       <c r="AF979" s="5"/>
+      <c r="AG979" s="5"/>
     </row>
     <row r="980" ht="14.25" customHeight="1">
       <c r="A980" s="5"/>
@@ -40306,6 +41355,7 @@
       <c r="AD980" s="5"/>
       <c r="AE980" s="5"/>
       <c r="AF980" s="5"/>
+      <c r="AG980" s="5"/>
     </row>
     <row r="981" ht="14.25" customHeight="1">
       <c r="A981" s="5"/>
@@ -40340,6 +41390,7 @@
       <c r="AD981" s="5"/>
       <c r="AE981" s="5"/>
       <c r="AF981" s="5"/>
+      <c r="AG981" s="5"/>
     </row>
     <row r="982" ht="14.25" customHeight="1">
       <c r="A982" s="5"/>
@@ -40374,6 +41425,7 @@
       <c r="AD982" s="5"/>
       <c r="AE982" s="5"/>
       <c r="AF982" s="5"/>
+      <c r="AG982" s="5"/>
     </row>
     <row r="983" ht="14.25" customHeight="1">
       <c r="A983" s="5"/>
@@ -40408,6 +41460,7 @@
       <c r="AD983" s="5"/>
       <c r="AE983" s="5"/>
       <c r="AF983" s="5"/>
+      <c r="AG983" s="5"/>
     </row>
     <row r="984" ht="14.25" customHeight="1">
       <c r="A984" s="5"/>
@@ -40442,6 +41495,7 @@
       <c r="AD984" s="5"/>
       <c r="AE984" s="5"/>
       <c r="AF984" s="5"/>
+      <c r="AG984" s="5"/>
     </row>
     <row r="985" ht="14.25" customHeight="1">
       <c r="A985" s="5"/>
@@ -40476,6 +41530,7 @@
       <c r="AD985" s="5"/>
       <c r="AE985" s="5"/>
       <c r="AF985" s="5"/>
+      <c r="AG985" s="5"/>
     </row>
     <row r="986" ht="14.25" customHeight="1">
       <c r="A986" s="5"/>
@@ -40510,6 +41565,7 @@
       <c r="AD986" s="5"/>
       <c r="AE986" s="5"/>
       <c r="AF986" s="5"/>
+      <c r="AG986" s="5"/>
     </row>
     <row r="987" ht="14.25" customHeight="1">
       <c r="A987" s="5"/>
@@ -40544,6 +41600,7 @@
       <c r="AD987" s="5"/>
       <c r="AE987" s="5"/>
       <c r="AF987" s="5"/>
+      <c r="AG987" s="5"/>
     </row>
     <row r="988" ht="14.25" customHeight="1">
       <c r="A988" s="5"/>
@@ -40578,6 +41635,7 @@
       <c r="AD988" s="5"/>
       <c r="AE988" s="5"/>
       <c r="AF988" s="5"/>
+      <c r="AG988" s="5"/>
     </row>
     <row r="989" ht="14.25" customHeight="1">
       <c r="A989" s="5"/>
@@ -40612,6 +41670,7 @@
       <c r="AD989" s="5"/>
       <c r="AE989" s="5"/>
       <c r="AF989" s="5"/>
+      <c r="AG989" s="5"/>
     </row>
     <row r="990" ht="14.25" customHeight="1">
       <c r="A990" s="5"/>
@@ -40646,6 +41705,7 @@
       <c r="AD990" s="5"/>
       <c r="AE990" s="5"/>
       <c r="AF990" s="5"/>
+      <c r="AG990" s="5"/>
     </row>
     <row r="991" ht="14.25" customHeight="1">
       <c r="A991" s="5"/>
@@ -40680,6 +41740,7 @@
       <c r="AD991" s="5"/>
       <c r="AE991" s="5"/>
       <c r="AF991" s="5"/>
+      <c r="AG991" s="5"/>
     </row>
     <row r="992" ht="14.25" customHeight="1">
       <c r="A992" s="5"/>
@@ -40714,6 +41775,7 @@
       <c r="AD992" s="5"/>
       <c r="AE992" s="5"/>
       <c r="AF992" s="5"/>
+      <c r="AG992" s="5"/>
     </row>
     <row r="993" ht="14.25" customHeight="1">
       <c r="A993" s="5"/>
@@ -40748,6 +41810,7 @@
       <c r="AD993" s="5"/>
       <c r="AE993" s="5"/>
       <c r="AF993" s="5"/>
+      <c r="AG993" s="5"/>
     </row>
     <row r="994" ht="14.25" customHeight="1">
       <c r="A994" s="5"/>
@@ -40782,6 +41845,7 @@
       <c r="AD994" s="5"/>
       <c r="AE994" s="5"/>
       <c r="AF994" s="5"/>
+      <c r="AG994" s="5"/>
     </row>
     <row r="995" ht="14.25" customHeight="1">
       <c r="A995" s="5"/>
@@ -40816,6 +41880,7 @@
       <c r="AD995" s="5"/>
       <c r="AE995" s="5"/>
       <c r="AF995" s="5"/>
+      <c r="AG995" s="5"/>
     </row>
     <row r="996" ht="14.25" customHeight="1">
       <c r="A996" s="5"/>
@@ -40850,6 +41915,7 @@
       <c r="AD996" s="5"/>
       <c r="AE996" s="5"/>
       <c r="AF996" s="5"/>
+      <c r="AG996" s="5"/>
     </row>
     <row r="997" ht="14.25" customHeight="1">
       <c r="A997" s="5"/>
@@ -40884,6 +41950,7 @@
       <c r="AD997" s="5"/>
       <c r="AE997" s="5"/>
       <c r="AF997" s="5"/>
+      <c r="AG997" s="5"/>
     </row>
     <row r="998" ht="14.25" customHeight="1">
       <c r="A998" s="5"/>
@@ -40918,6 +41985,7 @@
       <c r="AD998" s="5"/>
       <c r="AE998" s="5"/>
       <c r="AF998" s="5"/>
+      <c r="AG998" s="5"/>
     </row>
     <row r="999" ht="14.25" customHeight="1">
       <c r="A999" s="5"/>
@@ -40952,6 +42020,7 @@
       <c r="AD999" s="5"/>
       <c r="AE999" s="5"/>
       <c r="AF999" s="5"/>
+      <c r="AG999" s="5"/>
     </row>
     <row r="1000" ht="14.25" customHeight="1">
       <c r="A1000" s="5"/>
@@ -40986,45 +42055,47 @@
       <c r="AD1000" s="5"/>
       <c r="AE1000" s="5"/>
       <c r="AF1000" s="5"/>
+      <c r="AG1000" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="G3"/>
+    <hyperlink r:id="rId3" ref="H3"/>
     <hyperlink r:id="rId4" ref="B4"/>
     <hyperlink r:id="rId5" ref="B5"/>
     <hyperlink r:id="rId6" ref="C5"/>
     <hyperlink r:id="rId7" ref="D5"/>
-    <hyperlink r:id="rId8" location="scrollTo=QTxoEwZJKynW" ref="H5"/>
-    <hyperlink r:id="rId9" ref="I5"/>
+    <hyperlink r:id="rId8" ref="E5"/>
+    <hyperlink r:id="rId9" location="scrollTo=QTxoEwZJKynW" ref="I5"/>
     <hyperlink r:id="rId10" ref="J5"/>
     <hyperlink r:id="rId11" ref="K5"/>
-    <hyperlink r:id="rId12" ref="I6"/>
+    <hyperlink r:id="rId12" ref="L5"/>
     <hyperlink r:id="rId13" ref="J6"/>
     <hyperlink r:id="rId14" ref="K6"/>
+    <hyperlink r:id="rId15" ref="L6"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>